--- a/AXIS V.K ROAD LINES BANK RTGS DETAILS 25-05-2024.xlsx
+++ b/AXIS V.K ROAD LINES BANK RTGS DETAILS 25-05-2024.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9653" uniqueCount="3821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9751" uniqueCount="3860">
   <si>
     <t>VK ROAD LINES</t>
   </si>
@@ -11437,9 +11437,6 @@
     <t>K-646</t>
   </si>
   <si>
-    <t>SANDEE[ KUMAR VERMA</t>
-  </si>
-  <si>
     <t>10568100006244</t>
   </si>
   <si>
@@ -11464,9 +11461,6 @@
     <t>B-484</t>
   </si>
   <si>
-    <t>RAM KUNWAR TANWAR</t>
-  </si>
-  <si>
     <t>32720100001840</t>
   </si>
   <si>
@@ -11480,6 +11474,129 @@
   </si>
   <si>
     <t>K-640</t>
+  </si>
+  <si>
+    <t>921010041662914</t>
+  </si>
+  <si>
+    <t>K-636</t>
+  </si>
+  <si>
+    <t>K-647</t>
+  </si>
+  <si>
+    <t>KRUNESH PRATAP SINGH</t>
+  </si>
+  <si>
+    <t>50200084766421</t>
+  </si>
+  <si>
+    <t>HDFC0001882</t>
+  </si>
+  <si>
+    <t>PRINCE AND PRINCE CONSTRUCTIONS</t>
+  </si>
+  <si>
+    <t>80610200001403</t>
+  </si>
+  <si>
+    <t>BARB0VJAKBA</t>
+  </si>
+  <si>
+    <t>NANDANI GUPTA</t>
+  </si>
+  <si>
+    <t>50100567834780</t>
+  </si>
+  <si>
+    <t>RAJIT RAM</t>
+  </si>
+  <si>
+    <t>44030100000120</t>
+  </si>
+  <si>
+    <t>VKCPL/24-25/420</t>
+  </si>
+  <si>
+    <t>VKCPL/24-25/419</t>
+  </si>
+  <si>
+    <t>VKCPL/24-25/412</t>
+  </si>
+  <si>
+    <t>VKCPL/24-25/421</t>
+  </si>
+  <si>
+    <t>VKCPL/24-25/422</t>
+  </si>
+  <si>
+    <t>SANDEEP KUMAR VERMA</t>
+  </si>
+  <si>
+    <t>RAM KANWAR TANWAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      10.07.24</t>
+  </si>
+  <si>
+    <t>VK/24-25/155</t>
+  </si>
+  <si>
+    <t>JAMEEL AHMAD</t>
+  </si>
+  <si>
+    <t>920010036499588</t>
+  </si>
+  <si>
+    <t>K-649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIRAN DEVI </t>
+  </si>
+  <si>
+    <t>7682391621</t>
+  </si>
+  <si>
+    <t>IDIB000P686</t>
+  </si>
+  <si>
+    <t>VKCPL/24-25/409</t>
+  </si>
+  <si>
+    <t>VK/24-25/150</t>
+  </si>
+  <si>
+    <t>JAGYASEN SAHU</t>
+  </si>
+  <si>
+    <t>417702010119740</t>
+  </si>
+  <si>
+    <t>VK/24-25/169</t>
+  </si>
+  <si>
+    <t>RAVI RAJ SAHU</t>
+  </si>
+  <si>
+    <t>483402010239022</t>
+  </si>
+  <si>
+    <t>UBIN0548341</t>
+  </si>
+  <si>
+    <t>VK/24-25/152</t>
+  </si>
+  <si>
+    <t>RAJ KUMA GOSWAMI</t>
+  </si>
+  <si>
+    <t>6424000100016789</t>
+  </si>
+  <si>
+    <t>VK/24-25/151</t>
+  </si>
+  <si>
+    <t>VK/24-25/149</t>
   </si>
 </sst>
 </file>
@@ -12118,7 +12235,797 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2947">
+  <dxfs count="3026">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -41865,10 +42772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2365"/>
+  <dimension ref="A1:K2392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2343" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2363" sqref="B2363"/>
+    <sheetView tabSelected="1" topLeftCell="A2365" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G2334" sqref="G2334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -87732,43 +88639,45 @@
         <v>1</v>
       </c>
       <c r="B2351" s="35">
-        <v>14150</v>
+        <v>28450</v>
       </c>
       <c r="C2351" s="16" t="s">
-        <v>3794</v>
+        <v>3724</v>
       </c>
       <c r="D2351" s="41" t="s">
         <v>30</v>
       </c>
       <c r="E2351" s="17" t="s">
-        <v>3795</v>
+        <v>3819</v>
       </c>
       <c r="F2351" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="G2351" s="16"/>
+      <c r="G2351" s="16" t="s">
+        <v>3820</v>
+      </c>
     </row>
     <row r="2352" spans="1:7" ht="23.25">
       <c r="A2352" s="55">
         <v>2</v>
       </c>
       <c r="B2352" s="35">
-        <v>7700</v>
+        <v>14150</v>
       </c>
       <c r="C2352" s="16" t="s">
-        <v>2787</v>
+        <v>3794</v>
       </c>
       <c r="D2352" s="41" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E2352" s="17" t="s">
-        <v>1116</v>
+        <v>3795</v>
       </c>
       <c r="F2352" s="17" t="s">
-        <v>1117</v>
+        <v>59</v>
       </c>
       <c r="G2352" s="16" t="s">
-        <v>3796</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="2353" spans="1:7" ht="23.25">
@@ -87776,22 +88685,22 @@
         <v>3</v>
       </c>
       <c r="B2353" s="35">
-        <v>13300</v>
+        <v>7700</v>
       </c>
       <c r="C2353" s="16" t="s">
-        <v>3797</v>
+        <v>2787</v>
       </c>
       <c r="D2353" s="41" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E2353" s="17" t="s">
-        <v>3798</v>
+        <v>1116</v>
       </c>
       <c r="F2353" s="17" t="s">
-        <v>3765</v>
+        <v>1117</v>
       </c>
       <c r="G2353" s="16" t="s">
-        <v>3799</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="2354" spans="1:7" ht="23.25">
@@ -87799,22 +88708,22 @@
         <v>4</v>
       </c>
       <c r="B2354" s="35">
-        <v>18250</v>
+        <v>13300</v>
       </c>
       <c r="C2354" s="16" t="s">
-        <v>1172</v>
+        <v>3797</v>
       </c>
       <c r="D2354" s="41" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E2354" s="17" t="s">
-        <v>1173</v>
+        <v>3798</v>
       </c>
       <c r="F2354" s="17" t="s">
-        <v>1174</v>
+        <v>3765</v>
       </c>
       <c r="G2354" s="16" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="2355" spans="1:7" ht="23.25">
@@ -87822,22 +88731,22 @@
         <v>5</v>
       </c>
       <c r="B2355" s="35">
-        <v>14250</v>
-      </c>
-      <c r="C2355" s="15" t="s">
-        <v>3801</v>
+        <v>18250</v>
+      </c>
+      <c r="C2355" s="16" t="s">
+        <v>1172</v>
       </c>
       <c r="D2355" s="41" t="s">
         <v>27</v>
       </c>
       <c r="E2355" s="17" t="s">
-        <v>3802</v>
+        <v>1173</v>
       </c>
       <c r="F2355" s="17" t="s">
-        <v>86</v>
+        <v>1174</v>
       </c>
       <c r="G2355" s="16" t="s">
-        <v>3803</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="2356" spans="1:7" ht="23.25">
@@ -87845,22 +88754,22 @@
         <v>6</v>
       </c>
       <c r="B2356" s="35">
-        <v>13300</v>
-      </c>
-      <c r="C2356" s="16" t="s">
-        <v>2787</v>
+        <v>14250</v>
+      </c>
+      <c r="C2356" s="15" t="s">
+        <v>3801</v>
       </c>
       <c r="D2356" s="41" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="E2356" s="17" t="s">
-        <v>3804</v>
+        <v>3802</v>
       </c>
       <c r="F2356" s="17" t="s">
-        <v>932</v>
+        <v>86</v>
       </c>
       <c r="G2356" s="16" t="s">
-        <v>3805</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="2357" spans="1:7" ht="23.25">
@@ -87868,22 +88777,22 @@
         <v>7</v>
       </c>
       <c r="B2357" s="35">
-        <v>53450</v>
+        <v>13300</v>
       </c>
       <c r="C2357" s="16" t="s">
-        <v>3806</v>
-      </c>
-      <c r="D2357" s="70" t="s">
-        <v>66</v>
+        <v>2787</v>
+      </c>
+      <c r="D2357" s="41" t="s">
+        <v>69</v>
       </c>
       <c r="E2357" s="17" t="s">
-        <v>3807</v>
+        <v>3804</v>
       </c>
       <c r="F2357" s="17" t="s">
-        <v>3808</v>
+        <v>932</v>
       </c>
       <c r="G2357" s="16" t="s">
-        <v>3809</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="2358" spans="1:7" ht="23.25">
@@ -87891,68 +88800,68 @@
         <v>8</v>
       </c>
       <c r="B2358" s="35">
-        <v>56750</v>
+        <v>53450</v>
       </c>
       <c r="C2358" s="16" t="s">
-        <v>3810</v>
-      </c>
-      <c r="D2358" s="41" t="s">
+        <v>3837</v>
+      </c>
+      <c r="D2358" s="70" t="s">
         <v>66</v>
       </c>
       <c r="E2358" s="17" t="s">
-        <v>3811</v>
+        <v>3806</v>
       </c>
       <c r="F2358" s="17" t="s">
-        <v>3812</v>
+        <v>3807</v>
       </c>
       <c r="G2358" s="16" t="s">
-        <v>3813</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2359" spans="1:7" ht="23.25">
       <c r="A2359" s="55">
         <v>9</v>
       </c>
-      <c r="B2359" s="53">
-        <v>14700</v>
+      <c r="B2359" s="35">
+        <v>56750</v>
       </c>
       <c r="C2359" s="16" t="s">
-        <v>803</v>
-      </c>
-      <c r="D2359" s="70" t="s">
-        <v>12</v>
+        <v>3809</v>
+      </c>
+      <c r="D2359" s="41" t="s">
+        <v>66</v>
       </c>
       <c r="E2359" s="17" t="s">
-        <v>856</v>
+        <v>3810</v>
       </c>
       <c r="F2359" s="17" t="s">
-        <v>804</v>
+        <v>3811</v>
       </c>
       <c r="G2359" s="16" t="s">
-        <v>3814</v>
+        <v>3812</v>
       </c>
     </row>
     <row r="2360" spans="1:7" ht="23.25">
       <c r="A2360" s="55">
         <v>10</v>
       </c>
-      <c r="B2360" s="35">
-        <v>18500</v>
+      <c r="B2360" s="53">
+        <v>14700</v>
       </c>
       <c r="C2360" s="16" t="s">
-        <v>3815</v>
+        <v>803</v>
       </c>
       <c r="D2360" s="70" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="E2360" s="17" t="s">
-        <v>3816</v>
+        <v>856</v>
       </c>
       <c r="F2360" s="17" t="s">
-        <v>146</v>
+        <v>804</v>
       </c>
       <c r="G2360" s="16" t="s">
-        <v>3817</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="2361" spans="1:7" ht="23.25">
@@ -87960,81 +88869,548 @@
         <v>11</v>
       </c>
       <c r="B2361" s="35">
-        <v>10400</v>
+        <v>18500</v>
       </c>
       <c r="C2361" s="16" t="s">
-        <v>3818</v>
+        <v>3838</v>
       </c>
       <c r="D2361" s="70" t="s">
-        <v>1419</v>
+        <v>66</v>
       </c>
       <c r="E2361" s="17" t="s">
-        <v>3819</v>
+        <v>3814</v>
       </c>
       <c r="F2361" s="17" t="s">
-        <v>2941</v>
+        <v>146</v>
       </c>
       <c r="G2361" s="16" t="s">
-        <v>3820</v>
+        <v>3815</v>
       </c>
     </row>
     <row r="2362" spans="1:7" ht="23.25">
       <c r="A2362" s="55">
         <v>12</v>
       </c>
-      <c r="B2362" s="35"/>
-      <c r="C2362" s="16"/>
+      <c r="B2362" s="35">
+        <v>10400</v>
+      </c>
+      <c r="C2362" s="16" t="s">
+        <v>3816</v>
+      </c>
       <c r="D2362" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2362" s="17"/>
-      <c r="F2362" s="17"/>
-      <c r="G2362" s="16"/>
+        <v>1419</v>
+      </c>
+      <c r="E2362" s="17" t="s">
+        <v>3817</v>
+      </c>
+      <c r="F2362" s="17" t="s">
+        <v>2941</v>
+      </c>
+      <c r="G2362" s="16" t="s">
+        <v>3818</v>
+      </c>
     </row>
     <row r="2363" spans="1:7" ht="23.25">
-      <c r="A2363" s="55">
-        <v>13</v>
-      </c>
-      <c r="B2363" s="35"/>
+      <c r="A2363" s="55"/>
+      <c r="B2363" s="53">
+        <f>SUM(B2351:B2362)</f>
+        <v>263200</v>
+      </c>
       <c r="C2363" s="16"/>
-      <c r="D2363" s="70" t="s">
-        <v>20</v>
-      </c>
+      <c r="D2363" s="70"/>
       <c r="E2363" s="17"/>
       <c r="F2363" s="17"/>
       <c r="G2363" s="16"/>
     </row>
-    <row r="2364" spans="1:7" ht="23.25">
-      <c r="A2364" s="55">
-        <v>14</v>
-      </c>
-      <c r="B2364" s="35"/>
-      <c r="C2364" s="16"/>
-      <c r="D2364" s="70" t="s">
+    <row r="2366" spans="1:7" ht="51">
+      <c r="A2366" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2366" s="83"/>
+      <c r="C2366" s="83"/>
+      <c r="D2366" s="83"/>
+      <c r="E2366" s="83"/>
+      <c r="F2366" s="83"/>
+      <c r="G2366" s="83"/>
+    </row>
+    <row r="2367" spans="1:7" ht="23.25">
+      <c r="A2367" s="6"/>
+      <c r="B2367" s="8"/>
+      <c r="C2367" s="84" t="s">
+        <v>3793</v>
+      </c>
+      <c r="D2367" s="85"/>
+      <c r="E2367" s="86"/>
+      <c r="F2367" s="8"/>
+      <c r="G2367" s="68"/>
+    </row>
+    <row r="2368" spans="1:7" ht="23.25">
+      <c r="A2368" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2368" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2368" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2368" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2368" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2368" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2368" s="56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:7" ht="23.25">
+      <c r="A2369" s="55">
+        <v>1</v>
+      </c>
+      <c r="B2369" s="35">
+        <v>70000</v>
+      </c>
+      <c r="C2369" s="16" t="s">
+        <v>3822</v>
+      </c>
+      <c r="D2369" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2369" s="17" t="s">
+        <v>3823</v>
+      </c>
+      <c r="F2369" s="17" t="s">
+        <v>3824</v>
+      </c>
+      <c r="G2369" s="16" t="s">
+        <v>3832</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:7" ht="23.25">
+      <c r="A2370" s="55">
+        <v>2</v>
+      </c>
+      <c r="B2370" s="35">
+        <v>70000</v>
+      </c>
+      <c r="C2370" s="16" t="s">
+        <v>3825</v>
+      </c>
+      <c r="D2370" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2370" s="17" t="s">
+        <v>3826</v>
+      </c>
+      <c r="F2370" s="17" t="s">
+        <v>3827</v>
+      </c>
+      <c r="G2370" s="16" t="s">
+        <v>3833</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:7" ht="23.25">
+      <c r="A2371" s="55">
+        <v>3</v>
+      </c>
+      <c r="B2371" s="35">
+        <v>40000</v>
+      </c>
+      <c r="C2371" s="16" t="s">
+        <v>3828</v>
+      </c>
+      <c r="D2371" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2371" s="17" t="s">
+        <v>3829</v>
+      </c>
+      <c r="F2371" s="17" t="s">
+        <v>3555</v>
+      </c>
+      <c r="G2371" s="16" t="s">
+        <v>3834</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:7" ht="23.25">
+      <c r="A2372" s="55">
+        <v>4</v>
+      </c>
+      <c r="B2372" s="35">
+        <v>70000</v>
+      </c>
+      <c r="C2372" s="16" t="s">
+        <v>3830</v>
+      </c>
+      <c r="D2372" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2372" s="17" t="s">
+        <v>3831</v>
+      </c>
+      <c r="F2372" s="17" t="s">
+        <v>3827</v>
+      </c>
+      <c r="G2372" s="16" t="s">
+        <v>3835</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:7" ht="23.25">
+      <c r="A2373" s="55">
+        <v>5</v>
+      </c>
+      <c r="B2373" s="35">
+        <v>70000</v>
+      </c>
+      <c r="C2373" s="16" t="s">
+        <v>3830</v>
+      </c>
+      <c r="D2373" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2373" s="17" t="s">
+        <v>3831</v>
+      </c>
+      <c r="F2373" s="17" t="s">
+        <v>3827</v>
+      </c>
+      <c r="G2373" s="16" t="s">
+        <v>3836</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:7" ht="23.25">
+      <c r="A2374" s="55"/>
+      <c r="B2374" s="53">
+        <f>SUM(B2369:B2373)</f>
+        <v>320000</v>
+      </c>
+      <c r="C2374" s="16"/>
+      <c r="D2374" s="70"/>
+      <c r="E2374" s="17"/>
+      <c r="F2374" s="17"/>
+      <c r="G2374" s="16"/>
+    </row>
+    <row r="2377" spans="1:7" ht="51">
+      <c r="A2377" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2377" s="83"/>
+      <c r="C2377" s="83"/>
+      <c r="D2377" s="83"/>
+      <c r="E2377" s="83"/>
+      <c r="F2377" s="83"/>
+      <c r="G2377" s="83"/>
+    </row>
+    <row r="2378" spans="1:7" ht="23.25">
+      <c r="A2378" s="6"/>
+      <c r="B2378" s="8"/>
+      <c r="C2378" s="84" t="s">
+        <v>3839</v>
+      </c>
+      <c r="D2378" s="85"/>
+      <c r="E2378" s="86"/>
+      <c r="F2378" s="8"/>
+      <c r="G2378" s="68"/>
+    </row>
+    <row r="2379" spans="1:7" ht="23.25">
+      <c r="A2379" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2379" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2379" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2379" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2379" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2379" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2379" s="56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:7" ht="23.25">
+      <c r="A2380" s="55">
+        <v>1</v>
+      </c>
+      <c r="B2380" s="35">
+        <v>13300</v>
+      </c>
+      <c r="C2380" s="16" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D2380" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2380" s="17" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F2380" s="17" t="s">
+        <v>1365</v>
+      </c>
+      <c r="G2380" s="16" t="s">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:7" ht="23.25">
+      <c r="A2381" s="55">
+        <v>2</v>
+      </c>
+      <c r="B2381" s="35">
+        <v>9100</v>
+      </c>
+      <c r="C2381" s="16" t="s">
+        <v>3841</v>
+      </c>
+      <c r="D2381" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2381" s="17" t="s">
+        <v>3842</v>
+      </c>
+      <c r="F2381" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2381" s="16" t="s">
+        <v>3843</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:7" ht="23.25">
+      <c r="A2382" s="55">
+        <v>3</v>
+      </c>
+      <c r="B2382" s="35">
+        <v>12750</v>
+      </c>
+      <c r="C2382" s="16" t="s">
+        <v>3718</v>
+      </c>
+      <c r="D2382" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2382" s="17" t="s">
+        <v>3719</v>
+      </c>
+      <c r="F2382" s="17" t="s">
+        <v>3636</v>
+      </c>
+      <c r="G2382" s="16" t="s">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:7" ht="23.25">
+      <c r="A2383" s="55">
+        <v>4</v>
+      </c>
+      <c r="B2383" s="35">
+        <v>25400</v>
+      </c>
+      <c r="C2383" s="16" t="s">
+        <v>3773</v>
+      </c>
+      <c r="D2383" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2383" s="17" t="s">
+        <v>3774</v>
+      </c>
+      <c r="F2383" s="17" t="s">
+        <v>1412</v>
+      </c>
+      <c r="G2383" s="16" t="s">
+        <v>3775</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:7" ht="23.25">
+      <c r="A2384" s="55">
+        <v>5</v>
+      </c>
+      <c r="B2384" s="35">
+        <v>24850</v>
+      </c>
+      <c r="C2384" s="16" t="s">
+        <v>3844</v>
+      </c>
+      <c r="D2384" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2384" s="17" t="s">
+        <v>3845</v>
+      </c>
+      <c r="F2384" s="17" t="s">
+        <v>3846</v>
+      </c>
+      <c r="G2384" s="16" t="s">
+        <v>3847</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:7" ht="23.25">
+      <c r="A2385" s="55">
+        <v>6</v>
+      </c>
+      <c r="B2385" s="35">
+        <v>11200</v>
+      </c>
+      <c r="C2385" s="15" t="s">
+        <v>2337</v>
+      </c>
+      <c r="D2385" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="E2364" s="17"/>
-      <c r="F2364" s="17"/>
-      <c r="G2364" s="16"/>
-    </row>
-    <row r="2365" spans="1:7" ht="23.25">
-      <c r="A2365" s="55"/>
-      <c r="B2365" s="53">
-        <f>SUM(B2351:B2364)</f>
-        <v>234750</v>
-      </c>
-      <c r="C2365" s="16"/>
-      <c r="D2365" s="70"/>
-      <c r="E2365" s="17"/>
-      <c r="F2365" s="17"/>
-      <c r="G2365" s="16"/>
+      <c r="E2385" s="17" t="s">
+        <v>2338</v>
+      </c>
+      <c r="F2385" s="17" t="s">
+        <v>2339</v>
+      </c>
+      <c r="G2385" s="16" t="s">
+        <v>3848</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:7" ht="23.25">
+      <c r="A2386" s="55">
+        <v>7</v>
+      </c>
+      <c r="B2386" s="35">
+        <v>13700</v>
+      </c>
+      <c r="C2386" s="16" t="s">
+        <v>3849</v>
+      </c>
+      <c r="D2386" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2386" s="17" t="s">
+        <v>3850</v>
+      </c>
+      <c r="F2386" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2386" s="16" t="s">
+        <v>3851</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:7" ht="23.25">
+      <c r="A2387" s="55">
+        <v>8</v>
+      </c>
+      <c r="B2387" s="35">
+        <v>13000</v>
+      </c>
+      <c r="C2387" s="16" t="s">
+        <v>3852</v>
+      </c>
+      <c r="D2387" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2387" s="17" t="s">
+        <v>3853</v>
+      </c>
+      <c r="F2387" s="17" t="s">
+        <v>3854</v>
+      </c>
+      <c r="G2387" s="16" t="s">
+        <v>3855</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:7" ht="23.25">
+      <c r="A2388" s="55">
+        <v>9</v>
+      </c>
+      <c r="B2388" s="35">
+        <v>13200</v>
+      </c>
+      <c r="C2388" s="16" t="s">
+        <v>3856</v>
+      </c>
+      <c r="D2388" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2388" s="17" t="s">
+        <v>3857</v>
+      </c>
+      <c r="F2388" s="17" t="s">
+        <v>1959</v>
+      </c>
+      <c r="G2388" s="16" t="s">
+        <v>3858</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:7" ht="23.25">
+      <c r="A2389" s="55">
+        <v>10</v>
+      </c>
+      <c r="B2389" s="53">
+        <v>12600</v>
+      </c>
+      <c r="C2389" s="16" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D2389" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2389" s="17" t="s">
+        <v>3392</v>
+      </c>
+      <c r="F2389" s="17" t="s">
+        <v>3100</v>
+      </c>
+      <c r="G2389" s="16" t="s">
+        <v>3859</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:7" ht="23.25">
+      <c r="A2390" s="55">
+        <v>11</v>
+      </c>
+      <c r="B2390" s="35"/>
+      <c r="C2390" s="16"/>
+      <c r="D2390" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2390" s="17"/>
+      <c r="F2390" s="17"/>
+      <c r="G2390" s="16"/>
+    </row>
+    <row r="2391" spans="1:7" ht="23.25">
+      <c r="A2391" s="55">
+        <v>12</v>
+      </c>
+      <c r="B2391" s="35"/>
+      <c r="C2391" s="16"/>
+      <c r="D2391" s="70" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E2391" s="17"/>
+      <c r="F2391" s="17"/>
+      <c r="G2391" s="16"/>
+    </row>
+    <row r="2392" spans="1:7" ht="23.25">
+      <c r="A2392" s="55"/>
+      <c r="B2392" s="53">
+        <f>SUM(B2380:B2391)</f>
+        <v>149100</v>
+      </c>
+      <c r="C2392" s="16"/>
+      <c r="D2392" s="70"/>
+      <c r="E2392" s="17"/>
+      <c r="F2392" s="17"/>
+      <c r="G2392" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="228">
-    <mergeCell ref="A2348:G2348"/>
-    <mergeCell ref="C2349:E2349"/>
-    <mergeCell ref="A1414:F1414"/>
-    <mergeCell ref="A1337:F1337"/>
+  <mergeCells count="232">
+    <mergeCell ref="A2377:G2377"/>
+    <mergeCell ref="C2378:E2378"/>
     <mergeCell ref="C1338:D1338"/>
     <mergeCell ref="C716:D716"/>
     <mergeCell ref="A744:F744"/>
@@ -88055,8 +89431,6 @@
     <mergeCell ref="A866:F866"/>
     <mergeCell ref="C867:D867"/>
     <mergeCell ref="A1028:F1028"/>
-    <mergeCell ref="C976:D976"/>
-    <mergeCell ref="A1087:F1087"/>
     <mergeCell ref="A1564:G1564"/>
     <mergeCell ref="C1565:E1565"/>
     <mergeCell ref="C1772:E1772"/>
@@ -88079,6 +89453,8 @@
     <mergeCell ref="A1508:G1508"/>
     <mergeCell ref="C1509:E1509"/>
     <mergeCell ref="A1130:F1130"/>
+    <mergeCell ref="A1414:F1414"/>
+    <mergeCell ref="A1337:F1337"/>
     <mergeCell ref="C1131:D1131"/>
     <mergeCell ref="A1276:F1276"/>
     <mergeCell ref="C428:D428"/>
@@ -88089,6 +89465,11 @@
     <mergeCell ref="A337:F337"/>
     <mergeCell ref="A323:F323"/>
     <mergeCell ref="A975:F975"/>
+    <mergeCell ref="A381:F381"/>
+    <mergeCell ref="A1169:F1169"/>
+    <mergeCell ref="C1170:D1170"/>
+    <mergeCell ref="C976:D976"/>
+    <mergeCell ref="A1087:F1087"/>
     <mergeCell ref="C1415:D1415"/>
     <mergeCell ref="C640:D640"/>
     <mergeCell ref="C709:D709"/>
@@ -88105,7 +89486,14 @@
     <mergeCell ref="A1376:F1376"/>
     <mergeCell ref="C1377:D1377"/>
     <mergeCell ref="C1029:D1029"/>
-    <mergeCell ref="A381:F381"/>
+    <mergeCell ref="C1277:D1277"/>
+    <mergeCell ref="A1143:F1143"/>
+    <mergeCell ref="A1260:F1260"/>
+    <mergeCell ref="C1144:D1144"/>
+    <mergeCell ref="C1261:D1261"/>
+    <mergeCell ref="C1206:D1206"/>
+    <mergeCell ref="C1197:D1197"/>
+    <mergeCell ref="A1205:F1205"/>
     <mergeCell ref="A276:F276"/>
     <mergeCell ref="A297:F297"/>
     <mergeCell ref="C298:D298"/>
@@ -88162,16 +89550,6 @@
     <mergeCell ref="A417:F417"/>
     <mergeCell ref="C418:D418"/>
     <mergeCell ref="C227:D227"/>
-    <mergeCell ref="C1277:D1277"/>
-    <mergeCell ref="A1143:F1143"/>
-    <mergeCell ref="A1260:F1260"/>
-    <mergeCell ref="C1144:D1144"/>
-    <mergeCell ref="C1261:D1261"/>
-    <mergeCell ref="C1206:D1206"/>
-    <mergeCell ref="C1197:D1197"/>
-    <mergeCell ref="A1205:F1205"/>
-    <mergeCell ref="A1169:F1169"/>
-    <mergeCell ref="C1170:D1170"/>
     <mergeCell ref="C1789:E1789"/>
     <mergeCell ref="C1763:E1763"/>
     <mergeCell ref="C1737:E1737"/>
@@ -88243,6 +89621,8 @@
     <mergeCell ref="C2169:E2169"/>
     <mergeCell ref="A2188:G2188"/>
     <mergeCell ref="C2189:E2189"/>
+    <mergeCell ref="A2366:G2366"/>
+    <mergeCell ref="C2367:E2367"/>
     <mergeCell ref="A2328:G2328"/>
     <mergeCell ref="C2329:E2329"/>
     <mergeCell ref="A2262:G2262"/>
@@ -88259,4384 +89639,4455 @@
     <mergeCell ref="C2294:E2294"/>
     <mergeCell ref="A2286:G2286"/>
     <mergeCell ref="C2287:E2287"/>
+    <mergeCell ref="A2348:G2348"/>
+    <mergeCell ref="C2349:E2349"/>
   </mergeCells>
   <phoneticPr fontId="7" alignment="center"/>
   <conditionalFormatting sqref="A1525:A1531 G1526 G1551:G1552 G1528:G1549 G1561">
-    <cfRule type="duplicateValues" dxfId="2946" priority="13707"/>
+    <cfRule type="duplicateValues" dxfId="3025" priority="13735"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1564">
-    <cfRule type="duplicateValues" dxfId="2945" priority="1309"/>
+    <cfRule type="duplicateValues" dxfId="3024" priority="1337"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1237">
-    <cfRule type="duplicateValues" dxfId="2944" priority="2386"/>
+    <cfRule type="duplicateValues" dxfId="3023" priority="2414"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1238">
-    <cfRule type="duplicateValues" dxfId="2943" priority="2327"/>
+    <cfRule type="duplicateValues" dxfId="3022" priority="2355"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1248">
-    <cfRule type="duplicateValues" dxfId="2942" priority="2364"/>
+    <cfRule type="duplicateValues" dxfId="3021" priority="2392"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1249">
-    <cfRule type="duplicateValues" dxfId="2941" priority="2314"/>
+    <cfRule type="duplicateValues" dxfId="3020" priority="2342"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1253">
-    <cfRule type="duplicateValues" dxfId="2940" priority="2298"/>
+    <cfRule type="duplicateValues" dxfId="3019" priority="2326"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1254">
-    <cfRule type="duplicateValues" dxfId="2939" priority="2285"/>
+    <cfRule type="duplicateValues" dxfId="3018" priority="2313"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1295">
-    <cfRule type="duplicateValues" dxfId="2938" priority="2233"/>
+    <cfRule type="duplicateValues" dxfId="3017" priority="2261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1296">
-    <cfRule type="duplicateValues" dxfId="2937" priority="2184"/>
+    <cfRule type="duplicateValues" dxfId="3016" priority="2212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1311">
-    <cfRule type="duplicateValues" dxfId="2936" priority="2155"/>
+    <cfRule type="duplicateValues" dxfId="3015" priority="2183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1312">
-    <cfRule type="duplicateValues" dxfId="2935" priority="2142"/>
+    <cfRule type="duplicateValues" dxfId="3014" priority="2170"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1355">
-    <cfRule type="duplicateValues" dxfId="2934" priority="2077"/>
+    <cfRule type="duplicateValues" dxfId="3013" priority="2105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1356">
-    <cfRule type="duplicateValues" dxfId="2933" priority="2035"/>
+    <cfRule type="duplicateValues" dxfId="3012" priority="2063"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1357">
-    <cfRule type="duplicateValues" dxfId="2932" priority="1987"/>
+    <cfRule type="duplicateValues" dxfId="3011" priority="2015"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1358">
-    <cfRule type="duplicateValues" dxfId="2931" priority="1958"/>
+    <cfRule type="duplicateValues" dxfId="3010" priority="1986"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1359">
-    <cfRule type="duplicateValues" dxfId="2930" priority="1850"/>
+    <cfRule type="duplicateValues" dxfId="3009" priority="1878"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1371">
-    <cfRule type="duplicateValues" dxfId="2929" priority="2022"/>
+    <cfRule type="duplicateValues" dxfId="3008" priority="2050"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1372">
-    <cfRule type="duplicateValues" dxfId="2928" priority="2015"/>
+    <cfRule type="duplicateValues" dxfId="3007" priority="2043"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1405">
-    <cfRule type="duplicateValues" dxfId="2927" priority="1820"/>
+    <cfRule type="duplicateValues" dxfId="3006" priority="1848"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1406">
-    <cfRule type="duplicateValues" dxfId="2926" priority="1813"/>
+    <cfRule type="duplicateValues" dxfId="3005" priority="1841"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1407">
-    <cfRule type="duplicateValues" dxfId="2925" priority="1806"/>
+    <cfRule type="duplicateValues" dxfId="3004" priority="1834"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1408">
-    <cfRule type="duplicateValues" dxfId="2924" priority="1802"/>
+    <cfRule type="duplicateValues" dxfId="3003" priority="1830"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1409">
-    <cfRule type="duplicateValues" dxfId="2923" priority="1798"/>
+    <cfRule type="duplicateValues" dxfId="3002" priority="1826"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1456:F1461">
-    <cfRule type="duplicateValues" dxfId="2922" priority="10564"/>
+    <cfRule type="duplicateValues" dxfId="3001" priority="10592"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:G51 G56:G57">
-    <cfRule type="duplicateValues" dxfId="2921" priority="3084"/>
+    <cfRule type="duplicateValues" dxfId="3000" priority="3112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52:G55">
-    <cfRule type="duplicateValues" dxfId="2920" priority="3081"/>
+    <cfRule type="duplicateValues" dxfId="2999" priority="3109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G124:G132 G110:G122">
-    <cfRule type="duplicateValues" dxfId="2919" priority="3153"/>
+    <cfRule type="duplicateValues" dxfId="2998" priority="3181"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G150:G152 G158:G161">
-    <cfRule type="duplicateValues" dxfId="2918" priority="3064"/>
+    <cfRule type="duplicateValues" dxfId="2997" priority="3092"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G150:G152">
-    <cfRule type="duplicateValues" dxfId="2917" priority="3063"/>
+    <cfRule type="duplicateValues" dxfId="2996" priority="3091"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G178:G182 G164:G176">
-    <cfRule type="duplicateValues" dxfId="2916" priority="3279"/>
+    <cfRule type="duplicateValues" dxfId="2995" priority="3307"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G186:G196">
-    <cfRule type="duplicateValues" dxfId="2915" priority="3217"/>
+    <cfRule type="duplicateValues" dxfId="2994" priority="3245"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G200:G213 G215:G222">
-    <cfRule type="duplicateValues" dxfId="2914" priority="3351"/>
+    <cfRule type="duplicateValues" dxfId="2993" priority="3379"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G226:G233">
-    <cfRule type="duplicateValues" dxfId="2913" priority="3317"/>
+    <cfRule type="duplicateValues" dxfId="2992" priority="3345"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G237:G244">
-    <cfRule type="duplicateValues" dxfId="2912" priority="3054"/>
+    <cfRule type="duplicateValues" dxfId="2991" priority="3082"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G248:G259">
-    <cfRule type="duplicateValues" dxfId="2911" priority="3510"/>
+    <cfRule type="duplicateValues" dxfId="2990" priority="3538"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G261:G272 G248:G259">
-    <cfRule type="duplicateValues" dxfId="2910" priority="3390"/>
+    <cfRule type="duplicateValues" dxfId="2989" priority="3418"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G276:G288">
-    <cfRule type="duplicateValues" dxfId="2909" priority="3431"/>
+    <cfRule type="duplicateValues" dxfId="2988" priority="3459"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G276:G293">
-    <cfRule type="duplicateValues" dxfId="2908" priority="3432"/>
+    <cfRule type="duplicateValues" dxfId="2987" priority="3460"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G297:G305">
-    <cfRule type="duplicateValues" dxfId="2907" priority="3810"/>
+    <cfRule type="duplicateValues" dxfId="2986" priority="3838"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G307 G297:G305 G309:G319">
-    <cfRule type="duplicateValues" dxfId="2906" priority="3599"/>
+    <cfRule type="duplicateValues" dxfId="2985" priority="3627"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G323:G333">
-    <cfRule type="duplicateValues" dxfId="2905" priority="3709"/>
+    <cfRule type="duplicateValues" dxfId="2984" priority="3737"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G332:G333">
-    <cfRule type="duplicateValues" dxfId="2904" priority="2982"/>
+    <cfRule type="duplicateValues" dxfId="2983" priority="3010"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G337:G345">
-    <cfRule type="duplicateValues" dxfId="2903" priority="2977"/>
+    <cfRule type="duplicateValues" dxfId="2982" priority="3005"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G347 G337:G345 G349:G377">
-    <cfRule type="duplicateValues" dxfId="2902" priority="4286"/>
+    <cfRule type="duplicateValues" dxfId="2981" priority="4314"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G347">
-    <cfRule type="duplicateValues" dxfId="2901" priority="2976"/>
+    <cfRule type="duplicateValues" dxfId="2980" priority="3004"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G381:G392">
-    <cfRule type="duplicateValues" dxfId="2900" priority="4171"/>
+    <cfRule type="duplicateValues" dxfId="2979" priority="4199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G390:G392">
-    <cfRule type="duplicateValues" dxfId="2899" priority="4172"/>
+    <cfRule type="duplicateValues" dxfId="2978" priority="4200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G396:G404">
-    <cfRule type="duplicateValues" dxfId="2898" priority="2970"/>
+    <cfRule type="duplicateValues" dxfId="2977" priority="2998"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G408:G413 G396:G404">
-    <cfRule type="duplicateValues" dxfId="2897" priority="4349"/>
+    <cfRule type="duplicateValues" dxfId="2976" priority="4377"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G417:G423">
-    <cfRule type="duplicateValues" dxfId="2896" priority="4414"/>
+    <cfRule type="duplicateValues" dxfId="2975" priority="4442"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G427:G435">
-    <cfRule type="duplicateValues" dxfId="2895" priority="2960"/>
+    <cfRule type="duplicateValues" dxfId="2974" priority="2988"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G437 G427:G435 G439:G459">
-    <cfRule type="duplicateValues" dxfId="2894" priority="4482"/>
+    <cfRule type="duplicateValues" dxfId="2973" priority="4510"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G437">
-    <cfRule type="duplicateValues" dxfId="2893" priority="2959"/>
+    <cfRule type="duplicateValues" dxfId="2972" priority="2987"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G463:G469">
-    <cfRule type="duplicateValues" dxfId="2892" priority="2954"/>
+    <cfRule type="duplicateValues" dxfId="2971" priority="2982"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474:G481">
-    <cfRule type="duplicateValues" dxfId="2891" priority="2951"/>
+    <cfRule type="duplicateValues" dxfId="2970" priority="2979"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G483 G474:G481 G485:G500">
-    <cfRule type="duplicateValues" dxfId="2890" priority="4485"/>
+    <cfRule type="duplicateValues" dxfId="2969" priority="4513"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G483">
-    <cfRule type="duplicateValues" dxfId="2889" priority="2950"/>
+    <cfRule type="duplicateValues" dxfId="2968" priority="2978"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G501">
-    <cfRule type="duplicateValues" dxfId="2888" priority="2936"/>
+    <cfRule type="duplicateValues" dxfId="2967" priority="2964"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G506:G514">
-    <cfRule type="duplicateValues" dxfId="2887" priority="2948"/>
+    <cfRule type="duplicateValues" dxfId="2966" priority="2976"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G516 G506:G514 G518:G527">
-    <cfRule type="duplicateValues" dxfId="2886" priority="4486"/>
+    <cfRule type="duplicateValues" dxfId="2965" priority="4514"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G516">
-    <cfRule type="duplicateValues" dxfId="2885" priority="2947"/>
+    <cfRule type="duplicateValues" dxfId="2964" priority="2975"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G531:G535">
-    <cfRule type="duplicateValues" dxfId="2884" priority="4487"/>
+    <cfRule type="duplicateValues" dxfId="2963" priority="4515"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G536">
-    <cfRule type="duplicateValues" dxfId="2883" priority="2943"/>
+    <cfRule type="duplicateValues" dxfId="2962" priority="2971"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G540:G545">
-    <cfRule type="duplicateValues" dxfId="2882" priority="4492"/>
+    <cfRule type="duplicateValues" dxfId="2961" priority="4520"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G540:G546">
-    <cfRule type="duplicateValues" dxfId="2881" priority="2934"/>
+    <cfRule type="duplicateValues" dxfId="2960" priority="2962"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G549:G551 G554:G559">
-    <cfRule type="duplicateValues" dxfId="2880" priority="2930"/>
+    <cfRule type="duplicateValues" dxfId="2959" priority="2958"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G549:G551 G554:G569">
-    <cfRule type="duplicateValues" dxfId="2879" priority="4511"/>
+    <cfRule type="duplicateValues" dxfId="2958" priority="4539"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G552">
-    <cfRule type="duplicateValues" dxfId="2878" priority="2925"/>
+    <cfRule type="duplicateValues" dxfId="2957" priority="2953"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G553">
-    <cfRule type="duplicateValues" dxfId="2877" priority="2923"/>
+    <cfRule type="duplicateValues" dxfId="2956" priority="2951"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G561 G549:G551 G563:G568 G554:G559">
-    <cfRule type="duplicateValues" dxfId="2876" priority="4507"/>
+    <cfRule type="duplicateValues" dxfId="2955" priority="4535"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G561">
-    <cfRule type="duplicateValues" dxfId="2875" priority="2929"/>
+    <cfRule type="duplicateValues" dxfId="2954" priority="2957"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G572:G576">
-    <cfRule type="duplicateValues" dxfId="2874" priority="4521"/>
+    <cfRule type="duplicateValues" dxfId="2953" priority="4549"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G572:G577">
-    <cfRule type="duplicateValues" dxfId="2873" priority="2922"/>
+    <cfRule type="duplicateValues" dxfId="2952" priority="2950"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G580:G588">
-    <cfRule type="duplicateValues" dxfId="2872" priority="2919"/>
+    <cfRule type="duplicateValues" dxfId="2951" priority="2947"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G580:G603">
-    <cfRule type="duplicateValues" dxfId="2871" priority="4534"/>
+    <cfRule type="duplicateValues" dxfId="2950" priority="4562"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G590 G580:G588 G592:G602">
-    <cfRule type="duplicateValues" dxfId="2870" priority="4531"/>
+    <cfRule type="duplicateValues" dxfId="2949" priority="4559"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G590">
-    <cfRule type="duplicateValues" dxfId="2869" priority="2918"/>
+    <cfRule type="duplicateValues" dxfId="2948" priority="2946"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G606:G614">
-    <cfRule type="duplicateValues" dxfId="2868" priority="2914"/>
+    <cfRule type="duplicateValues" dxfId="2947" priority="2942"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G606:G636">
-    <cfRule type="duplicateValues" dxfId="2867" priority="2916"/>
+    <cfRule type="duplicateValues" dxfId="2946" priority="2944"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G616 G606:G614 G618:G635">
-    <cfRule type="duplicateValues" dxfId="2866" priority="2915"/>
+    <cfRule type="duplicateValues" dxfId="2945" priority="2943"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G616">
-    <cfRule type="duplicateValues" dxfId="2865" priority="2913"/>
+    <cfRule type="duplicateValues" dxfId="2944" priority="2941"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G639:G642 G644:G649">
-    <cfRule type="duplicateValues" dxfId="2864" priority="2912"/>
+    <cfRule type="duplicateValues" dxfId="2943" priority="2940"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G639:G642 G644:G650">
-    <cfRule type="duplicateValues" dxfId="2863" priority="2911"/>
+    <cfRule type="duplicateValues" dxfId="2942" priority="2939"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G643">
-    <cfRule type="duplicateValues" dxfId="2862" priority="2909"/>
+    <cfRule type="duplicateValues" dxfId="2941" priority="2937"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G653:G661">
-    <cfRule type="duplicateValues" dxfId="2861" priority="2906"/>
+    <cfRule type="duplicateValues" dxfId="2940" priority="2934"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G653:G687">
-    <cfRule type="duplicateValues" dxfId="2860" priority="4553"/>
+    <cfRule type="duplicateValues" dxfId="2939" priority="4581"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G663 G653:G661 G665:G686">
-    <cfRule type="duplicateValues" dxfId="2859" priority="4550"/>
+    <cfRule type="duplicateValues" dxfId="2938" priority="4578"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G663">
-    <cfRule type="duplicateValues" dxfId="2858" priority="2905"/>
+    <cfRule type="duplicateValues" dxfId="2937" priority="2933"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G690:G696">
-    <cfRule type="duplicateValues" dxfId="2857" priority="5145"/>
+    <cfRule type="duplicateValues" dxfId="2936" priority="5173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G690:G705">
-    <cfRule type="duplicateValues" dxfId="2856" priority="5150"/>
+    <cfRule type="duplicateValues" dxfId="2935" priority="5178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G698 G700:G704 G690:G696">
-    <cfRule type="duplicateValues" dxfId="2855" priority="4846"/>
+    <cfRule type="duplicateValues" dxfId="2934" priority="4874"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G698">
-    <cfRule type="duplicateValues" dxfId="2854" priority="2903"/>
+    <cfRule type="duplicateValues" dxfId="2933" priority="2931"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G704">
-    <cfRule type="duplicateValues" dxfId="2853" priority="2896"/>
+    <cfRule type="duplicateValues" dxfId="2932" priority="2924"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G708:G711 G713">
-    <cfRule type="duplicateValues" dxfId="2852" priority="5003"/>
+    <cfRule type="duplicateValues" dxfId="2931" priority="5031"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G708:G711">
-    <cfRule type="duplicateValues" dxfId="2851" priority="5005"/>
+    <cfRule type="duplicateValues" dxfId="2930" priority="5033"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G712">
-    <cfRule type="duplicateValues" dxfId="2850" priority="2890"/>
+    <cfRule type="duplicateValues" dxfId="2929" priority="2918"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G715">
-    <cfRule type="duplicateValues" dxfId="2849" priority="2878"/>
+    <cfRule type="duplicateValues" dxfId="2928" priority="2906"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G723">
-    <cfRule type="duplicateValues" dxfId="2848" priority="2884"/>
+    <cfRule type="duplicateValues" dxfId="2927" priority="2912"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G724:G727 G716:G722">
-    <cfRule type="duplicateValues" dxfId="2847" priority="2886"/>
+    <cfRule type="duplicateValues" dxfId="2926" priority="2914"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G729">
-    <cfRule type="duplicateValues" dxfId="2846" priority="2885"/>
+    <cfRule type="duplicateValues" dxfId="2925" priority="2913"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G743 G715">
-    <cfRule type="duplicateValues" dxfId="2845" priority="2881"/>
+    <cfRule type="duplicateValues" dxfId="2924" priority="2909"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G743">
-    <cfRule type="duplicateValues" dxfId="2844" priority="2872"/>
+    <cfRule type="duplicateValues" dxfId="2923" priority="2900"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G744:G746 G751">
-    <cfRule type="duplicateValues" dxfId="2843" priority="2880"/>
+    <cfRule type="duplicateValues" dxfId="2922" priority="2908"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G744:G746">
-    <cfRule type="duplicateValues" dxfId="2842" priority="2879"/>
+    <cfRule type="duplicateValues" dxfId="2921" priority="2907"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G747:G750 G724:G742 G716:G722">
-    <cfRule type="duplicateValues" dxfId="2841" priority="2882"/>
+    <cfRule type="duplicateValues" dxfId="2920" priority="2910"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G747:G750 G729 G716:G722 G731:G741 G724:G727">
-    <cfRule type="duplicateValues" dxfId="2840" priority="2883"/>
+    <cfRule type="duplicateValues" dxfId="2919" priority="2911"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G747:G750">
-    <cfRule type="duplicateValues" dxfId="2839" priority="2874"/>
+    <cfRule type="duplicateValues" dxfId="2918" priority="2902"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G754">
-    <cfRule type="duplicateValues" dxfId="2838" priority="2863"/>
+    <cfRule type="duplicateValues" dxfId="2917" priority="2891"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G762">
-    <cfRule type="duplicateValues" dxfId="2837" priority="2866"/>
+    <cfRule type="duplicateValues" dxfId="2916" priority="2894"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G763:G766 G755:G761">
-    <cfRule type="duplicateValues" dxfId="2836" priority="2868"/>
+    <cfRule type="duplicateValues" dxfId="2915" priority="2896"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G763:G781 G755:G761">
-    <cfRule type="duplicateValues" dxfId="2835" priority="2861"/>
+    <cfRule type="duplicateValues" dxfId="2914" priority="2889"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G768 G755:G761 G770:G780 G763:G766">
-    <cfRule type="duplicateValues" dxfId="2834" priority="2862"/>
+    <cfRule type="duplicateValues" dxfId="2913" priority="2890"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G768">
-    <cfRule type="duplicateValues" dxfId="2833" priority="2867"/>
+    <cfRule type="duplicateValues" dxfId="2912" priority="2895"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G784">
-    <cfRule type="duplicateValues" dxfId="2832" priority="2846"/>
+    <cfRule type="duplicateValues" dxfId="2911" priority="2874"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G792">
-    <cfRule type="duplicateValues" dxfId="2831" priority="2849"/>
+    <cfRule type="duplicateValues" dxfId="2910" priority="2877"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G793:G796 G785:G791">
-    <cfRule type="duplicateValues" dxfId="2830" priority="2851"/>
+    <cfRule type="duplicateValues" dxfId="2909" priority="2879"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G793:G819 G785:G791">
-    <cfRule type="duplicateValues" dxfId="2829" priority="2844"/>
+    <cfRule type="duplicateValues" dxfId="2908" priority="2872"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G798 G785:G791 G800:G818 G793:G796">
-    <cfRule type="duplicateValues" dxfId="2828" priority="2845"/>
+    <cfRule type="duplicateValues" dxfId="2907" priority="2873"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G798">
-    <cfRule type="duplicateValues" dxfId="2827" priority="2850"/>
+    <cfRule type="duplicateValues" dxfId="2906" priority="2878"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G820:G821">
-    <cfRule type="duplicateValues" dxfId="2826" priority="2852"/>
+    <cfRule type="duplicateValues" dxfId="2905" priority="2880"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G822:G824 G834">
-    <cfRule type="duplicateValues" dxfId="2825" priority="2841"/>
+    <cfRule type="duplicateValues" dxfId="2904" priority="2869"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G822:G824">
-    <cfRule type="duplicateValues" dxfId="2824" priority="2840"/>
+    <cfRule type="duplicateValues" dxfId="2903" priority="2868"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G825:G833">
-    <cfRule type="duplicateValues" dxfId="2823" priority="2843"/>
+    <cfRule type="duplicateValues" dxfId="2902" priority="2871"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G837">
-    <cfRule type="duplicateValues" dxfId="2822" priority="2823"/>
+    <cfRule type="duplicateValues" dxfId="2901" priority="2851"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G838:G839 G842:G850">
-    <cfRule type="duplicateValues" dxfId="2821" priority="2825"/>
+    <cfRule type="duplicateValues" dxfId="2900" priority="2853"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G838:G839 G842:G863">
-    <cfRule type="duplicateValues" dxfId="2820" priority="2815"/>
+    <cfRule type="duplicateValues" dxfId="2899" priority="2843"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G840">
-    <cfRule type="duplicateValues" dxfId="2819" priority="2821"/>
+    <cfRule type="duplicateValues" dxfId="2898" priority="2849"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G841">
-    <cfRule type="duplicateValues" dxfId="2818" priority="2822"/>
+    <cfRule type="duplicateValues" dxfId="2897" priority="2850"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G852 G838:G839 G842:G850 G854:G862">
-    <cfRule type="duplicateValues" dxfId="2817" priority="2816"/>
+    <cfRule type="duplicateValues" dxfId="2896" priority="2844"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G852">
-    <cfRule type="duplicateValues" dxfId="2816" priority="2824"/>
+    <cfRule type="duplicateValues" dxfId="2895" priority="2852"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G864:G865 H837:H888">
-    <cfRule type="duplicateValues" dxfId="2815" priority="2826"/>
+    <cfRule type="duplicateValues" dxfId="2894" priority="2854"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G866:G870">
-    <cfRule type="duplicateValues" dxfId="2814" priority="2819"/>
+    <cfRule type="duplicateValues" dxfId="2893" priority="2847"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G871:G886">
-    <cfRule type="duplicateValues" dxfId="2813" priority="2818"/>
+    <cfRule type="duplicateValues" dxfId="2892" priority="2846"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G871:G889">
-    <cfRule type="duplicateValues" dxfId="2812" priority="2817"/>
+    <cfRule type="duplicateValues" dxfId="2891" priority="2845"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G890 G866:G870">
-    <cfRule type="duplicateValues" dxfId="2811" priority="2820"/>
+    <cfRule type="duplicateValues" dxfId="2890" priority="2848"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G893">
-    <cfRule type="duplicateValues" dxfId="2810" priority="2778"/>
+    <cfRule type="duplicateValues" dxfId="2889" priority="2806"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G896">
-    <cfRule type="duplicateValues" dxfId="2809" priority="2776"/>
+    <cfRule type="duplicateValues" dxfId="2888" priority="2804"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G897">
-    <cfRule type="duplicateValues" dxfId="2808" priority="2777"/>
+    <cfRule type="duplicateValues" dxfId="2887" priority="2805"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G903">
-    <cfRule type="duplicateValues" dxfId="2807" priority="2779"/>
+    <cfRule type="duplicateValues" dxfId="2886" priority="2807"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G904:G907 G894:G895 G898:G902">
-    <cfRule type="duplicateValues" dxfId="2806" priority="2781"/>
+    <cfRule type="duplicateValues" dxfId="2885" priority="2809"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G904:G918 G894:G895 G898:G902">
-    <cfRule type="duplicateValues" dxfId="2805" priority="2771"/>
+    <cfRule type="duplicateValues" dxfId="2884" priority="2799"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G909 G894:G895 G911:G917 G904:G907 G898:G902">
-    <cfRule type="duplicateValues" dxfId="2804" priority="2772"/>
+    <cfRule type="duplicateValues" dxfId="2883" priority="2800"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G909">
-    <cfRule type="duplicateValues" dxfId="2803" priority="2780"/>
+    <cfRule type="duplicateValues" dxfId="2882" priority="2808"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G919:G920">
-    <cfRule type="duplicateValues" dxfId="2802" priority="2782"/>
+    <cfRule type="duplicateValues" dxfId="2881" priority="2810"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G921:G923">
-    <cfRule type="duplicateValues" dxfId="2801" priority="2774"/>
+    <cfRule type="duplicateValues" dxfId="2880" priority="2802"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G924:G931">
-    <cfRule type="duplicateValues" dxfId="2800" priority="2773"/>
+    <cfRule type="duplicateValues" dxfId="2879" priority="2801"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G932 G921:G923">
-    <cfRule type="duplicateValues" dxfId="2799" priority="2775"/>
+    <cfRule type="duplicateValues" dxfId="2878" priority="2803"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G935">
-    <cfRule type="duplicateValues" dxfId="2798" priority="2752"/>
+    <cfRule type="duplicateValues" dxfId="2877" priority="2780"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G938">
-    <cfRule type="duplicateValues" dxfId="2797" priority="2747"/>
+    <cfRule type="duplicateValues" dxfId="2876" priority="2775"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G939">
-    <cfRule type="duplicateValues" dxfId="2796" priority="2749"/>
+    <cfRule type="duplicateValues" dxfId="2875" priority="2777"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G940">
-    <cfRule type="duplicateValues" dxfId="2795" priority="2751"/>
+    <cfRule type="duplicateValues" dxfId="2874" priority="2779"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G946">
-    <cfRule type="duplicateValues" dxfId="2794" priority="2755"/>
+    <cfRule type="duplicateValues" dxfId="2873" priority="2783"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G947:G950 G936:G937 G941:G945">
-    <cfRule type="duplicateValues" dxfId="2793" priority="2757"/>
+    <cfRule type="duplicateValues" dxfId="2872" priority="2785"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G947:G957 G936:G937 G941:G945">
-    <cfRule type="duplicateValues" dxfId="2792" priority="2744"/>
+    <cfRule type="duplicateValues" dxfId="2871" priority="2772"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G952 G936:G937 G954:G956 G947:G950 G941:G945">
-    <cfRule type="duplicateValues" dxfId="2791" priority="2745"/>
+    <cfRule type="duplicateValues" dxfId="2870" priority="2773"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G952">
-    <cfRule type="duplicateValues" dxfId="2790" priority="2756"/>
+    <cfRule type="duplicateValues" dxfId="2869" priority="2784"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G958:G959">
-    <cfRule type="duplicateValues" dxfId="2789" priority="2758"/>
+    <cfRule type="duplicateValues" dxfId="2868" priority="2786"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G960:G962">
-    <cfRule type="duplicateValues" dxfId="2788" priority="2742"/>
+    <cfRule type="duplicateValues" dxfId="2867" priority="2770"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G963:G971">
-    <cfRule type="duplicateValues" dxfId="2787" priority="2741"/>
+    <cfRule type="duplicateValues" dxfId="2866" priority="2769"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G972 G960:G962">
-    <cfRule type="duplicateValues" dxfId="2786" priority="2743"/>
+    <cfRule type="duplicateValues" dxfId="2865" priority="2771"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G975">
-    <cfRule type="duplicateValues" dxfId="2785" priority="2672"/>
+    <cfRule type="duplicateValues" dxfId="2864" priority="2700"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G978">
-    <cfRule type="duplicateValues" dxfId="2784" priority="2665"/>
+    <cfRule type="duplicateValues" dxfId="2863" priority="2693"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G979">
-    <cfRule type="duplicateValues" dxfId="2783" priority="2667"/>
+    <cfRule type="duplicateValues" dxfId="2862" priority="2695"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G980">
-    <cfRule type="duplicateValues" dxfId="2782" priority="2669"/>
+    <cfRule type="duplicateValues" dxfId="2861" priority="2697"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G981">
-    <cfRule type="duplicateValues" dxfId="2781" priority="2671"/>
+    <cfRule type="duplicateValues" dxfId="2860" priority="2699"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G987">
-    <cfRule type="duplicateValues" dxfId="2780" priority="2675"/>
+    <cfRule type="duplicateValues" dxfId="2859" priority="2703"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G988:G991 G976:G977 G982:G986">
-    <cfRule type="duplicateValues" dxfId="2779" priority="2677"/>
+    <cfRule type="duplicateValues" dxfId="2858" priority="2705"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G988:G1015 G976:G977 G982:G986">
-    <cfRule type="duplicateValues" dxfId="2778" priority="2662"/>
+    <cfRule type="duplicateValues" dxfId="2857" priority="2690"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G993 G976:G977 G995:G1014 G988:G991 G982:G986">
-    <cfRule type="duplicateValues" dxfId="2777" priority="2663"/>
+    <cfRule type="duplicateValues" dxfId="2856" priority="2691"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G993">
-    <cfRule type="duplicateValues" dxfId="2776" priority="2676"/>
+    <cfRule type="duplicateValues" dxfId="2855" priority="2704"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1016:G1017">
-    <cfRule type="duplicateValues" dxfId="2775" priority="2678"/>
+    <cfRule type="duplicateValues" dxfId="2854" priority="2706"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1018:G1020">
-    <cfRule type="duplicateValues" dxfId="2774" priority="2660"/>
+    <cfRule type="duplicateValues" dxfId="2853" priority="2688"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1021:G1024">
-    <cfRule type="duplicateValues" dxfId="2773" priority="2659"/>
+    <cfRule type="duplicateValues" dxfId="2852" priority="2687"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1025 G1018:G1020">
-    <cfRule type="duplicateValues" dxfId="2772" priority="2661"/>
+    <cfRule type="duplicateValues" dxfId="2851" priority="2689"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1028">
-    <cfRule type="duplicateValues" dxfId="2771" priority="2632"/>
+    <cfRule type="duplicateValues" dxfId="2850" priority="2660"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1028:G1030 G1032:G1035 G1037:G1081 G1084">
-    <cfRule type="duplicateValues" dxfId="2770" priority="5561"/>
+    <cfRule type="duplicateValues" dxfId="2849" priority="5589"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1031">
-    <cfRule type="duplicateValues" dxfId="2769" priority="2595"/>
+    <cfRule type="duplicateValues" dxfId="2848" priority="2623"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1036">
-    <cfRule type="duplicateValues" dxfId="2768" priority="2601"/>
+    <cfRule type="duplicateValues" dxfId="2847" priority="2629"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1037">
-    <cfRule type="duplicateValues" dxfId="2767" priority="2605"/>
+    <cfRule type="duplicateValues" dxfId="2846" priority="2633"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1038">
-    <cfRule type="duplicateValues" dxfId="2766" priority="2625"/>
+    <cfRule type="duplicateValues" dxfId="2845" priority="2653"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1039">
-    <cfRule type="duplicateValues" dxfId="2765" priority="2627"/>
+    <cfRule type="duplicateValues" dxfId="2844" priority="2655"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1040:G1042">
-    <cfRule type="duplicateValues" dxfId="2764" priority="2629"/>
+    <cfRule type="duplicateValues" dxfId="2843" priority="2657"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1041:G1042">
-    <cfRule type="duplicateValues" dxfId="2763" priority="2631"/>
+    <cfRule type="duplicateValues" dxfId="2842" priority="2659"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1042:G1046 G1037 G1029:G1030 G1032:G1035 G1048:G1081 G1084">
-    <cfRule type="duplicateValues" dxfId="2762" priority="5571"/>
+    <cfRule type="duplicateValues" dxfId="2841" priority="5599"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1047">
-    <cfRule type="duplicateValues" dxfId="2761" priority="2635"/>
+    <cfRule type="duplicateValues" dxfId="2840" priority="2663"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1048:G1051 G1042:G1046 G1037 G1029:G1030 G1032:G1035">
-    <cfRule type="duplicateValues" dxfId="2760" priority="2637"/>
+    <cfRule type="duplicateValues" dxfId="2839" priority="2665"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1048:G1051">
-    <cfRule type="duplicateValues" dxfId="2759" priority="2621"/>
+    <cfRule type="duplicateValues" dxfId="2838" priority="2649"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1048:G1081 G1084">
-    <cfRule type="duplicateValues" dxfId="2758" priority="5576"/>
+    <cfRule type="duplicateValues" dxfId="2837" priority="5604"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1053 G1048:G1051 G1042:G1046 G1037 G1029:G1030 G1032:G1035 G1055:G1081">
-    <cfRule type="duplicateValues" dxfId="2757" priority="5564"/>
+    <cfRule type="duplicateValues" dxfId="2836" priority="5592"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1053">
-    <cfRule type="duplicateValues" dxfId="2756" priority="2636"/>
+    <cfRule type="duplicateValues" dxfId="2835" priority="2664"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1082">
-    <cfRule type="duplicateValues" dxfId="2755" priority="2585"/>
+    <cfRule type="duplicateValues" dxfId="2834" priority="2613"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1083">
-    <cfRule type="duplicateValues" dxfId="2754" priority="2584"/>
+    <cfRule type="duplicateValues" dxfId="2833" priority="2612"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1087:G1089">
-    <cfRule type="duplicateValues" dxfId="2753" priority="2592"/>
+    <cfRule type="duplicateValues" dxfId="2832" priority="2620"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1087:G1095 G1098">
-    <cfRule type="duplicateValues" dxfId="2752" priority="5597"/>
+    <cfRule type="duplicateValues" dxfId="2831" priority="5625"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1090:G1095">
-    <cfRule type="duplicateValues" dxfId="2751" priority="5600"/>
+    <cfRule type="duplicateValues" dxfId="2830" priority="5628"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1096:G1097">
-    <cfRule type="duplicateValues" dxfId="2750" priority="2578"/>
+    <cfRule type="duplicateValues" dxfId="2829" priority="2606"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1098 G1087:G1089">
-    <cfRule type="duplicateValues" dxfId="2749" priority="2593"/>
+    <cfRule type="duplicateValues" dxfId="2828" priority="2621"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1101">
-    <cfRule type="duplicateValues" dxfId="2748" priority="2550"/>
+    <cfRule type="duplicateValues" dxfId="2827" priority="2578"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1101:G1104 G1106:G1109 G1111:G1127">
-    <cfRule type="duplicateValues" dxfId="2747" priority="2556"/>
+    <cfRule type="duplicateValues" dxfId="2826" priority="2584"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1105">
-    <cfRule type="duplicateValues" dxfId="2746" priority="2516"/>
+    <cfRule type="duplicateValues" dxfId="2825" priority="2544"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1110">
-    <cfRule type="duplicateValues" dxfId="2745" priority="2522"/>
+    <cfRule type="duplicateValues" dxfId="2824" priority="2550"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1111">
-    <cfRule type="duplicateValues" dxfId="2744" priority="2526"/>
+    <cfRule type="duplicateValues" dxfId="2823" priority="2554"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1112">
-    <cfRule type="duplicateValues" dxfId="2743" priority="2543"/>
+    <cfRule type="duplicateValues" dxfId="2822" priority="2571"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1113">
-    <cfRule type="duplicateValues" dxfId="2742" priority="2545"/>
+    <cfRule type="duplicateValues" dxfId="2821" priority="2573"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1114:G1116">
-    <cfRule type="duplicateValues" dxfId="2741" priority="2547"/>
+    <cfRule type="duplicateValues" dxfId="2820" priority="2575"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1115:G1116">
-    <cfRule type="duplicateValues" dxfId="2740" priority="2549"/>
+    <cfRule type="duplicateValues" dxfId="2819" priority="2577"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1116:G1120 G1111 G1102:G1104 G1106:G1109 G1122:G1127">
-    <cfRule type="duplicateValues" dxfId="2739" priority="2558"/>
+    <cfRule type="duplicateValues" dxfId="2818" priority="2586"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1121:G1122">
-    <cfRule type="duplicateValues" dxfId="2738" priority="2553"/>
+    <cfRule type="duplicateValues" dxfId="2817" priority="2581"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1122:G1125 G1116:G1120 G1111 G1102:G1104 G1106:G1109">
-    <cfRule type="duplicateValues" dxfId="2737" priority="2555"/>
+    <cfRule type="duplicateValues" dxfId="2816" priority="2583"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1122:G1125">
-    <cfRule type="duplicateValues" dxfId="2736" priority="2541"/>
+    <cfRule type="duplicateValues" dxfId="2815" priority="2569"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1122:G1127">
-    <cfRule type="duplicateValues" dxfId="2735" priority="2559"/>
+    <cfRule type="duplicateValues" dxfId="2814" priority="2587"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1130:G1132">
-    <cfRule type="duplicateValues" dxfId="2734" priority="2505"/>
+    <cfRule type="duplicateValues" dxfId="2813" priority="2533"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1130:G1140">
-    <cfRule type="duplicateValues" dxfId="2733" priority="2508"/>
+    <cfRule type="duplicateValues" dxfId="2812" priority="2536"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1133:G1139">
-    <cfRule type="duplicateValues" dxfId="2732" priority="2509"/>
+    <cfRule type="duplicateValues" dxfId="2811" priority="2537"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1139">
-    <cfRule type="duplicateValues" dxfId="2731" priority="5659"/>
+    <cfRule type="duplicateValues" dxfId="2810" priority="5687"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1140 G1130:G1132">
-    <cfRule type="duplicateValues" dxfId="2730" priority="2506"/>
+    <cfRule type="duplicateValues" dxfId="2809" priority="2534"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1143:G1145">
-    <cfRule type="duplicateValues" dxfId="2729" priority="2490"/>
+    <cfRule type="duplicateValues" dxfId="2808" priority="2518"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1143:G1166">
-    <cfRule type="duplicateValues" dxfId="2728" priority="5690"/>
+    <cfRule type="duplicateValues" dxfId="2807" priority="5718"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1146:G1165">
-    <cfRule type="duplicateValues" dxfId="2727" priority="5693"/>
+    <cfRule type="duplicateValues" dxfId="2806" priority="5721"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1156:G1165">
-    <cfRule type="duplicateValues" dxfId="2726" priority="5697"/>
+    <cfRule type="duplicateValues" dxfId="2805" priority="5725"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1166 G1143:G1145">
-    <cfRule type="duplicateValues" dxfId="2725" priority="2491"/>
+    <cfRule type="duplicateValues" dxfId="2804" priority="2519"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1169:G1177 G1179:G1183">
-    <cfRule type="duplicateValues" dxfId="2724" priority="2476"/>
+    <cfRule type="duplicateValues" dxfId="2803" priority="2504"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1169:G1177">
-    <cfRule type="duplicateValues" dxfId="2723" priority="2477"/>
+    <cfRule type="duplicateValues" dxfId="2802" priority="2505"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1169:G1183 G1193">
-    <cfRule type="duplicateValues" dxfId="2722" priority="2475"/>
+    <cfRule type="duplicateValues" dxfId="2801" priority="2503"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1177">
-    <cfRule type="duplicateValues" dxfId="2721" priority="2474"/>
+    <cfRule type="duplicateValues" dxfId="2800" priority="2502"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1183">
-    <cfRule type="duplicateValues" dxfId="2720" priority="2473"/>
+    <cfRule type="duplicateValues" dxfId="2799" priority="2501"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1184:G1192">
-    <cfRule type="duplicateValues" dxfId="2719" priority="2440"/>
+    <cfRule type="duplicateValues" dxfId="2798" priority="2468"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1196:G1197 G1199:G1200 G1202">
-    <cfRule type="duplicateValues" dxfId="2718" priority="5768"/>
+    <cfRule type="duplicateValues" dxfId="2797" priority="5796"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1196:G1197">
-    <cfRule type="duplicateValues" dxfId="2717" priority="2458"/>
+    <cfRule type="duplicateValues" dxfId="2796" priority="2486"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1198">
-    <cfRule type="duplicateValues" dxfId="2716" priority="2452"/>
+    <cfRule type="duplicateValues" dxfId="2795" priority="2480"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1199:G1200">
-    <cfRule type="duplicateValues" dxfId="2715" priority="5771"/>
+    <cfRule type="duplicateValues" dxfId="2794" priority="5799"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1201">
-    <cfRule type="duplicateValues" dxfId="2714" priority="2438"/>
+    <cfRule type="duplicateValues" dxfId="2793" priority="2466"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1202 G1196:G1197">
-    <cfRule type="duplicateValues" dxfId="2713" priority="2459"/>
+    <cfRule type="duplicateValues" dxfId="2792" priority="2487"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1202">
-    <cfRule type="duplicateValues" dxfId="2712" priority="2456"/>
+    <cfRule type="duplicateValues" dxfId="2791" priority="2484"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1205:G1207">
-    <cfRule type="duplicateValues" dxfId="2711" priority="2442"/>
+    <cfRule type="duplicateValues" dxfId="2790" priority="2470"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1205:G1215">
-    <cfRule type="duplicateValues" dxfId="2710" priority="2444"/>
+    <cfRule type="duplicateValues" dxfId="2789" priority="2472"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1208:G1214">
-    <cfRule type="duplicateValues" dxfId="2709" priority="2445"/>
+    <cfRule type="duplicateValues" dxfId="2788" priority="2473"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1214">
-    <cfRule type="duplicateValues" dxfId="2708" priority="2446"/>
+    <cfRule type="duplicateValues" dxfId="2787" priority="2474"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1215 G1205:G1207">
-    <cfRule type="duplicateValues" dxfId="2707" priority="2443"/>
+    <cfRule type="duplicateValues" dxfId="2786" priority="2471"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1218">
-    <cfRule type="duplicateValues" dxfId="2706" priority="2428"/>
+    <cfRule type="duplicateValues" dxfId="2785" priority="2456"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1218:G1220 G1222:G1244">
-    <cfRule type="duplicateValues" dxfId="2705" priority="2434"/>
+    <cfRule type="duplicateValues" dxfId="2784" priority="2462"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1219:G1220 G1222:G1228 G1232:G1244">
-    <cfRule type="duplicateValues" dxfId="2704" priority="2433"/>
+    <cfRule type="duplicateValues" dxfId="2783" priority="2461"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1221">
-    <cfRule type="duplicateValues" dxfId="2703" priority="2394"/>
+    <cfRule type="duplicateValues" dxfId="2782" priority="2422"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1222">
-    <cfRule type="duplicateValues" dxfId="2702" priority="2329"/>
+    <cfRule type="duplicateValues" dxfId="2781" priority="2357"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1227">
-    <cfRule type="duplicateValues" dxfId="2701" priority="2404"/>
+    <cfRule type="duplicateValues" dxfId="2780" priority="2432"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1228">
-    <cfRule type="duplicateValues" dxfId="2700" priority="2421"/>
+    <cfRule type="duplicateValues" dxfId="2779" priority="2449"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1229">
-    <cfRule type="duplicateValues" dxfId="2699" priority="2423"/>
+    <cfRule type="duplicateValues" dxfId="2778" priority="2451"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1230">
-    <cfRule type="duplicateValues" dxfId="2698" priority="2349"/>
+    <cfRule type="duplicateValues" dxfId="2777" priority="2377"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1230:G1233">
-    <cfRule type="duplicateValues" dxfId="2697" priority="2425"/>
+    <cfRule type="duplicateValues" dxfId="2776" priority="2453"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1231:G1233">
-    <cfRule type="duplicateValues" dxfId="2696" priority="2427"/>
+    <cfRule type="duplicateValues" dxfId="2775" priority="2455"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1232:G1237">
-    <cfRule type="duplicateValues" dxfId="2695" priority="5808"/>
+    <cfRule type="duplicateValues" dxfId="2774" priority="5836"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1237">
-    <cfRule type="duplicateValues" dxfId="2694" priority="2431"/>
+    <cfRule type="duplicateValues" dxfId="2773" priority="2459"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1238">
-    <cfRule type="duplicateValues" dxfId="2693" priority="2352"/>
+    <cfRule type="duplicateValues" dxfId="2772" priority="2380"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1238:G1244">
-    <cfRule type="duplicateValues" dxfId="2692" priority="2419"/>
+    <cfRule type="duplicateValues" dxfId="2771" priority="2447"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1243">
-    <cfRule type="duplicateValues" dxfId="2691" priority="2432"/>
+    <cfRule type="duplicateValues" dxfId="2770" priority="2460"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1244">
-    <cfRule type="duplicateValues" dxfId="2690" priority="2353"/>
+    <cfRule type="duplicateValues" dxfId="2769" priority="2381"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1244:G1249">
-    <cfRule type="duplicateValues" dxfId="2689" priority="2380"/>
+    <cfRule type="duplicateValues" dxfId="2768" priority="2408"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1244:G1251 G1257">
-    <cfRule type="duplicateValues" dxfId="2688" priority="5845"/>
+    <cfRule type="duplicateValues" dxfId="2767" priority="5873"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1248">
-    <cfRule type="duplicateValues" dxfId="2687" priority="2374"/>
+    <cfRule type="duplicateValues" dxfId="2766" priority="2402"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1249">
-    <cfRule type="duplicateValues" dxfId="2686" priority="2321"/>
+    <cfRule type="duplicateValues" dxfId="2765" priority="2349"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1249:G1251 G1257">
-    <cfRule type="duplicateValues" dxfId="2685" priority="5847"/>
+    <cfRule type="duplicateValues" dxfId="2764" priority="5875"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1252:G1254">
-    <cfRule type="duplicateValues" dxfId="2684" priority="2306"/>
+    <cfRule type="duplicateValues" dxfId="2763" priority="2334"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1252:G1256">
-    <cfRule type="duplicateValues" dxfId="2683" priority="2307"/>
+    <cfRule type="duplicateValues" dxfId="2762" priority="2335"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1253">
-    <cfRule type="duplicateValues" dxfId="2682" priority="2305"/>
+    <cfRule type="duplicateValues" dxfId="2761" priority="2333"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1254">
-    <cfRule type="duplicateValues" dxfId="2681" priority="2292"/>
+    <cfRule type="duplicateValues" dxfId="2760" priority="2320"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1254:G1256">
-    <cfRule type="duplicateValues" dxfId="2680" priority="2308"/>
+    <cfRule type="duplicateValues" dxfId="2759" priority="2336"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1257">
-    <cfRule type="duplicateValues" dxfId="2679" priority="2375"/>
+    <cfRule type="duplicateValues" dxfId="2758" priority="2403"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1260:G1262">
-    <cfRule type="duplicateValues" dxfId="2678" priority="2354"/>
+    <cfRule type="duplicateValues" dxfId="2757" priority="2382"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1260:G1267 G1273">
-    <cfRule type="duplicateValues" dxfId="2677" priority="2356"/>
+    <cfRule type="duplicateValues" dxfId="2756" priority="2384"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1263:G1267">
-    <cfRule type="duplicateValues" dxfId="2676" priority="2357"/>
+    <cfRule type="duplicateValues" dxfId="2755" priority="2385"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1268:G1272">
-    <cfRule type="duplicateValues" dxfId="2675" priority="2278"/>
+    <cfRule type="duplicateValues" dxfId="2754" priority="2306"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1273 G1260:G1262">
-    <cfRule type="duplicateValues" dxfId="2674" priority="2355"/>
+    <cfRule type="duplicateValues" dxfId="2753" priority="2383"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1276">
-    <cfRule type="duplicateValues" dxfId="2673" priority="2266"/>
+    <cfRule type="duplicateValues" dxfId="2752" priority="2294"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1276:G1278 G1280:G1303">
-    <cfRule type="duplicateValues" dxfId="2672" priority="2272"/>
+    <cfRule type="duplicateValues" dxfId="2751" priority="2300"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1277:G1278 G1280:G1286 G1290:G1303">
-    <cfRule type="duplicateValues" dxfId="2671" priority="2271"/>
+    <cfRule type="duplicateValues" dxfId="2750" priority="2299"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1279">
-    <cfRule type="duplicateValues" dxfId="2670" priority="2235"/>
+    <cfRule type="duplicateValues" dxfId="2749" priority="2263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1280">
-    <cfRule type="duplicateValues" dxfId="2669" priority="2186"/>
+    <cfRule type="duplicateValues" dxfId="2748" priority="2214"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1285">
-    <cfRule type="duplicateValues" dxfId="2668" priority="2242"/>
+    <cfRule type="duplicateValues" dxfId="2747" priority="2270"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1286">
-    <cfRule type="duplicateValues" dxfId="2667" priority="2259"/>
+    <cfRule type="duplicateValues" dxfId="2746" priority="2287"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1287">
-    <cfRule type="duplicateValues" dxfId="2666" priority="2261"/>
+    <cfRule type="duplicateValues" dxfId="2745" priority="2289"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1288">
-    <cfRule type="duplicateValues" dxfId="2665" priority="2206"/>
+    <cfRule type="duplicateValues" dxfId="2744" priority="2234"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1288:G1291">
-    <cfRule type="duplicateValues" dxfId="2664" priority="2263"/>
+    <cfRule type="duplicateValues" dxfId="2743" priority="2291"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1289:G1291">
-    <cfRule type="duplicateValues" dxfId="2663" priority="2265"/>
+    <cfRule type="duplicateValues" dxfId="2742" priority="2293"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1290:G1295">
-    <cfRule type="duplicateValues" dxfId="2662" priority="2275"/>
+    <cfRule type="duplicateValues" dxfId="2741" priority="2303"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1295">
-    <cfRule type="duplicateValues" dxfId="2661" priority="2269"/>
+    <cfRule type="duplicateValues" dxfId="2740" priority="2297"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1296">
-    <cfRule type="duplicateValues" dxfId="2660" priority="2209"/>
+    <cfRule type="duplicateValues" dxfId="2739" priority="2237"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1296:G1303">
-    <cfRule type="duplicateValues" dxfId="2659" priority="2257"/>
+    <cfRule type="duplicateValues" dxfId="2738" priority="2285"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1301:G1303">
-    <cfRule type="duplicateValues" dxfId="2658" priority="2270"/>
+    <cfRule type="duplicateValues" dxfId="2737" priority="2298"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1302:G1303">
-    <cfRule type="duplicateValues" dxfId="2657" priority="2210"/>
+    <cfRule type="duplicateValues" dxfId="2736" priority="2238"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1302:G1313">
-    <cfRule type="duplicateValues" dxfId="2656" priority="2227"/>
+    <cfRule type="duplicateValues" dxfId="2735" priority="2255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1302:G1314">
-    <cfRule type="duplicateValues" dxfId="2655" priority="2276"/>
+    <cfRule type="duplicateValues" dxfId="2734" priority="2304"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1306:G1313">
-    <cfRule type="duplicateValues" dxfId="2654" priority="2225"/>
+    <cfRule type="duplicateValues" dxfId="2733" priority="2253"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1307:G1313">
-    <cfRule type="duplicateValues" dxfId="2653" priority="2178"/>
+    <cfRule type="duplicateValues" dxfId="2732" priority="2206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1307:G1314">
-    <cfRule type="duplicateValues" dxfId="2652" priority="2277"/>
+    <cfRule type="duplicateValues" dxfId="2731" priority="2305"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1314">
-    <cfRule type="duplicateValues" dxfId="2651" priority="2226"/>
+    <cfRule type="duplicateValues" dxfId="2730" priority="2254"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1317:G1319">
-    <cfRule type="duplicateValues" dxfId="2650" priority="2133"/>
+    <cfRule type="duplicateValues" dxfId="2729" priority="2161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1320:G1326">
-    <cfRule type="duplicateValues" dxfId="2649" priority="2136"/>
+    <cfRule type="duplicateValues" dxfId="2728" priority="2164"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1325:G1333">
-    <cfRule type="duplicateValues" dxfId="2648" priority="5935"/>
+    <cfRule type="duplicateValues" dxfId="2727" priority="5963"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1334 G1317:G1319">
-    <cfRule type="duplicateValues" dxfId="2647" priority="2134"/>
+    <cfRule type="duplicateValues" dxfId="2726" priority="2162"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1334 G1317:G1326">
-    <cfRule type="duplicateValues" dxfId="2646" priority="2135"/>
+    <cfRule type="duplicateValues" dxfId="2725" priority="2163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1337">
-    <cfRule type="duplicateValues" dxfId="2645" priority="2110"/>
+    <cfRule type="duplicateValues" dxfId="2724" priority="2138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1337:G1339 G1341:G1364">
-    <cfRule type="duplicateValues" dxfId="2644" priority="7485"/>
+    <cfRule type="duplicateValues" dxfId="2723" priority="7513"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1338:G1339 G1341:G1364">
-    <cfRule type="duplicateValues" dxfId="2643" priority="7480"/>
+    <cfRule type="duplicateValues" dxfId="2722" priority="7508"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1340:G1341">
-    <cfRule type="duplicateValues" dxfId="2642" priority="2079"/>
+    <cfRule type="duplicateValues" dxfId="2721" priority="2107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1341">
-    <cfRule type="duplicateValues" dxfId="2641" priority="2037"/>
+    <cfRule type="duplicateValues" dxfId="2720" priority="2065"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1342">
-    <cfRule type="duplicateValues" dxfId="2640" priority="1991"/>
+    <cfRule type="duplicateValues" dxfId="2719" priority="2019"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1343">
-    <cfRule type="duplicateValues" dxfId="2639" priority="1962"/>
+    <cfRule type="duplicateValues" dxfId="2718" priority="1990"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1344">
-    <cfRule type="duplicateValues" dxfId="2638" priority="1854"/>
+    <cfRule type="duplicateValues" dxfId="2717" priority="1882"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1346">
-    <cfRule type="duplicateValues" dxfId="2637" priority="2086"/>
+    <cfRule type="duplicateValues" dxfId="2716" priority="2114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1347">
-    <cfRule type="duplicateValues" dxfId="2636" priority="2103"/>
+    <cfRule type="duplicateValues" dxfId="2715" priority="2131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1348">
-    <cfRule type="duplicateValues" dxfId="2635" priority="2105"/>
+    <cfRule type="duplicateValues" dxfId="2714" priority="2133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1349">
-    <cfRule type="duplicateValues" dxfId="2634" priority="2057"/>
+    <cfRule type="duplicateValues" dxfId="2713" priority="2085"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1349:G1354">
-    <cfRule type="duplicateValues" dxfId="2633" priority="7484"/>
+    <cfRule type="duplicateValues" dxfId="2712" priority="7512"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1350">
-    <cfRule type="duplicateValues" dxfId="2632" priority="2006"/>
+    <cfRule type="duplicateValues" dxfId="2711" priority="2034"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1350:G1354">
-    <cfRule type="duplicateValues" dxfId="2631" priority="7483"/>
+    <cfRule type="duplicateValues" dxfId="2710" priority="7511"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1351">
-    <cfRule type="duplicateValues" dxfId="2630" priority="1977"/>
+    <cfRule type="duplicateValues" dxfId="2709" priority="2005"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1351:G1358">
-    <cfRule type="duplicateValues" dxfId="2629" priority="7488"/>
+    <cfRule type="duplicateValues" dxfId="2708" priority="7516"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1352">
-    <cfRule type="duplicateValues" dxfId="2628" priority="1869"/>
+    <cfRule type="duplicateValues" dxfId="2707" priority="1897"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1355">
-    <cfRule type="duplicateValues" dxfId="2627" priority="2113"/>
+    <cfRule type="duplicateValues" dxfId="2706" priority="2141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1356">
-    <cfRule type="duplicateValues" dxfId="2626" priority="2060"/>
+    <cfRule type="duplicateValues" dxfId="2705" priority="2088"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1356:G1364">
-    <cfRule type="duplicateValues" dxfId="2625" priority="2101"/>
+    <cfRule type="duplicateValues" dxfId="2704" priority="2129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1357">
-    <cfRule type="duplicateValues" dxfId="2624" priority="2009"/>
+    <cfRule type="duplicateValues" dxfId="2703" priority="2037"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1358">
-    <cfRule type="duplicateValues" dxfId="2623" priority="1980"/>
+    <cfRule type="duplicateValues" dxfId="2702" priority="2008"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1359">
-    <cfRule type="duplicateValues" dxfId="2622" priority="1872"/>
+    <cfRule type="duplicateValues" dxfId="2701" priority="1900"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1361:G1364">
-    <cfRule type="duplicateValues" dxfId="2621" priority="2114"/>
+    <cfRule type="duplicateValues" dxfId="2700" priority="2142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1362:G1364">
-    <cfRule type="duplicateValues" dxfId="2620" priority="2061"/>
+    <cfRule type="duplicateValues" dxfId="2699" priority="2089"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1362:G1372">
-    <cfRule type="duplicateValues" dxfId="2619" priority="6823"/>
+    <cfRule type="duplicateValues" dxfId="2698" priority="6851"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1362:G1373">
-    <cfRule type="duplicateValues" dxfId="2618" priority="2071"/>
+    <cfRule type="duplicateValues" dxfId="2697" priority="2099"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1366:G1372">
-    <cfRule type="duplicateValues" dxfId="2617" priority="6817"/>
+    <cfRule type="duplicateValues" dxfId="2696" priority="6845"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1367:G1372">
-    <cfRule type="duplicateValues" dxfId="2616" priority="6860"/>
+    <cfRule type="duplicateValues" dxfId="2695" priority="6888"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1367:G1373">
-    <cfRule type="duplicateValues" dxfId="2615" priority="2029"/>
+    <cfRule type="duplicateValues" dxfId="2694" priority="2057"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1373">
-    <cfRule type="duplicateValues" dxfId="2614" priority="2070"/>
+    <cfRule type="duplicateValues" dxfId="2693" priority="2098"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1376:G1377 G1379:G1384">
-    <cfRule type="duplicateValues" dxfId="2613" priority="7428"/>
+    <cfRule type="duplicateValues" dxfId="2692" priority="7456"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1376:G1377">
-    <cfRule type="duplicateValues" dxfId="2612" priority="1843"/>
+    <cfRule type="duplicateValues" dxfId="2691" priority="1871"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1379:G1384">
-    <cfRule type="duplicateValues" dxfId="2611" priority="7430"/>
+    <cfRule type="duplicateValues" dxfId="2690" priority="7458"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1379:G1385">
-    <cfRule type="duplicateValues" dxfId="2610" priority="1840"/>
+    <cfRule type="duplicateValues" dxfId="2689" priority="1868"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1384">
-    <cfRule type="duplicateValues" dxfId="2609" priority="7431"/>
+    <cfRule type="duplicateValues" dxfId="2688" priority="7459"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1388">
-    <cfRule type="duplicateValues" dxfId="2608" priority="1826"/>
+    <cfRule type="duplicateValues" dxfId="2687" priority="1854"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1388:G1410">
-    <cfRule type="duplicateValues" dxfId="2607" priority="8066"/>
+    <cfRule type="duplicateValues" dxfId="2686" priority="8094"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1389:G1410">
-    <cfRule type="duplicateValues" dxfId="2606" priority="8068"/>
+    <cfRule type="duplicateValues" dxfId="2685" priority="8096"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1391">
-    <cfRule type="duplicateValues" dxfId="2605" priority="1814"/>
+    <cfRule type="duplicateValues" dxfId="2684" priority="1842"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1392">
-    <cfRule type="duplicateValues" dxfId="2604" priority="1807"/>
+    <cfRule type="duplicateValues" dxfId="2683" priority="1835"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1393">
-    <cfRule type="duplicateValues" dxfId="2603" priority="1803"/>
+    <cfRule type="duplicateValues" dxfId="2682" priority="1831"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1394:G1396">
-    <cfRule type="duplicateValues" dxfId="2602" priority="1799"/>
+    <cfRule type="duplicateValues" dxfId="2681" priority="1827"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1396">
-    <cfRule type="duplicateValues" dxfId="2601" priority="1822"/>
+    <cfRule type="duplicateValues" dxfId="2680" priority="1850"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1397">
-    <cfRule type="duplicateValues" dxfId="2600" priority="1824"/>
+    <cfRule type="duplicateValues" dxfId="2679" priority="1852"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1398:G1399">
-    <cfRule type="duplicateValues" dxfId="2599" priority="1825"/>
+    <cfRule type="duplicateValues" dxfId="2678" priority="1853"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1399">
-    <cfRule type="duplicateValues" dxfId="2598" priority="1815"/>
+    <cfRule type="duplicateValues" dxfId="2677" priority="1843"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1399:G1404">
-    <cfRule type="duplicateValues" dxfId="2597" priority="1834"/>
+    <cfRule type="duplicateValues" dxfId="2676" priority="1862"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1400">
-    <cfRule type="duplicateValues" dxfId="2596" priority="1808"/>
+    <cfRule type="duplicateValues" dxfId="2675" priority="1836"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1400:G1404">
-    <cfRule type="duplicateValues" dxfId="2595" priority="1833"/>
+    <cfRule type="duplicateValues" dxfId="2674" priority="1861"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1401">
-    <cfRule type="duplicateValues" dxfId="2594" priority="1804"/>
+    <cfRule type="duplicateValues" dxfId="2673" priority="1832"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1401:G1408">
-    <cfRule type="duplicateValues" dxfId="2593" priority="1836"/>
+    <cfRule type="duplicateValues" dxfId="2672" priority="1864"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1402">
-    <cfRule type="duplicateValues" dxfId="2592" priority="1800"/>
+    <cfRule type="duplicateValues" dxfId="2671" priority="1828"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1405">
-    <cfRule type="duplicateValues" dxfId="2591" priority="1827"/>
+    <cfRule type="duplicateValues" dxfId="2670" priority="1855"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1406">
-    <cfRule type="duplicateValues" dxfId="2590" priority="1816"/>
+    <cfRule type="duplicateValues" dxfId="2669" priority="1844"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1406:G1410">
-    <cfRule type="duplicateValues" dxfId="2589" priority="8087"/>
+    <cfRule type="duplicateValues" dxfId="2668" priority="8115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1407">
-    <cfRule type="duplicateValues" dxfId="2588" priority="1809"/>
+    <cfRule type="duplicateValues" dxfId="2667" priority="1837"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1408">
-    <cfRule type="duplicateValues" dxfId="2587" priority="1805"/>
+    <cfRule type="duplicateValues" dxfId="2666" priority="1833"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1409">
-    <cfRule type="duplicateValues" dxfId="2586" priority="1801"/>
+    <cfRule type="duplicateValues" dxfId="2665" priority="1829"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1411">
-    <cfRule type="duplicateValues" dxfId="2585" priority="1818"/>
+    <cfRule type="duplicateValues" dxfId="2664" priority="1846"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1414:G1415 G1417:G1420">
-    <cfRule type="duplicateValues" dxfId="2584" priority="8133"/>
+    <cfRule type="duplicateValues" dxfId="2663" priority="8161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1414:G1415">
-    <cfRule type="duplicateValues" dxfId="2583" priority="1792"/>
+    <cfRule type="duplicateValues" dxfId="2662" priority="1820"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1417:G1420">
-    <cfRule type="duplicateValues" dxfId="2582" priority="8135"/>
+    <cfRule type="duplicateValues" dxfId="2661" priority="8163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1417:G1421">
-    <cfRule type="duplicateValues" dxfId="2581" priority="8136"/>
+    <cfRule type="duplicateValues" dxfId="2660" priority="8164"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1425 G1438:G1461 G1427:G1428 G1430:G1436">
-    <cfRule type="duplicateValues" dxfId="2580" priority="10569"/>
+    <cfRule type="duplicateValues" dxfId="2659" priority="10597"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1427">
-    <cfRule type="duplicateValues" dxfId="2579" priority="1784"/>
+    <cfRule type="duplicateValues" dxfId="2658" priority="1812"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1427:G1428 G1430:G1436">
-    <cfRule type="duplicateValues" dxfId="2578" priority="1783"/>
+    <cfRule type="duplicateValues" dxfId="2657" priority="1811"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1428">
-    <cfRule type="duplicateValues" dxfId="2577" priority="1692"/>
+    <cfRule type="duplicateValues" dxfId="2656" priority="1720"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1430">
-    <cfRule type="duplicateValues" dxfId="2576" priority="1626"/>
+    <cfRule type="duplicateValues" dxfId="2655" priority="1654"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1430:G1431">
-    <cfRule type="duplicateValues" dxfId="2575" priority="1627"/>
+    <cfRule type="duplicateValues" dxfId="2654" priority="1655"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1430:G1436 G1438:G1461 G1427:G1428 G1425">
-    <cfRule type="duplicateValues" dxfId="2574" priority="10567"/>
+    <cfRule type="duplicateValues" dxfId="2653" priority="10595"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1430:G1436">
-    <cfRule type="duplicateValues" dxfId="2573" priority="1755"/>
+    <cfRule type="duplicateValues" dxfId="2652" priority="1783"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1431">
-    <cfRule type="duplicateValues" dxfId="2572" priority="1625"/>
+    <cfRule type="duplicateValues" dxfId="2651" priority="1653"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1431:G1436">
-    <cfRule type="duplicateValues" dxfId="2571" priority="1754"/>
+    <cfRule type="duplicateValues" dxfId="2650" priority="1782"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1432 G1428 G1430">
-    <cfRule type="duplicateValues" dxfId="2570" priority="1691"/>
+    <cfRule type="duplicateValues" dxfId="2649" priority="1719"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1432">
-    <cfRule type="duplicateValues" dxfId="2569" priority="1780"/>
+    <cfRule type="duplicateValues" dxfId="2648" priority="1808"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1432:G1433">
-    <cfRule type="duplicateValues" dxfId="2568" priority="1781"/>
+    <cfRule type="duplicateValues" dxfId="2647" priority="1809"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1432:G1436">
-    <cfRule type="duplicateValues" dxfId="2567" priority="1778"/>
+    <cfRule type="duplicateValues" dxfId="2646" priority="1806"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1433">
-    <cfRule type="duplicateValues" dxfId="2566" priority="1779"/>
+    <cfRule type="duplicateValues" dxfId="2645" priority="1807"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1433:G1434">
-    <cfRule type="duplicateValues" dxfId="2565" priority="1624"/>
+    <cfRule type="duplicateValues" dxfId="2644" priority="1652"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1433:G1436 G1438:G1451">
-    <cfRule type="duplicateValues" dxfId="2564" priority="1775"/>
+    <cfRule type="duplicateValues" dxfId="2643" priority="1803"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1434">
-    <cfRule type="duplicateValues" dxfId="2563" priority="1688"/>
+    <cfRule type="duplicateValues" dxfId="2642" priority="1716"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1434:G1436 G1438:G1451">
-    <cfRule type="duplicateValues" dxfId="2562" priority="1773"/>
+    <cfRule type="duplicateValues" dxfId="2641" priority="1801"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1435">
-    <cfRule type="duplicateValues" dxfId="2561" priority="1611"/>
+    <cfRule type="duplicateValues" dxfId="2640" priority="1639"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1435:G1436">
-    <cfRule type="duplicateValues" dxfId="2560" priority="1776"/>
+    <cfRule type="duplicateValues" dxfId="2639" priority="1804"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1436">
-    <cfRule type="duplicateValues" dxfId="2559" priority="1774"/>
+    <cfRule type="duplicateValues" dxfId="2638" priority="1802"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1438">
-    <cfRule type="duplicateValues" dxfId="2558" priority="1664"/>
+    <cfRule type="duplicateValues" dxfId="2637" priority="1692"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1438:G1451">
-    <cfRule type="duplicateValues" dxfId="2557" priority="1747"/>
+    <cfRule type="duplicateValues" dxfId="2636" priority="1775"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1438:G1461">
-    <cfRule type="duplicateValues" dxfId="2556" priority="13708"/>
+    <cfRule type="duplicateValues" dxfId="2635" priority="13736"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1439">
-    <cfRule type="duplicateValues" dxfId="2555" priority="1677"/>
+    <cfRule type="duplicateValues" dxfId="2634" priority="1705"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1440">
-    <cfRule type="duplicateValues" dxfId="2554" priority="1683"/>
+    <cfRule type="duplicateValues" dxfId="2633" priority="1711"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1440:G1451">
-    <cfRule type="duplicateValues" dxfId="2553" priority="1745"/>
+    <cfRule type="duplicateValues" dxfId="2632" priority="1773"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1441">
-    <cfRule type="duplicateValues" dxfId="2552" priority="1746"/>
+    <cfRule type="duplicateValues" dxfId="2631" priority="1774"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1441:G1448">
-    <cfRule type="duplicateValues" dxfId="2551" priority="1744"/>
+    <cfRule type="duplicateValues" dxfId="2630" priority="1772"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1442">
-    <cfRule type="duplicateValues" dxfId="2550" priority="1682"/>
+    <cfRule type="duplicateValues" dxfId="2629" priority="1710"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1442:G1449">
-    <cfRule type="duplicateValues" dxfId="2549" priority="1743"/>
+    <cfRule type="duplicateValues" dxfId="2628" priority="1771"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1443">
-    <cfRule type="duplicateValues" dxfId="2548" priority="1660"/>
+    <cfRule type="duplicateValues" dxfId="2627" priority="1688"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1444">
-    <cfRule type="duplicateValues" dxfId="2547" priority="1739"/>
+    <cfRule type="duplicateValues" dxfId="2626" priority="1767"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1444:G1451">
-    <cfRule type="duplicateValues" dxfId="2546" priority="1738"/>
+    <cfRule type="duplicateValues" dxfId="2625" priority="1766"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1445">
-    <cfRule type="duplicateValues" dxfId="2545" priority="1678"/>
+    <cfRule type="duplicateValues" dxfId="2624" priority="1706"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1445:G1451">
-    <cfRule type="duplicateValues" dxfId="2544" priority="1737"/>
+    <cfRule type="duplicateValues" dxfId="2623" priority="1765"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1446">
-    <cfRule type="duplicateValues" dxfId="2543" priority="1742"/>
+    <cfRule type="duplicateValues" dxfId="2622" priority="1770"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1447">
-    <cfRule type="duplicateValues" dxfId="2542" priority="1741"/>
+    <cfRule type="duplicateValues" dxfId="2621" priority="1769"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1448">
-    <cfRule type="duplicateValues" dxfId="2541" priority="1740"/>
+    <cfRule type="duplicateValues" dxfId="2620" priority="1768"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1449">
-    <cfRule type="duplicateValues" dxfId="2540" priority="1769"/>
+    <cfRule type="duplicateValues" dxfId="2619" priority="1797"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1449:G1459">
-    <cfRule type="duplicateValues" dxfId="2539" priority="1736"/>
+    <cfRule type="duplicateValues" dxfId="2618" priority="1764"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1449:G1461">
-    <cfRule type="duplicateValues" dxfId="2538" priority="10559"/>
+    <cfRule type="duplicateValues" dxfId="2617" priority="10587"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1450">
-    <cfRule type="duplicateValues" dxfId="2537" priority="1684"/>
+    <cfRule type="duplicateValues" dxfId="2616" priority="1712"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1450:G1459">
-    <cfRule type="duplicateValues" dxfId="2536" priority="1730"/>
+    <cfRule type="duplicateValues" dxfId="2615" priority="1758"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1451">
-    <cfRule type="duplicateValues" dxfId="2535" priority="1662"/>
+    <cfRule type="duplicateValues" dxfId="2614" priority="1690"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1451:G1459">
-    <cfRule type="duplicateValues" dxfId="2534" priority="1726"/>
+    <cfRule type="duplicateValues" dxfId="2613" priority="1754"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1452">
-    <cfRule type="duplicateValues" dxfId="2533" priority="1637"/>
+    <cfRule type="duplicateValues" dxfId="2612" priority="1665"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1452:G1461">
-    <cfRule type="duplicateValues" dxfId="2532" priority="10561"/>
+    <cfRule type="duplicateValues" dxfId="2611" priority="10589"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1453">
-    <cfRule type="duplicateValues" dxfId="2531" priority="1569"/>
+    <cfRule type="duplicateValues" dxfId="2610" priority="1597"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1454">
-    <cfRule type="duplicateValues" dxfId="2530" priority="1567"/>
+    <cfRule type="duplicateValues" dxfId="2609" priority="1595"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1454:G1461">
-    <cfRule type="duplicateValues" dxfId="2529" priority="10562"/>
+    <cfRule type="duplicateValues" dxfId="2608" priority="10590"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1455">
-    <cfRule type="duplicateValues" dxfId="2528" priority="1565"/>
+    <cfRule type="duplicateValues" dxfId="2607" priority="1593"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1455:G1461">
-    <cfRule type="duplicateValues" dxfId="2527" priority="10556"/>
+    <cfRule type="duplicateValues" dxfId="2606" priority="10584"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1456">
-    <cfRule type="duplicateValues" dxfId="2526" priority="1561"/>
+    <cfRule type="duplicateValues" dxfId="2605" priority="1589"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1456:G1461">
-    <cfRule type="duplicateValues" dxfId="2525" priority="10557"/>
+    <cfRule type="duplicateValues" dxfId="2604" priority="10585"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1457">
-    <cfRule type="duplicateValues" dxfId="2524" priority="1724"/>
+    <cfRule type="duplicateValues" dxfId="2603" priority="1752"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1458">
-    <cfRule type="duplicateValues" dxfId="2523" priority="9963"/>
+    <cfRule type="duplicateValues" dxfId="2602" priority="9991"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1458:G1461">
-    <cfRule type="duplicateValues" dxfId="2522" priority="1568"/>
+    <cfRule type="duplicateValues" dxfId="2601" priority="1596"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1459">
-    <cfRule type="duplicateValues" dxfId="2521" priority="1655"/>
+    <cfRule type="duplicateValues" dxfId="2600" priority="1683"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1460">
-    <cfRule type="duplicateValues" dxfId="2520" priority="1632"/>
+    <cfRule type="duplicateValues" dxfId="2599" priority="1660"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1462">
-    <cfRule type="duplicateValues" dxfId="2519" priority="1764"/>
+    <cfRule type="duplicateValues" dxfId="2598" priority="1792"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1466 G1468:G1489 G1491:G1492">
-    <cfRule type="duplicateValues" dxfId="2518" priority="12092"/>
+    <cfRule type="duplicateValues" dxfId="2597" priority="12120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1468">
-    <cfRule type="duplicateValues" dxfId="2517" priority="1559"/>
+    <cfRule type="duplicateValues" dxfId="2596" priority="1587"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1468:G1478">
-    <cfRule type="duplicateValues" dxfId="2516" priority="1558"/>
+    <cfRule type="duplicateValues" dxfId="2595" priority="1586"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1469">
-    <cfRule type="duplicateValues" dxfId="2515" priority="1529"/>
+    <cfRule type="duplicateValues" dxfId="2594" priority="1557"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1470">
-    <cfRule type="duplicateValues" dxfId="2514" priority="1461"/>
+    <cfRule type="duplicateValues" dxfId="2593" priority="1489"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1471">
-    <cfRule type="duplicateValues" dxfId="2513" priority="1514"/>
+    <cfRule type="duplicateValues" dxfId="2592" priority="1542"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1471:G1473">
-    <cfRule type="duplicateValues" dxfId="2512" priority="1515"/>
+    <cfRule type="duplicateValues" dxfId="2591" priority="1543"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1471:G1478">
-    <cfRule type="duplicateValues" dxfId="2511" priority="1547"/>
+    <cfRule type="duplicateValues" dxfId="2590" priority="1575"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1472">
-    <cfRule type="duplicateValues" dxfId="2510" priority="1513"/>
+    <cfRule type="duplicateValues" dxfId="2589" priority="1541"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1472:G1478">
-    <cfRule type="duplicateValues" dxfId="2509" priority="1546"/>
+    <cfRule type="duplicateValues" dxfId="2588" priority="1574"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1473 G1469 G1471">
-    <cfRule type="duplicateValues" dxfId="2508" priority="1528"/>
+    <cfRule type="duplicateValues" dxfId="2587" priority="1556"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1473">
-    <cfRule type="duplicateValues" dxfId="2507" priority="1556"/>
+    <cfRule type="duplicateValues" dxfId="2586" priority="1584"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1473:G1475">
-    <cfRule type="duplicateValues" dxfId="2506" priority="1557"/>
+    <cfRule type="duplicateValues" dxfId="2585" priority="1585"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1473:G1478">
-    <cfRule type="duplicateValues" dxfId="2505" priority="1554"/>
+    <cfRule type="duplicateValues" dxfId="2584" priority="1582"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1474 G1470 G1472">
-    <cfRule type="duplicateValues" dxfId="2504" priority="1460"/>
+    <cfRule type="duplicateValues" dxfId="2583" priority="1488"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1474">
-    <cfRule type="duplicateValues" dxfId="2503" priority="1555"/>
+    <cfRule type="duplicateValues" dxfId="2582" priority="1583"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1474:G1476">
-    <cfRule type="duplicateValues" dxfId="2502" priority="1512"/>
+    <cfRule type="duplicateValues" dxfId="2581" priority="1540"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1474:G1489 G1491:G1492">
-    <cfRule type="duplicateValues" dxfId="2501" priority="1552"/>
+    <cfRule type="duplicateValues" dxfId="2580" priority="1580"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1475">
-    <cfRule type="duplicateValues" dxfId="2500" priority="1527"/>
+    <cfRule type="duplicateValues" dxfId="2579" priority="1555"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1475:G1489 G1491:G1492">
-    <cfRule type="duplicateValues" dxfId="2499" priority="1550"/>
+    <cfRule type="duplicateValues" dxfId="2578" priority="1578"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1476">
-    <cfRule type="duplicateValues" dxfId="2498" priority="1511"/>
+    <cfRule type="duplicateValues" dxfId="2577" priority="1539"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1476:G1478">
-    <cfRule type="duplicateValues" dxfId="2497" priority="1553"/>
+    <cfRule type="duplicateValues" dxfId="2576" priority="1581"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1477">
-    <cfRule type="duplicateValues" dxfId="2496" priority="1551"/>
+    <cfRule type="duplicateValues" dxfId="2575" priority="1579"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1478">
-    <cfRule type="duplicateValues" dxfId="2495" priority="1464"/>
+    <cfRule type="duplicateValues" dxfId="2574" priority="1492"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1479">
-    <cfRule type="duplicateValues" dxfId="2494" priority="1521"/>
+    <cfRule type="duplicateValues" dxfId="2573" priority="1549"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1479:G1489 G1491:G1492">
-    <cfRule type="duplicateValues" dxfId="2493" priority="1544"/>
+    <cfRule type="duplicateValues" dxfId="2572" priority="1572"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1480">
-    <cfRule type="duplicateValues" dxfId="2492" priority="1545"/>
+    <cfRule type="duplicateValues" dxfId="2571" priority="1573"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1481">
-    <cfRule type="duplicateValues" dxfId="2491" priority="1525"/>
+    <cfRule type="duplicateValues" dxfId="2570" priority="1553"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1481:G1489 G1491:G1492">
-    <cfRule type="duplicateValues" dxfId="2490" priority="1542"/>
+    <cfRule type="duplicateValues" dxfId="2569" priority="1570"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1482">
-    <cfRule type="duplicateValues" dxfId="2489" priority="1543"/>
+    <cfRule type="duplicateValues" dxfId="2568" priority="1571"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1482:G1489">
-    <cfRule type="duplicateValues" dxfId="2488" priority="1541"/>
+    <cfRule type="duplicateValues" dxfId="2567" priority="1569"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1483">
-    <cfRule type="duplicateValues" dxfId="2487" priority="1524"/>
+    <cfRule type="duplicateValues" dxfId="2566" priority="1552"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1483:G1489">
-    <cfRule type="duplicateValues" dxfId="2486" priority="1540"/>
+    <cfRule type="duplicateValues" dxfId="2565" priority="1568"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1484">
-    <cfRule type="duplicateValues" dxfId="2485" priority="1519"/>
+    <cfRule type="duplicateValues" dxfId="2564" priority="1547"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1485">
-    <cfRule type="duplicateValues" dxfId="2484" priority="1536"/>
+    <cfRule type="duplicateValues" dxfId="2563" priority="1564"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1485:G1489 G1491:G1492">
-    <cfRule type="duplicateValues" dxfId="2483" priority="1535"/>
+    <cfRule type="duplicateValues" dxfId="2562" priority="1563"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1486">
-    <cfRule type="duplicateValues" dxfId="2482" priority="1523"/>
+    <cfRule type="duplicateValues" dxfId="2561" priority="1551"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1486:G1489 G1491:G1492">
-    <cfRule type="duplicateValues" dxfId="2481" priority="1534"/>
+    <cfRule type="duplicateValues" dxfId="2560" priority="1562"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1487">
-    <cfRule type="duplicateValues" dxfId="2480" priority="1539"/>
+    <cfRule type="duplicateValues" dxfId="2559" priority="1567"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1488">
-    <cfRule type="duplicateValues" dxfId="2479" priority="1538"/>
+    <cfRule type="duplicateValues" dxfId="2558" priority="1566"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1489">
-    <cfRule type="duplicateValues" dxfId="2478" priority="1537"/>
+    <cfRule type="duplicateValues" dxfId="2557" priority="1565"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1491:G1492">
-    <cfRule type="duplicateValues" dxfId="2477" priority="1526"/>
+    <cfRule type="duplicateValues" dxfId="2556" priority="1554"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1492">
-    <cfRule type="duplicateValues" dxfId="2476" priority="1520"/>
+    <cfRule type="duplicateValues" dxfId="2555" priority="1548"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1493">
-    <cfRule type="duplicateValues" dxfId="2475" priority="1548"/>
+    <cfRule type="duplicateValues" dxfId="2554" priority="1576"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1497 G1499:G1504">
-    <cfRule type="duplicateValues" dxfId="2474" priority="12846"/>
+    <cfRule type="duplicateValues" dxfId="2553" priority="12874"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1499">
-    <cfRule type="duplicateValues" dxfId="2473" priority="1490"/>
+    <cfRule type="duplicateValues" dxfId="2552" priority="1518"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1499:G1504 G1497">
-    <cfRule type="duplicateValues" dxfId="2472" priority="12844"/>
+    <cfRule type="duplicateValues" dxfId="2551" priority="12872"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1500">
-    <cfRule type="duplicateValues" dxfId="2471" priority="1489"/>
+    <cfRule type="duplicateValues" dxfId="2550" priority="1517"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1501">
-    <cfRule type="duplicateValues" dxfId="2470" priority="1488"/>
+    <cfRule type="duplicateValues" dxfId="2549" priority="1516"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1502:G1504">
-    <cfRule type="duplicateValues" dxfId="2469" priority="1487"/>
+    <cfRule type="duplicateValues" dxfId="2548" priority="1515"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1504">
-    <cfRule type="duplicateValues" dxfId="2468" priority="1486"/>
+    <cfRule type="duplicateValues" dxfId="2547" priority="1514"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1505">
-    <cfRule type="duplicateValues" dxfId="2467" priority="1471"/>
+    <cfRule type="duplicateValues" dxfId="2546" priority="1499"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1509 G1511:G1521">
-    <cfRule type="duplicateValues" dxfId="2466" priority="13641"/>
+    <cfRule type="duplicateValues" dxfId="2545" priority="13669"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1511">
-    <cfRule type="duplicateValues" dxfId="2465" priority="1453"/>
+    <cfRule type="duplicateValues" dxfId="2544" priority="1481"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1511:G1521">
-    <cfRule type="duplicateValues" dxfId="2464" priority="1452"/>
+    <cfRule type="duplicateValues" dxfId="2543" priority="1480"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1512">
-    <cfRule type="duplicateValues" dxfId="2463" priority="1428"/>
+    <cfRule type="duplicateValues" dxfId="2542" priority="1456"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1513">
-    <cfRule type="duplicateValues" dxfId="2462" priority="1412"/>
+    <cfRule type="duplicateValues" dxfId="2541" priority="1440"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1514">
-    <cfRule type="duplicateValues" dxfId="2461" priority="1417"/>
+    <cfRule type="duplicateValues" dxfId="2540" priority="1445"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1514:G1516">
-    <cfRule type="duplicateValues" dxfId="2460" priority="1418"/>
+    <cfRule type="duplicateValues" dxfId="2539" priority="1446"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1514:G1521">
-    <cfRule type="duplicateValues" dxfId="2459" priority="1442"/>
+    <cfRule type="duplicateValues" dxfId="2538" priority="1470"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1515">
-    <cfRule type="duplicateValues" dxfId="2458" priority="1416"/>
+    <cfRule type="duplicateValues" dxfId="2537" priority="1444"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1515:G1521">
-    <cfRule type="duplicateValues" dxfId="2457" priority="1441"/>
+    <cfRule type="duplicateValues" dxfId="2536" priority="1469"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1516 G1512 G1514">
-    <cfRule type="duplicateValues" dxfId="2456" priority="1427"/>
+    <cfRule type="duplicateValues" dxfId="2535" priority="1455"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1516">
-    <cfRule type="duplicateValues" dxfId="2455" priority="1450"/>
+    <cfRule type="duplicateValues" dxfId="2534" priority="1478"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1516:G1518">
-    <cfRule type="duplicateValues" dxfId="2454" priority="1451"/>
+    <cfRule type="duplicateValues" dxfId="2533" priority="1479"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1516:G1521">
-    <cfRule type="duplicateValues" dxfId="2453" priority="1448"/>
+    <cfRule type="duplicateValues" dxfId="2532" priority="1476"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1517 G1513 G1515">
-    <cfRule type="duplicateValues" dxfId="2452" priority="1411"/>
+    <cfRule type="duplicateValues" dxfId="2531" priority="1439"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1517">
-    <cfRule type="duplicateValues" dxfId="2451" priority="1449"/>
+    <cfRule type="duplicateValues" dxfId="2530" priority="1477"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1517:G1519">
-    <cfRule type="duplicateValues" dxfId="2450" priority="1415"/>
+    <cfRule type="duplicateValues" dxfId="2529" priority="1443"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1517:G1521">
-    <cfRule type="duplicateValues" dxfId="2449" priority="13621"/>
+    <cfRule type="duplicateValues" dxfId="2528" priority="13649"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1518">
-    <cfRule type="duplicateValues" dxfId="2448" priority="1426"/>
+    <cfRule type="duplicateValues" dxfId="2527" priority="1454"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1518:G1521">
-    <cfRule type="duplicateValues" dxfId="2447" priority="13623"/>
+    <cfRule type="duplicateValues" dxfId="2526" priority="13651"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1519">
-    <cfRule type="duplicateValues" dxfId="2446" priority="1414"/>
+    <cfRule type="duplicateValues" dxfId="2525" priority="1442"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1519:G1521">
-    <cfRule type="duplicateValues" dxfId="2445" priority="1447"/>
+    <cfRule type="duplicateValues" dxfId="2524" priority="1475"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1520">
-    <cfRule type="duplicateValues" dxfId="2444" priority="1445"/>
+    <cfRule type="duplicateValues" dxfId="2523" priority="1473"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1521">
-    <cfRule type="duplicateValues" dxfId="2443" priority="1413"/>
+    <cfRule type="duplicateValues" dxfId="2522" priority="1441"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1522">
-    <cfRule type="duplicateValues" dxfId="2442" priority="1443"/>
+    <cfRule type="duplicateValues" dxfId="2521" priority="1471"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1526 G1551:G1552 G1528:G1549">
-    <cfRule type="duplicateValues" dxfId="2441" priority="13725"/>
+    <cfRule type="duplicateValues" dxfId="2520" priority="13753"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1528">
-    <cfRule type="duplicateValues" dxfId="2440" priority="1406"/>
+    <cfRule type="duplicateValues" dxfId="2519" priority="1434"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1528:G1539">
-    <cfRule type="duplicateValues" dxfId="2439" priority="1405"/>
+    <cfRule type="duplicateValues" dxfId="2518" priority="1433"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1529">
-    <cfRule type="duplicateValues" dxfId="2438" priority="1363"/>
+    <cfRule type="duplicateValues" dxfId="2517" priority="1391"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1529:G1534">
-    <cfRule type="duplicateValues" dxfId="2437" priority="1381"/>
+    <cfRule type="duplicateValues" dxfId="2516" priority="1409"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1530:G1534">
-    <cfRule type="duplicateValues" dxfId="2436" priority="1365"/>
+    <cfRule type="duplicateValues" dxfId="2515" priority="1393"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1530:G1536">
-    <cfRule type="duplicateValues" dxfId="2435" priority="1364"/>
+    <cfRule type="duplicateValues" dxfId="2514" priority="1392"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1531:G1534">
-    <cfRule type="duplicateValues" dxfId="2434" priority="1371"/>
+    <cfRule type="duplicateValues" dxfId="2513" priority="1399"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1531:G1539">
-    <cfRule type="duplicateValues" dxfId="2433" priority="1395"/>
+    <cfRule type="duplicateValues" dxfId="2512" priority="1423"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1532:G1534">
-    <cfRule type="duplicateValues" dxfId="2432" priority="1369"/>
+    <cfRule type="duplicateValues" dxfId="2511" priority="1397"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1532:G1539">
-    <cfRule type="duplicateValues" dxfId="2431" priority="1394"/>
+    <cfRule type="duplicateValues" dxfId="2510" priority="1422"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1533">
-    <cfRule type="duplicateValues" dxfId="2430" priority="1403"/>
+    <cfRule type="duplicateValues" dxfId="2509" priority="1431"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1533:G1536">
-    <cfRule type="duplicateValues" dxfId="2429" priority="1404"/>
+    <cfRule type="duplicateValues" dxfId="2508" priority="1432"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1533:G1539">
-    <cfRule type="duplicateValues" dxfId="2428" priority="1401"/>
+    <cfRule type="duplicateValues" dxfId="2507" priority="1429"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1534">
-    <cfRule type="duplicateValues" dxfId="2427" priority="1362"/>
+    <cfRule type="duplicateValues" dxfId="2506" priority="1390"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1534:G1536">
-    <cfRule type="duplicateValues" dxfId="2426" priority="1402"/>
+    <cfRule type="duplicateValues" dxfId="2505" priority="1430"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1534:G1537">
-    <cfRule type="duplicateValues" dxfId="2425" priority="1368"/>
+    <cfRule type="duplicateValues" dxfId="2504" priority="1396"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1535">
-    <cfRule type="duplicateValues" dxfId="2424" priority="1379"/>
+    <cfRule type="duplicateValues" dxfId="2503" priority="1407"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1536">
-    <cfRule type="duplicateValues" dxfId="2423" priority="1367"/>
+    <cfRule type="duplicateValues" dxfId="2502" priority="1395"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1536:G1539">
-    <cfRule type="duplicateValues" dxfId="2422" priority="1400"/>
+    <cfRule type="duplicateValues" dxfId="2501" priority="1428"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1537">
-    <cfRule type="duplicateValues" dxfId="2421" priority="1398"/>
+    <cfRule type="duplicateValues" dxfId="2500" priority="1426"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1538">
-    <cfRule type="duplicateValues" dxfId="2420" priority="1366"/>
+    <cfRule type="duplicateValues" dxfId="2499" priority="1394"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1539">
-    <cfRule type="duplicateValues" dxfId="2419" priority="1374"/>
+    <cfRule type="duplicateValues" dxfId="2498" priority="1402"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1540">
-    <cfRule type="duplicateValues" dxfId="2418" priority="1393"/>
+    <cfRule type="duplicateValues" dxfId="2497" priority="1421"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1541">
-    <cfRule type="duplicateValues" dxfId="2417" priority="1377"/>
+    <cfRule type="duplicateValues" dxfId="2496" priority="1405"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1542">
-    <cfRule type="duplicateValues" dxfId="2416" priority="1357"/>
+    <cfRule type="duplicateValues" dxfId="2495" priority="1385"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1542:G1546">
-    <cfRule type="duplicateValues" dxfId="2415" priority="1391"/>
+    <cfRule type="duplicateValues" dxfId="2494" priority="1419"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1542:G1549">
-    <cfRule type="duplicateValues" dxfId="2414" priority="1389"/>
+    <cfRule type="duplicateValues" dxfId="2493" priority="1417"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1543:G1546">
-    <cfRule type="duplicateValues" dxfId="2413" priority="1376"/>
+    <cfRule type="duplicateValues" dxfId="2492" priority="1404"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1543:G1549">
-    <cfRule type="duplicateValues" dxfId="2412" priority="1388"/>
+    <cfRule type="duplicateValues" dxfId="2491" priority="1416"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1544:G1546">
-    <cfRule type="duplicateValues" dxfId="2411" priority="1372"/>
+    <cfRule type="duplicateValues" dxfId="2490" priority="1400"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1545">
-    <cfRule type="duplicateValues" dxfId="2410" priority="1384"/>
+    <cfRule type="duplicateValues" dxfId="2489" priority="1412"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1546">
-    <cfRule type="duplicateValues" dxfId="2409" priority="1375"/>
+    <cfRule type="duplicateValues" dxfId="2488" priority="1403"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1546:G1549 G1551:G1552">
-    <cfRule type="duplicateValues" dxfId="2408" priority="13721"/>
+    <cfRule type="duplicateValues" dxfId="2487" priority="13749"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1547">
-    <cfRule type="duplicateValues" dxfId="2407" priority="1387"/>
+    <cfRule type="duplicateValues" dxfId="2486" priority="1415"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1548">
-    <cfRule type="duplicateValues" dxfId="2406" priority="1386"/>
+    <cfRule type="duplicateValues" dxfId="2485" priority="1414"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1549">
-    <cfRule type="duplicateValues" dxfId="2405" priority="1385"/>
+    <cfRule type="duplicateValues" dxfId="2484" priority="1413"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1551:G1552 G1534:G1549">
-    <cfRule type="duplicateValues" dxfId="2404" priority="13711"/>
+    <cfRule type="duplicateValues" dxfId="2483" priority="13739"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1551:G1552 G1535:G1549">
-    <cfRule type="duplicateValues" dxfId="2403" priority="13713"/>
+    <cfRule type="duplicateValues" dxfId="2482" priority="13741"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1551:G1552 G1539:G1549">
-    <cfRule type="duplicateValues" dxfId="2402" priority="13715"/>
+    <cfRule type="duplicateValues" dxfId="2481" priority="13743"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1551:G1552 G1541:G1549">
-    <cfRule type="duplicateValues" dxfId="2401" priority="13717"/>
+    <cfRule type="duplicateValues" dxfId="2480" priority="13745"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1551:G1552 G1545:G1549">
-    <cfRule type="duplicateValues" dxfId="2400" priority="13719"/>
+    <cfRule type="duplicateValues" dxfId="2479" priority="13747"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1551:G1552">
-    <cfRule type="duplicateValues" dxfId="2399" priority="13723"/>
+    <cfRule type="duplicateValues" dxfId="2478" priority="13751"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1552">
-    <cfRule type="duplicateValues" dxfId="2398" priority="13724"/>
+    <cfRule type="duplicateValues" dxfId="2477" priority="13752"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1553">
-    <cfRule type="duplicateValues" dxfId="2397" priority="1348"/>
+    <cfRule type="duplicateValues" dxfId="2476" priority="1376"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1553:G1556 G1558:G1560">
-    <cfRule type="duplicateValues" dxfId="2396" priority="13728"/>
+    <cfRule type="duplicateValues" dxfId="2475" priority="13756"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1553:G1556">
-    <cfRule type="duplicateValues" dxfId="2395" priority="1346"/>
+    <cfRule type="duplicateValues" dxfId="2474" priority="1374"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1554:G1556">
-    <cfRule type="duplicateValues" dxfId="2394" priority="1344"/>
+    <cfRule type="duplicateValues" dxfId="2473" priority="1372"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1555:G1556">
-    <cfRule type="duplicateValues" dxfId="2393" priority="1343"/>
+    <cfRule type="duplicateValues" dxfId="2472" priority="1371"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1556">
-    <cfRule type="duplicateValues" dxfId="2392" priority="1342"/>
+    <cfRule type="duplicateValues" dxfId="2471" priority="1370"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1558:G1560">
-    <cfRule type="duplicateValues" dxfId="2391" priority="13742"/>
+    <cfRule type="duplicateValues" dxfId="2470" priority="13770"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1561">
-    <cfRule type="duplicateValues" dxfId="2390" priority="1396"/>
+    <cfRule type="duplicateValues" dxfId="2469" priority="1424"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1565 G1567:G1574">
-    <cfRule type="duplicateValues" dxfId="2389" priority="14646"/>
+    <cfRule type="duplicateValues" dxfId="2468" priority="14674"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1567">
-    <cfRule type="duplicateValues" dxfId="2388" priority="1333"/>
+    <cfRule type="duplicateValues" dxfId="2467" priority="1361"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1567:G1574">
-    <cfRule type="duplicateValues" dxfId="2387" priority="14624"/>
+    <cfRule type="duplicateValues" dxfId="2466" priority="14652"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1568">
-    <cfRule type="duplicateValues" dxfId="2386" priority="1322"/>
+    <cfRule type="duplicateValues" dxfId="2465" priority="1350"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1569">
-    <cfRule type="duplicateValues" dxfId="2385" priority="1313"/>
+    <cfRule type="duplicateValues" dxfId="2464" priority="1341"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1570">
-    <cfRule type="duplicateValues" dxfId="2384" priority="1318"/>
+    <cfRule type="duplicateValues" dxfId="2463" priority="1346"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1570:G1572">
-    <cfRule type="duplicateValues" dxfId="2383" priority="1319"/>
+    <cfRule type="duplicateValues" dxfId="2462" priority="1347"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1570:G1574">
-    <cfRule type="duplicateValues" dxfId="2382" priority="14629"/>
+    <cfRule type="duplicateValues" dxfId="2461" priority="14657"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1571">
-    <cfRule type="duplicateValues" dxfId="2381" priority="1317"/>
+    <cfRule type="duplicateValues" dxfId="2460" priority="1345"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1571:G1574">
-    <cfRule type="duplicateValues" dxfId="2380" priority="14630"/>
+    <cfRule type="duplicateValues" dxfId="2459" priority="14658"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1572 G1568 G1570">
-    <cfRule type="duplicateValues" dxfId="2379" priority="1321"/>
+    <cfRule type="duplicateValues" dxfId="2458" priority="1349"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1572">
-    <cfRule type="duplicateValues" dxfId="2378" priority="1330"/>
+    <cfRule type="duplicateValues" dxfId="2457" priority="1358"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1572:G1574">
-    <cfRule type="duplicateValues" dxfId="2377" priority="1331"/>
+    <cfRule type="duplicateValues" dxfId="2456" priority="1359"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1573 G1569 G1571">
-    <cfRule type="duplicateValues" dxfId="2376" priority="1312"/>
+    <cfRule type="duplicateValues" dxfId="2455" priority="1340"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1573">
-    <cfRule type="duplicateValues" dxfId="2375" priority="1329"/>
+    <cfRule type="duplicateValues" dxfId="2454" priority="1357"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1573:G1574">
-    <cfRule type="duplicateValues" dxfId="2374" priority="14639"/>
+    <cfRule type="duplicateValues" dxfId="2453" priority="14667"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1574">
-    <cfRule type="duplicateValues" dxfId="2373" priority="1320"/>
+    <cfRule type="duplicateValues" dxfId="2452" priority="1348"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1575">
-    <cfRule type="duplicateValues" dxfId="2372" priority="1325"/>
+    <cfRule type="duplicateValues" dxfId="2451" priority="1353"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H12 H19:H22 G23:H51 G56:H57">
-    <cfRule type="duplicateValues" dxfId="2371" priority="14647"/>
+    <cfRule type="duplicateValues" dxfId="2450" priority="14675"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52:H55">
-    <cfRule type="duplicateValues" dxfId="2370" priority="14648"/>
+    <cfRule type="duplicateValues" dxfId="2449" priority="14676"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58:H64">
-    <cfRule type="duplicateValues" dxfId="2369" priority="3078"/>
+    <cfRule type="duplicateValues" dxfId="2448" priority="3106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65:H73">
-    <cfRule type="duplicateValues" dxfId="2368" priority="3077"/>
+    <cfRule type="duplicateValues" dxfId="2447" priority="3105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74:H78">
-    <cfRule type="duplicateValues" dxfId="2367" priority="3074"/>
+    <cfRule type="duplicateValues" dxfId="2446" priority="3102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95:H98 G99:G106 H99:H101">
-    <cfRule type="duplicateValues" dxfId="2366" priority="3121"/>
+    <cfRule type="duplicateValues" dxfId="2445" priority="3149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95:H98 H99:H101 G99:G107">
-    <cfRule type="duplicateValues" dxfId="2365" priority="3117"/>
+    <cfRule type="duplicateValues" dxfId="2444" priority="3145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95:H98">
-    <cfRule type="duplicateValues" dxfId="2364" priority="3067"/>
+    <cfRule type="duplicateValues" dxfId="2443" priority="3095"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G107:H107 H102:H106">
-    <cfRule type="duplicateValues" dxfId="2363" priority="3068"/>
+    <cfRule type="duplicateValues" dxfId="2442" priority="3096"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G107:H107">
-    <cfRule type="duplicateValues" dxfId="2362" priority="3066"/>
+    <cfRule type="duplicateValues" dxfId="2441" priority="3094"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1414:H1415 G1417:G1420">
-    <cfRule type="duplicateValues" dxfId="2361" priority="8188"/>
+    <cfRule type="duplicateValues" dxfId="2440" priority="8216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H51 H56:H57">
-    <cfRule type="duplicateValues" dxfId="2360" priority="3082"/>
+    <cfRule type="duplicateValues" dxfId="2439" priority="3110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52:H55">
-    <cfRule type="duplicateValues" dxfId="2359" priority="3079"/>
+    <cfRule type="duplicateValues" dxfId="2438" priority="3107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102:H107">
-    <cfRule type="duplicateValues" dxfId="2358" priority="3126"/>
+    <cfRule type="duplicateValues" dxfId="2437" priority="3154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H278:H288">
-    <cfRule type="duplicateValues" dxfId="2357" priority="3045"/>
+    <cfRule type="duplicateValues" dxfId="2436" priority="3073"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H278:H293">
-    <cfRule type="duplicateValues" dxfId="2356" priority="3044"/>
+    <cfRule type="duplicateValues" dxfId="2435" priority="3072"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H289">
-    <cfRule type="duplicateValues" dxfId="2355" priority="3041"/>
+    <cfRule type="duplicateValues" dxfId="2434" priority="3069"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H290:H291">
-    <cfRule type="duplicateValues" dxfId="2354" priority="3035"/>
+    <cfRule type="duplicateValues" dxfId="2433" priority="3063"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H292:H293">
-    <cfRule type="duplicateValues" dxfId="2353" priority="3023"/>
+    <cfRule type="duplicateValues" dxfId="2432" priority="3051"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H325:H333">
-    <cfRule type="duplicateValues" dxfId="2352" priority="3710"/>
+    <cfRule type="duplicateValues" dxfId="2431" priority="3738"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H868:H888">
-    <cfRule type="duplicateValues" dxfId="2351" priority="2813"/>
+    <cfRule type="duplicateValues" dxfId="2430" priority="2841"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H879">
-    <cfRule type="duplicateValues" dxfId="2350" priority="2811"/>
+    <cfRule type="duplicateValues" dxfId="2429" priority="2839"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H880:H881">
-    <cfRule type="duplicateValues" dxfId="2349" priority="2810"/>
+    <cfRule type="duplicateValues" dxfId="2428" priority="2838"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H882:H883">
-    <cfRule type="duplicateValues" dxfId="2348" priority="2809"/>
+    <cfRule type="duplicateValues" dxfId="2427" priority="2837"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H962:H972">
-    <cfRule type="duplicateValues" dxfId="2347" priority="5541"/>
+    <cfRule type="duplicateValues" dxfId="2426" priority="5569"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1089">
-    <cfRule type="duplicateValues" dxfId="2346" priority="2580"/>
+    <cfRule type="duplicateValues" dxfId="2425" priority="2608"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1096">
-    <cfRule type="duplicateValues" dxfId="2345" priority="2575"/>
+    <cfRule type="duplicateValues" dxfId="2424" priority="2603"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1097">
-    <cfRule type="duplicateValues" dxfId="2344" priority="2573"/>
+    <cfRule type="duplicateValues" dxfId="2423" priority="2601"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1132">
-    <cfRule type="duplicateValues" dxfId="2343" priority="2502"/>
+    <cfRule type="duplicateValues" dxfId="2422" priority="2530"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1139">
-    <cfRule type="duplicateValues" dxfId="2342" priority="2497"/>
+    <cfRule type="duplicateValues" dxfId="2421" priority="2525"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1140 H1130:H1131 H1133:H1138">
-    <cfRule type="duplicateValues" dxfId="2341" priority="14649"/>
+    <cfRule type="duplicateValues" dxfId="2420" priority="14677"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1145">
-    <cfRule type="duplicateValues" dxfId="2340" priority="2487"/>
+    <cfRule type="duplicateValues" dxfId="2419" priority="2515"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1149:H1151">
-    <cfRule type="duplicateValues" dxfId="2339" priority="2480"/>
+    <cfRule type="duplicateValues" dxfId="2418" priority="2508"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1152">
-    <cfRule type="duplicateValues" dxfId="2338" priority="2478"/>
+    <cfRule type="duplicateValues" dxfId="2417" priority="2506"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1156:H1158">
-    <cfRule type="duplicateValues" dxfId="2337" priority="5694"/>
+    <cfRule type="duplicateValues" dxfId="2416" priority="5722"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1159">
-    <cfRule type="duplicateValues" dxfId="2336" priority="2465"/>
+    <cfRule type="duplicateValues" dxfId="2415" priority="2493"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1160:H1162">
-    <cfRule type="duplicateValues" dxfId="2335" priority="2467"/>
+    <cfRule type="duplicateValues" dxfId="2414" priority="2495"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1163:H1165">
-    <cfRule type="duplicateValues" dxfId="2334" priority="2470"/>
+    <cfRule type="duplicateValues" dxfId="2413" priority="2498"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1166 H1143:H1144 H1146:H1148 H1153:H1155">
-    <cfRule type="duplicateValues" dxfId="2333" priority="14650"/>
+    <cfRule type="duplicateValues" dxfId="2412" priority="14678"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1319:H1334">
-    <cfRule type="duplicateValues" dxfId="2332" priority="14651"/>
+    <cfRule type="duplicateValues" dxfId="2411" priority="14679"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1378:H1385">
-    <cfRule type="duplicateValues" dxfId="2331" priority="7433"/>
+    <cfRule type="duplicateValues" dxfId="2410" priority="7461"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1578:A1584 G1579 G1581:G1602 G1604:G1610">
-    <cfRule type="duplicateValues" dxfId="2330" priority="1296"/>
+    <cfRule type="duplicateValues" dxfId="2409" priority="1324"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1579 G1581:G1602 G1604:G1609">
-    <cfRule type="duplicateValues" dxfId="2329" priority="1305"/>
+    <cfRule type="duplicateValues" dxfId="2408" priority="1333"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1581">
-    <cfRule type="duplicateValues" dxfId="2328" priority="1295"/>
+    <cfRule type="duplicateValues" dxfId="2407" priority="1323"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1581:G1593">
-    <cfRule type="duplicateValues" dxfId="2327" priority="1294"/>
+    <cfRule type="duplicateValues" dxfId="2406" priority="1322"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1582">
-    <cfRule type="duplicateValues" dxfId="2326" priority="1262"/>
+    <cfRule type="duplicateValues" dxfId="2405" priority="1290"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1582:G1588">
-    <cfRule type="duplicateValues" dxfId="2325" priority="1276"/>
+    <cfRule type="duplicateValues" dxfId="2404" priority="1304"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1583:G1588">
-    <cfRule type="duplicateValues" dxfId="2324" priority="1264"/>
+    <cfRule type="duplicateValues" dxfId="2403" priority="1292"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1583:G1590">
-    <cfRule type="duplicateValues" dxfId="2323" priority="1263"/>
+    <cfRule type="duplicateValues" dxfId="2402" priority="1291"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1584:G1588">
-    <cfRule type="duplicateValues" dxfId="2322" priority="1269"/>
+    <cfRule type="duplicateValues" dxfId="2401" priority="1297"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1584:G1593">
-    <cfRule type="duplicateValues" dxfId="2321" priority="1286"/>
+    <cfRule type="duplicateValues" dxfId="2400" priority="1314"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1585:G1588">
-    <cfRule type="duplicateValues" dxfId="2320" priority="1268"/>
+    <cfRule type="duplicateValues" dxfId="2399" priority="1296"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1585:G1593">
-    <cfRule type="duplicateValues" dxfId="2319" priority="1285"/>
+    <cfRule type="duplicateValues" dxfId="2398" priority="1313"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1586">
-    <cfRule type="duplicateValues" dxfId="2318" priority="1292"/>
+    <cfRule type="duplicateValues" dxfId="2397" priority="1320"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1586:G1590">
-    <cfRule type="duplicateValues" dxfId="2317" priority="1293"/>
+    <cfRule type="duplicateValues" dxfId="2396" priority="1321"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1586:G1593">
-    <cfRule type="duplicateValues" dxfId="2316" priority="1290"/>
+    <cfRule type="duplicateValues" dxfId="2395" priority="1318"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1587">
-    <cfRule type="duplicateValues" dxfId="2315" priority="1261"/>
+    <cfRule type="duplicateValues" dxfId="2394" priority="1289"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1587:G1590">
-    <cfRule type="duplicateValues" dxfId="2314" priority="1291"/>
+    <cfRule type="duplicateValues" dxfId="2393" priority="1319"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1587:G1591">
-    <cfRule type="duplicateValues" dxfId="2313" priority="1267"/>
+    <cfRule type="duplicateValues" dxfId="2392" priority="1295"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1588">
-    <cfRule type="duplicateValues" dxfId="2312" priority="1275"/>
+    <cfRule type="duplicateValues" dxfId="2391" priority="1303"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1589">
-    <cfRule type="duplicateValues" dxfId="2311" priority="1266"/>
+    <cfRule type="duplicateValues" dxfId="2390" priority="1294"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1589:G1593">
-    <cfRule type="duplicateValues" dxfId="2310" priority="1289"/>
+    <cfRule type="duplicateValues" dxfId="2389" priority="1317"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1590">
-    <cfRule type="duplicateValues" dxfId="2309" priority="1288"/>
+    <cfRule type="duplicateValues" dxfId="2388" priority="1316"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1591">
-    <cfRule type="duplicateValues" dxfId="2308" priority="1265"/>
+    <cfRule type="duplicateValues" dxfId="2387" priority="1293"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1592">
-    <cfRule type="duplicateValues" dxfId="2307" priority="1271"/>
+    <cfRule type="duplicateValues" dxfId="2386" priority="1299"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1593">
-    <cfRule type="duplicateValues" dxfId="2306" priority="1284"/>
+    <cfRule type="duplicateValues" dxfId="2385" priority="1312"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1594">
-    <cfRule type="duplicateValues" dxfId="2305" priority="1274"/>
+    <cfRule type="duplicateValues" dxfId="2384" priority="1302"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1595">
-    <cfRule type="duplicateValues" dxfId="2304" priority="1260"/>
+    <cfRule type="duplicateValues" dxfId="2383" priority="1288"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1595:G1599">
-    <cfRule type="duplicateValues" dxfId="2303" priority="1283"/>
+    <cfRule type="duplicateValues" dxfId="2382" priority="1311"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1595:G1602">
-    <cfRule type="duplicateValues" dxfId="2302" priority="1282"/>
+    <cfRule type="duplicateValues" dxfId="2381" priority="1310"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1596:G1599">
-    <cfRule type="duplicateValues" dxfId="2301" priority="1273"/>
+    <cfRule type="duplicateValues" dxfId="2380" priority="1301"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1596:G1602">
-    <cfRule type="duplicateValues" dxfId="2300" priority="1281"/>
+    <cfRule type="duplicateValues" dxfId="2379" priority="1309"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1597:G1599">
-    <cfRule type="duplicateValues" dxfId="2299" priority="1270"/>
+    <cfRule type="duplicateValues" dxfId="2378" priority="1298"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1598">
-    <cfRule type="duplicateValues" dxfId="2298" priority="1277"/>
+    <cfRule type="duplicateValues" dxfId="2377" priority="1305"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1599">
-    <cfRule type="duplicateValues" dxfId="2297" priority="1272"/>
+    <cfRule type="duplicateValues" dxfId="2376" priority="1300"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1599:G1602 G1604:G1609">
-    <cfRule type="duplicateValues" dxfId="2296" priority="1302"/>
+    <cfRule type="duplicateValues" dxfId="2375" priority="1330"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1600">
-    <cfRule type="duplicateValues" dxfId="2295" priority="1280"/>
+    <cfRule type="duplicateValues" dxfId="2374" priority="1308"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1601">
-    <cfRule type="duplicateValues" dxfId="2294" priority="1279"/>
+    <cfRule type="duplicateValues" dxfId="2373" priority="1307"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1602">
-    <cfRule type="duplicateValues" dxfId="2293" priority="1278"/>
+    <cfRule type="duplicateValues" dxfId="2372" priority="1306"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1587:G1602 G1604:G1609">
-    <cfRule type="duplicateValues" dxfId="2292" priority="1297"/>
+    <cfRule type="duplicateValues" dxfId="2371" priority="1325"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1588:G1602 G1604:G1609">
-    <cfRule type="duplicateValues" dxfId="2291" priority="1298"/>
+    <cfRule type="duplicateValues" dxfId="2370" priority="1326"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1592:G1602 G1604:G1609">
-    <cfRule type="duplicateValues" dxfId="2290" priority="1299"/>
+    <cfRule type="duplicateValues" dxfId="2369" priority="1327"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1594:G1602 G1604:G1609">
-    <cfRule type="duplicateValues" dxfId="2289" priority="1300"/>
+    <cfRule type="duplicateValues" dxfId="2368" priority="1328"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1598:G1602 G1604:G1609">
-    <cfRule type="duplicateValues" dxfId="2288" priority="1301"/>
+    <cfRule type="duplicateValues" dxfId="2367" priority="1329"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1604:G1609">
-    <cfRule type="duplicateValues" dxfId="2287" priority="1303"/>
+    <cfRule type="duplicateValues" dxfId="2366" priority="1331"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1605:G1609">
-    <cfRule type="duplicateValues" dxfId="2286" priority="1304"/>
+    <cfRule type="duplicateValues" dxfId="2365" priority="1332"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1610">
-    <cfRule type="duplicateValues" dxfId="2285" priority="1287"/>
+    <cfRule type="duplicateValues" dxfId="2364" priority="1315"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1583">
-    <cfRule type="duplicateValues" dxfId="2284" priority="1247"/>
+    <cfRule type="duplicateValues" dxfId="2363" priority="1275"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1613">
-    <cfRule type="duplicateValues" dxfId="2283" priority="1245"/>
+    <cfRule type="duplicateValues" dxfId="2362" priority="1273"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1616">
-    <cfRule type="duplicateValues" dxfId="2282" priority="1243"/>
+    <cfRule type="duplicateValues" dxfId="2361" priority="1271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1617">
-    <cfRule type="duplicateValues" dxfId="2281" priority="1241"/>
+    <cfRule type="duplicateValues" dxfId="2360" priority="1269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1618">
-    <cfRule type="duplicateValues" dxfId="2280" priority="1240"/>
+    <cfRule type="duplicateValues" dxfId="2359" priority="1268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1619">
-    <cfRule type="duplicateValues" dxfId="2279" priority="1239"/>
+    <cfRule type="duplicateValues" dxfId="2358" priority="1267"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1620">
-    <cfRule type="duplicateValues" dxfId="2278" priority="1227"/>
+    <cfRule type="duplicateValues" dxfId="2357" priority="1255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1614 G1616:G1619">
-    <cfRule type="duplicateValues" dxfId="2277" priority="15607"/>
+    <cfRule type="duplicateValues" dxfId="2356" priority="15635"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1616:G1619">
-    <cfRule type="duplicateValues" dxfId="2276" priority="15610"/>
+    <cfRule type="duplicateValues" dxfId="2355" priority="15638"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1617 G1619">
-    <cfRule type="duplicateValues" dxfId="2275" priority="15616"/>
+    <cfRule type="duplicateValues" dxfId="2354" priority="15644"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1626">
-    <cfRule type="duplicateValues" dxfId="2274" priority="1224"/>
+    <cfRule type="duplicateValues" dxfId="2353" priority="1252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1627">
-    <cfRule type="duplicateValues" dxfId="2273" priority="1222"/>
+    <cfRule type="duplicateValues" dxfId="2352" priority="1250"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1627:G1634">
-    <cfRule type="duplicateValues" dxfId="2272" priority="1221"/>
+    <cfRule type="duplicateValues" dxfId="2351" priority="1249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1628:G1634">
-    <cfRule type="duplicateValues" dxfId="2271" priority="1220"/>
+    <cfRule type="duplicateValues" dxfId="2350" priority="1248"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1628:G1635">
-    <cfRule type="duplicateValues" dxfId="2270" priority="1219"/>
+    <cfRule type="duplicateValues" dxfId="2349" priority="1247"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1629:G1634">
-    <cfRule type="duplicateValues" dxfId="2269" priority="1218"/>
+    <cfRule type="duplicateValues" dxfId="2348" priority="1246"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1630:G1634">
-    <cfRule type="duplicateValues" dxfId="2268" priority="1216"/>
+    <cfRule type="duplicateValues" dxfId="2347" priority="1244"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1631">
-    <cfRule type="duplicateValues" dxfId="2267" priority="1214"/>
+    <cfRule type="duplicateValues" dxfId="2346" priority="1242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1631:G1635">
-    <cfRule type="duplicateValues" dxfId="2266" priority="1213"/>
+    <cfRule type="duplicateValues" dxfId="2345" priority="1241"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1632">
-    <cfRule type="duplicateValues" dxfId="2265" priority="1211"/>
+    <cfRule type="duplicateValues" dxfId="2344" priority="1239"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1632:G1635">
-    <cfRule type="duplicateValues" dxfId="2264" priority="1210"/>
+    <cfRule type="duplicateValues" dxfId="2343" priority="1238"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1632:G1636">
-    <cfRule type="duplicateValues" dxfId="2263" priority="1209"/>
+    <cfRule type="duplicateValues" dxfId="2342" priority="1237"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1633:G1634">
-    <cfRule type="duplicateValues" dxfId="2262" priority="1208"/>
+    <cfRule type="duplicateValues" dxfId="2341" priority="1236"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1634">
-    <cfRule type="duplicateValues" dxfId="2261" priority="1207"/>
+    <cfRule type="duplicateValues" dxfId="2340" priority="1235"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1635">
-    <cfRule type="duplicateValues" dxfId="2260" priority="1205"/>
+    <cfRule type="duplicateValues" dxfId="2339" priority="1233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1636">
-    <cfRule type="duplicateValues" dxfId="2259" priority="1204"/>
+    <cfRule type="duplicateValues" dxfId="2338" priority="1232"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1637">
-    <cfRule type="duplicateValues" dxfId="2258" priority="1202"/>
+    <cfRule type="duplicateValues" dxfId="2337" priority="1230"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1638">
-    <cfRule type="duplicateValues" dxfId="2257" priority="1201"/>
+    <cfRule type="duplicateValues" dxfId="2336" priority="1229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1639">
-    <cfRule type="duplicateValues" dxfId="2256" priority="1200"/>
+    <cfRule type="duplicateValues" dxfId="2335" priority="1228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1640:G1642">
-    <cfRule type="duplicateValues" dxfId="2255" priority="1195"/>
+    <cfRule type="duplicateValues" dxfId="2334" priority="1223"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1641">
-    <cfRule type="duplicateValues" dxfId="2254" priority="1194"/>
+    <cfRule type="duplicateValues" dxfId="2333" priority="1222"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1642">
-    <cfRule type="duplicateValues" dxfId="2253" priority="1193"/>
+    <cfRule type="duplicateValues" dxfId="2332" priority="1221"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1643">
-    <cfRule type="duplicateValues" dxfId="2252" priority="1191"/>
+    <cfRule type="duplicateValues" dxfId="2331" priority="1219"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1644">
-    <cfRule type="duplicateValues" dxfId="2251" priority="1190"/>
+    <cfRule type="duplicateValues" dxfId="2330" priority="1218"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1645">
-    <cfRule type="duplicateValues" dxfId="2250" priority="1189"/>
+    <cfRule type="duplicateValues" dxfId="2329" priority="1217"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1649">
-    <cfRule type="duplicateValues" dxfId="2249" priority="1181"/>
+    <cfRule type="duplicateValues" dxfId="2328" priority="1209"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1628">
-    <cfRule type="duplicateValues" dxfId="2248" priority="1180"/>
+    <cfRule type="duplicateValues" dxfId="2327" priority="1208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1647:G1649 G1624 G1626:G1645 A1623:A1648">
-    <cfRule type="duplicateValues" dxfId="2247" priority="16583"/>
+    <cfRule type="duplicateValues" dxfId="2326" priority="16611"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1647:G1648 G1624 G1626:G1645">
-    <cfRule type="duplicateValues" dxfId="2246" priority="16588"/>
+    <cfRule type="duplicateValues" dxfId="2325" priority="16616"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1642:G1645 G1647:G1648">
-    <cfRule type="duplicateValues" dxfId="2245" priority="16623"/>
+    <cfRule type="duplicateValues" dxfId="2324" priority="16651"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1647:G1648 G1632:G1645">
-    <cfRule type="duplicateValues" dxfId="2244" priority="16628"/>
+    <cfRule type="duplicateValues" dxfId="2323" priority="16656"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1647:G1648 G1633:G1645">
-    <cfRule type="duplicateValues" dxfId="2243" priority="16630"/>
+    <cfRule type="duplicateValues" dxfId="2322" priority="16658"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1647:G1648 G1637:G1645">
-    <cfRule type="duplicateValues" dxfId="2242" priority="16632"/>
+    <cfRule type="duplicateValues" dxfId="2321" priority="16660"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1647:G1648 G1638:G1645">
-    <cfRule type="duplicateValues" dxfId="2241" priority="16634"/>
+    <cfRule type="duplicateValues" dxfId="2320" priority="16662"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1641:G1645 G1647:G1648">
-    <cfRule type="duplicateValues" dxfId="2240" priority="16636"/>
+    <cfRule type="duplicateValues" dxfId="2319" priority="16664"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1647:G1648">
-    <cfRule type="duplicateValues" dxfId="2239" priority="16638"/>
+    <cfRule type="duplicateValues" dxfId="2318" priority="16666"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1648">
-    <cfRule type="duplicateValues" dxfId="2238" priority="16639"/>
+    <cfRule type="duplicateValues" dxfId="2317" priority="16667"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1626:G1637">
-    <cfRule type="duplicateValues" dxfId="2237" priority="17604"/>
+    <cfRule type="duplicateValues" dxfId="2316" priority="17632"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1629:G1637">
-    <cfRule type="duplicateValues" dxfId="2236" priority="17611"/>
+    <cfRule type="duplicateValues" dxfId="2315" priority="17639"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1630:G1637">
-    <cfRule type="duplicateValues" dxfId="2235" priority="17614"/>
+    <cfRule type="duplicateValues" dxfId="2314" priority="17642"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1631:G1637">
-    <cfRule type="duplicateValues" dxfId="2234" priority="17618"/>
+    <cfRule type="duplicateValues" dxfId="2313" priority="17646"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1634:G1637">
-    <cfRule type="duplicateValues" dxfId="2233" priority="17625"/>
+    <cfRule type="duplicateValues" dxfId="2312" priority="17653"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1639:G1642">
-    <cfRule type="duplicateValues" dxfId="2232" priority="18608"/>
+    <cfRule type="duplicateValues" dxfId="2311" priority="18636"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1639:G1645">
-    <cfRule type="duplicateValues" dxfId="2231" priority="18610"/>
+    <cfRule type="duplicateValues" dxfId="2310" priority="18638"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1640:G1645">
-    <cfRule type="duplicateValues" dxfId="2230" priority="18613"/>
+    <cfRule type="duplicateValues" dxfId="2309" priority="18641"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1655">
-    <cfRule type="duplicateValues" dxfId="2229" priority="1179"/>
+    <cfRule type="duplicateValues" dxfId="2308" priority="1207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1656">
-    <cfRule type="duplicateValues" dxfId="2228" priority="1178"/>
+    <cfRule type="duplicateValues" dxfId="2307" priority="1206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1656:G1663">
-    <cfRule type="duplicateValues" dxfId="2227" priority="1177"/>
+    <cfRule type="duplicateValues" dxfId="2306" priority="1205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1657:G1663">
-    <cfRule type="duplicateValues" dxfId="2226" priority="1176"/>
+    <cfRule type="duplicateValues" dxfId="2305" priority="1204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1657:G1664">
-    <cfRule type="duplicateValues" dxfId="2225" priority="1175"/>
+    <cfRule type="duplicateValues" dxfId="2304" priority="1203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1658:G1663">
-    <cfRule type="duplicateValues" dxfId="2224" priority="1174"/>
+    <cfRule type="duplicateValues" dxfId="2303" priority="1202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1659:G1663">
-    <cfRule type="duplicateValues" dxfId="2223" priority="1173"/>
+    <cfRule type="duplicateValues" dxfId="2302" priority="1201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1660">
-    <cfRule type="duplicateValues" dxfId="2222" priority="1172"/>
+    <cfRule type="duplicateValues" dxfId="2301" priority="1200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1660:G1664">
-    <cfRule type="duplicateValues" dxfId="2221" priority="1171"/>
+    <cfRule type="duplicateValues" dxfId="2300" priority="1199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1661">
-    <cfRule type="duplicateValues" dxfId="2220" priority="1170"/>
+    <cfRule type="duplicateValues" dxfId="2299" priority="1198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1661:G1664">
-    <cfRule type="duplicateValues" dxfId="2219" priority="1169"/>
+    <cfRule type="duplicateValues" dxfId="2298" priority="1197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1661:G1665">
-    <cfRule type="duplicateValues" dxfId="2218" priority="1168"/>
+    <cfRule type="duplicateValues" dxfId="2297" priority="1196"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1662:G1663">
-    <cfRule type="duplicateValues" dxfId="2217" priority="1167"/>
+    <cfRule type="duplicateValues" dxfId="2296" priority="1195"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1663">
-    <cfRule type="duplicateValues" dxfId="2216" priority="1166"/>
+    <cfRule type="duplicateValues" dxfId="2295" priority="1194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1664">
-    <cfRule type="duplicateValues" dxfId="2215" priority="1165"/>
+    <cfRule type="duplicateValues" dxfId="2294" priority="1193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1665">
-    <cfRule type="duplicateValues" dxfId="2214" priority="1164"/>
+    <cfRule type="duplicateValues" dxfId="2293" priority="1192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1666">
-    <cfRule type="duplicateValues" dxfId="2213" priority="1163"/>
+    <cfRule type="duplicateValues" dxfId="2292" priority="1191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1667">
-    <cfRule type="duplicateValues" dxfId="2212" priority="1162"/>
+    <cfRule type="duplicateValues" dxfId="2291" priority="1190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1668">
-    <cfRule type="duplicateValues" dxfId="2211" priority="1161"/>
+    <cfRule type="duplicateValues" dxfId="2290" priority="1189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1669">
-    <cfRule type="duplicateValues" dxfId="2210" priority="1154"/>
+    <cfRule type="duplicateValues" dxfId="2289" priority="1182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1657">
-    <cfRule type="duplicateValues" dxfId="2209" priority="1153"/>
+    <cfRule type="duplicateValues" dxfId="2288" priority="1181"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1655:G1666">
-    <cfRule type="duplicateValues" dxfId="2208" priority="1142"/>
+    <cfRule type="duplicateValues" dxfId="2287" priority="1170"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1658:G1666">
-    <cfRule type="duplicateValues" dxfId="2207" priority="1141"/>
+    <cfRule type="duplicateValues" dxfId="2286" priority="1169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1659:G1666">
-    <cfRule type="duplicateValues" dxfId="2206" priority="1140"/>
+    <cfRule type="duplicateValues" dxfId="2285" priority="1168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1660:G1666">
-    <cfRule type="duplicateValues" dxfId="2205" priority="1139"/>
+    <cfRule type="duplicateValues" dxfId="2284" priority="1167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1663:G1666">
-    <cfRule type="duplicateValues" dxfId="2204" priority="1138"/>
+    <cfRule type="duplicateValues" dxfId="2283" priority="1166"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1653 G1655:G1669 A1652:A1668">
-    <cfRule type="duplicateValues" dxfId="2203" priority="19654"/>
+    <cfRule type="duplicateValues" dxfId="2282" priority="19682"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1653 G1655:G1668">
-    <cfRule type="duplicateValues" dxfId="2202" priority="19658"/>
+    <cfRule type="duplicateValues" dxfId="2281" priority="19686"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1661:G1668">
-    <cfRule type="duplicateValues" dxfId="2201" priority="19660"/>
+    <cfRule type="duplicateValues" dxfId="2280" priority="19688"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1662:G1668">
-    <cfRule type="duplicateValues" dxfId="2200" priority="19661"/>
+    <cfRule type="duplicateValues" dxfId="2279" priority="19689"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1666:G1668">
-    <cfRule type="duplicateValues" dxfId="2199" priority="19662"/>
+    <cfRule type="duplicateValues" dxfId="2278" priority="19690"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1667:G1668">
-    <cfRule type="duplicateValues" dxfId="2198" priority="19663"/>
+    <cfRule type="duplicateValues" dxfId="2277" priority="19691"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1675:G1677">
-    <cfRule type="duplicateValues" dxfId="2197" priority="1134"/>
+    <cfRule type="duplicateValues" dxfId="2276" priority="1162"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1676">
-    <cfRule type="duplicateValues" dxfId="2196" priority="1133"/>
+    <cfRule type="duplicateValues" dxfId="2275" priority="1161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1676:G1684">
-    <cfRule type="duplicateValues" dxfId="2195" priority="1132"/>
+    <cfRule type="duplicateValues" dxfId="2274" priority="1160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1677:G1684">
-    <cfRule type="duplicateValues" dxfId="2194" priority="1131"/>
+    <cfRule type="duplicateValues" dxfId="2273" priority="1159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1677:G1685">
-    <cfRule type="duplicateValues" dxfId="2193" priority="1130"/>
+    <cfRule type="duplicateValues" dxfId="2272" priority="1158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1678:G1684">
-    <cfRule type="duplicateValues" dxfId="2192" priority="1129"/>
+    <cfRule type="duplicateValues" dxfId="2271" priority="1157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1679:G1684">
-    <cfRule type="duplicateValues" dxfId="2191" priority="1128"/>
+    <cfRule type="duplicateValues" dxfId="2270" priority="1156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1680">
-    <cfRule type="duplicateValues" dxfId="2190" priority="1127"/>
+    <cfRule type="duplicateValues" dxfId="2269" priority="1155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1680:G1685">
-    <cfRule type="duplicateValues" dxfId="2189" priority="1126"/>
+    <cfRule type="duplicateValues" dxfId="2268" priority="1154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1681">
-    <cfRule type="duplicateValues" dxfId="2188" priority="1125"/>
+    <cfRule type="duplicateValues" dxfId="2267" priority="1153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1681:G1685">
-    <cfRule type="duplicateValues" dxfId="2187" priority="1124"/>
+    <cfRule type="duplicateValues" dxfId="2266" priority="1152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1681:G1689">
-    <cfRule type="duplicateValues" dxfId="2186" priority="1123"/>
+    <cfRule type="duplicateValues" dxfId="2265" priority="1151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1682:G1684">
-    <cfRule type="duplicateValues" dxfId="2185" priority="1122"/>
+    <cfRule type="duplicateValues" dxfId="2264" priority="1150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1683">
-    <cfRule type="duplicateValues" dxfId="2184" priority="1121"/>
+    <cfRule type="duplicateValues" dxfId="2263" priority="1149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1684">
-    <cfRule type="duplicateValues" dxfId="2183" priority="1120"/>
+    <cfRule type="duplicateValues" dxfId="2262" priority="1148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1685:G1689">
-    <cfRule type="duplicateValues" dxfId="2182" priority="1119"/>
+    <cfRule type="duplicateValues" dxfId="2261" priority="1147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1686:G1689">
-    <cfRule type="duplicateValues" dxfId="2181" priority="1118"/>
+    <cfRule type="duplicateValues" dxfId="2260" priority="1146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1687:G1689">
-    <cfRule type="duplicateValues" dxfId="2180" priority="1117"/>
+    <cfRule type="duplicateValues" dxfId="2259" priority="1145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1701">
-    <cfRule type="duplicateValues" dxfId="2179" priority="1115"/>
+    <cfRule type="duplicateValues" dxfId="2258" priority="1143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1677">
-    <cfRule type="duplicateValues" dxfId="2178" priority="1114"/>
+    <cfRule type="duplicateValues" dxfId="2257" priority="1142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1675:G1689">
-    <cfRule type="duplicateValues" dxfId="2177" priority="1113"/>
+    <cfRule type="duplicateValues" dxfId="2256" priority="1141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1678:G1689">
-    <cfRule type="duplicateValues" dxfId="2176" priority="1112"/>
+    <cfRule type="duplicateValues" dxfId="2255" priority="1140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1679:G1689">
-    <cfRule type="duplicateValues" dxfId="2175" priority="1111"/>
+    <cfRule type="duplicateValues" dxfId="2254" priority="1139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1680:G1689">
-    <cfRule type="duplicateValues" dxfId="2174" priority="1110"/>
+    <cfRule type="duplicateValues" dxfId="2253" priority="1138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1683:G1689">
-    <cfRule type="duplicateValues" dxfId="2173" priority="1109"/>
+    <cfRule type="duplicateValues" dxfId="2252" priority="1137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1689:G1696">
-    <cfRule type="duplicateValues" dxfId="2172" priority="1102"/>
+    <cfRule type="duplicateValues" dxfId="2251" priority="1130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1689:G1697">
-    <cfRule type="duplicateValues" dxfId="2171" priority="1100"/>
+    <cfRule type="duplicateValues" dxfId="2250" priority="1128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1690:G1696">
-    <cfRule type="duplicateValues" dxfId="2170" priority="1099"/>
+    <cfRule type="duplicateValues" dxfId="2249" priority="1127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1691:G1696">
-    <cfRule type="duplicateValues" dxfId="2169" priority="1098"/>
+    <cfRule type="duplicateValues" dxfId="2248" priority="1126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1692">
-    <cfRule type="duplicateValues" dxfId="2168" priority="1097"/>
+    <cfRule type="duplicateValues" dxfId="2247" priority="1125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1692:G1697">
-    <cfRule type="duplicateValues" dxfId="2167" priority="1096"/>
+    <cfRule type="duplicateValues" dxfId="2246" priority="1124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1693">
-    <cfRule type="duplicateValues" dxfId="2166" priority="1095"/>
+    <cfRule type="duplicateValues" dxfId="2245" priority="1123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1693:G1697">
-    <cfRule type="duplicateValues" dxfId="2165" priority="1094"/>
+    <cfRule type="duplicateValues" dxfId="2244" priority="1122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1693:G1699">
-    <cfRule type="duplicateValues" dxfId="2164" priority="1093"/>
+    <cfRule type="duplicateValues" dxfId="2243" priority="1121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1694:G1696">
-    <cfRule type="duplicateValues" dxfId="2163" priority="1092"/>
+    <cfRule type="duplicateValues" dxfId="2242" priority="1120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1695">
-    <cfRule type="duplicateValues" dxfId="2162" priority="1091"/>
+    <cfRule type="duplicateValues" dxfId="2241" priority="1119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1696">
-    <cfRule type="duplicateValues" dxfId="2161" priority="1090"/>
+    <cfRule type="duplicateValues" dxfId="2240" priority="1118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1697:G1699">
-    <cfRule type="duplicateValues" dxfId="2160" priority="1089"/>
+    <cfRule type="duplicateValues" dxfId="2239" priority="1117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1698:G1699">
-    <cfRule type="duplicateValues" dxfId="2159" priority="1088"/>
+    <cfRule type="duplicateValues" dxfId="2238" priority="1116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1699">
-    <cfRule type="duplicateValues" dxfId="2158" priority="1087"/>
+    <cfRule type="duplicateValues" dxfId="2237" priority="1115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1689">
-    <cfRule type="duplicateValues" dxfId="2157" priority="1086"/>
+    <cfRule type="duplicateValues" dxfId="2236" priority="1114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1689:G1699">
-    <cfRule type="duplicateValues" dxfId="2156" priority="1085"/>
+    <cfRule type="duplicateValues" dxfId="2235" priority="1113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1690:G1699">
-    <cfRule type="duplicateValues" dxfId="2155" priority="1084"/>
+    <cfRule type="duplicateValues" dxfId="2234" priority="1112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1691:G1699">
-    <cfRule type="duplicateValues" dxfId="2154" priority="1083"/>
+    <cfRule type="duplicateValues" dxfId="2233" priority="1111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1692:G1699">
-    <cfRule type="duplicateValues" dxfId="2153" priority="1082"/>
+    <cfRule type="duplicateValues" dxfId="2232" priority="1110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1695:G1699">
-    <cfRule type="duplicateValues" dxfId="2152" priority="1081"/>
+    <cfRule type="duplicateValues" dxfId="2231" priority="1109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1700">
-    <cfRule type="duplicateValues" dxfId="2151" priority="1080"/>
+    <cfRule type="duplicateValues" dxfId="2230" priority="1108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1682">
-    <cfRule type="duplicateValues" dxfId="2150" priority="1051"/>
+    <cfRule type="duplicateValues" dxfId="2229" priority="1079"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1685">
-    <cfRule type="duplicateValues" dxfId="2149" priority="1049"/>
+    <cfRule type="duplicateValues" dxfId="2228" priority="1077"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1678">
-    <cfRule type="duplicateValues" dxfId="2148" priority="1048"/>
+    <cfRule type="duplicateValues" dxfId="2227" priority="1076"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1694">
-    <cfRule type="duplicateValues" dxfId="2147" priority="1046"/>
+    <cfRule type="duplicateValues" dxfId="2226" priority="1074"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1697">
-    <cfRule type="duplicateValues" dxfId="2146" priority="1044"/>
+    <cfRule type="duplicateValues" dxfId="2225" priority="1072"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1690">
-    <cfRule type="duplicateValues" dxfId="2145" priority="1043"/>
+    <cfRule type="duplicateValues" dxfId="2224" priority="1071"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1688:G1700">
-    <cfRule type="duplicateValues" dxfId="2144" priority="24061"/>
+    <cfRule type="duplicateValues" dxfId="2223" priority="24089"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1686:G1700">
-    <cfRule type="duplicateValues" dxfId="2143" priority="24062"/>
+    <cfRule type="duplicateValues" dxfId="2222" priority="24090"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1687:G1700">
-    <cfRule type="duplicateValues" dxfId="2142" priority="24063"/>
+    <cfRule type="duplicateValues" dxfId="2221" priority="24091"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1673 A1672:A1700 G1675:G1701">
-    <cfRule type="duplicateValues" dxfId="2141" priority="24087"/>
+    <cfRule type="duplicateValues" dxfId="2220" priority="24115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1673 G1675:G1701">
-    <cfRule type="duplicateValues" dxfId="2140" priority="24091"/>
+    <cfRule type="duplicateValues" dxfId="2219" priority="24119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1681:G1701">
-    <cfRule type="duplicateValues" dxfId="2139" priority="24094"/>
+    <cfRule type="duplicateValues" dxfId="2218" priority="24122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1682:G1701">
-    <cfRule type="duplicateValues" dxfId="2138" priority="24096"/>
+    <cfRule type="duplicateValues" dxfId="2217" priority="24124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1700:G1701">
-    <cfRule type="duplicateValues" dxfId="2137" priority="24099"/>
+    <cfRule type="duplicateValues" dxfId="2216" priority="24127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1707:G1711 G1713:G1716">
-    <cfRule type="duplicateValues" dxfId="2136" priority="981"/>
+    <cfRule type="duplicateValues" dxfId="2215" priority="1009"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1708:G1711 G1713:G1716">
-    <cfRule type="duplicateValues" dxfId="2135" priority="980"/>
+    <cfRule type="duplicateValues" dxfId="2214" priority="1008"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1708:G1716">
-    <cfRule type="duplicateValues" dxfId="2134" priority="979"/>
+    <cfRule type="duplicateValues" dxfId="2213" priority="1007"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1709:G1716">
-    <cfRule type="duplicateValues" dxfId="2133" priority="978"/>
+    <cfRule type="duplicateValues" dxfId="2212" priority="1006"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1709:G1717">
-    <cfRule type="duplicateValues" dxfId="2132" priority="977"/>
+    <cfRule type="duplicateValues" dxfId="2211" priority="1005"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1710:G1716">
-    <cfRule type="duplicateValues" dxfId="2131" priority="976"/>
+    <cfRule type="duplicateValues" dxfId="2210" priority="1004"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1711:G1716">
-    <cfRule type="duplicateValues" dxfId="2130" priority="975"/>
+    <cfRule type="duplicateValues" dxfId="2209" priority="1003"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1712">
-    <cfRule type="duplicateValues" dxfId="2129" priority="974"/>
+    <cfRule type="duplicateValues" dxfId="2208" priority="1002"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1712:G1717">
-    <cfRule type="duplicateValues" dxfId="2128" priority="973"/>
+    <cfRule type="duplicateValues" dxfId="2207" priority="1001"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1713:G1716">
-    <cfRule type="duplicateValues" dxfId="2127" priority="972"/>
+    <cfRule type="duplicateValues" dxfId="2206" priority="1000"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1713:G1717">
-    <cfRule type="duplicateValues" dxfId="2126" priority="971"/>
+    <cfRule type="duplicateValues" dxfId="2205" priority="999"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1713:G1721">
-    <cfRule type="duplicateValues" dxfId="2125" priority="970"/>
+    <cfRule type="duplicateValues" dxfId="2204" priority="998"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1714:G1716">
-    <cfRule type="duplicateValues" dxfId="2124" priority="969"/>
+    <cfRule type="duplicateValues" dxfId="2203" priority="997"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1715:G1716">
-    <cfRule type="duplicateValues" dxfId="2123" priority="968"/>
+    <cfRule type="duplicateValues" dxfId="2202" priority="996"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1716">
-    <cfRule type="duplicateValues" dxfId="2122" priority="967"/>
+    <cfRule type="duplicateValues" dxfId="2201" priority="995"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1717:G1721">
-    <cfRule type="duplicateValues" dxfId="2121" priority="966"/>
+    <cfRule type="duplicateValues" dxfId="2200" priority="994"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1718:G1721">
-    <cfRule type="duplicateValues" dxfId="2120" priority="965"/>
+    <cfRule type="duplicateValues" dxfId="2199" priority="993"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1719:G1721">
-    <cfRule type="duplicateValues" dxfId="2119" priority="964"/>
+    <cfRule type="duplicateValues" dxfId="2198" priority="992"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1725">
-    <cfRule type="duplicateValues" dxfId="2118" priority="963"/>
+    <cfRule type="duplicateValues" dxfId="2197" priority="991"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1709:G1711 G1713:G1716">
-    <cfRule type="duplicateValues" dxfId="2117" priority="962"/>
+    <cfRule type="duplicateValues" dxfId="2196" priority="990"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1707:G1721">
-    <cfRule type="duplicateValues" dxfId="2116" priority="961"/>
+    <cfRule type="duplicateValues" dxfId="2195" priority="989"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1710:G1721">
-    <cfRule type="duplicateValues" dxfId="2115" priority="960"/>
+    <cfRule type="duplicateValues" dxfId="2194" priority="988"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1711:G1721">
-    <cfRule type="duplicateValues" dxfId="2114" priority="959"/>
+    <cfRule type="duplicateValues" dxfId="2193" priority="987"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1712:G1721">
-    <cfRule type="duplicateValues" dxfId="2113" priority="958"/>
+    <cfRule type="duplicateValues" dxfId="2192" priority="986"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1715:G1721">
-    <cfRule type="duplicateValues" dxfId="2112" priority="957"/>
+    <cfRule type="duplicateValues" dxfId="2191" priority="985"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1724">
-    <cfRule type="duplicateValues" dxfId="2111" priority="952"/>
+    <cfRule type="duplicateValues" dxfId="2190" priority="980"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1721">
-    <cfRule type="duplicateValues" dxfId="2110" priority="941"/>
+    <cfRule type="duplicateValues" dxfId="2189" priority="969"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1717">
-    <cfRule type="duplicateValues" dxfId="2109" priority="933"/>
+    <cfRule type="duplicateValues" dxfId="2188" priority="961"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1710:G1711 G1713:G1716">
-    <cfRule type="duplicateValues" dxfId="2108" priority="932"/>
+    <cfRule type="duplicateValues" dxfId="2187" priority="960"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1722">
-    <cfRule type="duplicateValues" dxfId="2107" priority="929"/>
+    <cfRule type="duplicateValues" dxfId="2186" priority="957"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1721:G1724">
-    <cfRule type="duplicateValues" dxfId="2106" priority="25248"/>
+    <cfRule type="duplicateValues" dxfId="2185" priority="25276"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1722:G1724">
-    <cfRule type="duplicateValues" dxfId="2105" priority="25250"/>
+    <cfRule type="duplicateValues" dxfId="2184" priority="25278"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1723:G1724">
-    <cfRule type="duplicateValues" dxfId="2104" priority="25251"/>
+    <cfRule type="duplicateValues" dxfId="2183" priority="25279"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1720:G1724">
-    <cfRule type="duplicateValues" dxfId="2103" priority="25264"/>
+    <cfRule type="duplicateValues" dxfId="2182" priority="25292"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1718:G1724">
-    <cfRule type="duplicateValues" dxfId="2102" priority="25265"/>
+    <cfRule type="duplicateValues" dxfId="2181" priority="25293"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1719:G1724">
-    <cfRule type="duplicateValues" dxfId="2101" priority="25266"/>
+    <cfRule type="duplicateValues" dxfId="2180" priority="25294"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1705 A1704:A1724 G1707:G1725">
-    <cfRule type="duplicateValues" dxfId="2100" priority="25267"/>
+    <cfRule type="duplicateValues" dxfId="2179" priority="25295"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1705 G1707:G1725">
-    <cfRule type="duplicateValues" dxfId="2099" priority="25271"/>
+    <cfRule type="duplicateValues" dxfId="2178" priority="25299"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1713:G1725">
-    <cfRule type="duplicateValues" dxfId="2098" priority="25274"/>
+    <cfRule type="duplicateValues" dxfId="2177" priority="25302"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1714:G1725">
-    <cfRule type="duplicateValues" dxfId="2097" priority="25276"/>
+    <cfRule type="duplicateValues" dxfId="2176" priority="25304"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1728">
-    <cfRule type="duplicateValues" dxfId="2096" priority="920"/>
+    <cfRule type="duplicateValues" dxfId="2175" priority="948"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1731">
-    <cfRule type="duplicateValues" dxfId="2095" priority="919"/>
+    <cfRule type="duplicateValues" dxfId="2174" priority="947"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1732">
-    <cfRule type="duplicateValues" dxfId="2094" priority="918"/>
+    <cfRule type="duplicateValues" dxfId="2173" priority="946"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1733">
-    <cfRule type="duplicateValues" dxfId="2093" priority="915"/>
+    <cfRule type="duplicateValues" dxfId="2172" priority="943"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1729 G1731:G1732">
-    <cfRule type="duplicateValues" dxfId="2092" priority="26449"/>
+    <cfRule type="duplicateValues" dxfId="2171" priority="26477"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1731:G1732">
-    <cfRule type="duplicateValues" dxfId="2091" priority="26451"/>
+    <cfRule type="duplicateValues" dxfId="2170" priority="26479"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1741:G1749">
-    <cfRule type="duplicateValues" dxfId="2090" priority="908"/>
+    <cfRule type="duplicateValues" dxfId="2169" priority="936"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1744">
-    <cfRule type="duplicateValues" dxfId="2089" priority="904"/>
+    <cfRule type="duplicateValues" dxfId="2168" priority="932"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1745:G1749">
-    <cfRule type="duplicateValues" dxfId="2088" priority="902"/>
+    <cfRule type="duplicateValues" dxfId="2167" priority="930"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1748:G1753">
-    <cfRule type="duplicateValues" dxfId="2087" priority="896"/>
+    <cfRule type="duplicateValues" dxfId="2166" priority="924"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1749:G1753">
-    <cfRule type="duplicateValues" dxfId="2086" priority="895"/>
+    <cfRule type="duplicateValues" dxfId="2165" priority="923"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1750:G1753">
-    <cfRule type="duplicateValues" dxfId="2085" priority="894"/>
+    <cfRule type="duplicateValues" dxfId="2164" priority="922"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1759">
-    <cfRule type="duplicateValues" dxfId="2084" priority="893"/>
+    <cfRule type="duplicateValues" dxfId="2163" priority="921"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1752">
-    <cfRule type="duplicateValues" dxfId="2083" priority="885"/>
+    <cfRule type="duplicateValues" dxfId="2162" priority="913"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1748">
-    <cfRule type="duplicateValues" dxfId="2082" priority="884"/>
+    <cfRule type="duplicateValues" dxfId="2161" priority="912"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1753">
-    <cfRule type="duplicateValues" dxfId="2081" priority="882"/>
+    <cfRule type="duplicateValues" dxfId="2160" priority="910"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1745">
-    <cfRule type="duplicateValues" dxfId="2080" priority="871"/>
+    <cfRule type="duplicateValues" dxfId="2159" priority="899"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1749">
-    <cfRule type="duplicateValues" dxfId="2079" priority="868"/>
+    <cfRule type="duplicateValues" dxfId="2158" priority="896"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1754">
-    <cfRule type="duplicateValues" dxfId="2078" priority="867"/>
+    <cfRule type="duplicateValues" dxfId="2157" priority="895"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1755:G1758">
-    <cfRule type="duplicateValues" dxfId="2077" priority="27656"/>
+    <cfRule type="duplicateValues" dxfId="2156" priority="27684"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1752:G1758">
-    <cfRule type="duplicateValues" dxfId="2076" priority="27661"/>
+    <cfRule type="duplicateValues" dxfId="2155" priority="27689"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1753:G1758">
-    <cfRule type="duplicateValues" dxfId="2075" priority="27662"/>
+    <cfRule type="duplicateValues" dxfId="2154" priority="27690"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1754:G1758">
-    <cfRule type="duplicateValues" dxfId="2074" priority="27663"/>
+    <cfRule type="duplicateValues" dxfId="2153" priority="27691"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1751:G1758">
-    <cfRule type="duplicateValues" dxfId="2073" priority="27664"/>
+    <cfRule type="duplicateValues" dxfId="2152" priority="27692"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1749:G1758">
-    <cfRule type="duplicateValues" dxfId="2072" priority="27665"/>
+    <cfRule type="duplicateValues" dxfId="2151" priority="27693"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1750:G1758">
-    <cfRule type="duplicateValues" dxfId="2071" priority="27666"/>
+    <cfRule type="duplicateValues" dxfId="2150" priority="27694"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1762">
-    <cfRule type="duplicateValues" dxfId="2070" priority="866"/>
+    <cfRule type="duplicateValues" dxfId="2149" priority="894"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1765:G1767">
-    <cfRule type="duplicateValues" dxfId="2069" priority="865"/>
+    <cfRule type="duplicateValues" dxfId="2148" priority="893"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1766:G1767">
-    <cfRule type="duplicateValues" dxfId="2068" priority="864"/>
+    <cfRule type="duplicateValues" dxfId="2147" priority="892"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1767">
-    <cfRule type="duplicateValues" dxfId="2067" priority="863"/>
+    <cfRule type="duplicateValues" dxfId="2146" priority="891"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1768">
-    <cfRule type="duplicateValues" dxfId="2066" priority="861"/>
+    <cfRule type="duplicateValues" dxfId="2145" priority="889"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1763 G1765:G1767">
-    <cfRule type="duplicateValues" dxfId="2065" priority="28904"/>
+    <cfRule type="duplicateValues" dxfId="2144" priority="28932"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1739:G1748">
-    <cfRule type="duplicateValues" dxfId="2064" priority="30086"/>
+    <cfRule type="duplicateValues" dxfId="2143" priority="30114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1740:G1748">
-    <cfRule type="duplicateValues" dxfId="2063" priority="30088"/>
+    <cfRule type="duplicateValues" dxfId="2142" priority="30116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1741:G1748">
-    <cfRule type="duplicateValues" dxfId="2062" priority="30090"/>
+    <cfRule type="duplicateValues" dxfId="2141" priority="30118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1742:G1748">
-    <cfRule type="duplicateValues" dxfId="2061" priority="30094"/>
+    <cfRule type="duplicateValues" dxfId="2140" priority="30122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1743:G1748">
-    <cfRule type="duplicateValues" dxfId="2060" priority="30096"/>
+    <cfRule type="duplicateValues" dxfId="2139" priority="30124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1744:G1749">
-    <cfRule type="duplicateValues" dxfId="2059" priority="30099"/>
+    <cfRule type="duplicateValues" dxfId="2138" priority="30127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1745:G1748">
-    <cfRule type="duplicateValues" dxfId="2058" priority="30101"/>
+    <cfRule type="duplicateValues" dxfId="2137" priority="30129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1745:G1753">
-    <cfRule type="duplicateValues" dxfId="2057" priority="30105"/>
+    <cfRule type="duplicateValues" dxfId="2136" priority="30133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1746:G1748">
-    <cfRule type="duplicateValues" dxfId="2056" priority="30107"/>
+    <cfRule type="duplicateValues" dxfId="2135" priority="30135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1747:G1748">
-    <cfRule type="duplicateValues" dxfId="2055" priority="30109"/>
+    <cfRule type="duplicateValues" dxfId="2134" priority="30137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1739:G1753">
-    <cfRule type="duplicateValues" dxfId="2054" priority="30111"/>
+    <cfRule type="duplicateValues" dxfId="2133" priority="30139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1742:G1753">
-    <cfRule type="duplicateValues" dxfId="2053" priority="30113"/>
+    <cfRule type="duplicateValues" dxfId="2132" priority="30141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1743:G1753">
-    <cfRule type="duplicateValues" dxfId="2052" priority="30115"/>
+    <cfRule type="duplicateValues" dxfId="2131" priority="30143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1744:G1753">
-    <cfRule type="duplicateValues" dxfId="2051" priority="30117"/>
+    <cfRule type="duplicateValues" dxfId="2130" priority="30145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1747:G1753">
-    <cfRule type="duplicateValues" dxfId="2050" priority="30119"/>
+    <cfRule type="duplicateValues" dxfId="2129" priority="30147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1737 G1739:G1759 A1736:A1758">
-    <cfRule type="duplicateValues" dxfId="2049" priority="30122"/>
+    <cfRule type="duplicateValues" dxfId="2128" priority="30150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1737 G1739:G1759">
-    <cfRule type="duplicateValues" dxfId="2048" priority="30127"/>
+    <cfRule type="duplicateValues" dxfId="2127" priority="30155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1745:G1759">
-    <cfRule type="duplicateValues" dxfId="2047" priority="30130"/>
+    <cfRule type="duplicateValues" dxfId="2126" priority="30158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1746:G1759">
-    <cfRule type="duplicateValues" dxfId="2046" priority="30132"/>
+    <cfRule type="duplicateValues" dxfId="2125" priority="30160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1778">
-    <cfRule type="duplicateValues" dxfId="2045" priority="856"/>
+    <cfRule type="duplicateValues" dxfId="2124" priority="884"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1779:G1783">
-    <cfRule type="duplicateValues" dxfId="2044" priority="855"/>
+    <cfRule type="duplicateValues" dxfId="2123" priority="883"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1785">
-    <cfRule type="duplicateValues" dxfId="2043" priority="851"/>
+    <cfRule type="duplicateValues" dxfId="2122" priority="879"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1782:G1783">
-    <cfRule type="duplicateValues" dxfId="2042" priority="849"/>
+    <cfRule type="duplicateValues" dxfId="2121" priority="877"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1783">
-    <cfRule type="duplicateValues" dxfId="2041" priority="846"/>
+    <cfRule type="duplicateValues" dxfId="2120" priority="874"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1774:G1784">
-    <cfRule type="duplicateValues" dxfId="2040" priority="837"/>
+    <cfRule type="duplicateValues" dxfId="2119" priority="865"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1776:G1783">
-    <cfRule type="duplicateValues" dxfId="2039" priority="834"/>
+    <cfRule type="duplicateValues" dxfId="2118" priority="862"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1777:G1783">
-    <cfRule type="duplicateValues" dxfId="2038" priority="833"/>
+    <cfRule type="duplicateValues" dxfId="2117" priority="861"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1778:G1783">
-    <cfRule type="duplicateValues" dxfId="2037" priority="832"/>
+    <cfRule type="duplicateValues" dxfId="2116" priority="860"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1780:G1783">
-    <cfRule type="duplicateValues" dxfId="2036" priority="829"/>
+    <cfRule type="duplicateValues" dxfId="2115" priority="857"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1781:G1783">
-    <cfRule type="duplicateValues" dxfId="2035" priority="828"/>
+    <cfRule type="duplicateValues" dxfId="2114" priority="856"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1788">
-    <cfRule type="duplicateValues" dxfId="2034" priority="818"/>
+    <cfRule type="duplicateValues" dxfId="2113" priority="846"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1793">
-    <cfRule type="duplicateValues" dxfId="2033" priority="814"/>
+    <cfRule type="duplicateValues" dxfId="2112" priority="842"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1784">
-    <cfRule type="duplicateValues" dxfId="2032" priority="809"/>
+    <cfRule type="duplicateValues" dxfId="2111" priority="837"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1782:G1784">
-    <cfRule type="duplicateValues" dxfId="2031" priority="31368"/>
+    <cfRule type="duplicateValues" dxfId="2110" priority="31396"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1783:G1784">
-    <cfRule type="duplicateValues" dxfId="2030" priority="31369"/>
+    <cfRule type="duplicateValues" dxfId="2109" priority="31397"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1779:G1784">
-    <cfRule type="duplicateValues" dxfId="2029" priority="31383"/>
+    <cfRule type="duplicateValues" dxfId="2108" priority="31411"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1776:G1784">
-    <cfRule type="duplicateValues" dxfId="2028" priority="31387"/>
+    <cfRule type="duplicateValues" dxfId="2107" priority="31415"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1777:G1784">
-    <cfRule type="duplicateValues" dxfId="2027" priority="31388"/>
+    <cfRule type="duplicateValues" dxfId="2106" priority="31416"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1778:G1784">
-    <cfRule type="duplicateValues" dxfId="2026" priority="31389"/>
+    <cfRule type="duplicateValues" dxfId="2105" priority="31417"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1781:G1784">
-    <cfRule type="duplicateValues" dxfId="2025" priority="31390"/>
+    <cfRule type="duplicateValues" dxfId="2104" priority="31418"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1779:G1785">
-    <cfRule type="duplicateValues" dxfId="2024" priority="31398"/>
+    <cfRule type="duplicateValues" dxfId="2103" priority="31426"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1780:G1785">
-    <cfRule type="duplicateValues" dxfId="2023" priority="31400"/>
+    <cfRule type="duplicateValues" dxfId="2102" priority="31428"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1791:G1792">
-    <cfRule type="duplicateValues" dxfId="2022" priority="32647"/>
+    <cfRule type="duplicateValues" dxfId="2101" priority="32675"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1792">
-    <cfRule type="duplicateValues" dxfId="2021" priority="32648"/>
+    <cfRule type="duplicateValues" dxfId="2100" priority="32676"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1789 G1791:G1792">
-    <cfRule type="duplicateValues" dxfId="2020" priority="32649"/>
+    <cfRule type="duplicateValues" dxfId="2099" priority="32677"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1774:G1783">
-    <cfRule type="duplicateValues" dxfId="2019" priority="33881"/>
+    <cfRule type="duplicateValues" dxfId="2098" priority="33909"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1775:G1783">
-    <cfRule type="duplicateValues" dxfId="2018" priority="33883"/>
+    <cfRule type="duplicateValues" dxfId="2097" priority="33911"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1772 G1774:G1785 A1771:A1784">
-    <cfRule type="duplicateValues" dxfId="2017" priority="33887"/>
+    <cfRule type="duplicateValues" dxfId="2096" priority="33915"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1772 G1774:G1785">
-    <cfRule type="duplicateValues" dxfId="2016" priority="33892"/>
+    <cfRule type="duplicateValues" dxfId="2095" priority="33920"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1801:G1809">
-    <cfRule type="duplicateValues" dxfId="2015" priority="794"/>
+    <cfRule type="duplicateValues" dxfId="2094" priority="822"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1804:G1806">
-    <cfRule type="duplicateValues" dxfId="2014" priority="793"/>
+    <cfRule type="duplicateValues" dxfId="2093" priority="821"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1805:G1809">
-    <cfRule type="duplicateValues" dxfId="2013" priority="792"/>
+    <cfRule type="duplicateValues" dxfId="2092" priority="820"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1810">
-    <cfRule type="duplicateValues" dxfId="2012" priority="788"/>
+    <cfRule type="duplicateValues" dxfId="2091" priority="816"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1808">
-    <cfRule type="duplicateValues" dxfId="2011" priority="786"/>
+    <cfRule type="duplicateValues" dxfId="2090" priority="814"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1805:G1806">
-    <cfRule type="duplicateValues" dxfId="2010" priority="784"/>
+    <cfRule type="duplicateValues" dxfId="2089" priority="812"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1809">
-    <cfRule type="duplicateValues" dxfId="2009" priority="783"/>
+    <cfRule type="duplicateValues" dxfId="2088" priority="811"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1799:G1808">
-    <cfRule type="duplicateValues" dxfId="2008" priority="774"/>
+    <cfRule type="duplicateValues" dxfId="2087" priority="802"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1800:G1808">
-    <cfRule type="duplicateValues" dxfId="2007" priority="773"/>
+    <cfRule type="duplicateValues" dxfId="2086" priority="801"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1801:G1808">
-    <cfRule type="duplicateValues" dxfId="2006" priority="772"/>
+    <cfRule type="duplicateValues" dxfId="2085" priority="800"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1802:G1808">
-    <cfRule type="duplicateValues" dxfId="2005" priority="771"/>
+    <cfRule type="duplicateValues" dxfId="2084" priority="799"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1803:G1808">
-    <cfRule type="duplicateValues" dxfId="2004" priority="770"/>
+    <cfRule type="duplicateValues" dxfId="2083" priority="798"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1804:G1809">
-    <cfRule type="duplicateValues" dxfId="2003" priority="769"/>
+    <cfRule type="duplicateValues" dxfId="2082" priority="797"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1805:G1808">
-    <cfRule type="duplicateValues" dxfId="2002" priority="768"/>
+    <cfRule type="duplicateValues" dxfId="2081" priority="796"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1806:G1808">
-    <cfRule type="duplicateValues" dxfId="2001" priority="766"/>
+    <cfRule type="duplicateValues" dxfId="2080" priority="794"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1807:G1808">
-    <cfRule type="duplicateValues" dxfId="2000" priority="765"/>
+    <cfRule type="duplicateValues" dxfId="2079" priority="793"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1813">
-    <cfRule type="duplicateValues" dxfId="1999" priority="755"/>
+    <cfRule type="duplicateValues" dxfId="2078" priority="783"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1818">
-    <cfRule type="duplicateValues" dxfId="1998" priority="751"/>
+    <cfRule type="duplicateValues" dxfId="2077" priority="779"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1816">
-    <cfRule type="duplicateValues" dxfId="1997" priority="749"/>
+    <cfRule type="duplicateValues" dxfId="2076" priority="777"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1808:G1809">
-    <cfRule type="duplicateValues" dxfId="1996" priority="36480"/>
+    <cfRule type="duplicateValues" dxfId="2075" priority="36508"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1799:G1809">
-    <cfRule type="duplicateValues" dxfId="1995" priority="36483"/>
+    <cfRule type="duplicateValues" dxfId="2074" priority="36511"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1802:G1809">
-    <cfRule type="duplicateValues" dxfId="1994" priority="36484"/>
+    <cfRule type="duplicateValues" dxfId="2073" priority="36512"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1803:G1809">
-    <cfRule type="duplicateValues" dxfId="1993" priority="36485"/>
+    <cfRule type="duplicateValues" dxfId="2072" priority="36513"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1807:G1809">
-    <cfRule type="duplicateValues" dxfId="1992" priority="36487"/>
+    <cfRule type="duplicateValues" dxfId="2071" priority="36515"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1797 A1796:A1809 G1799:G1810">
-    <cfRule type="duplicateValues" dxfId="1991" priority="36488"/>
+    <cfRule type="duplicateValues" dxfId="2070" priority="36516"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1797 G1799:G1810">
-    <cfRule type="duplicateValues" dxfId="1990" priority="36492"/>
+    <cfRule type="duplicateValues" dxfId="2069" priority="36520"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1805:G1810">
-    <cfRule type="duplicateValues" dxfId="1989" priority="36495"/>
+    <cfRule type="duplicateValues" dxfId="2068" priority="36523"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1806:G1810">
-    <cfRule type="duplicateValues" dxfId="1988" priority="36497"/>
+    <cfRule type="duplicateValues" dxfId="2067" priority="36525"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1816:G1817">
-    <cfRule type="duplicateValues" dxfId="1987" priority="37784"/>
+    <cfRule type="duplicateValues" dxfId="2066" priority="37812"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1817">
-    <cfRule type="duplicateValues" dxfId="1986" priority="37785"/>
+    <cfRule type="duplicateValues" dxfId="2065" priority="37813"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1814 G1816:G1817">
-    <cfRule type="duplicateValues" dxfId="1985" priority="37786"/>
+    <cfRule type="duplicateValues" dxfId="2064" priority="37814"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1837">
-    <cfRule type="duplicateValues" dxfId="1984" priority="729"/>
+    <cfRule type="duplicateValues" dxfId="2063" priority="757"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1830:G1837">
-    <cfRule type="duplicateValues" dxfId="1983" priority="727"/>
+    <cfRule type="duplicateValues" dxfId="2062" priority="755"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1840">
-    <cfRule type="duplicateValues" dxfId="1982" priority="707"/>
+    <cfRule type="duplicateValues" dxfId="2061" priority="735"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1845">
-    <cfRule type="duplicateValues" dxfId="1981" priority="706"/>
+    <cfRule type="duplicateValues" dxfId="2060" priority="734"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1843">
-    <cfRule type="duplicateValues" dxfId="1980" priority="705"/>
+    <cfRule type="duplicateValues" dxfId="2059" priority="733"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1843:G1844">
-    <cfRule type="duplicateValues" dxfId="1979" priority="704"/>
+    <cfRule type="duplicateValues" dxfId="2058" priority="732"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1844">
-    <cfRule type="duplicateValues" dxfId="1978" priority="703"/>
+    <cfRule type="duplicateValues" dxfId="2057" priority="731"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1841 G1843:G1844">
-    <cfRule type="duplicateValues" dxfId="1977" priority="702"/>
+    <cfRule type="duplicateValues" dxfId="2056" priority="730"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1826:G1836">
-    <cfRule type="duplicateValues" dxfId="1976" priority="39092"/>
+    <cfRule type="duplicateValues" dxfId="2055" priority="39120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1829:G1836">
-    <cfRule type="duplicateValues" dxfId="1975" priority="39093"/>
+    <cfRule type="duplicateValues" dxfId="2054" priority="39121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1830:G1836">
-    <cfRule type="duplicateValues" dxfId="1974" priority="39094"/>
+    <cfRule type="duplicateValues" dxfId="2053" priority="39122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1824:G1836">
-    <cfRule type="duplicateValues" dxfId="1973" priority="39096"/>
+    <cfRule type="duplicateValues" dxfId="2052" priority="39124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1825:G1836">
-    <cfRule type="duplicateValues" dxfId="1972" priority="39097"/>
+    <cfRule type="duplicateValues" dxfId="2051" priority="39125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1827:G1836">
-    <cfRule type="duplicateValues" dxfId="1971" priority="39099"/>
+    <cfRule type="duplicateValues" dxfId="2050" priority="39127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1828:G1836">
-    <cfRule type="duplicateValues" dxfId="1970" priority="39100"/>
+    <cfRule type="duplicateValues" dxfId="2049" priority="39128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1831:G1836">
-    <cfRule type="duplicateValues" dxfId="1969" priority="39103"/>
+    <cfRule type="duplicateValues" dxfId="2048" priority="39131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1822 A1821:A1836 G1824:G1837">
-    <cfRule type="duplicateValues" dxfId="1968" priority="39107"/>
+    <cfRule type="duplicateValues" dxfId="2047" priority="39135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1822 G1824:G1837">
-    <cfRule type="duplicateValues" dxfId="1967" priority="39111"/>
+    <cfRule type="duplicateValues" dxfId="2046" priority="39139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1831:G1837">
-    <cfRule type="duplicateValues" dxfId="1966" priority="39116"/>
+    <cfRule type="duplicateValues" dxfId="2045" priority="39144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1853:G1862">
-    <cfRule type="duplicateValues" dxfId="1965" priority="701"/>
+    <cfRule type="duplicateValues" dxfId="2044" priority="729"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1856:G1858">
-    <cfRule type="duplicateValues" dxfId="1964" priority="700"/>
+    <cfRule type="duplicateValues" dxfId="2043" priority="728"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1857:G1862">
-    <cfRule type="duplicateValues" dxfId="1963" priority="699"/>
+    <cfRule type="duplicateValues" dxfId="2042" priority="727"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1865">
-    <cfRule type="duplicateValues" dxfId="1962" priority="695"/>
+    <cfRule type="duplicateValues" dxfId="2041" priority="723"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1864">
-    <cfRule type="duplicateValues" dxfId="1961" priority="694"/>
+    <cfRule type="duplicateValues" dxfId="2040" priority="722"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1860">
-    <cfRule type="duplicateValues" dxfId="1960" priority="693"/>
+    <cfRule type="duplicateValues" dxfId="2039" priority="721"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1857:G1858">
-    <cfRule type="duplicateValues" dxfId="1959" priority="691"/>
+    <cfRule type="duplicateValues" dxfId="2038" priority="719"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1861:G1862">
-    <cfRule type="duplicateValues" dxfId="1958" priority="690"/>
+    <cfRule type="duplicateValues" dxfId="2037" priority="718"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1851:G1860">
-    <cfRule type="duplicateValues" dxfId="1957" priority="681"/>
+    <cfRule type="duplicateValues" dxfId="2036" priority="709"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1852:G1860">
-    <cfRule type="duplicateValues" dxfId="1956" priority="680"/>
+    <cfRule type="duplicateValues" dxfId="2035" priority="708"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1853:G1860">
-    <cfRule type="duplicateValues" dxfId="1955" priority="679"/>
+    <cfRule type="duplicateValues" dxfId="2034" priority="707"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1854:G1860">
-    <cfRule type="duplicateValues" dxfId="1954" priority="678"/>
+    <cfRule type="duplicateValues" dxfId="2033" priority="706"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1855:G1860">
-    <cfRule type="duplicateValues" dxfId="1953" priority="677"/>
+    <cfRule type="duplicateValues" dxfId="2032" priority="705"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1856:G1862">
-    <cfRule type="duplicateValues" dxfId="1952" priority="676"/>
+    <cfRule type="duplicateValues" dxfId="2031" priority="704"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1857:G1860">
-    <cfRule type="duplicateValues" dxfId="1951" priority="675"/>
+    <cfRule type="duplicateValues" dxfId="2030" priority="703"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1857:G1865">
-    <cfRule type="duplicateValues" dxfId="1950" priority="674"/>
+    <cfRule type="duplicateValues" dxfId="2029" priority="702"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1858:G1860">
-    <cfRule type="duplicateValues" dxfId="1949" priority="673"/>
+    <cfRule type="duplicateValues" dxfId="2028" priority="701"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1859:G1860">
-    <cfRule type="duplicateValues" dxfId="1948" priority="672"/>
+    <cfRule type="duplicateValues" dxfId="2027" priority="700"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1868">
-    <cfRule type="duplicateValues" dxfId="1947" priority="662"/>
+    <cfRule type="duplicateValues" dxfId="2026" priority="690"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1871">
-    <cfRule type="duplicateValues" dxfId="1946" priority="660"/>
+    <cfRule type="duplicateValues" dxfId="2025" priority="688"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1872">
-    <cfRule type="duplicateValues" dxfId="1945" priority="658"/>
+    <cfRule type="duplicateValues" dxfId="2024" priority="686"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1873">
-    <cfRule type="duplicateValues" dxfId="1944" priority="657"/>
+    <cfRule type="duplicateValues" dxfId="2023" priority="685"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1874">
-    <cfRule type="duplicateValues" dxfId="1943" priority="644"/>
+    <cfRule type="duplicateValues" dxfId="2022" priority="672"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1860:G1864">
-    <cfRule type="duplicateValues" dxfId="1942" priority="40451"/>
+    <cfRule type="duplicateValues" dxfId="2021" priority="40479"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1861:G1864">
-    <cfRule type="duplicateValues" dxfId="1941" priority="40452"/>
+    <cfRule type="duplicateValues" dxfId="2020" priority="40480"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1862:G1864">
-    <cfRule type="duplicateValues" dxfId="1940" priority="40453"/>
+    <cfRule type="duplicateValues" dxfId="2019" priority="40481"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1863:G1864">
-    <cfRule type="duplicateValues" dxfId="1939" priority="40459"/>
+    <cfRule type="duplicateValues" dxfId="2018" priority="40487"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1857:G1864">
-    <cfRule type="duplicateValues" dxfId="1938" priority="40469"/>
+    <cfRule type="duplicateValues" dxfId="2017" priority="40497"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1851:G1864">
-    <cfRule type="duplicateValues" dxfId="1937" priority="40472"/>
+    <cfRule type="duplicateValues" dxfId="2016" priority="40500"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1854:G1864">
-    <cfRule type="duplicateValues" dxfId="1936" priority="40473"/>
+    <cfRule type="duplicateValues" dxfId="2015" priority="40501"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1855:G1864">
-    <cfRule type="duplicateValues" dxfId="1935" priority="40474"/>
+    <cfRule type="duplicateValues" dxfId="2014" priority="40502"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1856:G1864">
-    <cfRule type="duplicateValues" dxfId="1934" priority="40475"/>
+    <cfRule type="duplicateValues" dxfId="2013" priority="40503"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1859:G1864">
-    <cfRule type="duplicateValues" dxfId="1933" priority="40476"/>
+    <cfRule type="duplicateValues" dxfId="2012" priority="40504"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1849 A1848:A1864 G1851:G1865">
-    <cfRule type="duplicateValues" dxfId="1932" priority="40477"/>
+    <cfRule type="duplicateValues" dxfId="2011" priority="40505"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1849 G1851:G1865">
-    <cfRule type="duplicateValues" dxfId="1931" priority="40481"/>
+    <cfRule type="duplicateValues" dxfId="2010" priority="40509"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1858:G1865">
-    <cfRule type="duplicateValues" dxfId="1930" priority="40486"/>
+    <cfRule type="duplicateValues" dxfId="2009" priority="40514"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1869 G1871:G1873">
-    <cfRule type="duplicateValues" dxfId="1929" priority="41839"/>
+    <cfRule type="duplicateValues" dxfId="2008" priority="41867"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1871:G1873">
-    <cfRule type="duplicateValues" dxfId="1928" priority="41842"/>
+    <cfRule type="duplicateValues" dxfId="2007" priority="41870"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1882:G1892">
-    <cfRule type="duplicateValues" dxfId="1927" priority="643"/>
+    <cfRule type="duplicateValues" dxfId="2006" priority="671"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1885:G1888">
-    <cfRule type="duplicateValues" dxfId="1926" priority="642"/>
+    <cfRule type="duplicateValues" dxfId="2005" priority="670"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1886:G1892">
-    <cfRule type="duplicateValues" dxfId="1925" priority="641"/>
+    <cfRule type="duplicateValues" dxfId="2004" priority="669"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1901">
-    <cfRule type="duplicateValues" dxfId="1924" priority="640"/>
+    <cfRule type="duplicateValues" dxfId="2003" priority="668"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1889">
-    <cfRule type="duplicateValues" dxfId="1923" priority="638"/>
+    <cfRule type="duplicateValues" dxfId="2002" priority="666"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1886:G1888">
-    <cfRule type="duplicateValues" dxfId="1922" priority="637"/>
+    <cfRule type="duplicateValues" dxfId="2001" priority="665"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1890:G1892">
-    <cfRule type="duplicateValues" dxfId="1921" priority="636"/>
+    <cfRule type="duplicateValues" dxfId="2000" priority="664"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1880:G1890">
-    <cfRule type="duplicateValues" dxfId="1920" priority="635"/>
+    <cfRule type="duplicateValues" dxfId="1999" priority="663"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1881:G1890">
-    <cfRule type="duplicateValues" dxfId="1919" priority="634"/>
+    <cfRule type="duplicateValues" dxfId="1998" priority="662"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1882:G1890">
-    <cfRule type="duplicateValues" dxfId="1918" priority="633"/>
+    <cfRule type="duplicateValues" dxfId="1997" priority="661"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1883:G1890">
-    <cfRule type="duplicateValues" dxfId="1917" priority="632"/>
+    <cfRule type="duplicateValues" dxfId="1996" priority="660"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1884:G1890">
-    <cfRule type="duplicateValues" dxfId="1916" priority="631"/>
+    <cfRule type="duplicateValues" dxfId="1995" priority="659"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1885:G1892">
-    <cfRule type="duplicateValues" dxfId="1915" priority="630"/>
+    <cfRule type="duplicateValues" dxfId="1994" priority="658"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1886:G1890">
-    <cfRule type="duplicateValues" dxfId="1914" priority="629"/>
+    <cfRule type="duplicateValues" dxfId="1993" priority="657"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1887:G1890">
-    <cfRule type="duplicateValues" dxfId="1913" priority="627"/>
+    <cfRule type="duplicateValues" dxfId="1992" priority="655"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1888:G1890">
-    <cfRule type="duplicateValues" dxfId="1912" priority="626"/>
+    <cfRule type="duplicateValues" dxfId="1991" priority="654"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1890">
-    <cfRule type="duplicateValues" dxfId="1911" priority="612"/>
+    <cfRule type="duplicateValues" dxfId="1990" priority="640"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1904">
-    <cfRule type="duplicateValues" dxfId="1910" priority="611"/>
+    <cfRule type="duplicateValues" dxfId="1989" priority="639"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1907">
-    <cfRule type="duplicateValues" dxfId="1909" priority="610"/>
+    <cfRule type="duplicateValues" dxfId="1988" priority="638"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1908">
-    <cfRule type="duplicateValues" dxfId="1908" priority="609"/>
+    <cfRule type="duplicateValues" dxfId="1987" priority="637"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1916">
-    <cfRule type="duplicateValues" dxfId="1907" priority="607"/>
+    <cfRule type="duplicateValues" dxfId="1986" priority="635"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1886:G1901">
-    <cfRule type="duplicateValues" dxfId="1906" priority="48936"/>
+    <cfRule type="duplicateValues" dxfId="1985" priority="48964"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1893:G1900">
-    <cfRule type="duplicateValues" dxfId="1905" priority="48938"/>
+    <cfRule type="duplicateValues" dxfId="1984" priority="48966"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1889:G1900">
-    <cfRule type="duplicateValues" dxfId="1904" priority="48939"/>
+    <cfRule type="duplicateValues" dxfId="1983" priority="48967"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1890:G1900">
-    <cfRule type="duplicateValues" dxfId="1903" priority="48940"/>
+    <cfRule type="duplicateValues" dxfId="1982" priority="48968"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1891:G1900">
-    <cfRule type="duplicateValues" dxfId="1902" priority="48941"/>
+    <cfRule type="duplicateValues" dxfId="1981" priority="48969"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1892:G1900">
-    <cfRule type="duplicateValues" dxfId="1901" priority="48942"/>
+    <cfRule type="duplicateValues" dxfId="1980" priority="48970"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1886:G1900">
-    <cfRule type="duplicateValues" dxfId="1900" priority="48943"/>
+    <cfRule type="duplicateValues" dxfId="1979" priority="48971"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1880:G1900">
-    <cfRule type="duplicateValues" dxfId="1899" priority="48944"/>
+    <cfRule type="duplicateValues" dxfId="1978" priority="48972"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1883:G1900">
-    <cfRule type="duplicateValues" dxfId="1898" priority="48945"/>
+    <cfRule type="duplicateValues" dxfId="1977" priority="48973"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1884:G1900">
-    <cfRule type="duplicateValues" dxfId="1897" priority="48946"/>
+    <cfRule type="duplicateValues" dxfId="1976" priority="48974"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1885:G1900">
-    <cfRule type="duplicateValues" dxfId="1896" priority="48947"/>
+    <cfRule type="duplicateValues" dxfId="1975" priority="48975"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1888:G1900">
-    <cfRule type="duplicateValues" dxfId="1895" priority="48948"/>
+    <cfRule type="duplicateValues" dxfId="1974" priority="48976"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1878 A1877:A1900 G1880:G1901">
-    <cfRule type="duplicateValues" dxfId="1894" priority="48949"/>
+    <cfRule type="duplicateValues" dxfId="1973" priority="48977"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1878 G1880:G1901">
-    <cfRule type="duplicateValues" dxfId="1893" priority="48953"/>
+    <cfRule type="duplicateValues" dxfId="1972" priority="48981"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1887:G1901">
-    <cfRule type="duplicateValues" dxfId="1892" priority="48956"/>
+    <cfRule type="duplicateValues" dxfId="1971" priority="48984"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1907">
-    <cfRule type="duplicateValues" dxfId="1891" priority="604"/>
+    <cfRule type="duplicateValues" dxfId="1970" priority="632"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1908">
-    <cfRule type="duplicateValues" dxfId="1890" priority="603"/>
+    <cfRule type="duplicateValues" dxfId="1969" priority="631"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1916">
-    <cfRule type="duplicateValues" dxfId="1889" priority="601"/>
+    <cfRule type="duplicateValues" dxfId="1968" priority="629"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1909:G1915">
-    <cfRule type="duplicateValues" dxfId="1888" priority="50353"/>
+    <cfRule type="duplicateValues" dxfId="1967" priority="50381"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1905 G1907:G1915">
-    <cfRule type="duplicateValues" dxfId="1887" priority="50354"/>
+    <cfRule type="duplicateValues" dxfId="1966" priority="50382"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1907:G1915">
-    <cfRule type="duplicateValues" dxfId="1886" priority="50356"/>
+    <cfRule type="duplicateValues" dxfId="1965" priority="50384"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1909:H1915">
-    <cfRule type="duplicateValues" dxfId="1885" priority="50377"/>
+    <cfRule type="duplicateValues" dxfId="1964" priority="50405"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1907:H1915">
-    <cfRule type="duplicateValues" dxfId="1884" priority="50378"/>
+    <cfRule type="duplicateValues" dxfId="1963" priority="50406"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1938 G1919:G1920 G1937:H1938 H1919:H1936 G1922:G1936 G1940:H1952">
-    <cfRule type="duplicateValues" dxfId="1883" priority="598"/>
+    <cfRule type="duplicateValues" dxfId="1962" priority="626"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1927:G1930">
-    <cfRule type="duplicateValues" dxfId="1882" priority="597"/>
+    <cfRule type="duplicateValues" dxfId="1961" priority="625"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1928:G1934">
-    <cfRule type="duplicateValues" dxfId="1881" priority="596"/>
+    <cfRule type="duplicateValues" dxfId="1960" priority="624"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1934">
-    <cfRule type="duplicateValues" dxfId="1880" priority="595"/>
+    <cfRule type="duplicateValues" dxfId="1959" priority="623"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1931:G1932">
-    <cfRule type="duplicateValues" dxfId="1879" priority="594"/>
+    <cfRule type="duplicateValues" dxfId="1958" priority="622"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1928:G1930">
-    <cfRule type="duplicateValues" dxfId="1878" priority="593"/>
+    <cfRule type="duplicateValues" dxfId="1957" priority="621"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1922:G1932">
-    <cfRule type="duplicateValues" dxfId="1877" priority="592"/>
+    <cfRule type="duplicateValues" dxfId="1956" priority="620"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1923:G1932">
-    <cfRule type="duplicateValues" dxfId="1876" priority="591"/>
+    <cfRule type="duplicateValues" dxfId="1955" priority="619"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1924:G1932">
-    <cfRule type="duplicateValues" dxfId="1875" priority="590"/>
+    <cfRule type="duplicateValues" dxfId="1954" priority="618"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1925:G1932">
-    <cfRule type="duplicateValues" dxfId="1874" priority="589"/>
+    <cfRule type="duplicateValues" dxfId="1953" priority="617"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1926:G1932">
-    <cfRule type="duplicateValues" dxfId="1873" priority="588"/>
+    <cfRule type="duplicateValues" dxfId="1952" priority="616"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1928:G1932">
-    <cfRule type="duplicateValues" dxfId="1872" priority="587"/>
+    <cfRule type="duplicateValues" dxfId="1951" priority="615"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1929:G1932">
-    <cfRule type="duplicateValues" dxfId="1871" priority="586"/>
+    <cfRule type="duplicateValues" dxfId="1950" priority="614"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1930:G1932">
-    <cfRule type="duplicateValues" dxfId="1870" priority="585"/>
+    <cfRule type="duplicateValues" dxfId="1949" priority="613"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1932">
-    <cfRule type="duplicateValues" dxfId="1869" priority="584"/>
+    <cfRule type="duplicateValues" dxfId="1948" priority="612"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1937">
-    <cfRule type="duplicateValues" dxfId="1868" priority="583"/>
+    <cfRule type="duplicateValues" dxfId="1947" priority="611"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1940">
-    <cfRule type="duplicateValues" dxfId="1867" priority="582"/>
+    <cfRule type="duplicateValues" dxfId="1946" priority="610"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1941">
-    <cfRule type="duplicateValues" dxfId="1866" priority="581"/>
+    <cfRule type="duplicateValues" dxfId="1945" priority="609"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1952">
-    <cfRule type="duplicateValues" dxfId="1865" priority="580"/>
+    <cfRule type="duplicateValues" dxfId="1944" priority="608"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1940">
-    <cfRule type="duplicateValues" dxfId="1864" priority="579"/>
+    <cfRule type="duplicateValues" dxfId="1943" priority="607"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1941">
-    <cfRule type="duplicateValues" dxfId="1863" priority="578"/>
+    <cfRule type="duplicateValues" dxfId="1942" priority="606"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1952">
-    <cfRule type="duplicateValues" dxfId="1862" priority="577"/>
+    <cfRule type="duplicateValues" dxfId="1941" priority="605"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1924:G1933">
-    <cfRule type="duplicateValues" dxfId="1861" priority="576"/>
+    <cfRule type="duplicateValues" dxfId="1940" priority="604"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1928:G1933">
-    <cfRule type="duplicateValues" dxfId="1860" priority="575"/>
+    <cfRule type="duplicateValues" dxfId="1939" priority="603"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1932:G1933">
-    <cfRule type="duplicateValues" dxfId="1859" priority="574"/>
+    <cfRule type="duplicateValues" dxfId="1938" priority="602"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1927:G1933">
-    <cfRule type="duplicateValues" dxfId="1858" priority="573"/>
+    <cfRule type="duplicateValues" dxfId="1937" priority="601"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1931:G1933">
-    <cfRule type="duplicateValues" dxfId="1857" priority="572"/>
+    <cfRule type="duplicateValues" dxfId="1936" priority="600"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1933">
-    <cfRule type="duplicateValues" dxfId="1856" priority="571"/>
+    <cfRule type="duplicateValues" dxfId="1935" priority="599"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1922:G1933">
-    <cfRule type="duplicateValues" dxfId="1855" priority="570"/>
+    <cfRule type="duplicateValues" dxfId="1934" priority="598"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1925:G1933">
-    <cfRule type="duplicateValues" dxfId="1854" priority="569"/>
+    <cfRule type="duplicateValues" dxfId="1933" priority="597"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1926:G1933">
-    <cfRule type="duplicateValues" dxfId="1853" priority="568"/>
+    <cfRule type="duplicateValues" dxfId="1932" priority="596"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1930:G1933">
-    <cfRule type="duplicateValues" dxfId="1852" priority="567"/>
+    <cfRule type="duplicateValues" dxfId="1931" priority="595"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1920 A1919:A1933 G1922:G1934">
-    <cfRule type="duplicateValues" dxfId="1851" priority="566"/>
+    <cfRule type="duplicateValues" dxfId="1930" priority="594"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1920 G1922:G1934">
-    <cfRule type="duplicateValues" dxfId="1850" priority="565"/>
+    <cfRule type="duplicateValues" dxfId="1929" priority="593"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1929:G1934">
-    <cfRule type="duplicateValues" dxfId="1849" priority="564"/>
+    <cfRule type="duplicateValues" dxfId="1928" priority="592"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1942">
-    <cfRule type="duplicateValues" dxfId="1848" priority="563"/>
+    <cfRule type="duplicateValues" dxfId="1927" priority="591"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1942">
-    <cfRule type="duplicateValues" dxfId="1847" priority="562"/>
+    <cfRule type="duplicateValues" dxfId="1926" priority="590"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1942:G1951">
-    <cfRule type="duplicateValues" dxfId="1846" priority="561"/>
+    <cfRule type="duplicateValues" dxfId="1925" priority="589"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1938 G1940:G1951">
-    <cfRule type="duplicateValues" dxfId="1845" priority="560"/>
+    <cfRule type="duplicateValues" dxfId="1924" priority="588"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1940:G1951">
-    <cfRule type="duplicateValues" dxfId="1844" priority="559"/>
+    <cfRule type="duplicateValues" dxfId="1923" priority="587"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1942:H1951">
-    <cfRule type="duplicateValues" dxfId="1843" priority="558"/>
+    <cfRule type="duplicateValues" dxfId="1922" priority="586"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1940:H1951">
-    <cfRule type="duplicateValues" dxfId="1842" priority="557"/>
+    <cfRule type="duplicateValues" dxfId="1921" priority="585"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1960:G1970">
-    <cfRule type="duplicateValues" dxfId="1841" priority="556"/>
+    <cfRule type="duplicateValues" dxfId="1920" priority="584"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1963:G1968">
-    <cfRule type="duplicateValues" dxfId="1840" priority="555"/>
+    <cfRule type="duplicateValues" dxfId="1919" priority="583"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1964:G1970">
-    <cfRule type="duplicateValues" dxfId="1839" priority="554"/>
+    <cfRule type="duplicateValues" dxfId="1918" priority="582"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1974">
-    <cfRule type="duplicateValues" dxfId="1838" priority="553"/>
+    <cfRule type="duplicateValues" dxfId="1917" priority="581"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1967:G1968">
-    <cfRule type="duplicateValues" dxfId="1837" priority="552"/>
+    <cfRule type="duplicateValues" dxfId="1916" priority="580"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1964:G1968">
-    <cfRule type="duplicateValues" dxfId="1836" priority="551"/>
+    <cfRule type="duplicateValues" dxfId="1915" priority="579"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1968:G1970">
-    <cfRule type="duplicateValues" dxfId="1835" priority="550"/>
+    <cfRule type="duplicateValues" dxfId="1914" priority="578"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1958:G1968">
-    <cfRule type="duplicateValues" dxfId="1834" priority="549"/>
+    <cfRule type="duplicateValues" dxfId="1913" priority="577"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1959:G1968">
-    <cfRule type="duplicateValues" dxfId="1833" priority="548"/>
+    <cfRule type="duplicateValues" dxfId="1912" priority="576"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1960:G1968">
-    <cfRule type="duplicateValues" dxfId="1832" priority="547"/>
+    <cfRule type="duplicateValues" dxfId="1911" priority="575"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1961:G1968">
-    <cfRule type="duplicateValues" dxfId="1831" priority="546"/>
+    <cfRule type="duplicateValues" dxfId="1910" priority="574"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1962:G1968">
-    <cfRule type="duplicateValues" dxfId="1830" priority="545"/>
+    <cfRule type="duplicateValues" dxfId="1909" priority="573"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1963:G1970">
-    <cfRule type="duplicateValues" dxfId="1829" priority="544"/>
+    <cfRule type="duplicateValues" dxfId="1908" priority="572"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1965:G1968">
-    <cfRule type="duplicateValues" dxfId="1828" priority="542"/>
+    <cfRule type="duplicateValues" dxfId="1907" priority="570"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1966:G1968">
-    <cfRule type="duplicateValues" dxfId="1827" priority="541"/>
+    <cfRule type="duplicateValues" dxfId="1906" priority="569"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1968">
-    <cfRule type="duplicateValues" dxfId="1826" priority="540"/>
+    <cfRule type="duplicateValues" dxfId="1905" priority="568"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1977">
-    <cfRule type="duplicateValues" dxfId="1825" priority="523"/>
+    <cfRule type="duplicateValues" dxfId="1904" priority="551"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1980">
-    <cfRule type="duplicateValues" dxfId="1824" priority="522"/>
+    <cfRule type="duplicateValues" dxfId="1903" priority="550"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1981">
-    <cfRule type="duplicateValues" dxfId="1823" priority="521"/>
+    <cfRule type="duplicateValues" dxfId="1902" priority="549"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1987">
-    <cfRule type="duplicateValues" dxfId="1822" priority="520"/>
+    <cfRule type="duplicateValues" dxfId="1901" priority="548"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1982">
-    <cfRule type="duplicateValues" dxfId="1821" priority="516"/>
+    <cfRule type="duplicateValues" dxfId="1900" priority="544"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1983">
-    <cfRule type="duplicateValues" dxfId="1820" priority="507"/>
+    <cfRule type="duplicateValues" dxfId="1899" priority="535"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1980">
-    <cfRule type="duplicateValues" dxfId="1819" priority="505"/>
+    <cfRule type="duplicateValues" dxfId="1898" priority="533"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1981">
-    <cfRule type="duplicateValues" dxfId="1818" priority="504"/>
+    <cfRule type="duplicateValues" dxfId="1897" priority="532"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1987">
-    <cfRule type="duplicateValues" dxfId="1817" priority="503"/>
+    <cfRule type="duplicateValues" dxfId="1896" priority="531"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1982">
-    <cfRule type="duplicateValues" dxfId="1816" priority="502"/>
+    <cfRule type="duplicateValues" dxfId="1895" priority="530"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1982:H1984">
-    <cfRule type="duplicateValues" dxfId="1815" priority="496"/>
+    <cfRule type="duplicateValues" dxfId="1894" priority="524"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1981:H1984">
-    <cfRule type="duplicateValues" dxfId="1814" priority="495"/>
+    <cfRule type="duplicateValues" dxfId="1893" priority="523"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1983">
-    <cfRule type="duplicateValues" dxfId="1813" priority="489"/>
+    <cfRule type="duplicateValues" dxfId="1892" priority="517"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1964:G1974">
-    <cfRule type="duplicateValues" dxfId="1812" priority="53293"/>
+    <cfRule type="duplicateValues" dxfId="1891" priority="53321"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1971:G1973">
-    <cfRule type="duplicateValues" dxfId="1811" priority="53295"/>
+    <cfRule type="duplicateValues" dxfId="1890" priority="53323"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1967:G1973">
-    <cfRule type="duplicateValues" dxfId="1810" priority="53296"/>
+    <cfRule type="duplicateValues" dxfId="1889" priority="53324"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1968:G1973">
-    <cfRule type="duplicateValues" dxfId="1809" priority="53297"/>
+    <cfRule type="duplicateValues" dxfId="1888" priority="53325"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1969:G1973">
-    <cfRule type="duplicateValues" dxfId="1808" priority="53298"/>
+    <cfRule type="duplicateValues" dxfId="1887" priority="53326"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1970:G1973">
-    <cfRule type="duplicateValues" dxfId="1807" priority="53299"/>
+    <cfRule type="duplicateValues" dxfId="1886" priority="53327"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1964:G1973">
-    <cfRule type="duplicateValues" dxfId="1806" priority="53300"/>
+    <cfRule type="duplicateValues" dxfId="1885" priority="53328"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1958:G1973">
-    <cfRule type="duplicateValues" dxfId="1805" priority="53301"/>
+    <cfRule type="duplicateValues" dxfId="1884" priority="53329"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1961:G1973">
-    <cfRule type="duplicateValues" dxfId="1804" priority="53302"/>
+    <cfRule type="duplicateValues" dxfId="1883" priority="53330"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1962:G1973">
-    <cfRule type="duplicateValues" dxfId="1803" priority="53303"/>
+    <cfRule type="duplicateValues" dxfId="1882" priority="53331"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1963:G1973">
-    <cfRule type="duplicateValues" dxfId="1802" priority="53304"/>
+    <cfRule type="duplicateValues" dxfId="1881" priority="53332"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1966:G1973">
-    <cfRule type="duplicateValues" dxfId="1801" priority="53305"/>
+    <cfRule type="duplicateValues" dxfId="1880" priority="53333"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1956 A1955:A1973 G1958:G1974">
-    <cfRule type="duplicateValues" dxfId="1800" priority="53306"/>
+    <cfRule type="duplicateValues" dxfId="1879" priority="53334"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1956 G1958:G1974">
-    <cfRule type="duplicateValues" dxfId="1799" priority="53310"/>
+    <cfRule type="duplicateValues" dxfId="1878" priority="53338"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1965:G1974">
-    <cfRule type="duplicateValues" dxfId="1798" priority="53313"/>
+    <cfRule type="duplicateValues" dxfId="1877" priority="53341"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1982:G1986">
-    <cfRule type="duplicateValues" dxfId="1797" priority="54715"/>
+    <cfRule type="duplicateValues" dxfId="1876" priority="54743"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1978 G1980:G1986">
-    <cfRule type="duplicateValues" dxfId="1796" priority="54716"/>
+    <cfRule type="duplicateValues" dxfId="1875" priority="54744"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1980:G1986">
-    <cfRule type="duplicateValues" dxfId="1795" priority="54718"/>
+    <cfRule type="duplicateValues" dxfId="1874" priority="54746"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1978 G1977:H1978 G1980:G1987">
-    <cfRule type="duplicateValues" dxfId="1794" priority="54820"/>
+    <cfRule type="duplicateValues" dxfId="1873" priority="54848"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1980:H1987">
-    <cfRule type="duplicateValues" dxfId="1793" priority="54827"/>
+    <cfRule type="duplicateValues" dxfId="1872" priority="54855"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1982:H1986">
-    <cfRule type="duplicateValues" dxfId="1792" priority="54832"/>
+    <cfRule type="duplicateValues" dxfId="1871" priority="54860"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1980:H1986">
-    <cfRule type="duplicateValues" dxfId="1791" priority="54833"/>
+    <cfRule type="duplicateValues" dxfId="1870" priority="54861"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1990">
-    <cfRule type="duplicateValues" dxfId="1790" priority="488"/>
+    <cfRule type="duplicateValues" dxfId="1869" priority="516"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2006">
-    <cfRule type="duplicateValues" dxfId="1789" priority="485"/>
+    <cfRule type="duplicateValues" dxfId="1868" priority="513"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2006">
-    <cfRule type="duplicateValues" dxfId="1788" priority="480"/>
+    <cfRule type="duplicateValues" dxfId="1867" priority="508"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2009">
-    <cfRule type="duplicateValues" dxfId="1787" priority="460"/>
+    <cfRule type="duplicateValues" dxfId="1866" priority="488"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2012">
-    <cfRule type="duplicateValues" dxfId="1786" priority="458"/>
+    <cfRule type="duplicateValues" dxfId="1865" priority="486"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2026">
-    <cfRule type="duplicateValues" dxfId="1785" priority="457"/>
+    <cfRule type="duplicateValues" dxfId="1864" priority="485"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2012">
-    <cfRule type="duplicateValues" dxfId="1784" priority="453"/>
+    <cfRule type="duplicateValues" dxfId="1863" priority="481"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2026">
-    <cfRule type="duplicateValues" dxfId="1783" priority="452"/>
+    <cfRule type="duplicateValues" dxfId="1862" priority="480"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1991">
-    <cfRule type="duplicateValues" dxfId="1782" priority="59501"/>
+    <cfRule type="duplicateValues" dxfId="1861" priority="59529"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1991 G1990:H1991 G2006">
-    <cfRule type="duplicateValues" dxfId="1781" priority="59503"/>
+    <cfRule type="duplicateValues" dxfId="1860" priority="59531"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2012:H2026">
-    <cfRule type="duplicateValues" dxfId="1780" priority="81468"/>
+    <cfRule type="duplicateValues" dxfId="1859" priority="81496"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2013:G2025">
-    <cfRule type="duplicateValues" dxfId="1779" priority="83024"/>
+    <cfRule type="duplicateValues" dxfId="1858" priority="83052"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2013:H2025">
-    <cfRule type="duplicateValues" dxfId="1778" priority="83025"/>
+    <cfRule type="duplicateValues" dxfId="1857" priority="83053"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2010 G2012:G2025">
-    <cfRule type="duplicateValues" dxfId="1777" priority="83031"/>
+    <cfRule type="duplicateValues" dxfId="1856" priority="83059"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2012:G2025">
-    <cfRule type="duplicateValues" dxfId="1776" priority="83033"/>
+    <cfRule type="duplicateValues" dxfId="1855" priority="83061"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2010 G2012:G2026 H2009:H2010 G2010">
-    <cfRule type="duplicateValues" dxfId="1775" priority="83034"/>
+    <cfRule type="duplicateValues" dxfId="1854" priority="83062"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2012:H2025">
-    <cfRule type="duplicateValues" dxfId="1774" priority="83038"/>
+    <cfRule type="duplicateValues" dxfId="1853" priority="83066"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2014:G2024">
-    <cfRule type="duplicateValues" dxfId="1773" priority="401"/>
+    <cfRule type="duplicateValues" dxfId="1852" priority="429"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2017:G2022">
-    <cfRule type="duplicateValues" dxfId="1772" priority="400"/>
+    <cfRule type="duplicateValues" dxfId="1851" priority="428"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2018:G2024">
-    <cfRule type="duplicateValues" dxfId="1771" priority="399"/>
+    <cfRule type="duplicateValues" dxfId="1850" priority="427"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2028">
-    <cfRule type="duplicateValues" dxfId="1770" priority="398"/>
+    <cfRule type="duplicateValues" dxfId="1849" priority="426"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2021:G2022">
-    <cfRule type="duplicateValues" dxfId="1769" priority="397"/>
+    <cfRule type="duplicateValues" dxfId="1848" priority="425"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2018:G2022">
-    <cfRule type="duplicateValues" dxfId="1768" priority="396"/>
+    <cfRule type="duplicateValues" dxfId="1847" priority="424"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2022:G2024">
-    <cfRule type="duplicateValues" dxfId="1767" priority="395"/>
+    <cfRule type="duplicateValues" dxfId="1846" priority="423"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2012:G2022">
-    <cfRule type="duplicateValues" dxfId="1766" priority="394"/>
+    <cfRule type="duplicateValues" dxfId="1845" priority="422"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2013:G2022">
-    <cfRule type="duplicateValues" dxfId="1765" priority="393"/>
+    <cfRule type="duplicateValues" dxfId="1844" priority="421"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2014:G2022">
-    <cfRule type="duplicateValues" dxfId="1764" priority="392"/>
+    <cfRule type="duplicateValues" dxfId="1843" priority="420"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2015:G2022">
-    <cfRule type="duplicateValues" dxfId="1763" priority="391"/>
+    <cfRule type="duplicateValues" dxfId="1842" priority="419"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2016:G2022">
-    <cfRule type="duplicateValues" dxfId="1762" priority="390"/>
+    <cfRule type="duplicateValues" dxfId="1841" priority="418"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2017:G2024">
-    <cfRule type="duplicateValues" dxfId="1761" priority="389"/>
+    <cfRule type="duplicateValues" dxfId="1840" priority="417"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2019:G2022">
-    <cfRule type="duplicateValues" dxfId="1760" priority="388"/>
+    <cfRule type="duplicateValues" dxfId="1839" priority="416"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2034:G2044">
-    <cfRule type="duplicateValues" dxfId="1759" priority="387"/>
+    <cfRule type="duplicateValues" dxfId="1838" priority="415"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2037:G2044">
-    <cfRule type="duplicateValues" dxfId="1758" priority="386"/>
+    <cfRule type="duplicateValues" dxfId="1837" priority="414"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2038:G2044">
-    <cfRule type="duplicateValues" dxfId="1757" priority="385"/>
+    <cfRule type="duplicateValues" dxfId="1836" priority="413"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2047">
-    <cfRule type="duplicateValues" dxfId="1756" priority="384"/>
+    <cfRule type="duplicateValues" dxfId="1835" priority="412"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2041:G2044">
-    <cfRule type="duplicateValues" dxfId="1755" priority="383"/>
+    <cfRule type="duplicateValues" dxfId="1834" priority="411"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2042:G2044">
-    <cfRule type="duplicateValues" dxfId="1754" priority="381"/>
+    <cfRule type="duplicateValues" dxfId="1833" priority="409"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2032:G2044">
-    <cfRule type="duplicateValues" dxfId="1753" priority="380"/>
+    <cfRule type="duplicateValues" dxfId="1832" priority="408"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2033:G2044">
-    <cfRule type="duplicateValues" dxfId="1752" priority="379"/>
+    <cfRule type="duplicateValues" dxfId="1831" priority="407"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2035:G2044">
-    <cfRule type="duplicateValues" dxfId="1751" priority="377"/>
+    <cfRule type="duplicateValues" dxfId="1830" priority="405"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2036:G2044">
-    <cfRule type="duplicateValues" dxfId="1750" priority="376"/>
+    <cfRule type="duplicateValues" dxfId="1829" priority="404"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2039:G2044">
-    <cfRule type="duplicateValues" dxfId="1749" priority="374"/>
+    <cfRule type="duplicateValues" dxfId="1828" priority="402"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2040:G2044">
-    <cfRule type="duplicateValues" dxfId="1748" priority="373"/>
+    <cfRule type="duplicateValues" dxfId="1827" priority="401"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2038:G2047">
-    <cfRule type="duplicateValues" dxfId="1747" priority="365"/>
+    <cfRule type="duplicateValues" dxfId="1826" priority="393"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2045:G2046">
-    <cfRule type="duplicateValues" dxfId="1746" priority="86045"/>
+    <cfRule type="duplicateValues" dxfId="1825" priority="86073"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2041:G2046">
-    <cfRule type="duplicateValues" dxfId="1745" priority="86046"/>
+    <cfRule type="duplicateValues" dxfId="1824" priority="86074"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2042:G2046">
-    <cfRule type="duplicateValues" dxfId="1744" priority="86047"/>
+    <cfRule type="duplicateValues" dxfId="1823" priority="86075"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2043:G2046">
-    <cfRule type="duplicateValues" dxfId="1743" priority="86048"/>
+    <cfRule type="duplicateValues" dxfId="1822" priority="86076"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2044:G2046">
-    <cfRule type="duplicateValues" dxfId="1742" priority="86049"/>
+    <cfRule type="duplicateValues" dxfId="1821" priority="86077"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2038:G2046">
-    <cfRule type="duplicateValues" dxfId="1741" priority="86050"/>
+    <cfRule type="duplicateValues" dxfId="1820" priority="86078"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2032:G2046">
-    <cfRule type="duplicateValues" dxfId="1740" priority="86051"/>
+    <cfRule type="duplicateValues" dxfId="1819" priority="86079"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2035:G2046">
-    <cfRule type="duplicateValues" dxfId="1739" priority="86052"/>
+    <cfRule type="duplicateValues" dxfId="1818" priority="86080"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2036:G2046">
-    <cfRule type="duplicateValues" dxfId="1738" priority="86053"/>
+    <cfRule type="duplicateValues" dxfId="1817" priority="86081"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2037:G2046">
-    <cfRule type="duplicateValues" dxfId="1737" priority="86054"/>
+    <cfRule type="duplicateValues" dxfId="1816" priority="86082"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2040:G2046">
-    <cfRule type="duplicateValues" dxfId="1736" priority="86055"/>
+    <cfRule type="duplicateValues" dxfId="1815" priority="86083"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2030 A2029:A2046 G2032:G2047">
-    <cfRule type="duplicateValues" dxfId="1735" priority="86056"/>
+    <cfRule type="duplicateValues" dxfId="1814" priority="86084"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2030 G2032:G2047">
-    <cfRule type="duplicateValues" dxfId="1734" priority="86060"/>
+    <cfRule type="duplicateValues" dxfId="1813" priority="86088"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2039:G2047">
-    <cfRule type="duplicateValues" dxfId="1733" priority="86063"/>
+    <cfRule type="duplicateValues" dxfId="1812" priority="86091"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2055:G2065">
-    <cfRule type="duplicateValues" dxfId="1732" priority="356"/>
+    <cfRule type="duplicateValues" dxfId="1811" priority="384"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2058:G2065">
-    <cfRule type="duplicateValues" dxfId="1731" priority="355"/>
+    <cfRule type="duplicateValues" dxfId="1810" priority="383"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2059:G2065">
-    <cfRule type="duplicateValues" dxfId="1730" priority="354"/>
+    <cfRule type="duplicateValues" dxfId="1809" priority="382"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2069">
-    <cfRule type="duplicateValues" dxfId="1729" priority="353"/>
+    <cfRule type="duplicateValues" dxfId="1808" priority="381"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2062:G2065">
-    <cfRule type="duplicateValues" dxfId="1728" priority="352"/>
+    <cfRule type="duplicateValues" dxfId="1807" priority="380"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2063:G2065">
-    <cfRule type="duplicateValues" dxfId="1727" priority="351"/>
+    <cfRule type="duplicateValues" dxfId="1806" priority="379"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2053:G2065">
-    <cfRule type="duplicateValues" dxfId="1726" priority="350"/>
+    <cfRule type="duplicateValues" dxfId="1805" priority="378"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2054:G2065">
-    <cfRule type="duplicateValues" dxfId="1725" priority="349"/>
+    <cfRule type="duplicateValues" dxfId="1804" priority="377"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2056:G2065">
-    <cfRule type="duplicateValues" dxfId="1724" priority="348"/>
+    <cfRule type="duplicateValues" dxfId="1803" priority="376"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2057:G2065">
-    <cfRule type="duplicateValues" dxfId="1723" priority="347"/>
+    <cfRule type="duplicateValues" dxfId="1802" priority="375"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2060:G2065">
-    <cfRule type="duplicateValues" dxfId="1722" priority="346"/>
+    <cfRule type="duplicateValues" dxfId="1801" priority="374"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2061:G2065">
-    <cfRule type="duplicateValues" dxfId="1721" priority="345"/>
+    <cfRule type="duplicateValues" dxfId="1800" priority="373"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2059:G2069">
-    <cfRule type="duplicateValues" dxfId="1720" priority="344"/>
+    <cfRule type="duplicateValues" dxfId="1799" priority="372"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2066:G2068">
-    <cfRule type="duplicateValues" dxfId="1719" priority="343"/>
+    <cfRule type="duplicateValues" dxfId="1798" priority="371"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2062:G2068">
-    <cfRule type="duplicateValues" dxfId="1718" priority="342"/>
+    <cfRule type="duplicateValues" dxfId="1797" priority="370"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2063:G2068">
-    <cfRule type="duplicateValues" dxfId="1717" priority="341"/>
+    <cfRule type="duplicateValues" dxfId="1796" priority="369"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2064:G2068">
-    <cfRule type="duplicateValues" dxfId="1716" priority="340"/>
+    <cfRule type="duplicateValues" dxfId="1795" priority="368"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2065:G2068">
-    <cfRule type="duplicateValues" dxfId="1715" priority="339"/>
+    <cfRule type="duplicateValues" dxfId="1794" priority="367"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2059:G2068">
-    <cfRule type="duplicateValues" dxfId="1714" priority="338"/>
+    <cfRule type="duplicateValues" dxfId="1793" priority="366"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2053:G2068">
-    <cfRule type="duplicateValues" dxfId="1713" priority="337"/>
+    <cfRule type="duplicateValues" dxfId="1792" priority="365"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2056:G2068">
-    <cfRule type="duplicateValues" dxfId="1712" priority="336"/>
+    <cfRule type="duplicateValues" dxfId="1791" priority="364"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2057:G2068">
-    <cfRule type="duplicateValues" dxfId="1711" priority="335"/>
+    <cfRule type="duplicateValues" dxfId="1790" priority="363"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2058:G2068">
-    <cfRule type="duplicateValues" dxfId="1710" priority="334"/>
+    <cfRule type="duplicateValues" dxfId="1789" priority="362"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2061:G2068">
-    <cfRule type="duplicateValues" dxfId="1709" priority="333"/>
+    <cfRule type="duplicateValues" dxfId="1788" priority="361"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2051 A2050:A2068 G2053:G2069">
-    <cfRule type="duplicateValues" dxfId="1708" priority="332"/>
+    <cfRule type="duplicateValues" dxfId="1787" priority="360"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2051 G2053:G2069">
-    <cfRule type="duplicateValues" dxfId="1707" priority="331"/>
+    <cfRule type="duplicateValues" dxfId="1786" priority="359"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2060:G2069">
-    <cfRule type="duplicateValues" dxfId="1706" priority="330"/>
+    <cfRule type="duplicateValues" dxfId="1785" priority="358"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2072">
-    <cfRule type="duplicateValues" dxfId="1705" priority="329"/>
+    <cfRule type="duplicateValues" dxfId="1784" priority="357"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2078">
-    <cfRule type="duplicateValues" dxfId="1704" priority="327"/>
+    <cfRule type="duplicateValues" dxfId="1783" priority="355"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2078">
-    <cfRule type="duplicateValues" dxfId="1703" priority="325"/>
+    <cfRule type="duplicateValues" dxfId="1782" priority="353"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2081">
-    <cfRule type="duplicateValues" dxfId="1702" priority="302"/>
+    <cfRule type="duplicateValues" dxfId="1781" priority="330"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2095">
-    <cfRule type="duplicateValues" dxfId="1701" priority="300"/>
+    <cfRule type="duplicateValues" dxfId="1780" priority="328"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2082">
-    <cfRule type="duplicateValues" dxfId="1700" priority="283"/>
+    <cfRule type="duplicateValues" dxfId="1779" priority="311"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2095 A2082 H2081:H2082 G2082">
-    <cfRule type="duplicateValues" dxfId="1699" priority="281"/>
+    <cfRule type="duplicateValues" dxfId="1778" priority="309"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2076">
-    <cfRule type="duplicateValues" dxfId="1698" priority="91039"/>
+    <cfRule type="duplicateValues" dxfId="1777" priority="91067"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2075:H2078">
-    <cfRule type="duplicateValues" dxfId="1697" priority="91061"/>
+    <cfRule type="duplicateValues" dxfId="1776" priority="91089"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2076:G2077">
-    <cfRule type="duplicateValues" dxfId="1696" priority="92714"/>
+    <cfRule type="duplicateValues" dxfId="1775" priority="92742"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2076:G2077 G2073">
-    <cfRule type="duplicateValues" dxfId="1695" priority="92715"/>
+    <cfRule type="duplicateValues" dxfId="1774" priority="92743"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2076:G2078 A2073 H2072:H2073 G2073">
-    <cfRule type="duplicateValues" dxfId="1694" priority="92717"/>
+    <cfRule type="duplicateValues" dxfId="1773" priority="92745"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2075:H2077">
-    <cfRule type="duplicateValues" dxfId="1693" priority="92724"/>
+    <cfRule type="duplicateValues" dxfId="1772" priority="92752"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2103:G2113">
-    <cfRule type="duplicateValues" dxfId="1692" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="1771" priority="301"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2106:G2113">
-    <cfRule type="duplicateValues" dxfId="1691" priority="272"/>
+    <cfRule type="duplicateValues" dxfId="1770" priority="300"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2107:G2113">
-    <cfRule type="duplicateValues" dxfId="1690" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="1769" priority="299"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2116">
-    <cfRule type="duplicateValues" dxfId="1689" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="1768" priority="298"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2110:G2113">
-    <cfRule type="duplicateValues" dxfId="1688" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="1767" priority="297"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2111:G2113">
-    <cfRule type="duplicateValues" dxfId="1687" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="1766" priority="296"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2101:G2113">
-    <cfRule type="duplicateValues" dxfId="1686" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="1765" priority="295"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2102:G2113">
-    <cfRule type="duplicateValues" dxfId="1685" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="1764" priority="294"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2104:G2113">
-    <cfRule type="duplicateValues" dxfId="1684" priority="265"/>
+    <cfRule type="duplicateValues" dxfId="1763" priority="293"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2105:G2113">
-    <cfRule type="duplicateValues" dxfId="1683" priority="264"/>
+    <cfRule type="duplicateValues" dxfId="1762" priority="292"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2108:G2113">
-    <cfRule type="duplicateValues" dxfId="1682" priority="263"/>
+    <cfRule type="duplicateValues" dxfId="1761" priority="291"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2109:G2113">
-    <cfRule type="duplicateValues" dxfId="1681" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="1760" priority="290"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2107:G2116">
-    <cfRule type="duplicateValues" dxfId="1680" priority="255"/>
+    <cfRule type="duplicateValues" dxfId="1759" priority="283"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2114:G2115">
-    <cfRule type="duplicateValues" dxfId="1679" priority="94410"/>
+    <cfRule type="duplicateValues" dxfId="1758" priority="94438"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2110:G2115">
-    <cfRule type="duplicateValues" dxfId="1678" priority="94411"/>
+    <cfRule type="duplicateValues" dxfId="1757" priority="94439"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2111:G2115">
-    <cfRule type="duplicateValues" dxfId="1677" priority="94412"/>
+    <cfRule type="duplicateValues" dxfId="1756" priority="94440"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2112:G2115">
-    <cfRule type="duplicateValues" dxfId="1676" priority="94413"/>
+    <cfRule type="duplicateValues" dxfId="1755" priority="94441"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2113:G2115">
-    <cfRule type="duplicateValues" dxfId="1675" priority="94414"/>
+    <cfRule type="duplicateValues" dxfId="1754" priority="94442"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2107:G2115">
-    <cfRule type="duplicateValues" dxfId="1674" priority="94415"/>
+    <cfRule type="duplicateValues" dxfId="1753" priority="94443"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2101:G2115">
-    <cfRule type="duplicateValues" dxfId="1673" priority="94416"/>
+    <cfRule type="duplicateValues" dxfId="1752" priority="94444"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2104:G2115">
-    <cfRule type="duplicateValues" dxfId="1672" priority="94417"/>
+    <cfRule type="duplicateValues" dxfId="1751" priority="94445"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2105:G2115">
-    <cfRule type="duplicateValues" dxfId="1671" priority="94418"/>
+    <cfRule type="duplicateValues" dxfId="1750" priority="94446"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2106:G2115">
-    <cfRule type="duplicateValues" dxfId="1670" priority="94419"/>
+    <cfRule type="duplicateValues" dxfId="1749" priority="94447"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2109:G2115">
-    <cfRule type="duplicateValues" dxfId="1669" priority="94420"/>
+    <cfRule type="duplicateValues" dxfId="1748" priority="94448"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2099 G2101:G2116 A2098:A2116">
-    <cfRule type="duplicateValues" dxfId="1668" priority="94421"/>
+    <cfRule type="duplicateValues" dxfId="1747" priority="94449"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2099 G2101:G2116">
-    <cfRule type="duplicateValues" dxfId="1667" priority="94425"/>
+    <cfRule type="duplicateValues" dxfId="1746" priority="94453"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2108:G2116">
-    <cfRule type="duplicateValues" dxfId="1666" priority="94428"/>
+    <cfRule type="duplicateValues" dxfId="1745" priority="94456"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2119">
-    <cfRule type="duplicateValues" dxfId="1665" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="1744" priority="274"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2122">
-    <cfRule type="duplicateValues" dxfId="1664" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="1743" priority="273"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2123">
-    <cfRule type="duplicateValues" dxfId="1663" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="1742" priority="272"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2120 G2122">
-    <cfRule type="duplicateValues" dxfId="1662" priority="96135"/>
+    <cfRule type="duplicateValues" dxfId="1741" priority="96163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2120 G2122:G2123 H2119:H2120 G2120">
-    <cfRule type="duplicateValues" dxfId="1661" priority="96138"/>
+    <cfRule type="duplicateValues" dxfId="1740" priority="96166"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2139">
-    <cfRule type="duplicateValues" dxfId="1660" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="1739" priority="246"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2137:G2138">
-    <cfRule type="duplicateValues" dxfId="1659" priority="104781"/>
+    <cfRule type="duplicateValues" dxfId="1738" priority="104809"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2136:G2138">
-    <cfRule type="duplicateValues" dxfId="1658" priority="104782"/>
+    <cfRule type="duplicateValues" dxfId="1737" priority="104810"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2131:G2138">
-    <cfRule type="duplicateValues" dxfId="1657" priority="104783"/>
+    <cfRule type="duplicateValues" dxfId="1736" priority="104811"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2132:G2138">
-    <cfRule type="duplicateValues" dxfId="1656" priority="104784"/>
+    <cfRule type="duplicateValues" dxfId="1735" priority="104812"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2135:G2138">
-    <cfRule type="duplicateValues" dxfId="1655" priority="104785"/>
+    <cfRule type="duplicateValues" dxfId="1734" priority="104813"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2133:G2138">
-    <cfRule type="duplicateValues" dxfId="1654" priority="104786"/>
+    <cfRule type="duplicateValues" dxfId="1733" priority="104814"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2134:G2138">
-    <cfRule type="duplicateValues" dxfId="1653" priority="104787"/>
+    <cfRule type="duplicateValues" dxfId="1732" priority="104815"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2132:G2139">
-    <cfRule type="duplicateValues" dxfId="1652" priority="104788"/>
+    <cfRule type="duplicateValues" dxfId="1731" priority="104816"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2130:G2138">
-    <cfRule type="duplicateValues" dxfId="1651" priority="104790"/>
+    <cfRule type="duplicateValues" dxfId="1730" priority="104818"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2129:G2138">
-    <cfRule type="duplicateValues" dxfId="1650" priority="104791"/>
+    <cfRule type="duplicateValues" dxfId="1729" priority="104819"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2133:G2139">
-    <cfRule type="duplicateValues" dxfId="1649" priority="104792"/>
+    <cfRule type="duplicateValues" dxfId="1728" priority="104820"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2127 G2129:G2139 A2126:A2139">
-    <cfRule type="duplicateValues" dxfId="1648" priority="104794"/>
+    <cfRule type="duplicateValues" dxfId="1727" priority="104822"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2127 G2129:G2139">
-    <cfRule type="duplicateValues" dxfId="1647" priority="104799"/>
+    <cfRule type="duplicateValues" dxfId="1726" priority="104827"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2158">
-    <cfRule type="duplicateValues" dxfId="1646" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="1725" priority="222"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2153:G2157">
-    <cfRule type="duplicateValues" dxfId="1645" priority="106532"/>
+    <cfRule type="duplicateValues" dxfId="1724" priority="106560"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2152:G2157">
-    <cfRule type="duplicateValues" dxfId="1644" priority="106533"/>
+    <cfRule type="duplicateValues" dxfId="1723" priority="106561"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2147:G2157">
-    <cfRule type="duplicateValues" dxfId="1643" priority="106534"/>
+    <cfRule type="duplicateValues" dxfId="1722" priority="106562"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2148:G2157">
-    <cfRule type="duplicateValues" dxfId="1642" priority="106535"/>
+    <cfRule type="duplicateValues" dxfId="1721" priority="106563"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2151:G2157">
-    <cfRule type="duplicateValues" dxfId="1641" priority="106536"/>
+    <cfRule type="duplicateValues" dxfId="1720" priority="106564"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2149:G2157">
-    <cfRule type="duplicateValues" dxfId="1640" priority="106537"/>
+    <cfRule type="duplicateValues" dxfId="1719" priority="106565"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2150:G2157">
-    <cfRule type="duplicateValues" dxfId="1639" priority="106538"/>
+    <cfRule type="duplicateValues" dxfId="1718" priority="106566"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2148:G2158">
-    <cfRule type="duplicateValues" dxfId="1638" priority="106539"/>
+    <cfRule type="duplicateValues" dxfId="1717" priority="106567"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2146:G2157">
-    <cfRule type="duplicateValues" dxfId="1637" priority="106541"/>
+    <cfRule type="duplicateValues" dxfId="1716" priority="106569"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2145:G2157">
-    <cfRule type="duplicateValues" dxfId="1636" priority="106542"/>
+    <cfRule type="duplicateValues" dxfId="1715" priority="106570"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2149:G2158">
-    <cfRule type="duplicateValues" dxfId="1635" priority="106543"/>
+    <cfRule type="duplicateValues" dxfId="1714" priority="106571"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2143 G2145:G2158 A2142:A2158">
-    <cfRule type="duplicateValues" dxfId="1634" priority="106545"/>
+    <cfRule type="duplicateValues" dxfId="1713" priority="106573"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2143 G2145:G2158">
-    <cfRule type="duplicateValues" dxfId="1633" priority="106550"/>
+    <cfRule type="duplicateValues" dxfId="1712" priority="106578"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2165">
-    <cfRule type="duplicateValues" dxfId="1632" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="1711" priority="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2164">
-    <cfRule type="duplicateValues" dxfId="1631" priority="110055"/>
+    <cfRule type="duplicateValues" dxfId="1710" priority="110083"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2162 G2164:G2165 A2161:A2165">
-    <cfRule type="duplicateValues" dxfId="1630" priority="110057"/>
+    <cfRule type="duplicateValues" dxfId="1709" priority="110085"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2162 G2164:G2165">
-    <cfRule type="duplicateValues" dxfId="1629" priority="110062"/>
+    <cfRule type="duplicateValues" dxfId="1708" priority="110090"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2185">
-    <cfRule type="duplicateValues" dxfId="1628" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="1707" priority="194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2174:G2185">
-    <cfRule type="duplicateValues" dxfId="1627" priority="111824"/>
+    <cfRule type="duplicateValues" dxfId="1706" priority="111852"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2175:G2185">
-    <cfRule type="duplicateValues" dxfId="1626" priority="111826"/>
+    <cfRule type="duplicateValues" dxfId="1705" priority="111854"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2179:G2184">
-    <cfRule type="duplicateValues" dxfId="1625" priority="113602"/>
+    <cfRule type="duplicateValues" dxfId="1704" priority="113630"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2178:G2184">
-    <cfRule type="duplicateValues" dxfId="1624" priority="113603"/>
+    <cfRule type="duplicateValues" dxfId="1703" priority="113631"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2173:G2184">
-    <cfRule type="duplicateValues" dxfId="1623" priority="113604"/>
+    <cfRule type="duplicateValues" dxfId="1702" priority="113632"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2174:G2184">
-    <cfRule type="duplicateValues" dxfId="1622" priority="113605"/>
+    <cfRule type="duplicateValues" dxfId="1701" priority="113633"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2177:G2184">
-    <cfRule type="duplicateValues" dxfId="1621" priority="113606"/>
+    <cfRule type="duplicateValues" dxfId="1700" priority="113634"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2175:G2184">
-    <cfRule type="duplicateValues" dxfId="1620" priority="113607"/>
+    <cfRule type="duplicateValues" dxfId="1699" priority="113635"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2176:G2184">
-    <cfRule type="duplicateValues" dxfId="1619" priority="113608"/>
+    <cfRule type="duplicateValues" dxfId="1698" priority="113636"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2172:G2184">
-    <cfRule type="duplicateValues" dxfId="1618" priority="113609"/>
+    <cfRule type="duplicateValues" dxfId="1697" priority="113637"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2171:G2184">
-    <cfRule type="duplicateValues" dxfId="1617" priority="113610"/>
+    <cfRule type="duplicateValues" dxfId="1696" priority="113638"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2169 A2168:A2185 G2171:G2185">
-    <cfRule type="duplicateValues" dxfId="1616" priority="113611"/>
+    <cfRule type="duplicateValues" dxfId="1695" priority="113639"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2169 G2171:G2185">
-    <cfRule type="duplicateValues" dxfId="1615" priority="113616"/>
+    <cfRule type="duplicateValues" dxfId="1694" priority="113644"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2195">
-    <cfRule type="duplicateValues" dxfId="1614" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="1693" priority="180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2193:G2194">
-    <cfRule type="duplicateValues" dxfId="1613" priority="115394"/>
+    <cfRule type="duplicateValues" dxfId="1692" priority="115422"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2192:G2194">
-    <cfRule type="duplicateValues" dxfId="1612" priority="115395"/>
+    <cfRule type="duplicateValues" dxfId="1691" priority="115423"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2191:G2194">
-    <cfRule type="duplicateValues" dxfId="1611" priority="115396"/>
+    <cfRule type="duplicateValues" dxfId="1690" priority="115424"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2189 A2188:A2195 G2191:G2195">
-    <cfRule type="duplicateValues" dxfId="1610" priority="115397"/>
+    <cfRule type="duplicateValues" dxfId="1689" priority="115425"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2189 G2191:G2195">
-    <cfRule type="duplicateValues" dxfId="1609" priority="115402"/>
+    <cfRule type="duplicateValues" dxfId="1688" priority="115430"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2219">
-    <cfRule type="duplicateValues" dxfId="1608" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="1687" priority="166"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2204:G2219">
-    <cfRule type="duplicateValues" dxfId="1607" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="1686" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2205:G2219">
-    <cfRule type="duplicateValues" dxfId="1606" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="1685" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2201">
-    <cfRule type="duplicateValues" dxfId="1605" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="1684" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2209:G2218">
-    <cfRule type="duplicateValues" dxfId="1604" priority="117193"/>
+    <cfRule type="duplicateValues" dxfId="1683" priority="117221"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2208:G2218">
-    <cfRule type="duplicateValues" dxfId="1603" priority="117194"/>
+    <cfRule type="duplicateValues" dxfId="1682" priority="117222"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2203:G2218">
-    <cfRule type="duplicateValues" dxfId="1602" priority="117195"/>
+    <cfRule type="duplicateValues" dxfId="1681" priority="117223"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2204:G2218">
-    <cfRule type="duplicateValues" dxfId="1601" priority="117196"/>
+    <cfRule type="duplicateValues" dxfId="1680" priority="117224"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2207:G2218">
-    <cfRule type="duplicateValues" dxfId="1600" priority="117197"/>
+    <cfRule type="duplicateValues" dxfId="1679" priority="117225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2205:G2218">
-    <cfRule type="duplicateValues" dxfId="1599" priority="117198"/>
+    <cfRule type="duplicateValues" dxfId="1678" priority="117226"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2206:G2218">
-    <cfRule type="duplicateValues" dxfId="1598" priority="117199"/>
+    <cfRule type="duplicateValues" dxfId="1677" priority="117227"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2202:G2218">
-    <cfRule type="duplicateValues" dxfId="1597" priority="117200"/>
+    <cfRule type="duplicateValues" dxfId="1676" priority="117228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2201:G2218">
-    <cfRule type="duplicateValues" dxfId="1596" priority="117201"/>
+    <cfRule type="duplicateValues" dxfId="1675" priority="117229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2199 A2198:A2219 G2201:G2219">
-    <cfRule type="duplicateValues" dxfId="1595" priority="117202"/>
+    <cfRule type="duplicateValues" dxfId="1674" priority="117230"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2199 G2201:G2219">
-    <cfRule type="duplicateValues" dxfId="1594" priority="117207"/>
+    <cfRule type="duplicateValues" dxfId="1673" priority="117235"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2226">
-    <cfRule type="duplicateValues" dxfId="1593" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="1672" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2225">
-    <cfRule type="duplicateValues" dxfId="1592" priority="119013"/>
+    <cfRule type="duplicateValues" dxfId="1671" priority="119041"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2223 A2222:A2226 G2225:G2226">
-    <cfRule type="duplicateValues" dxfId="1591" priority="119014"/>
+    <cfRule type="duplicateValues" dxfId="1670" priority="119042"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2223 G2225:G2226">
-    <cfRule type="duplicateValues" dxfId="1590" priority="119019"/>
+    <cfRule type="duplicateValues" dxfId="1669" priority="119047"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2251">
-    <cfRule type="duplicateValues" dxfId="1589" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="1668" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2232">
-    <cfRule type="duplicateValues" dxfId="1588" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="1667" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2239:G2250">
-    <cfRule type="duplicateValues" dxfId="1587" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="1666" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2238:G2250">
-    <cfRule type="duplicateValues" dxfId="1586" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="1665" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2235:G2251">
-    <cfRule type="duplicateValues" dxfId="1585" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="1664" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2237:G2250">
-    <cfRule type="duplicateValues" dxfId="1584" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="1663" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2236:G2251">
-    <cfRule type="duplicateValues" dxfId="1583" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="1662" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2236:G2250">
-    <cfRule type="duplicateValues" dxfId="1582" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="1661" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2254:G2255 G2257:G2259">
-    <cfRule type="duplicateValues" dxfId="1581" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="1660" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2259">
-    <cfRule type="duplicateValues" dxfId="1580" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="1659" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2257:G2258">
-    <cfRule type="duplicateValues" dxfId="1579" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="1658" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2255 A2254:A2259 G2257:G2259">
-    <cfRule type="duplicateValues" dxfId="1578" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="1657" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2255 G2257:G2259">
-    <cfRule type="duplicateValues" dxfId="1577" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="1656" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2234:G2250">
-    <cfRule type="duplicateValues" dxfId="1576" priority="119149"/>
+    <cfRule type="duplicateValues" dxfId="1655" priority="119177"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2235:G2250">
-    <cfRule type="duplicateValues" dxfId="1575" priority="119151"/>
+    <cfRule type="duplicateValues" dxfId="1654" priority="119179"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2233:G2250">
-    <cfRule type="duplicateValues" dxfId="1574" priority="119154"/>
+    <cfRule type="duplicateValues" dxfId="1653" priority="119182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2232:G2250">
-    <cfRule type="duplicateValues" dxfId="1573" priority="119156"/>
+    <cfRule type="duplicateValues" dxfId="1652" priority="119184"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2230 G2232:G2251 A2229:A2251">
-    <cfRule type="duplicateValues" dxfId="1572" priority="119158"/>
+    <cfRule type="duplicateValues" dxfId="1651" priority="119186"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2230 G2232:G2251">
-    <cfRule type="duplicateValues" dxfId="1571" priority="119163"/>
+    <cfRule type="duplicateValues" dxfId="1650" priority="119191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2283">
-    <cfRule type="duplicateValues" dxfId="1570" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="1649" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2265">
-    <cfRule type="duplicateValues" dxfId="1569" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="1648" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2266">
-    <cfRule type="duplicateValues" dxfId="1568" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="1647" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2262:G2263 G2265:G2283">
-    <cfRule type="duplicateValues" dxfId="1567" priority="119290"/>
+    <cfRule type="duplicateValues" dxfId="1646" priority="119318"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2272:G2282">
-    <cfRule type="duplicateValues" dxfId="1566" priority="119293"/>
+    <cfRule type="duplicateValues" dxfId="1645" priority="119321"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2271:G2282">
-    <cfRule type="duplicateValues" dxfId="1565" priority="119294"/>
+    <cfRule type="duplicateValues" dxfId="1644" priority="119322"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2268:G2283">
-    <cfRule type="duplicateValues" dxfId="1564" priority="119295"/>
+    <cfRule type="duplicateValues" dxfId="1643" priority="119323"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2270:G2282">
-    <cfRule type="duplicateValues" dxfId="1563" priority="119297"/>
+    <cfRule type="duplicateValues" dxfId="1642" priority="119325"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2269:G2283">
-    <cfRule type="duplicateValues" dxfId="1562" priority="119298"/>
+    <cfRule type="duplicateValues" dxfId="1641" priority="119326"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2269:G2282">
-    <cfRule type="duplicateValues" dxfId="1561" priority="119300"/>
+    <cfRule type="duplicateValues" dxfId="1640" priority="119328"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2267:G2282">
-    <cfRule type="duplicateValues" dxfId="1560" priority="119301"/>
+    <cfRule type="duplicateValues" dxfId="1639" priority="119329"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2268:G2282">
-    <cfRule type="duplicateValues" dxfId="1559" priority="119302"/>
+    <cfRule type="duplicateValues" dxfId="1638" priority="119330"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2266:G2282">
-    <cfRule type="duplicateValues" dxfId="1558" priority="119303"/>
+    <cfRule type="duplicateValues" dxfId="1637" priority="119331"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2265:G2282">
-    <cfRule type="duplicateValues" dxfId="1557" priority="119304"/>
+    <cfRule type="duplicateValues" dxfId="1636" priority="119332"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2263 A2262:A2283 G2265:G2283">
-    <cfRule type="duplicateValues" dxfId="1556" priority="119305"/>
+    <cfRule type="duplicateValues" dxfId="1635" priority="119333"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2263 G2265:G2283">
-    <cfRule type="duplicateValues" dxfId="1555" priority="119310"/>
+    <cfRule type="duplicateValues" dxfId="1634" priority="119338"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2290">
-    <cfRule type="duplicateValues" dxfId="1554" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="1633" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2286:G2287 G2289:G2290">
-    <cfRule type="duplicateValues" dxfId="1553" priority="121173"/>
+    <cfRule type="duplicateValues" dxfId="1632" priority="121201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2289">
-    <cfRule type="duplicateValues" dxfId="1552" priority="121176"/>
+    <cfRule type="duplicateValues" dxfId="1631" priority="121204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2287 A2286:A2290 G2289:G2290">
-    <cfRule type="duplicateValues" dxfId="1551" priority="121177"/>
+    <cfRule type="duplicateValues" dxfId="1630" priority="121205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2287 G2289:G2290">
-    <cfRule type="duplicateValues" dxfId="1550" priority="121182"/>
+    <cfRule type="duplicateValues" dxfId="1629" priority="121210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2311">
-    <cfRule type="duplicateValues" dxfId="1549" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="1628" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2296">
-    <cfRule type="duplicateValues" dxfId="1548" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="1627" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2297">
-    <cfRule type="duplicateValues" dxfId="1547" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="1626" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2293:G2294 G2296:G2311">
-    <cfRule type="duplicateValues" dxfId="1546" priority="123056"/>
+    <cfRule type="duplicateValues" dxfId="1625" priority="123084"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2303:G2310">
-    <cfRule type="duplicateValues" dxfId="1545" priority="123059"/>
+    <cfRule type="duplicateValues" dxfId="1624" priority="123087"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2302:G2310">
-    <cfRule type="duplicateValues" dxfId="1544" priority="123060"/>
+    <cfRule type="duplicateValues" dxfId="1623" priority="123088"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2299:G2311">
-    <cfRule type="duplicateValues" dxfId="1543" priority="123061"/>
+    <cfRule type="duplicateValues" dxfId="1622" priority="123089"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2301:G2310">
-    <cfRule type="duplicateValues" dxfId="1542" priority="123063"/>
+    <cfRule type="duplicateValues" dxfId="1621" priority="123091"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2300:G2311">
-    <cfRule type="duplicateValues" dxfId="1541" priority="123064"/>
+    <cfRule type="duplicateValues" dxfId="1620" priority="123092"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2300:G2310">
-    <cfRule type="duplicateValues" dxfId="1540" priority="123066"/>
+    <cfRule type="duplicateValues" dxfId="1619" priority="123094"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2298:G2310">
-    <cfRule type="duplicateValues" dxfId="1539" priority="123067"/>
+    <cfRule type="duplicateValues" dxfId="1618" priority="123095"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2299:G2310">
-    <cfRule type="duplicateValues" dxfId="1538" priority="123068"/>
+    <cfRule type="duplicateValues" dxfId="1617" priority="123096"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2297:G2310">
-    <cfRule type="duplicateValues" dxfId="1537" priority="123069"/>
+    <cfRule type="duplicateValues" dxfId="1616" priority="123097"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2296:G2310">
-    <cfRule type="duplicateValues" dxfId="1536" priority="123070"/>
+    <cfRule type="duplicateValues" dxfId="1615" priority="123098"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2294 A2293:A2311 G2296:G2311">
-    <cfRule type="duplicateValues" dxfId="1535" priority="123071"/>
+    <cfRule type="duplicateValues" dxfId="1614" priority="123099"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2294 G2296:G2311">
-    <cfRule type="duplicateValues" dxfId="1534" priority="123076"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2232:G2253 G2260:G2261 H1988:H1991 A1905 A1869 A1841 A1814 A1789 A1763 A1465:A1471 G1412:G1413 G1386:G1387 G1335:H1336 G1315:H1316 G1274:H1275 G1258:H1259 G1216:H1217 G1203:H1204 G1167:H1168 G1141:H1142 G1128:H1129 G1099:H1100 G1086:H1086 F1085:G1085 G651:H652 G637:H638 G604:H605 G578:H579 G570:H571 G547:H548 G1:H539 H540:H546 H549:H569 H572:H577 H580:H603 H606:H636 H639:H650 H653:H687 G688:H1027 H1028:H1084 H1087:H1088 H1090:H1095 H1098 H1101:H1127 H1169:H1193 G1194:H1195 H1196:H1202 H1205:H1215 H1218:H1257 H1260:H1273 H1276:H1314 H1317:H1318 H1337:H1399 G1374:G1377 G1379:G1384 H1401:H1413 H1422:H1464 G1466 G1427:G1428 G1430:G1436 G1425 G1438:G1464 G1422:G1423 G1497 G1468:G1489 G1491:G1495 A1509 G1499:G1507 G1509 G1511:G1524 A1565 G1562:G1565 G1567:G1577 A1614 G1611:G1614 G1616:G1624 G1626:G1653 G1655:G1673 G1675:G1705 A1729 G1707:G1729 G1731:G1737 G1739:G1763 G1765:G1772 G1774:G1789 G1791:G1797 G1799:G1814 G1816:G1822 G1824:G1841 G1843:G1849 G1851:G1869 G1871:G1878 G1880:G1905 H1472:H1905 G1907:G1920 G1922:G1938 H1907:H1938 H1940:H1978 G1940:G1956 G1977:H1978 G1958:G1978 G1990:H1991 G1980:G1991 H2006:H2010 G2006:G2008 G2010 G2012:G2030 G2032:G2051 H2012:H2073 G2053:G2073 H2075:H2082 G2076:G2082 G2095:G2099 G2101:G2120 H2096:H2120 G2122:G2127 G2129:G2143 G2145:G2162 H2124:H1048576 G2164:G2169 G2171:G2189 G2191:G2199 G2201:G2223 G2225:G2230 G2284:G2287 G2289:G2294 G2329 G2317:G2327 G2296:G2313 G2315 G2331:G2349 G2351:G1048576">
-    <cfRule type="duplicateValues" dxfId="1533" priority="124552"/>
+    <cfRule type="duplicateValues" dxfId="1613" priority="123104"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2232:G2253 G2260:G2261 H1988:H1991 A1905 A1869 A1841 A1814 A1789 A1763 A1465:A1471 G1412:G1413 G1386:G1387 G1335:H1336 G1315:H1316 G1274:H1275 G1258:H1259 G1216:H1217 G1203:H1204 G1167:H1168 G1141:H1142 G1128:H1129 G1099:H1100 G1086:H1086 F1085:G1085 G651:H652 G637:H638 G604:H605 G578:H579 G570:H571 G547:H548 G1:H539 H540:H546 H549:H569 H572:H577 H580:H603 H606:H636 H639:H650 H653:H687 G688:H1027 H1028:H1084 H1087:H1088 H1090:H1095 H1098 H1101:H1127 H1169:H1193 G1194:H1195 H1196:H1202 H1205:H1215 H1218:H1257 H1260:H1273 H1276:H1314 H1317:H1318 H1337:H1399 G1374:G1377 G1379:G1384 H1401:H1413 H1422:H1464 G1466 G1427:G1428 G1430:G1436 G1425 G1438:G1464 G1422:G1423 G1497 G1468:G1489 G1491:G1495 A1509 G1499:G1507 G1509 G1511:G1524 A1565 G1562:G1565 G1567:G1577 A1614 G1611:G1614 G1616:G1624 G1626:G1653 G1655:G1673 G1675:G1705 A1729 G1707:G1729 G1731:G1737 G1739:G1763 G1765:G1772 G1774:G1789 G1791:G1797 G1799:G1814 G1816:G1822 G1824:G1841 G1843:G1849 G1851:G1869 G1871:G1878 G1880:G1905 H1472:H1905 G1907:G1920 G1922:G1938 H1907:H1938 H1940:H1978 G1940:G1956 G1977:H1978 G1958:G1978 G1990:H1991 G1980:G1991 H2006:H2010 G2006:G2008 G2010 G2012:G2030 G2032:G2051 H2012:H2073 G2053:G2073 H2075:H2082 G2076:G2082 G2095:G2099 G2101:G2120 H2096:H2120 G2122:G2127 G2129:G2143 G2145:G2162 H2124:H1048576 G2164:G2169 G2171:G2189 G2191:G2199 G2201:G2223 G2225:G2230 G2284:G2287 G2289:G2294 G2329 G2317:G2327 G2296:G2313 G2315 G2331:G2349 G2351:G2367 G2369:G2378 G2380:G1048576">
+    <cfRule type="duplicateValues" dxfId="1612" priority="124580"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2325">
-    <cfRule type="duplicateValues" dxfId="1532" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="1611" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2317">
-    <cfRule type="duplicateValues" dxfId="1531" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="1610" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2318">
-    <cfRule type="duplicateValues" dxfId="1530" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="1609" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2323:G2324">
-    <cfRule type="duplicateValues" dxfId="1529" priority="126451"/>
+    <cfRule type="duplicateValues" dxfId="1608" priority="126479"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2322:G2324">
-    <cfRule type="duplicateValues" dxfId="1528" priority="126452"/>
+    <cfRule type="duplicateValues" dxfId="1607" priority="126480"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2321:G2325">
-    <cfRule type="duplicateValues" dxfId="1527" priority="126458"/>
+    <cfRule type="duplicateValues" dxfId="1606" priority="126486"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2320:G2325">
-    <cfRule type="duplicateValues" dxfId="1526" priority="126460"/>
+    <cfRule type="duplicateValues" dxfId="1605" priority="126488"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2317:G2325 G2315">
-    <cfRule type="duplicateValues" dxfId="1525" priority="128364"/>
+    <cfRule type="duplicateValues" dxfId="1604" priority="128392"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2321:G2324">
-    <cfRule type="duplicateValues" dxfId="1524" priority="128372"/>
+    <cfRule type="duplicateValues" dxfId="1603" priority="128400"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2319:G2324">
-    <cfRule type="duplicateValues" dxfId="1523" priority="128374"/>
+    <cfRule type="duplicateValues" dxfId="1602" priority="128402"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2320:G2324">
-    <cfRule type="duplicateValues" dxfId="1522" priority="128376"/>
+    <cfRule type="duplicateValues" dxfId="1601" priority="128404"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2318:G2324">
-    <cfRule type="duplicateValues" dxfId="1521" priority="128378"/>
+    <cfRule type="duplicateValues" dxfId="1600" priority="128406"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2317:G2324">
-    <cfRule type="duplicateValues" dxfId="1520" priority="128380"/>
+    <cfRule type="duplicateValues" dxfId="1599" priority="128408"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2315 G2317:G2325 A2315:A2325">
-    <cfRule type="duplicateValues" dxfId="1519" priority="128382"/>
+    <cfRule type="duplicateValues" dxfId="1598" priority="128410"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2315 G2317:G2325">
-    <cfRule type="duplicateValues" dxfId="1518" priority="128387"/>
+    <cfRule type="duplicateValues" dxfId="1597" priority="128415"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2345">
-    <cfRule type="duplicateValues" dxfId="1517" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="1596" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2339:G2344">
-    <cfRule type="duplicateValues" dxfId="1516" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="1595" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2338:G2344">
-    <cfRule type="duplicateValues" dxfId="1515" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="1594" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2333:G2344">
-    <cfRule type="duplicateValues" dxfId="1514" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="1593" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2334:G2344">
-    <cfRule type="duplicateValues" dxfId="1513" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="1592" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2337:G2344">
-    <cfRule type="duplicateValues" dxfId="1512" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1591" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2335:G2344">
-    <cfRule type="duplicateValues" dxfId="1511" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="1590" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2336:G2344">
-    <cfRule type="duplicateValues" dxfId="1510" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1589" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2334:G2345">
-    <cfRule type="duplicateValues" dxfId="1509" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="1588" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2332:G2344">
-    <cfRule type="duplicateValues" dxfId="1508" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1587" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2331:G2344">
-    <cfRule type="duplicateValues" dxfId="1507" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="1586" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2335:G2345">
-    <cfRule type="duplicateValues" dxfId="1506" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="1585" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2329 G2331:G2345 A2329:A2345">
-    <cfRule type="duplicateValues" dxfId="1505" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="1584" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2329 G2331:G2345">
-    <cfRule type="duplicateValues" dxfId="1504" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1583" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2331:G2345 G2329">
-    <cfRule type="duplicateValues" dxfId="1503" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2365">
-    <cfRule type="duplicateValues" dxfId="1501" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2359:G2364">
-    <cfRule type="duplicateValues" dxfId="1499" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2358:G2364">
-    <cfRule type="duplicateValues" dxfId="1497" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2353:G2364">
-    <cfRule type="duplicateValues" dxfId="1495" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2354:G2364">
-    <cfRule type="duplicateValues" dxfId="1493" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2357:G2364">
-    <cfRule type="duplicateValues" dxfId="1491" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2355:G2364">
-    <cfRule type="duplicateValues" dxfId="1489" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2356:G2364">
-    <cfRule type="duplicateValues" dxfId="1487" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2354:G2365">
-    <cfRule type="duplicateValues" dxfId="1485" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2352:G2364">
-    <cfRule type="duplicateValues" dxfId="1483" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2351:G2364">
-    <cfRule type="duplicateValues" dxfId="1481" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2355:G2365">
-    <cfRule type="duplicateValues" dxfId="1479" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2349 A2349:A2365 G2351:G2365">
-    <cfRule type="duplicateValues" dxfId="1477" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2349 G2351:G2365">
-    <cfRule type="duplicateValues" dxfId="1475" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2349 G2351:G2365">
-    <cfRule type="duplicateValues" dxfId="1473" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1582" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2363">
+    <cfRule type="duplicateValues" dxfId="1581" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2359:G2362">
+    <cfRule type="duplicateValues" dxfId="1580" priority="130351"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2358:G2362">
+    <cfRule type="duplicateValues" dxfId="1579" priority="130352"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2353:G2362">
+    <cfRule type="duplicateValues" dxfId="1578" priority="130353"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2354:G2362">
+    <cfRule type="duplicateValues" dxfId="1577" priority="130354"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2357:G2362">
+    <cfRule type="duplicateValues" dxfId="1576" priority="130355"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2355:G2362">
+    <cfRule type="duplicateValues" dxfId="1575" priority="130356"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2356:G2362">
+    <cfRule type="duplicateValues" dxfId="1574" priority="130357"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2354:G2363">
+    <cfRule type="duplicateValues" dxfId="1573" priority="130358"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2352:G2362">
+    <cfRule type="duplicateValues" dxfId="1572" priority="130360"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2351:G2362">
+    <cfRule type="duplicateValues" dxfId="1571" priority="130361"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2355:G2363">
+    <cfRule type="duplicateValues" dxfId="1570" priority="130362"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2349 A2349:A2363 G2351:G2363">
+    <cfRule type="duplicateValues" dxfId="1569" priority="130364"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2349 G2351:G2363">
+    <cfRule type="duplicateValues" dxfId="1568" priority="130369"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2374">
+    <cfRule type="duplicateValues" dxfId="1567" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2371:G2373">
+    <cfRule type="duplicateValues" dxfId="1566" priority="132323"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2372:G2373">
+    <cfRule type="duplicateValues" dxfId="1565" priority="132324"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2373">
+    <cfRule type="duplicateValues" dxfId="1564" priority="132325"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2372:G2374">
+    <cfRule type="duplicateValues" dxfId="1563" priority="132326"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2370:G2373">
+    <cfRule type="duplicateValues" dxfId="1562" priority="132328"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2369:G2373">
+    <cfRule type="duplicateValues" dxfId="1561" priority="132329"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2373:G2374">
+    <cfRule type="duplicateValues" dxfId="1560" priority="132330"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2367 A2367:A2374 G2369:G2374">
+    <cfRule type="duplicateValues" dxfId="1559" priority="132332"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2367 G2369:G2374">
+    <cfRule type="duplicateValues" dxfId="1558" priority="132337"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2392">
+    <cfRule type="duplicateValues" dxfId="1556" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2388:G2391">
+    <cfRule type="duplicateValues" dxfId="1554" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2387:G2391">
+    <cfRule type="duplicateValues" dxfId="1552" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2382:G2391">
+    <cfRule type="duplicateValues" dxfId="1550" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2383:G2391">
+    <cfRule type="duplicateValues" dxfId="1548" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2386:G2391">
+    <cfRule type="duplicateValues" dxfId="1546" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2384:G2391">
+    <cfRule type="duplicateValues" dxfId="1544" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2385:G2391">
+    <cfRule type="duplicateValues" dxfId="1542" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2383:G2392">
+    <cfRule type="duplicateValues" dxfId="1540" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2381:G2391">
+    <cfRule type="duplicateValues" dxfId="1538" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2380:G2391">
+    <cfRule type="duplicateValues" dxfId="1536" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2384:G2392">
+    <cfRule type="duplicateValues" dxfId="1534" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2378 A2378:A2392 G2380:G2392">
+    <cfRule type="duplicateValues" dxfId="1532" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2378 G2380:G2392">
+    <cfRule type="duplicateValues" dxfId="1530" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.15748031496062992" right="0.11811023622047245" top="0.70866141732283472" bottom="0.31496062992125984" header="0.23622047244094491" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>

--- a/AXIS V.K ROAD LINES BANK RTGS DETAILS 25-05-2024.xlsx
+++ b/AXIS V.K ROAD LINES BANK RTGS DETAILS 25-05-2024.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9924" uniqueCount="3897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9950" uniqueCount="3909">
   <si>
     <t>VK ROAD LINES</t>
   </si>
@@ -11538,9 +11538,6 @@
     <t>RAM KANWAR TANWAR</t>
   </si>
   <si>
-    <t xml:space="preserve">                                      10.07.24</t>
-  </si>
-  <si>
     <t>VK/24-25/155</t>
   </si>
   <si>
@@ -11710,6 +11707,45 @@
   </si>
   <si>
     <t xml:space="preserve">                                      11.07.24</t>
+  </si>
+  <si>
+    <t>PRAMOD YADAV</t>
+  </si>
+  <si>
+    <t>1685000100082157</t>
+  </si>
+  <si>
+    <t>K-621</t>
+  </si>
+  <si>
+    <t>B-480</t>
+  </si>
+  <si>
+    <t>B-501</t>
+  </si>
+  <si>
+    <t>B-500</t>
+  </si>
+  <si>
+    <t>K-651</t>
+  </si>
+  <si>
+    <t>B-502</t>
+  </si>
+  <si>
+    <t>50100475672412</t>
+  </si>
+  <si>
+    <t>HDFC0000391</t>
+  </si>
+  <si>
+    <t>VKCPL/24-25/354</t>
+  </si>
+  <si>
+    <t>VIRENDRA YADAV</t>
+  </si>
+  <si>
+    <t>923020023457753</t>
   </si>
 </sst>
 </file>
@@ -27850,10 +27886,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:K2423"/>
+  <dimension ref="A1:K2426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2403" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2408" sqref="C2408"/>
+    <sheetView tabSelected="1" topLeftCell="A2389" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2396" sqref="A2396:G2403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -74174,7 +74210,7 @@
     </row>
     <row r="2377" spans="1:7" ht="51">
       <c r="A2377" s="84" t="s">
-        <v>2680</v>
+        <v>0</v>
       </c>
       <c r="B2377" s="85"/>
       <c r="C2377" s="85"/>
@@ -74187,7 +74223,7 @@
       <c r="A2378" s="6"/>
       <c r="B2378" s="8"/>
       <c r="C2378" s="86" t="s">
-        <v>3839</v>
+        <v>3895</v>
       </c>
       <c r="D2378" s="87"/>
       <c r="E2378" s="88"/>
@@ -74237,7 +74273,7 @@
         <v>1365</v>
       </c>
       <c r="G2380" s="16" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
     </row>
     <row r="2381" spans="1:7" ht="23.25">
@@ -74248,19 +74284,19 @@
         <v>9100</v>
       </c>
       <c r="C2381" s="16" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
       <c r="D2381" s="41" t="s">
         <v>30</v>
       </c>
       <c r="E2381" s="17" t="s">
-        <v>3842</v>
+        <v>3841</v>
       </c>
       <c r="F2381" s="17" t="s">
         <v>59</v>
       </c>
       <c r="G2381" s="16" t="s">
-        <v>3843</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="2382" spans="1:7" ht="23.25">
@@ -74317,19 +74353,19 @@
         <v>24850</v>
       </c>
       <c r="C2384" s="16" t="s">
-        <v>3844</v>
+        <v>3843</v>
       </c>
       <c r="D2384" s="41" t="s">
         <v>132</v>
       </c>
       <c r="E2384" s="17" t="s">
+        <v>3844</v>
+      </c>
+      <c r="F2384" s="17" t="s">
         <v>3845</v>
       </c>
-      <c r="F2384" s="17" t="s">
+      <c r="G2384" s="16" t="s">
         <v>3846</v>
-      </c>
-      <c r="G2384" s="16" t="s">
-        <v>3847</v>
       </c>
     </row>
     <row r="2385" spans="1:7" ht="23.25">
@@ -74352,7 +74388,7 @@
         <v>2339</v>
       </c>
       <c r="G2385" s="16" t="s">
-        <v>3848</v>
+        <v>3847</v>
       </c>
     </row>
     <row r="2386" spans="1:7" ht="23.25">
@@ -74363,19 +74399,19 @@
         <v>13700</v>
       </c>
       <c r="C2386" s="16" t="s">
-        <v>3849</v>
+        <v>3848</v>
       </c>
       <c r="D2386" s="41" t="s">
         <v>76</v>
       </c>
       <c r="E2386" s="17" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
       <c r="F2386" s="17" t="s">
         <v>157</v>
       </c>
       <c r="G2386" s="16" t="s">
-        <v>3851</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="2387" spans="1:7" ht="23.25">
@@ -74386,19 +74422,19 @@
         <v>13000</v>
       </c>
       <c r="C2387" s="16" t="s">
-        <v>3852</v>
+        <v>3851</v>
       </c>
       <c r="D2387" s="41" t="s">
         <v>76</v>
       </c>
       <c r="E2387" s="17" t="s">
+        <v>3852</v>
+      </c>
+      <c r="F2387" s="17" t="s">
         <v>3853</v>
       </c>
-      <c r="F2387" s="17" t="s">
+      <c r="G2387" s="16" t="s">
         <v>3854</v>
-      </c>
-      <c r="G2387" s="16" t="s">
-        <v>3855</v>
       </c>
     </row>
     <row r="2388" spans="1:7" ht="23.25">
@@ -74409,19 +74445,19 @@
         <v>13200</v>
       </c>
       <c r="C2388" s="16" t="s">
-        <v>3856</v>
+        <v>3855</v>
       </c>
       <c r="D2388" s="41" t="s">
         <v>69</v>
       </c>
       <c r="E2388" s="17" t="s">
-        <v>3857</v>
+        <v>3856</v>
       </c>
       <c r="F2388" s="17" t="s">
         <v>1959</v>
       </c>
       <c r="G2388" s="16" t="s">
-        <v>3858</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="2389" spans="1:7" ht="23.25">
@@ -74444,7 +74480,7 @@
         <v>3100</v>
       </c>
       <c r="G2389" s="16" t="s">
-        <v>3859</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="2390" spans="1:7" ht="23.25">
@@ -74461,13 +74497,13 @@
         <v>16</v>
       </c>
       <c r="E2390" s="17" t="s">
+        <v>3860</v>
+      </c>
+      <c r="F2390" s="17" t="s">
         <v>3861</v>
       </c>
-      <c r="F2390" s="17" t="s">
+      <c r="G2390" s="16" t="s">
         <v>3862</v>
-      </c>
-      <c r="G2390" s="16" t="s">
-        <v>3863</v>
       </c>
     </row>
     <row r="2391" spans="1:7" ht="23.25">
@@ -74490,7 +74526,7 @@
         <v>3337</v>
       </c>
       <c r="G2391" s="16" t="s">
-        <v>3864</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="2392" spans="1:7" ht="23.25">
@@ -74501,19 +74537,19 @@
         <v>13100</v>
       </c>
       <c r="C2392" s="16" t="s">
-        <v>3865</v>
+        <v>3864</v>
       </c>
       <c r="D2392" s="70" t="s">
         <v>1953</v>
       </c>
       <c r="E2392" s="17" t="s">
+        <v>3865</v>
+      </c>
+      <c r="F2392" s="17" t="s">
         <v>3866</v>
       </c>
-      <c r="F2392" s="17" t="s">
+      <c r="G2392" s="16" t="s">
         <v>3867</v>
-      </c>
-      <c r="G2392" s="16" t="s">
-        <v>3868</v>
       </c>
     </row>
     <row r="2393" spans="1:7" ht="23.25">
@@ -74530,7 +74566,7 @@
     </row>
     <row r="2396" spans="1:7" ht="51">
       <c r="A2396" s="84" t="s">
-        <v>2680</v>
+        <v>0</v>
       </c>
       <c r="B2396" s="85"/>
       <c r="C2396" s="85"/>
@@ -74543,7 +74579,7 @@
       <c r="A2397" s="6"/>
       <c r="B2397" s="8"/>
       <c r="C2397" s="86" t="s">
-        <v>3839</v>
+        <v>3895</v>
       </c>
       <c r="D2397" s="87"/>
       <c r="E2397" s="88"/>
@@ -74587,7 +74623,7 @@
         <v>76</v>
       </c>
       <c r="E2399" s="17" t="s">
-        <v>3860</v>
+        <v>3859</v>
       </c>
       <c r="F2399" s="17" t="s">
         <v>77</v>
@@ -74604,19 +74640,19 @@
         <v>70000</v>
       </c>
       <c r="C2400" s="16" t="s">
-        <v>3869</v>
+        <v>3868</v>
       </c>
       <c r="D2400" s="41" t="s">
         <v>27</v>
       </c>
       <c r="E2400" s="17" t="s">
+        <v>3869</v>
+      </c>
+      <c r="F2400" s="17" t="s">
         <v>3870</v>
       </c>
-      <c r="F2400" s="17" t="s">
+      <c r="G2400" s="16" t="s">
         <v>3871</v>
-      </c>
-      <c r="G2400" s="16" t="s">
-        <v>3872</v>
       </c>
     </row>
     <row r="2401" spans="1:7" ht="23.25">
@@ -74639,7 +74675,7 @@
         <v>3827</v>
       </c>
       <c r="G2401" s="16" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
     </row>
     <row r="2402" spans="1:7" ht="23.25">
@@ -74662,7 +74698,7 @@
         <v>284</v>
       </c>
       <c r="G2402" s="16" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="2403" spans="1:7" ht="23.25">
@@ -74692,7 +74728,7 @@
       <c r="A2407" s="6"/>
       <c r="B2407" s="8"/>
       <c r="C2407" s="86" t="s">
-        <v>3896</v>
+        <v>3895</v>
       </c>
       <c r="D2407" s="87"/>
       <c r="E2407" s="88"/>
@@ -74727,22 +74763,22 @@
         <v>1</v>
       </c>
       <c r="B2409" s="35">
-        <v>11450</v>
+        <v>25150</v>
       </c>
       <c r="C2409" s="16" t="s">
-        <v>1108</v>
+        <v>3907</v>
       </c>
       <c r="D2409" s="41" t="s">
         <v>30</v>
       </c>
       <c r="E2409" s="17" t="s">
-        <v>741</v>
+        <v>3908</v>
       </c>
       <c r="F2409" s="17" t="s">
-        <v>742</v>
+        <v>3771</v>
       </c>
       <c r="G2409" s="16" t="s">
-        <v>3768</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="2410" spans="1:7" ht="23.25">
@@ -74750,7 +74786,7 @@
         <v>2</v>
       </c>
       <c r="B2410" s="35">
-        <v>10350</v>
+        <v>11450</v>
       </c>
       <c r="C2410" s="16" t="s">
         <v>1108</v>
@@ -74765,7 +74801,7 @@
         <v>742</v>
       </c>
       <c r="G2410" s="16" t="s">
-        <v>3767</v>
+        <v>3768</v>
       </c>
     </row>
     <row r="2411" spans="1:7" ht="23.25">
@@ -74773,22 +74809,22 @@
         <v>3</v>
       </c>
       <c r="B2411" s="35">
-        <v>12800</v>
+        <v>10350</v>
       </c>
       <c r="C2411" s="16" t="s">
-        <v>3875</v>
+        <v>1108</v>
       </c>
       <c r="D2411" s="41" t="s">
         <v>30</v>
       </c>
       <c r="E2411" s="17" t="s">
-        <v>1364</v>
+        <v>741</v>
       </c>
       <c r="F2411" s="17" t="s">
-        <v>1365</v>
+        <v>742</v>
       </c>
       <c r="G2411" s="16" t="s">
-        <v>3876</v>
+        <v>3767</v>
       </c>
     </row>
     <row r="2412" spans="1:7" ht="23.25">
@@ -74796,22 +74832,22 @@
         <v>4</v>
       </c>
       <c r="B2412" s="35">
-        <v>13450</v>
+        <v>12800</v>
       </c>
       <c r="C2412" s="16" t="s">
-        <v>1512</v>
+        <v>3874</v>
       </c>
       <c r="D2412" s="41" t="s">
         <v>30</v>
       </c>
       <c r="E2412" s="17" t="s">
-        <v>1513</v>
+        <v>1364</v>
       </c>
       <c r="F2412" s="17" t="s">
-        <v>1372</v>
+        <v>1365</v>
       </c>
       <c r="G2412" s="16" t="s">
-        <v>3877</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="2413" spans="1:7" ht="23.25">
@@ -74819,22 +74855,22 @@
         <v>5</v>
       </c>
       <c r="B2413" s="35">
-        <v>11500</v>
+        <v>13450</v>
       </c>
       <c r="C2413" s="16" t="s">
-        <v>1957</v>
+        <v>1512</v>
       </c>
       <c r="D2413" s="41" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="E2413" s="17" t="s">
-        <v>1958</v>
+        <v>1513</v>
       </c>
       <c r="F2413" s="17" t="s">
-        <v>1959</v>
+        <v>1372</v>
       </c>
       <c r="G2413" s="16" t="s">
-        <v>3878</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="2414" spans="1:7" ht="23.25">
@@ -74842,22 +74878,22 @@
         <v>6</v>
       </c>
       <c r="B2414" s="35">
-        <v>11300</v>
-      </c>
-      <c r="C2414" s="15" t="s">
-        <v>3879</v>
+        <v>11500</v>
+      </c>
+      <c r="C2414" s="16" t="s">
+        <v>1957</v>
       </c>
       <c r="D2414" s="41" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="E2414" s="17" t="s">
-        <v>3880</v>
+        <v>1958</v>
       </c>
       <c r="F2414" s="17" t="s">
-        <v>158</v>
+        <v>1959</v>
       </c>
       <c r="G2414" s="16" t="s">
-        <v>3881</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="2415" spans="1:7" ht="23.25">
@@ -74865,22 +74901,22 @@
         <v>7</v>
       </c>
       <c r="B2415" s="35">
-        <v>13500</v>
-      </c>
-      <c r="C2415" s="16" t="s">
-        <v>3882</v>
+        <v>11300</v>
+      </c>
+      <c r="C2415" s="15" t="s">
+        <v>3878</v>
       </c>
       <c r="D2415" s="41" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="E2415" s="17" t="s">
-        <v>3883</v>
+        <v>3879</v>
       </c>
       <c r="F2415" s="17" t="s">
-        <v>3854</v>
+        <v>158</v>
       </c>
       <c r="G2415" s="16" t="s">
-        <v>3884</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="2416" spans="1:7" ht="23.25">
@@ -74888,22 +74924,22 @@
         <v>8</v>
       </c>
       <c r="B2416" s="35">
-        <v>13150</v>
+        <v>13500</v>
       </c>
       <c r="C2416" s="16" t="s">
-        <v>3885</v>
+        <v>3881</v>
       </c>
       <c r="D2416" s="41" t="s">
         <v>76</v>
       </c>
       <c r="E2416" s="17" t="s">
-        <v>3886</v>
+        <v>3882</v>
       </c>
       <c r="F2416" s="17" t="s">
-        <v>1441</v>
+        <v>3853</v>
       </c>
       <c r="G2416" s="16" t="s">
-        <v>3887</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="2417" spans="1:7" ht="23.25">
@@ -74911,68 +74947,68 @@
         <v>9</v>
       </c>
       <c r="B2417" s="35">
-        <v>10350</v>
+        <v>13150</v>
       </c>
       <c r="C2417" s="16" t="s">
-        <v>51</v>
+        <v>3884</v>
       </c>
       <c r="D2417" s="41" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="E2417" s="17" t="s">
-        <v>52</v>
+        <v>3885</v>
       </c>
       <c r="F2417" s="17" t="s">
-        <v>41</v>
+        <v>1441</v>
       </c>
       <c r="G2417" s="16" t="s">
-        <v>3789</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="2418" spans="1:7" ht="23.25">
       <c r="A2418" s="55">
         <v>10</v>
       </c>
-      <c r="B2418" s="53">
-        <v>9600</v>
+      <c r="B2418" s="35">
+        <v>10350</v>
       </c>
       <c r="C2418" s="16" t="s">
-        <v>3251</v>
-      </c>
-      <c r="D2418" s="70" t="s">
-        <v>76</v>
+        <v>51</v>
+      </c>
+      <c r="D2418" s="41" t="s">
+        <v>12</v>
       </c>
       <c r="E2418" s="17" t="s">
-        <v>3860</v>
+        <v>52</v>
       </c>
       <c r="F2418" s="17" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="G2418" s="16" t="s">
-        <v>3788</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="2419" spans="1:7" ht="23.25">
       <c r="A2419" s="55">
         <v>11</v>
       </c>
-      <c r="B2419" s="35">
-        <v>13300</v>
+      <c r="B2419" s="53">
+        <v>9600</v>
       </c>
       <c r="C2419" s="16" t="s">
-        <v>3888</v>
+        <v>3251</v>
       </c>
       <c r="D2419" s="70" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="E2419" s="17" t="s">
-        <v>3889</v>
+        <v>3859</v>
       </c>
       <c r="F2419" s="17" t="s">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="G2419" s="16" t="s">
-        <v>3890</v>
+        <v>3788</v>
       </c>
     </row>
     <row r="2420" spans="1:7" ht="23.25">
@@ -74980,22 +75016,22 @@
         <v>12</v>
       </c>
       <c r="B2420" s="35">
-        <v>9400</v>
+        <v>13300</v>
       </c>
       <c r="C2420" s="16" t="s">
-        <v>448</v>
+        <v>3887</v>
       </c>
       <c r="D2420" s="70" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E2420" s="17" t="s">
-        <v>450</v>
+        <v>3888</v>
       </c>
       <c r="F2420" s="17" t="s">
-        <v>449</v>
+        <v>158</v>
       </c>
       <c r="G2420" s="16" t="s">
-        <v>3791</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="2421" spans="1:7" ht="23.25">
@@ -75003,22 +75039,22 @@
         <v>13</v>
       </c>
       <c r="B2421" s="35">
-        <v>14550</v>
+        <v>9400</v>
       </c>
       <c r="C2421" s="16" t="s">
-        <v>3891</v>
+        <v>448</v>
       </c>
       <c r="D2421" s="70" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="E2421" s="17" t="s">
-        <v>3892</v>
+        <v>450</v>
       </c>
       <c r="F2421" s="17" t="s">
-        <v>1094</v>
+        <v>449</v>
       </c>
       <c r="G2421" s="16" t="s">
-        <v>3893</v>
+        <v>3791</v>
       </c>
     </row>
     <row r="2422" spans="1:7" ht="23.25">
@@ -75026,35 +75062,104 @@
         <v>14</v>
       </c>
       <c r="B2422" s="35">
+        <v>14550</v>
+      </c>
+      <c r="C2422" s="16" t="s">
+        <v>3890</v>
+      </c>
+      <c r="D2422" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2422" s="17" t="s">
+        <v>3891</v>
+      </c>
+      <c r="F2422" s="17" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G2422" s="16" t="s">
+        <v>3892</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:7" ht="23.25">
+      <c r="A2423" s="55">
+        <v>15</v>
+      </c>
+      <c r="B2423" s="35">
         <v>7150</v>
       </c>
-      <c r="C2422" s="16" t="s">
+      <c r="C2423" s="16" t="s">
+        <v>3893</v>
+      </c>
+      <c r="D2423" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2423" s="17" t="s">
+        <v>2544</v>
+      </c>
+      <c r="F2423" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2423" s="16" t="s">
         <v>3894</v>
       </c>
-      <c r="D2422" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2422" s="17" t="s">
-        <v>2544</v>
-      </c>
-      <c r="F2422" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="G2422" s="16" t="s">
-        <v>3895</v>
-      </c>
-    </row>
-    <row r="2423" spans="1:7" ht="23.25">
-      <c r="A2423" s="55"/>
-      <c r="B2423" s="53">
-        <f>SUM(B2409:B2422)</f>
-        <v>161850</v>
-      </c>
-      <c r="C2423" s="16"/>
-      <c r="D2423" s="70"/>
-      <c r="E2423" s="17"/>
-      <c r="F2423" s="17"/>
-      <c r="G2423" s="16"/>
+    </row>
+    <row r="2424" spans="1:7" ht="23.25">
+      <c r="A2424" s="55">
+        <v>16</v>
+      </c>
+      <c r="B2424" s="35">
+        <v>20850</v>
+      </c>
+      <c r="C2424" s="16" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D2424" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2424" s="17" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F2424" s="17" t="s">
+        <v>1541</v>
+      </c>
+      <c r="G2424" s="16" t="s">
+        <v>3899</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:7" ht="23.25">
+      <c r="A2425" s="55">
+        <v>17</v>
+      </c>
+      <c r="B2425" s="35">
+        <v>11900</v>
+      </c>
+      <c r="C2425" s="16" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D2425" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2425" s="17" t="s">
+        <v>3904</v>
+      </c>
+      <c r="F2425" s="17" t="s">
+        <v>3905</v>
+      </c>
+      <c r="G2425" s="16" t="s">
+        <v>3906</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:7" ht="23.25">
+      <c r="A2426" s="55"/>
+      <c r="B2426" s="53">
+        <f>SUM(B2409:B2425)</f>
+        <v>219750</v>
+      </c>
+      <c r="C2426" s="16"/>
+      <c r="D2426" s="70"/>
+      <c r="E2426" s="17"/>
+      <c r="F2426" s="17"/>
+      <c r="G2426" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="236">
@@ -75067,17 +75172,6 @@
     <mergeCell ref="C2367:E2367"/>
     <mergeCell ref="A2328:G2328"/>
     <mergeCell ref="C2329:E2329"/>
-    <mergeCell ref="A2142:G2142"/>
-    <mergeCell ref="C2143:E2143"/>
-    <mergeCell ref="A2161:G2161"/>
-    <mergeCell ref="C2162:E2162"/>
-    <mergeCell ref="A2229:G2229"/>
-    <mergeCell ref="C2230:E2230"/>
-    <mergeCell ref="C2223:E2223"/>
-    <mergeCell ref="A2262:G2262"/>
-    <mergeCell ref="C2263:E2263"/>
-    <mergeCell ref="A2254:G2254"/>
-    <mergeCell ref="C2255:E2255"/>
     <mergeCell ref="A2348:G2348"/>
     <mergeCell ref="C2349:E2349"/>
     <mergeCell ref="A2314:G2314"/>
@@ -75094,6 +75188,17 @@
     <mergeCell ref="A2198:G2198"/>
     <mergeCell ref="C2199:E2199"/>
     <mergeCell ref="A2222:G2222"/>
+    <mergeCell ref="A2142:G2142"/>
+    <mergeCell ref="C2143:E2143"/>
+    <mergeCell ref="A2161:G2161"/>
+    <mergeCell ref="C2162:E2162"/>
+    <mergeCell ref="A2229:G2229"/>
+    <mergeCell ref="C2230:E2230"/>
+    <mergeCell ref="C2223:E2223"/>
+    <mergeCell ref="A2262:G2262"/>
+    <mergeCell ref="C2263:E2263"/>
+    <mergeCell ref="A2254:G2254"/>
+    <mergeCell ref="C2255:E2255"/>
     <mergeCell ref="A2119:G2119"/>
     <mergeCell ref="C2120:E2120"/>
     <mergeCell ref="A1919:G1919"/>
@@ -75297,4510 +75402,4516 @@
   </mergeCells>
   <phoneticPr fontId="7" alignment="center"/>
   <conditionalFormatting sqref="A1525:A1531 G1526 G1551:G1552 G1528:G1549 G1561">
-    <cfRule type="duplicateValues" dxfId="1522" priority="13763"/>
+    <cfRule type="duplicateValues" dxfId="1522" priority="13765"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1564">
-    <cfRule type="duplicateValues" dxfId="1521" priority="1365"/>
+    <cfRule type="duplicateValues" dxfId="1521" priority="1367"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1237">
-    <cfRule type="duplicateValues" dxfId="1520" priority="2442"/>
+    <cfRule type="duplicateValues" dxfId="1520" priority="2444"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1238">
-    <cfRule type="duplicateValues" dxfId="1519" priority="2383"/>
+    <cfRule type="duplicateValues" dxfId="1519" priority="2385"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1248">
-    <cfRule type="duplicateValues" dxfId="1518" priority="2420"/>
+    <cfRule type="duplicateValues" dxfId="1518" priority="2422"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1249">
-    <cfRule type="duplicateValues" dxfId="1517" priority="2370"/>
+    <cfRule type="duplicateValues" dxfId="1517" priority="2372"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1253">
-    <cfRule type="duplicateValues" dxfId="1516" priority="2354"/>
+    <cfRule type="duplicateValues" dxfId="1516" priority="2356"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1254">
-    <cfRule type="duplicateValues" dxfId="1515" priority="2341"/>
+    <cfRule type="duplicateValues" dxfId="1515" priority="2343"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1295">
-    <cfRule type="duplicateValues" dxfId="1514" priority="2289"/>
+    <cfRule type="duplicateValues" dxfId="1514" priority="2291"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1296">
-    <cfRule type="duplicateValues" dxfId="1513" priority="2240"/>
+    <cfRule type="duplicateValues" dxfId="1513" priority="2242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1311">
-    <cfRule type="duplicateValues" dxfId="1512" priority="2211"/>
+    <cfRule type="duplicateValues" dxfId="1512" priority="2213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1312">
-    <cfRule type="duplicateValues" dxfId="1511" priority="2198"/>
+    <cfRule type="duplicateValues" dxfId="1511" priority="2200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1355">
-    <cfRule type="duplicateValues" dxfId="1510" priority="2133"/>
+    <cfRule type="duplicateValues" dxfId="1510" priority="2135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1356">
-    <cfRule type="duplicateValues" dxfId="1509" priority="2091"/>
+    <cfRule type="duplicateValues" dxfId="1509" priority="2093"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1357">
-    <cfRule type="duplicateValues" dxfId="1508" priority="2043"/>
+    <cfRule type="duplicateValues" dxfId="1508" priority="2045"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1358">
-    <cfRule type="duplicateValues" dxfId="1507" priority="2014"/>
+    <cfRule type="duplicateValues" dxfId="1507" priority="2016"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1359">
-    <cfRule type="duplicateValues" dxfId="1506" priority="1906"/>
+    <cfRule type="duplicateValues" dxfId="1506" priority="1908"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1371">
-    <cfRule type="duplicateValues" dxfId="1505" priority="2078"/>
+    <cfRule type="duplicateValues" dxfId="1505" priority="2080"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1372">
-    <cfRule type="duplicateValues" dxfId="1504" priority="2071"/>
+    <cfRule type="duplicateValues" dxfId="1504" priority="2073"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1405">
-    <cfRule type="duplicateValues" dxfId="1503" priority="1876"/>
+    <cfRule type="duplicateValues" dxfId="1503" priority="1878"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1406">
-    <cfRule type="duplicateValues" dxfId="1502" priority="1869"/>
+    <cfRule type="duplicateValues" dxfId="1502" priority="1871"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1407">
-    <cfRule type="duplicateValues" dxfId="1501" priority="1862"/>
+    <cfRule type="duplicateValues" dxfId="1501" priority="1864"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1408">
-    <cfRule type="duplicateValues" dxfId="1500" priority="1858"/>
+    <cfRule type="duplicateValues" dxfId="1500" priority="1860"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1409">
-    <cfRule type="duplicateValues" dxfId="1499" priority="1854"/>
+    <cfRule type="duplicateValues" dxfId="1499" priority="1856"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1456:F1461">
-    <cfRule type="duplicateValues" dxfId="1498" priority="10620"/>
+    <cfRule type="duplicateValues" dxfId="1498" priority="10622"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:G51 G56:G57">
-    <cfRule type="duplicateValues" dxfId="1497" priority="3140"/>
+    <cfRule type="duplicateValues" dxfId="1497" priority="3142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52:G55">
-    <cfRule type="duplicateValues" dxfId="1496" priority="3137"/>
+    <cfRule type="duplicateValues" dxfId="1496" priority="3139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G124:G132 G110:G122">
-    <cfRule type="duplicateValues" dxfId="1495" priority="3209"/>
+    <cfRule type="duplicateValues" dxfId="1495" priority="3211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G150:G152 G158:G161">
-    <cfRule type="duplicateValues" dxfId="1494" priority="3120"/>
+    <cfRule type="duplicateValues" dxfId="1494" priority="3122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G150:G152">
-    <cfRule type="duplicateValues" dxfId="1493" priority="3119"/>
+    <cfRule type="duplicateValues" dxfId="1493" priority="3121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G178:G182 G164:G176">
-    <cfRule type="duplicateValues" dxfId="1492" priority="3335"/>
+    <cfRule type="duplicateValues" dxfId="1492" priority="3337"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G186:G196">
-    <cfRule type="duplicateValues" dxfId="1491" priority="3273"/>
+    <cfRule type="duplicateValues" dxfId="1491" priority="3275"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G200:G213 G215:G222">
-    <cfRule type="duplicateValues" dxfId="1490" priority="3407"/>
+    <cfRule type="duplicateValues" dxfId="1490" priority="3409"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G226:G233">
-    <cfRule type="duplicateValues" dxfId="1489" priority="3373"/>
+    <cfRule type="duplicateValues" dxfId="1489" priority="3375"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G237:G244">
-    <cfRule type="duplicateValues" dxfId="1488" priority="3110"/>
+    <cfRule type="duplicateValues" dxfId="1488" priority="3112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G248:G259">
-    <cfRule type="duplicateValues" dxfId="1487" priority="3566"/>
+    <cfRule type="duplicateValues" dxfId="1487" priority="3568"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G261:G272 G248:G259">
-    <cfRule type="duplicateValues" dxfId="1486" priority="3446"/>
+    <cfRule type="duplicateValues" dxfId="1486" priority="3448"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G276:G288">
-    <cfRule type="duplicateValues" dxfId="1485" priority="3487"/>
+    <cfRule type="duplicateValues" dxfId="1485" priority="3489"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G276:G293">
-    <cfRule type="duplicateValues" dxfId="1484" priority="3488"/>
+    <cfRule type="duplicateValues" dxfId="1484" priority="3490"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G297:G305">
-    <cfRule type="duplicateValues" dxfId="1483" priority="3866"/>
+    <cfRule type="duplicateValues" dxfId="1483" priority="3868"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G307 G297:G305 G309:G319">
-    <cfRule type="duplicateValues" dxfId="1482" priority="3655"/>
+    <cfRule type="duplicateValues" dxfId="1482" priority="3657"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G323:G333">
-    <cfRule type="duplicateValues" dxfId="1481" priority="3765"/>
+    <cfRule type="duplicateValues" dxfId="1481" priority="3767"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G332:G333">
-    <cfRule type="duplicateValues" dxfId="1480" priority="3038"/>
+    <cfRule type="duplicateValues" dxfId="1480" priority="3040"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G337:G345">
-    <cfRule type="duplicateValues" dxfId="1479" priority="3033"/>
+    <cfRule type="duplicateValues" dxfId="1479" priority="3035"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G347 G337:G345 G349:G377">
-    <cfRule type="duplicateValues" dxfId="1478" priority="4342"/>
+    <cfRule type="duplicateValues" dxfId="1478" priority="4344"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G347">
-    <cfRule type="duplicateValues" dxfId="1477" priority="3032"/>
+    <cfRule type="duplicateValues" dxfId="1477" priority="3034"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G381:G392">
-    <cfRule type="duplicateValues" dxfId="1476" priority="4227"/>
+    <cfRule type="duplicateValues" dxfId="1476" priority="4229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G390:G392">
-    <cfRule type="duplicateValues" dxfId="1475" priority="4228"/>
+    <cfRule type="duplicateValues" dxfId="1475" priority="4230"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G396:G404">
-    <cfRule type="duplicateValues" dxfId="1474" priority="3026"/>
+    <cfRule type="duplicateValues" dxfId="1474" priority="3028"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G408:G413 G396:G404">
-    <cfRule type="duplicateValues" dxfId="1473" priority="4405"/>
+    <cfRule type="duplicateValues" dxfId="1473" priority="4407"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G417:G423">
-    <cfRule type="duplicateValues" dxfId="1472" priority="4470"/>
+    <cfRule type="duplicateValues" dxfId="1472" priority="4472"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G427:G435">
-    <cfRule type="duplicateValues" dxfId="1471" priority="3016"/>
+    <cfRule type="duplicateValues" dxfId="1471" priority="3018"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G437 G427:G435 G439:G459">
-    <cfRule type="duplicateValues" dxfId="1470" priority="4538"/>
+    <cfRule type="duplicateValues" dxfId="1470" priority="4540"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G437">
-    <cfRule type="duplicateValues" dxfId="1469" priority="3015"/>
+    <cfRule type="duplicateValues" dxfId="1469" priority="3017"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G463:G469">
-    <cfRule type="duplicateValues" dxfId="1468" priority="3010"/>
+    <cfRule type="duplicateValues" dxfId="1468" priority="3012"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474:G481">
-    <cfRule type="duplicateValues" dxfId="1467" priority="3007"/>
+    <cfRule type="duplicateValues" dxfId="1467" priority="3009"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G483 G474:G481 G485:G500">
-    <cfRule type="duplicateValues" dxfId="1466" priority="4541"/>
+    <cfRule type="duplicateValues" dxfId="1466" priority="4543"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G483">
-    <cfRule type="duplicateValues" dxfId="1465" priority="3006"/>
+    <cfRule type="duplicateValues" dxfId="1465" priority="3008"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G501">
-    <cfRule type="duplicateValues" dxfId="1464" priority="2992"/>
+    <cfRule type="duplicateValues" dxfId="1464" priority="2994"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G506:G514">
-    <cfRule type="duplicateValues" dxfId="1463" priority="3004"/>
+    <cfRule type="duplicateValues" dxfId="1463" priority="3006"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G516 G506:G514 G518:G527">
-    <cfRule type="duplicateValues" dxfId="1462" priority="4542"/>
+    <cfRule type="duplicateValues" dxfId="1462" priority="4544"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G516">
-    <cfRule type="duplicateValues" dxfId="1461" priority="3003"/>
+    <cfRule type="duplicateValues" dxfId="1461" priority="3005"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G531:G535">
-    <cfRule type="duplicateValues" dxfId="1460" priority="4543"/>
+    <cfRule type="duplicateValues" dxfId="1460" priority="4545"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G536">
-    <cfRule type="duplicateValues" dxfId="1459" priority="2999"/>
+    <cfRule type="duplicateValues" dxfId="1459" priority="3001"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G540:G545">
-    <cfRule type="duplicateValues" dxfId="1458" priority="4548"/>
+    <cfRule type="duplicateValues" dxfId="1458" priority="4550"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G540:G546">
-    <cfRule type="duplicateValues" dxfId="1457" priority="2990"/>
+    <cfRule type="duplicateValues" dxfId="1457" priority="2992"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G549:G551 G554:G559">
-    <cfRule type="duplicateValues" dxfId="1456" priority="2986"/>
+    <cfRule type="duplicateValues" dxfId="1456" priority="2988"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G549:G551 G554:G569">
-    <cfRule type="duplicateValues" dxfId="1455" priority="4567"/>
+    <cfRule type="duplicateValues" dxfId="1455" priority="4569"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G552">
-    <cfRule type="duplicateValues" dxfId="1454" priority="2981"/>
+    <cfRule type="duplicateValues" dxfId="1454" priority="2983"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G553">
-    <cfRule type="duplicateValues" dxfId="1453" priority="2979"/>
+    <cfRule type="duplicateValues" dxfId="1453" priority="2981"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G561 G549:G551 G563:G568 G554:G559">
-    <cfRule type="duplicateValues" dxfId="1452" priority="4563"/>
+    <cfRule type="duplicateValues" dxfId="1452" priority="4565"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G561">
-    <cfRule type="duplicateValues" dxfId="1451" priority="2985"/>
+    <cfRule type="duplicateValues" dxfId="1451" priority="2987"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G572:G576">
-    <cfRule type="duplicateValues" dxfId="1450" priority="4577"/>
+    <cfRule type="duplicateValues" dxfId="1450" priority="4579"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G572:G577">
-    <cfRule type="duplicateValues" dxfId="1449" priority="2978"/>
+    <cfRule type="duplicateValues" dxfId="1449" priority="2980"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G580:G588">
-    <cfRule type="duplicateValues" dxfId="1448" priority="2975"/>
+    <cfRule type="duplicateValues" dxfId="1448" priority="2977"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G580:G603">
-    <cfRule type="duplicateValues" dxfId="1447" priority="4590"/>
+    <cfRule type="duplicateValues" dxfId="1447" priority="4592"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G590 G580:G588 G592:G602">
-    <cfRule type="duplicateValues" dxfId="1446" priority="4587"/>
+    <cfRule type="duplicateValues" dxfId="1446" priority="4589"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G590">
-    <cfRule type="duplicateValues" dxfId="1445" priority="2974"/>
+    <cfRule type="duplicateValues" dxfId="1445" priority="2976"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G606:G614">
-    <cfRule type="duplicateValues" dxfId="1444" priority="2970"/>
+    <cfRule type="duplicateValues" dxfId="1444" priority="2972"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G606:G636">
-    <cfRule type="duplicateValues" dxfId="1443" priority="2972"/>
+    <cfRule type="duplicateValues" dxfId="1443" priority="2974"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G616 G606:G614 G618:G635">
-    <cfRule type="duplicateValues" dxfId="1442" priority="2971"/>
+    <cfRule type="duplicateValues" dxfId="1442" priority="2973"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G616">
-    <cfRule type="duplicateValues" dxfId="1441" priority="2969"/>
+    <cfRule type="duplicateValues" dxfId="1441" priority="2971"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G639:G642 G644:G649">
-    <cfRule type="duplicateValues" dxfId="1440" priority="2968"/>
+    <cfRule type="duplicateValues" dxfId="1440" priority="2970"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G639:G642 G644:G650">
-    <cfRule type="duplicateValues" dxfId="1439" priority="2967"/>
+    <cfRule type="duplicateValues" dxfId="1439" priority="2969"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G643">
-    <cfRule type="duplicateValues" dxfId="1438" priority="2965"/>
+    <cfRule type="duplicateValues" dxfId="1438" priority="2967"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G653:G661">
-    <cfRule type="duplicateValues" dxfId="1437" priority="2962"/>
+    <cfRule type="duplicateValues" dxfId="1437" priority="2964"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G653:G687">
-    <cfRule type="duplicateValues" dxfId="1436" priority="4609"/>
+    <cfRule type="duplicateValues" dxfId="1436" priority="4611"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G663 G653:G661 G665:G686">
-    <cfRule type="duplicateValues" dxfId="1435" priority="4606"/>
+    <cfRule type="duplicateValues" dxfId="1435" priority="4608"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G663">
-    <cfRule type="duplicateValues" dxfId="1434" priority="2961"/>
+    <cfRule type="duplicateValues" dxfId="1434" priority="2963"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G690:G696">
-    <cfRule type="duplicateValues" dxfId="1433" priority="5201"/>
+    <cfRule type="duplicateValues" dxfId="1433" priority="5203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G690:G705">
-    <cfRule type="duplicateValues" dxfId="1432" priority="5206"/>
+    <cfRule type="duplicateValues" dxfId="1432" priority="5208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G698 G700:G704 G690:G696">
-    <cfRule type="duplicateValues" dxfId="1431" priority="4902"/>
+    <cfRule type="duplicateValues" dxfId="1431" priority="4904"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G698">
-    <cfRule type="duplicateValues" dxfId="1430" priority="2959"/>
+    <cfRule type="duplicateValues" dxfId="1430" priority="2961"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G704">
-    <cfRule type="duplicateValues" dxfId="1429" priority="2952"/>
+    <cfRule type="duplicateValues" dxfId="1429" priority="2954"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G708:G711 G713">
-    <cfRule type="duplicateValues" dxfId="1428" priority="5059"/>
+    <cfRule type="duplicateValues" dxfId="1428" priority="5061"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G708:G711">
-    <cfRule type="duplicateValues" dxfId="1427" priority="5061"/>
+    <cfRule type="duplicateValues" dxfId="1427" priority="5063"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G712">
-    <cfRule type="duplicateValues" dxfId="1426" priority="2946"/>
+    <cfRule type="duplicateValues" dxfId="1426" priority="2948"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G715">
-    <cfRule type="duplicateValues" dxfId="1425" priority="2934"/>
+    <cfRule type="duplicateValues" dxfId="1425" priority="2936"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G723">
-    <cfRule type="duplicateValues" dxfId="1424" priority="2940"/>
+    <cfRule type="duplicateValues" dxfId="1424" priority="2942"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G724:G727 G716:G722">
-    <cfRule type="duplicateValues" dxfId="1423" priority="2942"/>
+    <cfRule type="duplicateValues" dxfId="1423" priority="2944"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G729">
-    <cfRule type="duplicateValues" dxfId="1422" priority="2941"/>
+    <cfRule type="duplicateValues" dxfId="1422" priority="2943"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G743 G715">
-    <cfRule type="duplicateValues" dxfId="1421" priority="2937"/>
+    <cfRule type="duplicateValues" dxfId="1421" priority="2939"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G743">
-    <cfRule type="duplicateValues" dxfId="1420" priority="2928"/>
+    <cfRule type="duplicateValues" dxfId="1420" priority="2930"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G744:G746 G751">
-    <cfRule type="duplicateValues" dxfId="1419" priority="2936"/>
+    <cfRule type="duplicateValues" dxfId="1419" priority="2938"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G744:G746">
-    <cfRule type="duplicateValues" dxfId="1418" priority="2935"/>
+    <cfRule type="duplicateValues" dxfId="1418" priority="2937"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G747:G750 G724:G742 G716:G722">
-    <cfRule type="duplicateValues" dxfId="1417" priority="2938"/>
+    <cfRule type="duplicateValues" dxfId="1417" priority="2940"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G747:G750 G729 G716:G722 G731:G741 G724:G727">
-    <cfRule type="duplicateValues" dxfId="1416" priority="2939"/>
+    <cfRule type="duplicateValues" dxfId="1416" priority="2941"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G747:G750">
-    <cfRule type="duplicateValues" dxfId="1415" priority="2930"/>
+    <cfRule type="duplicateValues" dxfId="1415" priority="2932"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G754">
-    <cfRule type="duplicateValues" dxfId="1414" priority="2919"/>
+    <cfRule type="duplicateValues" dxfId="1414" priority="2921"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G762">
-    <cfRule type="duplicateValues" dxfId="1413" priority="2922"/>
+    <cfRule type="duplicateValues" dxfId="1413" priority="2924"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G763:G766 G755:G761">
-    <cfRule type="duplicateValues" dxfId="1412" priority="2924"/>
+    <cfRule type="duplicateValues" dxfId="1412" priority="2926"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G763:G781 G755:G761">
-    <cfRule type="duplicateValues" dxfId="1411" priority="2917"/>
+    <cfRule type="duplicateValues" dxfId="1411" priority="2919"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G768 G755:G761 G770:G780 G763:G766">
-    <cfRule type="duplicateValues" dxfId="1410" priority="2918"/>
+    <cfRule type="duplicateValues" dxfId="1410" priority="2920"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G768">
-    <cfRule type="duplicateValues" dxfId="1409" priority="2923"/>
+    <cfRule type="duplicateValues" dxfId="1409" priority="2925"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G784">
-    <cfRule type="duplicateValues" dxfId="1408" priority="2902"/>
+    <cfRule type="duplicateValues" dxfId="1408" priority="2904"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G792">
-    <cfRule type="duplicateValues" dxfId="1407" priority="2905"/>
+    <cfRule type="duplicateValues" dxfId="1407" priority="2907"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G793:G796 G785:G791">
-    <cfRule type="duplicateValues" dxfId="1406" priority="2907"/>
+    <cfRule type="duplicateValues" dxfId="1406" priority="2909"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G793:G819 G785:G791">
-    <cfRule type="duplicateValues" dxfId="1405" priority="2900"/>
+    <cfRule type="duplicateValues" dxfId="1405" priority="2902"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G798 G785:G791 G800:G818 G793:G796">
-    <cfRule type="duplicateValues" dxfId="1404" priority="2901"/>
+    <cfRule type="duplicateValues" dxfId="1404" priority="2903"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G798">
-    <cfRule type="duplicateValues" dxfId="1403" priority="2906"/>
+    <cfRule type="duplicateValues" dxfId="1403" priority="2908"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G820:G821">
-    <cfRule type="duplicateValues" dxfId="1402" priority="2908"/>
+    <cfRule type="duplicateValues" dxfId="1402" priority="2910"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G822:G824 G834">
-    <cfRule type="duplicateValues" dxfId="1401" priority="2897"/>
+    <cfRule type="duplicateValues" dxfId="1401" priority="2899"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G822:G824">
-    <cfRule type="duplicateValues" dxfId="1400" priority="2896"/>
+    <cfRule type="duplicateValues" dxfId="1400" priority="2898"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G825:G833">
-    <cfRule type="duplicateValues" dxfId="1399" priority="2899"/>
+    <cfRule type="duplicateValues" dxfId="1399" priority="2901"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G837">
-    <cfRule type="duplicateValues" dxfId="1398" priority="2879"/>
+    <cfRule type="duplicateValues" dxfId="1398" priority="2881"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G838:G839 G842:G850">
-    <cfRule type="duplicateValues" dxfId="1397" priority="2881"/>
+    <cfRule type="duplicateValues" dxfId="1397" priority="2883"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G838:G839 G842:G863">
-    <cfRule type="duplicateValues" dxfId="1396" priority="2871"/>
+    <cfRule type="duplicateValues" dxfId="1396" priority="2873"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G840">
-    <cfRule type="duplicateValues" dxfId="1395" priority="2877"/>
+    <cfRule type="duplicateValues" dxfId="1395" priority="2879"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G841">
-    <cfRule type="duplicateValues" dxfId="1394" priority="2878"/>
+    <cfRule type="duplicateValues" dxfId="1394" priority="2880"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G852 G838:G839 G842:G850 G854:G862">
-    <cfRule type="duplicateValues" dxfId="1393" priority="2872"/>
+    <cfRule type="duplicateValues" dxfId="1393" priority="2874"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G852">
-    <cfRule type="duplicateValues" dxfId="1392" priority="2880"/>
+    <cfRule type="duplicateValues" dxfId="1392" priority="2882"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G864:G865 H837:H888">
-    <cfRule type="duplicateValues" dxfId="1391" priority="2882"/>
+    <cfRule type="duplicateValues" dxfId="1391" priority="2884"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G866:G870">
-    <cfRule type="duplicateValues" dxfId="1390" priority="2875"/>
+    <cfRule type="duplicateValues" dxfId="1390" priority="2877"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G871:G886">
-    <cfRule type="duplicateValues" dxfId="1389" priority="2874"/>
+    <cfRule type="duplicateValues" dxfId="1389" priority="2876"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G871:G889">
-    <cfRule type="duplicateValues" dxfId="1388" priority="2873"/>
+    <cfRule type="duplicateValues" dxfId="1388" priority="2875"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G890 G866:G870">
-    <cfRule type="duplicateValues" dxfId="1387" priority="2876"/>
+    <cfRule type="duplicateValues" dxfId="1387" priority="2878"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G893">
-    <cfRule type="duplicateValues" dxfId="1386" priority="2834"/>
+    <cfRule type="duplicateValues" dxfId="1386" priority="2836"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G896">
-    <cfRule type="duplicateValues" dxfId="1385" priority="2832"/>
+    <cfRule type="duplicateValues" dxfId="1385" priority="2834"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G897">
-    <cfRule type="duplicateValues" dxfId="1384" priority="2833"/>
+    <cfRule type="duplicateValues" dxfId="1384" priority="2835"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G903">
-    <cfRule type="duplicateValues" dxfId="1383" priority="2835"/>
+    <cfRule type="duplicateValues" dxfId="1383" priority="2837"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G904:G907 G894:G895 G898:G902">
-    <cfRule type="duplicateValues" dxfId="1382" priority="2837"/>
+    <cfRule type="duplicateValues" dxfId="1382" priority="2839"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G904:G918 G894:G895 G898:G902">
-    <cfRule type="duplicateValues" dxfId="1381" priority="2827"/>
+    <cfRule type="duplicateValues" dxfId="1381" priority="2829"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G909 G894:G895 G911:G917 G904:G907 G898:G902">
-    <cfRule type="duplicateValues" dxfId="1380" priority="2828"/>
+    <cfRule type="duplicateValues" dxfId="1380" priority="2830"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G909">
-    <cfRule type="duplicateValues" dxfId="1379" priority="2836"/>
+    <cfRule type="duplicateValues" dxfId="1379" priority="2838"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G919:G920">
-    <cfRule type="duplicateValues" dxfId="1378" priority="2838"/>
+    <cfRule type="duplicateValues" dxfId="1378" priority="2840"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G921:G923">
-    <cfRule type="duplicateValues" dxfId="1377" priority="2830"/>
+    <cfRule type="duplicateValues" dxfId="1377" priority="2832"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G924:G931">
-    <cfRule type="duplicateValues" dxfId="1376" priority="2829"/>
+    <cfRule type="duplicateValues" dxfId="1376" priority="2831"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G932 G921:G923">
-    <cfRule type="duplicateValues" dxfId="1375" priority="2831"/>
+    <cfRule type="duplicateValues" dxfId="1375" priority="2833"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G935">
-    <cfRule type="duplicateValues" dxfId="1374" priority="2808"/>
+    <cfRule type="duplicateValues" dxfId="1374" priority="2810"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G938">
-    <cfRule type="duplicateValues" dxfId="1373" priority="2803"/>
+    <cfRule type="duplicateValues" dxfId="1373" priority="2805"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G939">
-    <cfRule type="duplicateValues" dxfId="1372" priority="2805"/>
+    <cfRule type="duplicateValues" dxfId="1372" priority="2807"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G940">
-    <cfRule type="duplicateValues" dxfId="1371" priority="2807"/>
+    <cfRule type="duplicateValues" dxfId="1371" priority="2809"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G946">
-    <cfRule type="duplicateValues" dxfId="1370" priority="2811"/>
+    <cfRule type="duplicateValues" dxfId="1370" priority="2813"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G947:G950 G936:G937 G941:G945">
-    <cfRule type="duplicateValues" dxfId="1369" priority="2813"/>
+    <cfRule type="duplicateValues" dxfId="1369" priority="2815"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G947:G957 G936:G937 G941:G945">
-    <cfRule type="duplicateValues" dxfId="1368" priority="2800"/>
+    <cfRule type="duplicateValues" dxfId="1368" priority="2802"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G952 G936:G937 G954:G956 G947:G950 G941:G945">
-    <cfRule type="duplicateValues" dxfId="1367" priority="2801"/>
+    <cfRule type="duplicateValues" dxfId="1367" priority="2803"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G952">
-    <cfRule type="duplicateValues" dxfId="1366" priority="2812"/>
+    <cfRule type="duplicateValues" dxfId="1366" priority="2814"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G958:G959">
-    <cfRule type="duplicateValues" dxfId="1365" priority="2814"/>
+    <cfRule type="duplicateValues" dxfId="1365" priority="2816"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G960:G962">
-    <cfRule type="duplicateValues" dxfId="1364" priority="2798"/>
+    <cfRule type="duplicateValues" dxfId="1364" priority="2800"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G963:G971">
-    <cfRule type="duplicateValues" dxfId="1363" priority="2797"/>
+    <cfRule type="duplicateValues" dxfId="1363" priority="2799"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G972 G960:G962">
-    <cfRule type="duplicateValues" dxfId="1362" priority="2799"/>
+    <cfRule type="duplicateValues" dxfId="1362" priority="2801"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G975">
-    <cfRule type="duplicateValues" dxfId="1361" priority="2728"/>
+    <cfRule type="duplicateValues" dxfId="1361" priority="2730"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G978">
-    <cfRule type="duplicateValues" dxfId="1360" priority="2721"/>
+    <cfRule type="duplicateValues" dxfId="1360" priority="2723"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G979">
-    <cfRule type="duplicateValues" dxfId="1359" priority="2723"/>
+    <cfRule type="duplicateValues" dxfId="1359" priority="2725"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G980">
-    <cfRule type="duplicateValues" dxfId="1358" priority="2725"/>
+    <cfRule type="duplicateValues" dxfId="1358" priority="2727"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G981">
-    <cfRule type="duplicateValues" dxfId="1357" priority="2727"/>
+    <cfRule type="duplicateValues" dxfId="1357" priority="2729"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G987">
-    <cfRule type="duplicateValues" dxfId="1356" priority="2731"/>
+    <cfRule type="duplicateValues" dxfId="1356" priority="2733"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G988:G991 G976:G977 G982:G986">
-    <cfRule type="duplicateValues" dxfId="1355" priority="2733"/>
+    <cfRule type="duplicateValues" dxfId="1355" priority="2735"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G988:G1015 G976:G977 G982:G986">
-    <cfRule type="duplicateValues" dxfId="1354" priority="2718"/>
+    <cfRule type="duplicateValues" dxfId="1354" priority="2720"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G993 G976:G977 G995:G1014 G988:G991 G982:G986">
-    <cfRule type="duplicateValues" dxfId="1353" priority="2719"/>
+    <cfRule type="duplicateValues" dxfId="1353" priority="2721"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G993">
-    <cfRule type="duplicateValues" dxfId="1352" priority="2732"/>
+    <cfRule type="duplicateValues" dxfId="1352" priority="2734"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1016:G1017">
-    <cfRule type="duplicateValues" dxfId="1351" priority="2734"/>
+    <cfRule type="duplicateValues" dxfId="1351" priority="2736"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1018:G1020">
-    <cfRule type="duplicateValues" dxfId="1350" priority="2716"/>
+    <cfRule type="duplicateValues" dxfId="1350" priority="2718"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1021:G1024">
-    <cfRule type="duplicateValues" dxfId="1349" priority="2715"/>
+    <cfRule type="duplicateValues" dxfId="1349" priority="2717"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1025 G1018:G1020">
-    <cfRule type="duplicateValues" dxfId="1348" priority="2717"/>
+    <cfRule type="duplicateValues" dxfId="1348" priority="2719"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1028">
-    <cfRule type="duplicateValues" dxfId="1347" priority="2688"/>
+    <cfRule type="duplicateValues" dxfId="1347" priority="2690"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1028:G1030 G1032:G1035 G1037:G1081 G1084">
-    <cfRule type="duplicateValues" dxfId="1346" priority="5617"/>
+    <cfRule type="duplicateValues" dxfId="1346" priority="5619"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1031">
-    <cfRule type="duplicateValues" dxfId="1345" priority="2651"/>
+    <cfRule type="duplicateValues" dxfId="1345" priority="2653"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1036">
-    <cfRule type="duplicateValues" dxfId="1344" priority="2657"/>
+    <cfRule type="duplicateValues" dxfId="1344" priority="2659"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1037">
-    <cfRule type="duplicateValues" dxfId="1343" priority="2661"/>
+    <cfRule type="duplicateValues" dxfId="1343" priority="2663"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1038">
-    <cfRule type="duplicateValues" dxfId="1342" priority="2681"/>
+    <cfRule type="duplicateValues" dxfId="1342" priority="2683"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1039">
-    <cfRule type="duplicateValues" dxfId="1341" priority="2683"/>
+    <cfRule type="duplicateValues" dxfId="1341" priority="2685"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1040:G1042">
-    <cfRule type="duplicateValues" dxfId="1340" priority="2685"/>
+    <cfRule type="duplicateValues" dxfId="1340" priority="2687"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1041:G1042">
-    <cfRule type="duplicateValues" dxfId="1339" priority="2687"/>
+    <cfRule type="duplicateValues" dxfId="1339" priority="2689"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1042:G1046 G1037 G1029:G1030 G1032:G1035 G1048:G1081 G1084">
-    <cfRule type="duplicateValues" dxfId="1338" priority="5627"/>
+    <cfRule type="duplicateValues" dxfId="1338" priority="5629"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1047">
-    <cfRule type="duplicateValues" dxfId="1337" priority="2691"/>
+    <cfRule type="duplicateValues" dxfId="1337" priority="2693"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1048:G1051 G1042:G1046 G1037 G1029:G1030 G1032:G1035">
-    <cfRule type="duplicateValues" dxfId="1336" priority="2693"/>
+    <cfRule type="duplicateValues" dxfId="1336" priority="2695"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1048:G1051">
-    <cfRule type="duplicateValues" dxfId="1335" priority="2677"/>
+    <cfRule type="duplicateValues" dxfId="1335" priority="2679"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1048:G1081 G1084">
-    <cfRule type="duplicateValues" dxfId="1334" priority="5632"/>
+    <cfRule type="duplicateValues" dxfId="1334" priority="5634"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1053 G1048:G1051 G1042:G1046 G1037 G1029:G1030 G1032:G1035 G1055:G1081">
-    <cfRule type="duplicateValues" dxfId="1333" priority="5620"/>
+    <cfRule type="duplicateValues" dxfId="1333" priority="5622"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1053">
-    <cfRule type="duplicateValues" dxfId="1332" priority="2692"/>
+    <cfRule type="duplicateValues" dxfId="1332" priority="2694"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1082">
-    <cfRule type="duplicateValues" dxfId="1331" priority="2641"/>
+    <cfRule type="duplicateValues" dxfId="1331" priority="2643"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1083">
-    <cfRule type="duplicateValues" dxfId="1330" priority="2640"/>
+    <cfRule type="duplicateValues" dxfId="1330" priority="2642"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1087:G1089">
-    <cfRule type="duplicateValues" dxfId="1329" priority="2648"/>
+    <cfRule type="duplicateValues" dxfId="1329" priority="2650"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1087:G1095 G1098">
-    <cfRule type="duplicateValues" dxfId="1328" priority="5653"/>
+    <cfRule type="duplicateValues" dxfId="1328" priority="5655"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1090:G1095">
-    <cfRule type="duplicateValues" dxfId="1327" priority="5656"/>
+    <cfRule type="duplicateValues" dxfId="1327" priority="5658"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1096:G1097">
-    <cfRule type="duplicateValues" dxfId="1326" priority="2634"/>
+    <cfRule type="duplicateValues" dxfId="1326" priority="2636"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1098 G1087:G1089">
-    <cfRule type="duplicateValues" dxfId="1325" priority="2649"/>
+    <cfRule type="duplicateValues" dxfId="1325" priority="2651"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1101">
-    <cfRule type="duplicateValues" dxfId="1324" priority="2606"/>
+    <cfRule type="duplicateValues" dxfId="1324" priority="2608"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1101:G1104 G1106:G1109 G1111:G1127">
-    <cfRule type="duplicateValues" dxfId="1323" priority="2612"/>
+    <cfRule type="duplicateValues" dxfId="1323" priority="2614"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1105">
-    <cfRule type="duplicateValues" dxfId="1322" priority="2572"/>
+    <cfRule type="duplicateValues" dxfId="1322" priority="2574"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1110">
-    <cfRule type="duplicateValues" dxfId="1321" priority="2578"/>
+    <cfRule type="duplicateValues" dxfId="1321" priority="2580"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1111">
-    <cfRule type="duplicateValues" dxfId="1320" priority="2582"/>
+    <cfRule type="duplicateValues" dxfId="1320" priority="2584"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1112">
-    <cfRule type="duplicateValues" dxfId="1319" priority="2599"/>
+    <cfRule type="duplicateValues" dxfId="1319" priority="2601"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1113">
-    <cfRule type="duplicateValues" dxfId="1318" priority="2601"/>
+    <cfRule type="duplicateValues" dxfId="1318" priority="2603"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1114:G1116">
-    <cfRule type="duplicateValues" dxfId="1317" priority="2603"/>
+    <cfRule type="duplicateValues" dxfId="1317" priority="2605"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1115:G1116">
-    <cfRule type="duplicateValues" dxfId="1316" priority="2605"/>
+    <cfRule type="duplicateValues" dxfId="1316" priority="2607"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1116:G1120 G1111 G1102:G1104 G1106:G1109 G1122:G1127">
-    <cfRule type="duplicateValues" dxfId="1315" priority="2614"/>
+    <cfRule type="duplicateValues" dxfId="1315" priority="2616"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1121:G1122">
-    <cfRule type="duplicateValues" dxfId="1314" priority="2609"/>
+    <cfRule type="duplicateValues" dxfId="1314" priority="2611"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1122:G1125 G1116:G1120 G1111 G1102:G1104 G1106:G1109">
-    <cfRule type="duplicateValues" dxfId="1313" priority="2611"/>
+    <cfRule type="duplicateValues" dxfId="1313" priority="2613"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1122:G1125">
-    <cfRule type="duplicateValues" dxfId="1312" priority="2597"/>
+    <cfRule type="duplicateValues" dxfId="1312" priority="2599"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1122:G1127">
-    <cfRule type="duplicateValues" dxfId="1311" priority="2615"/>
+    <cfRule type="duplicateValues" dxfId="1311" priority="2617"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1130:G1132">
-    <cfRule type="duplicateValues" dxfId="1310" priority="2561"/>
+    <cfRule type="duplicateValues" dxfId="1310" priority="2563"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1130:G1140">
-    <cfRule type="duplicateValues" dxfId="1309" priority="2564"/>
+    <cfRule type="duplicateValues" dxfId="1309" priority="2566"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1133:G1139">
-    <cfRule type="duplicateValues" dxfId="1308" priority="2565"/>
+    <cfRule type="duplicateValues" dxfId="1308" priority="2567"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1139">
-    <cfRule type="duplicateValues" dxfId="1307" priority="5715"/>
+    <cfRule type="duplicateValues" dxfId="1307" priority="5717"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1140 G1130:G1132">
-    <cfRule type="duplicateValues" dxfId="1306" priority="2562"/>
+    <cfRule type="duplicateValues" dxfId="1306" priority="2564"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1143:G1145">
-    <cfRule type="duplicateValues" dxfId="1305" priority="2546"/>
+    <cfRule type="duplicateValues" dxfId="1305" priority="2548"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1143:G1166">
-    <cfRule type="duplicateValues" dxfId="1304" priority="5746"/>
+    <cfRule type="duplicateValues" dxfId="1304" priority="5748"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1146:G1165">
-    <cfRule type="duplicateValues" dxfId="1303" priority="5749"/>
+    <cfRule type="duplicateValues" dxfId="1303" priority="5751"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1156:G1165">
-    <cfRule type="duplicateValues" dxfId="1302" priority="5753"/>
+    <cfRule type="duplicateValues" dxfId="1302" priority="5755"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1166 G1143:G1145">
-    <cfRule type="duplicateValues" dxfId="1301" priority="2547"/>
+    <cfRule type="duplicateValues" dxfId="1301" priority="2549"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1169:G1177 G1179:G1183">
-    <cfRule type="duplicateValues" dxfId="1300" priority="2532"/>
+    <cfRule type="duplicateValues" dxfId="1300" priority="2534"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1169:G1177">
-    <cfRule type="duplicateValues" dxfId="1299" priority="2533"/>
+    <cfRule type="duplicateValues" dxfId="1299" priority="2535"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1169:G1183 G1193">
-    <cfRule type="duplicateValues" dxfId="1298" priority="2531"/>
+    <cfRule type="duplicateValues" dxfId="1298" priority="2533"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1177">
-    <cfRule type="duplicateValues" dxfId="1297" priority="2530"/>
+    <cfRule type="duplicateValues" dxfId="1297" priority="2532"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1183">
-    <cfRule type="duplicateValues" dxfId="1296" priority="2529"/>
+    <cfRule type="duplicateValues" dxfId="1296" priority="2531"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1184:G1192">
-    <cfRule type="duplicateValues" dxfId="1295" priority="2496"/>
+    <cfRule type="duplicateValues" dxfId="1295" priority="2498"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1196:G1197 G1199:G1200 G1202">
-    <cfRule type="duplicateValues" dxfId="1294" priority="5824"/>
+    <cfRule type="duplicateValues" dxfId="1294" priority="5826"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1196:G1197">
-    <cfRule type="duplicateValues" dxfId="1293" priority="2514"/>
+    <cfRule type="duplicateValues" dxfId="1293" priority="2516"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1198">
-    <cfRule type="duplicateValues" dxfId="1292" priority="2508"/>
+    <cfRule type="duplicateValues" dxfId="1292" priority="2510"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1199:G1200">
-    <cfRule type="duplicateValues" dxfId="1291" priority="5827"/>
+    <cfRule type="duplicateValues" dxfId="1291" priority="5829"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1201">
-    <cfRule type="duplicateValues" dxfId="1290" priority="2494"/>
+    <cfRule type="duplicateValues" dxfId="1290" priority="2496"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1202 G1196:G1197">
-    <cfRule type="duplicateValues" dxfId="1289" priority="2515"/>
+    <cfRule type="duplicateValues" dxfId="1289" priority="2517"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1202">
-    <cfRule type="duplicateValues" dxfId="1288" priority="2512"/>
+    <cfRule type="duplicateValues" dxfId="1288" priority="2514"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1205:G1207">
-    <cfRule type="duplicateValues" dxfId="1287" priority="2498"/>
+    <cfRule type="duplicateValues" dxfId="1287" priority="2500"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1205:G1215">
-    <cfRule type="duplicateValues" dxfId="1286" priority="2500"/>
+    <cfRule type="duplicateValues" dxfId="1286" priority="2502"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1208:G1214">
-    <cfRule type="duplicateValues" dxfId="1285" priority="2501"/>
+    <cfRule type="duplicateValues" dxfId="1285" priority="2503"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1214">
-    <cfRule type="duplicateValues" dxfId="1284" priority="2502"/>
+    <cfRule type="duplicateValues" dxfId="1284" priority="2504"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1215 G1205:G1207">
-    <cfRule type="duplicateValues" dxfId="1283" priority="2499"/>
+    <cfRule type="duplicateValues" dxfId="1283" priority="2501"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1218">
-    <cfRule type="duplicateValues" dxfId="1282" priority="2484"/>
+    <cfRule type="duplicateValues" dxfId="1282" priority="2486"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1218:G1220 G1222:G1244">
-    <cfRule type="duplicateValues" dxfId="1281" priority="2490"/>
+    <cfRule type="duplicateValues" dxfId="1281" priority="2492"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1219:G1220 G1222:G1228 G1232:G1244">
-    <cfRule type="duplicateValues" dxfId="1280" priority="2489"/>
+    <cfRule type="duplicateValues" dxfId="1280" priority="2491"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1221">
-    <cfRule type="duplicateValues" dxfId="1279" priority="2450"/>
+    <cfRule type="duplicateValues" dxfId="1279" priority="2452"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1222">
-    <cfRule type="duplicateValues" dxfId="1278" priority="2385"/>
+    <cfRule type="duplicateValues" dxfId="1278" priority="2387"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1227">
-    <cfRule type="duplicateValues" dxfId="1277" priority="2460"/>
+    <cfRule type="duplicateValues" dxfId="1277" priority="2462"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1228">
-    <cfRule type="duplicateValues" dxfId="1276" priority="2477"/>
+    <cfRule type="duplicateValues" dxfId="1276" priority="2479"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1229">
-    <cfRule type="duplicateValues" dxfId="1275" priority="2479"/>
+    <cfRule type="duplicateValues" dxfId="1275" priority="2481"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1230">
-    <cfRule type="duplicateValues" dxfId="1274" priority="2405"/>
+    <cfRule type="duplicateValues" dxfId="1274" priority="2407"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1230:G1233">
-    <cfRule type="duplicateValues" dxfId="1273" priority="2481"/>
+    <cfRule type="duplicateValues" dxfId="1273" priority="2483"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1231:G1233">
-    <cfRule type="duplicateValues" dxfId="1272" priority="2483"/>
+    <cfRule type="duplicateValues" dxfId="1272" priority="2485"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1232:G1237">
-    <cfRule type="duplicateValues" dxfId="1271" priority="5864"/>
+    <cfRule type="duplicateValues" dxfId="1271" priority="5866"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1237">
-    <cfRule type="duplicateValues" dxfId="1270" priority="2487"/>
+    <cfRule type="duplicateValues" dxfId="1270" priority="2489"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1238">
-    <cfRule type="duplicateValues" dxfId="1269" priority="2408"/>
+    <cfRule type="duplicateValues" dxfId="1269" priority="2410"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1238:G1244">
-    <cfRule type="duplicateValues" dxfId="1268" priority="2475"/>
+    <cfRule type="duplicateValues" dxfId="1268" priority="2477"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1243">
-    <cfRule type="duplicateValues" dxfId="1267" priority="2488"/>
+    <cfRule type="duplicateValues" dxfId="1267" priority="2490"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1244">
-    <cfRule type="duplicateValues" dxfId="1266" priority="2409"/>
+    <cfRule type="duplicateValues" dxfId="1266" priority="2411"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1244:G1249">
-    <cfRule type="duplicateValues" dxfId="1265" priority="2436"/>
+    <cfRule type="duplicateValues" dxfId="1265" priority="2438"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1244:G1251 G1257">
-    <cfRule type="duplicateValues" dxfId="1264" priority="5901"/>
+    <cfRule type="duplicateValues" dxfId="1264" priority="5903"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1248">
-    <cfRule type="duplicateValues" dxfId="1263" priority="2430"/>
+    <cfRule type="duplicateValues" dxfId="1263" priority="2432"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1249">
-    <cfRule type="duplicateValues" dxfId="1262" priority="2377"/>
+    <cfRule type="duplicateValues" dxfId="1262" priority="2379"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1249:G1251 G1257">
-    <cfRule type="duplicateValues" dxfId="1261" priority="5903"/>
+    <cfRule type="duplicateValues" dxfId="1261" priority="5905"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1252:G1254">
-    <cfRule type="duplicateValues" dxfId="1260" priority="2362"/>
+    <cfRule type="duplicateValues" dxfId="1260" priority="2364"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1252:G1256">
-    <cfRule type="duplicateValues" dxfId="1259" priority="2363"/>
+    <cfRule type="duplicateValues" dxfId="1259" priority="2365"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1253">
-    <cfRule type="duplicateValues" dxfId="1258" priority="2361"/>
+    <cfRule type="duplicateValues" dxfId="1258" priority="2363"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1254">
-    <cfRule type="duplicateValues" dxfId="1257" priority="2348"/>
+    <cfRule type="duplicateValues" dxfId="1257" priority="2350"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1254:G1256">
-    <cfRule type="duplicateValues" dxfId="1256" priority="2364"/>
+    <cfRule type="duplicateValues" dxfId="1256" priority="2366"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1257">
-    <cfRule type="duplicateValues" dxfId="1255" priority="2431"/>
+    <cfRule type="duplicateValues" dxfId="1255" priority="2433"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1260:G1262">
-    <cfRule type="duplicateValues" dxfId="1254" priority="2410"/>
+    <cfRule type="duplicateValues" dxfId="1254" priority="2412"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1260:G1267 G1273">
-    <cfRule type="duplicateValues" dxfId="1253" priority="2412"/>
+    <cfRule type="duplicateValues" dxfId="1253" priority="2414"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1263:G1267">
-    <cfRule type="duplicateValues" dxfId="1252" priority="2413"/>
+    <cfRule type="duplicateValues" dxfId="1252" priority="2415"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1268:G1272">
-    <cfRule type="duplicateValues" dxfId="1251" priority="2334"/>
+    <cfRule type="duplicateValues" dxfId="1251" priority="2336"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1273 G1260:G1262">
-    <cfRule type="duplicateValues" dxfId="1250" priority="2411"/>
+    <cfRule type="duplicateValues" dxfId="1250" priority="2413"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1276">
-    <cfRule type="duplicateValues" dxfId="1249" priority="2322"/>
+    <cfRule type="duplicateValues" dxfId="1249" priority="2324"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1276:G1278 G1280:G1303">
-    <cfRule type="duplicateValues" dxfId="1248" priority="2328"/>
+    <cfRule type="duplicateValues" dxfId="1248" priority="2330"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1277:G1278 G1280:G1286 G1290:G1303">
-    <cfRule type="duplicateValues" dxfId="1247" priority="2327"/>
+    <cfRule type="duplicateValues" dxfId="1247" priority="2329"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1279">
-    <cfRule type="duplicateValues" dxfId="1246" priority="2291"/>
+    <cfRule type="duplicateValues" dxfId="1246" priority="2293"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1280">
-    <cfRule type="duplicateValues" dxfId="1245" priority="2242"/>
+    <cfRule type="duplicateValues" dxfId="1245" priority="2244"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1285">
-    <cfRule type="duplicateValues" dxfId="1244" priority="2298"/>
+    <cfRule type="duplicateValues" dxfId="1244" priority="2300"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1286">
-    <cfRule type="duplicateValues" dxfId="1243" priority="2315"/>
+    <cfRule type="duplicateValues" dxfId="1243" priority="2317"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1287">
-    <cfRule type="duplicateValues" dxfId="1242" priority="2317"/>
+    <cfRule type="duplicateValues" dxfId="1242" priority="2319"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1288">
-    <cfRule type="duplicateValues" dxfId="1241" priority="2262"/>
+    <cfRule type="duplicateValues" dxfId="1241" priority="2264"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1288:G1291">
-    <cfRule type="duplicateValues" dxfId="1240" priority="2319"/>
+    <cfRule type="duplicateValues" dxfId="1240" priority="2321"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1289:G1291">
-    <cfRule type="duplicateValues" dxfId="1239" priority="2321"/>
+    <cfRule type="duplicateValues" dxfId="1239" priority="2323"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1290:G1295">
-    <cfRule type="duplicateValues" dxfId="1238" priority="2331"/>
+    <cfRule type="duplicateValues" dxfId="1238" priority="2333"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1295">
-    <cfRule type="duplicateValues" dxfId="1237" priority="2325"/>
+    <cfRule type="duplicateValues" dxfId="1237" priority="2327"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1296">
-    <cfRule type="duplicateValues" dxfId="1236" priority="2265"/>
+    <cfRule type="duplicateValues" dxfId="1236" priority="2267"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1296:G1303">
-    <cfRule type="duplicateValues" dxfId="1235" priority="2313"/>
+    <cfRule type="duplicateValues" dxfId="1235" priority="2315"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1301:G1303">
-    <cfRule type="duplicateValues" dxfId="1234" priority="2326"/>
+    <cfRule type="duplicateValues" dxfId="1234" priority="2328"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1302:G1303">
-    <cfRule type="duplicateValues" dxfId="1233" priority="2266"/>
+    <cfRule type="duplicateValues" dxfId="1233" priority="2268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1302:G1313">
-    <cfRule type="duplicateValues" dxfId="1232" priority="2283"/>
+    <cfRule type="duplicateValues" dxfId="1232" priority="2285"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1302:G1314">
-    <cfRule type="duplicateValues" dxfId="1231" priority="2332"/>
+    <cfRule type="duplicateValues" dxfId="1231" priority="2334"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1306:G1313">
-    <cfRule type="duplicateValues" dxfId="1230" priority="2281"/>
+    <cfRule type="duplicateValues" dxfId="1230" priority="2283"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1307:G1313">
-    <cfRule type="duplicateValues" dxfId="1229" priority="2234"/>
+    <cfRule type="duplicateValues" dxfId="1229" priority="2236"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1307:G1314">
-    <cfRule type="duplicateValues" dxfId="1228" priority="2333"/>
+    <cfRule type="duplicateValues" dxfId="1228" priority="2335"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1314">
-    <cfRule type="duplicateValues" dxfId="1227" priority="2282"/>
+    <cfRule type="duplicateValues" dxfId="1227" priority="2284"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1317:G1319">
-    <cfRule type="duplicateValues" dxfId="1226" priority="2189"/>
+    <cfRule type="duplicateValues" dxfId="1226" priority="2191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1320:G1326">
-    <cfRule type="duplicateValues" dxfId="1225" priority="2192"/>
+    <cfRule type="duplicateValues" dxfId="1225" priority="2194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1325:G1333">
-    <cfRule type="duplicateValues" dxfId="1224" priority="5991"/>
+    <cfRule type="duplicateValues" dxfId="1224" priority="5993"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1334 G1317:G1319">
-    <cfRule type="duplicateValues" dxfId="1223" priority="2190"/>
+    <cfRule type="duplicateValues" dxfId="1223" priority="2192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1334 G1317:G1326">
-    <cfRule type="duplicateValues" dxfId="1222" priority="2191"/>
+    <cfRule type="duplicateValues" dxfId="1222" priority="2193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1337">
-    <cfRule type="duplicateValues" dxfId="1221" priority="2166"/>
+    <cfRule type="duplicateValues" dxfId="1221" priority="2168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1337:G1339 G1341:G1364">
-    <cfRule type="duplicateValues" dxfId="1220" priority="7541"/>
+    <cfRule type="duplicateValues" dxfId="1220" priority="7543"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1338:G1339 G1341:G1364">
-    <cfRule type="duplicateValues" dxfId="1219" priority="7536"/>
+    <cfRule type="duplicateValues" dxfId="1219" priority="7538"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1340:G1341">
-    <cfRule type="duplicateValues" dxfId="1218" priority="2135"/>
+    <cfRule type="duplicateValues" dxfId="1218" priority="2137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1341">
-    <cfRule type="duplicateValues" dxfId="1217" priority="2093"/>
+    <cfRule type="duplicateValues" dxfId="1217" priority="2095"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1342">
-    <cfRule type="duplicateValues" dxfId="1216" priority="2047"/>
+    <cfRule type="duplicateValues" dxfId="1216" priority="2049"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1343">
-    <cfRule type="duplicateValues" dxfId="1215" priority="2018"/>
+    <cfRule type="duplicateValues" dxfId="1215" priority="2020"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1344">
-    <cfRule type="duplicateValues" dxfId="1214" priority="1910"/>
+    <cfRule type="duplicateValues" dxfId="1214" priority="1912"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1346">
-    <cfRule type="duplicateValues" dxfId="1213" priority="2142"/>
+    <cfRule type="duplicateValues" dxfId="1213" priority="2144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1347">
-    <cfRule type="duplicateValues" dxfId="1212" priority="2159"/>
+    <cfRule type="duplicateValues" dxfId="1212" priority="2161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1348">
-    <cfRule type="duplicateValues" dxfId="1211" priority="2161"/>
+    <cfRule type="duplicateValues" dxfId="1211" priority="2163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1349">
-    <cfRule type="duplicateValues" dxfId="1210" priority="2113"/>
+    <cfRule type="duplicateValues" dxfId="1210" priority="2115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1349:G1354">
-    <cfRule type="duplicateValues" dxfId="1209" priority="7540"/>
+    <cfRule type="duplicateValues" dxfId="1209" priority="7542"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1350">
-    <cfRule type="duplicateValues" dxfId="1208" priority="2062"/>
+    <cfRule type="duplicateValues" dxfId="1208" priority="2064"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1350:G1354">
-    <cfRule type="duplicateValues" dxfId="1207" priority="7539"/>
+    <cfRule type="duplicateValues" dxfId="1207" priority="7541"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1351">
-    <cfRule type="duplicateValues" dxfId="1206" priority="2033"/>
+    <cfRule type="duplicateValues" dxfId="1206" priority="2035"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1351:G1358">
-    <cfRule type="duplicateValues" dxfId="1205" priority="7544"/>
+    <cfRule type="duplicateValues" dxfId="1205" priority="7546"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1352">
-    <cfRule type="duplicateValues" dxfId="1204" priority="1925"/>
+    <cfRule type="duplicateValues" dxfId="1204" priority="1927"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1355">
-    <cfRule type="duplicateValues" dxfId="1203" priority="2169"/>
+    <cfRule type="duplicateValues" dxfId="1203" priority="2171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1356">
-    <cfRule type="duplicateValues" dxfId="1202" priority="2116"/>
+    <cfRule type="duplicateValues" dxfId="1202" priority="2118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1356:G1364">
-    <cfRule type="duplicateValues" dxfId="1201" priority="2157"/>
+    <cfRule type="duplicateValues" dxfId="1201" priority="2159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1357">
-    <cfRule type="duplicateValues" dxfId="1200" priority="2065"/>
+    <cfRule type="duplicateValues" dxfId="1200" priority="2067"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1358">
-    <cfRule type="duplicateValues" dxfId="1199" priority="2036"/>
+    <cfRule type="duplicateValues" dxfId="1199" priority="2038"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1359">
-    <cfRule type="duplicateValues" dxfId="1198" priority="1928"/>
+    <cfRule type="duplicateValues" dxfId="1198" priority="1930"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1361:G1364">
-    <cfRule type="duplicateValues" dxfId="1197" priority="2170"/>
+    <cfRule type="duplicateValues" dxfId="1197" priority="2172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1362:G1364">
-    <cfRule type="duplicateValues" dxfId="1196" priority="2117"/>
+    <cfRule type="duplicateValues" dxfId="1196" priority="2119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1362:G1372">
-    <cfRule type="duplicateValues" dxfId="1195" priority="6879"/>
+    <cfRule type="duplicateValues" dxfId="1195" priority="6881"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1362:G1373">
-    <cfRule type="duplicateValues" dxfId="1194" priority="2127"/>
+    <cfRule type="duplicateValues" dxfId="1194" priority="2129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1366:G1372">
-    <cfRule type="duplicateValues" dxfId="1193" priority="6873"/>
+    <cfRule type="duplicateValues" dxfId="1193" priority="6875"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1367:G1372">
-    <cfRule type="duplicateValues" dxfId="1192" priority="6916"/>
+    <cfRule type="duplicateValues" dxfId="1192" priority="6918"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1367:G1373">
-    <cfRule type="duplicateValues" dxfId="1191" priority="2085"/>
+    <cfRule type="duplicateValues" dxfId="1191" priority="2087"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1373">
-    <cfRule type="duplicateValues" dxfId="1190" priority="2126"/>
+    <cfRule type="duplicateValues" dxfId="1190" priority="2128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1376:G1377 G1379:G1384">
-    <cfRule type="duplicateValues" dxfId="1189" priority="7484"/>
+    <cfRule type="duplicateValues" dxfId="1189" priority="7486"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1376:G1377">
-    <cfRule type="duplicateValues" dxfId="1188" priority="1899"/>
+    <cfRule type="duplicateValues" dxfId="1188" priority="1901"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1379:G1384">
-    <cfRule type="duplicateValues" dxfId="1187" priority="7486"/>
+    <cfRule type="duplicateValues" dxfId="1187" priority="7488"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1379:G1385">
-    <cfRule type="duplicateValues" dxfId="1186" priority="1896"/>
+    <cfRule type="duplicateValues" dxfId="1186" priority="1898"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1384">
-    <cfRule type="duplicateValues" dxfId="1185" priority="7487"/>
+    <cfRule type="duplicateValues" dxfId="1185" priority="7489"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1388">
-    <cfRule type="duplicateValues" dxfId="1184" priority="1882"/>
+    <cfRule type="duplicateValues" dxfId="1184" priority="1884"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1388:G1410">
-    <cfRule type="duplicateValues" dxfId="1183" priority="8122"/>
+    <cfRule type="duplicateValues" dxfId="1183" priority="8124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1389:G1410">
-    <cfRule type="duplicateValues" dxfId="1182" priority="8124"/>
+    <cfRule type="duplicateValues" dxfId="1182" priority="8126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1391">
-    <cfRule type="duplicateValues" dxfId="1181" priority="1870"/>
+    <cfRule type="duplicateValues" dxfId="1181" priority="1872"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1392">
-    <cfRule type="duplicateValues" dxfId="1180" priority="1863"/>
+    <cfRule type="duplicateValues" dxfId="1180" priority="1865"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1393">
-    <cfRule type="duplicateValues" dxfId="1179" priority="1859"/>
+    <cfRule type="duplicateValues" dxfId="1179" priority="1861"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1394:G1396">
-    <cfRule type="duplicateValues" dxfId="1178" priority="1855"/>
+    <cfRule type="duplicateValues" dxfId="1178" priority="1857"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1396">
-    <cfRule type="duplicateValues" dxfId="1177" priority="1878"/>
+    <cfRule type="duplicateValues" dxfId="1177" priority="1880"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1397">
-    <cfRule type="duplicateValues" dxfId="1176" priority="1880"/>
+    <cfRule type="duplicateValues" dxfId="1176" priority="1882"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1398:G1399">
-    <cfRule type="duplicateValues" dxfId="1175" priority="1881"/>
+    <cfRule type="duplicateValues" dxfId="1175" priority="1883"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1399">
-    <cfRule type="duplicateValues" dxfId="1174" priority="1871"/>
+    <cfRule type="duplicateValues" dxfId="1174" priority="1873"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1399:G1404">
-    <cfRule type="duplicateValues" dxfId="1173" priority="1890"/>
+    <cfRule type="duplicateValues" dxfId="1173" priority="1892"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1400">
-    <cfRule type="duplicateValues" dxfId="1172" priority="1864"/>
+    <cfRule type="duplicateValues" dxfId="1172" priority="1866"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1400:G1404">
-    <cfRule type="duplicateValues" dxfId="1171" priority="1889"/>
+    <cfRule type="duplicateValues" dxfId="1171" priority="1891"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1401">
-    <cfRule type="duplicateValues" dxfId="1170" priority="1860"/>
+    <cfRule type="duplicateValues" dxfId="1170" priority="1862"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1401:G1408">
-    <cfRule type="duplicateValues" dxfId="1169" priority="1892"/>
+    <cfRule type="duplicateValues" dxfId="1169" priority="1894"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1402">
-    <cfRule type="duplicateValues" dxfId="1168" priority="1856"/>
+    <cfRule type="duplicateValues" dxfId="1168" priority="1858"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1405">
-    <cfRule type="duplicateValues" dxfId="1167" priority="1883"/>
+    <cfRule type="duplicateValues" dxfId="1167" priority="1885"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1406">
-    <cfRule type="duplicateValues" dxfId="1166" priority="1872"/>
+    <cfRule type="duplicateValues" dxfId="1166" priority="1874"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1406:G1410">
-    <cfRule type="duplicateValues" dxfId="1165" priority="8143"/>
+    <cfRule type="duplicateValues" dxfId="1165" priority="8145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1407">
-    <cfRule type="duplicateValues" dxfId="1164" priority="1865"/>
+    <cfRule type="duplicateValues" dxfId="1164" priority="1867"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1408">
-    <cfRule type="duplicateValues" dxfId="1163" priority="1861"/>
+    <cfRule type="duplicateValues" dxfId="1163" priority="1863"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1409">
-    <cfRule type="duplicateValues" dxfId="1162" priority="1857"/>
+    <cfRule type="duplicateValues" dxfId="1162" priority="1859"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1411">
-    <cfRule type="duplicateValues" dxfId="1161" priority="1874"/>
+    <cfRule type="duplicateValues" dxfId="1161" priority="1876"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1414:G1415 G1417:G1420">
-    <cfRule type="duplicateValues" dxfId="1160" priority="8189"/>
+    <cfRule type="duplicateValues" dxfId="1160" priority="8191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1414:G1415">
-    <cfRule type="duplicateValues" dxfId="1159" priority="1848"/>
+    <cfRule type="duplicateValues" dxfId="1159" priority="1850"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1417:G1420">
-    <cfRule type="duplicateValues" dxfId="1158" priority="8191"/>
+    <cfRule type="duplicateValues" dxfId="1158" priority="8193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1417:G1421">
-    <cfRule type="duplicateValues" dxfId="1157" priority="8192"/>
+    <cfRule type="duplicateValues" dxfId="1157" priority="8194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1425 G1438:G1461 G1427:G1428 G1430:G1436">
-    <cfRule type="duplicateValues" dxfId="1156" priority="10625"/>
+    <cfRule type="duplicateValues" dxfId="1156" priority="10627"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1427">
-    <cfRule type="duplicateValues" dxfId="1155" priority="1840"/>
+    <cfRule type="duplicateValues" dxfId="1155" priority="1842"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1427:G1428 G1430:G1436">
-    <cfRule type="duplicateValues" dxfId="1154" priority="1839"/>
+    <cfRule type="duplicateValues" dxfId="1154" priority="1841"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1428">
-    <cfRule type="duplicateValues" dxfId="1153" priority="1748"/>
+    <cfRule type="duplicateValues" dxfId="1153" priority="1750"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1430">
-    <cfRule type="duplicateValues" dxfId="1152" priority="1682"/>
+    <cfRule type="duplicateValues" dxfId="1152" priority="1684"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1430:G1431">
-    <cfRule type="duplicateValues" dxfId="1151" priority="1683"/>
+    <cfRule type="duplicateValues" dxfId="1151" priority="1685"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1430:G1436 G1438:G1461 G1427:G1428 G1425">
-    <cfRule type="duplicateValues" dxfId="1150" priority="10623"/>
+    <cfRule type="duplicateValues" dxfId="1150" priority="10625"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1430:G1436">
-    <cfRule type="duplicateValues" dxfId="1149" priority="1811"/>
+    <cfRule type="duplicateValues" dxfId="1149" priority="1813"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1431">
-    <cfRule type="duplicateValues" dxfId="1148" priority="1681"/>
+    <cfRule type="duplicateValues" dxfId="1148" priority="1683"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1431:G1436">
-    <cfRule type="duplicateValues" dxfId="1147" priority="1810"/>
+    <cfRule type="duplicateValues" dxfId="1147" priority="1812"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1432 G1428 G1430">
-    <cfRule type="duplicateValues" dxfId="1146" priority="1747"/>
+    <cfRule type="duplicateValues" dxfId="1146" priority="1749"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1432">
-    <cfRule type="duplicateValues" dxfId="1145" priority="1836"/>
+    <cfRule type="duplicateValues" dxfId="1145" priority="1838"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1432:G1433">
-    <cfRule type="duplicateValues" dxfId="1144" priority="1837"/>
+    <cfRule type="duplicateValues" dxfId="1144" priority="1839"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1432:G1436">
-    <cfRule type="duplicateValues" dxfId="1143" priority="1834"/>
+    <cfRule type="duplicateValues" dxfId="1143" priority="1836"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1433">
-    <cfRule type="duplicateValues" dxfId="1142" priority="1835"/>
+    <cfRule type="duplicateValues" dxfId="1142" priority="1837"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1433:G1434">
-    <cfRule type="duplicateValues" dxfId="1141" priority="1680"/>
+    <cfRule type="duplicateValues" dxfId="1141" priority="1682"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1433:G1436 G1438:G1451">
-    <cfRule type="duplicateValues" dxfId="1140" priority="1831"/>
+    <cfRule type="duplicateValues" dxfId="1140" priority="1833"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1434">
-    <cfRule type="duplicateValues" dxfId="1139" priority="1744"/>
+    <cfRule type="duplicateValues" dxfId="1139" priority="1746"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1434:G1436 G1438:G1451">
-    <cfRule type="duplicateValues" dxfId="1138" priority="1829"/>
+    <cfRule type="duplicateValues" dxfId="1138" priority="1831"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1435">
-    <cfRule type="duplicateValues" dxfId="1137" priority="1667"/>
+    <cfRule type="duplicateValues" dxfId="1137" priority="1669"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1435:G1436">
-    <cfRule type="duplicateValues" dxfId="1136" priority="1832"/>
+    <cfRule type="duplicateValues" dxfId="1136" priority="1834"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1436">
-    <cfRule type="duplicateValues" dxfId="1135" priority="1830"/>
+    <cfRule type="duplicateValues" dxfId="1135" priority="1832"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1438">
-    <cfRule type="duplicateValues" dxfId="1134" priority="1720"/>
+    <cfRule type="duplicateValues" dxfId="1134" priority="1722"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1438:G1451">
-    <cfRule type="duplicateValues" dxfId="1133" priority="1803"/>
+    <cfRule type="duplicateValues" dxfId="1133" priority="1805"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1438:G1461">
-    <cfRule type="duplicateValues" dxfId="1132" priority="13764"/>
+    <cfRule type="duplicateValues" dxfId="1132" priority="13766"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1439">
-    <cfRule type="duplicateValues" dxfId="1131" priority="1733"/>
+    <cfRule type="duplicateValues" dxfId="1131" priority="1735"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1440">
-    <cfRule type="duplicateValues" dxfId="1130" priority="1739"/>
+    <cfRule type="duplicateValues" dxfId="1130" priority="1741"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1440:G1451">
-    <cfRule type="duplicateValues" dxfId="1129" priority="1801"/>
+    <cfRule type="duplicateValues" dxfId="1129" priority="1803"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1441">
-    <cfRule type="duplicateValues" dxfId="1128" priority="1802"/>
+    <cfRule type="duplicateValues" dxfId="1128" priority="1804"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1441:G1448">
-    <cfRule type="duplicateValues" dxfId="1127" priority="1800"/>
+    <cfRule type="duplicateValues" dxfId="1127" priority="1802"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1442">
-    <cfRule type="duplicateValues" dxfId="1126" priority="1738"/>
+    <cfRule type="duplicateValues" dxfId="1126" priority="1740"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1442:G1449">
-    <cfRule type="duplicateValues" dxfId="1125" priority="1799"/>
+    <cfRule type="duplicateValues" dxfId="1125" priority="1801"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1443">
-    <cfRule type="duplicateValues" dxfId="1124" priority="1716"/>
+    <cfRule type="duplicateValues" dxfId="1124" priority="1718"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1444">
-    <cfRule type="duplicateValues" dxfId="1123" priority="1795"/>
+    <cfRule type="duplicateValues" dxfId="1123" priority="1797"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1444:G1451">
-    <cfRule type="duplicateValues" dxfId="1122" priority="1794"/>
+    <cfRule type="duplicateValues" dxfId="1122" priority="1796"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1445">
-    <cfRule type="duplicateValues" dxfId="1121" priority="1734"/>
+    <cfRule type="duplicateValues" dxfId="1121" priority="1736"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1445:G1451">
-    <cfRule type="duplicateValues" dxfId="1120" priority="1793"/>
+    <cfRule type="duplicateValues" dxfId="1120" priority="1795"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1446">
-    <cfRule type="duplicateValues" dxfId="1119" priority="1798"/>
+    <cfRule type="duplicateValues" dxfId="1119" priority="1800"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1447">
-    <cfRule type="duplicateValues" dxfId="1118" priority="1797"/>
+    <cfRule type="duplicateValues" dxfId="1118" priority="1799"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1448">
-    <cfRule type="duplicateValues" dxfId="1117" priority="1796"/>
+    <cfRule type="duplicateValues" dxfId="1117" priority="1798"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1449">
-    <cfRule type="duplicateValues" dxfId="1116" priority="1825"/>
+    <cfRule type="duplicateValues" dxfId="1116" priority="1827"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1449:G1459">
-    <cfRule type="duplicateValues" dxfId="1115" priority="1792"/>
+    <cfRule type="duplicateValues" dxfId="1115" priority="1794"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1449:G1461">
-    <cfRule type="duplicateValues" dxfId="1114" priority="10615"/>
+    <cfRule type="duplicateValues" dxfId="1114" priority="10617"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1450">
-    <cfRule type="duplicateValues" dxfId="1113" priority="1740"/>
+    <cfRule type="duplicateValues" dxfId="1113" priority="1742"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1450:G1459">
-    <cfRule type="duplicateValues" dxfId="1112" priority="1786"/>
+    <cfRule type="duplicateValues" dxfId="1112" priority="1788"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1451">
-    <cfRule type="duplicateValues" dxfId="1111" priority="1718"/>
+    <cfRule type="duplicateValues" dxfId="1111" priority="1720"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1451:G1459">
-    <cfRule type="duplicateValues" dxfId="1110" priority="1782"/>
+    <cfRule type="duplicateValues" dxfId="1110" priority="1784"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1452">
-    <cfRule type="duplicateValues" dxfId="1109" priority="1693"/>
+    <cfRule type="duplicateValues" dxfId="1109" priority="1695"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1452:G1461">
-    <cfRule type="duplicateValues" dxfId="1108" priority="10617"/>
+    <cfRule type="duplicateValues" dxfId="1108" priority="10619"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1453">
-    <cfRule type="duplicateValues" dxfId="1107" priority="1625"/>
+    <cfRule type="duplicateValues" dxfId="1107" priority="1627"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1454">
-    <cfRule type="duplicateValues" dxfId="1106" priority="1623"/>
+    <cfRule type="duplicateValues" dxfId="1106" priority="1625"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1454:G1461">
-    <cfRule type="duplicateValues" dxfId="1105" priority="10618"/>
+    <cfRule type="duplicateValues" dxfId="1105" priority="10620"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1455">
-    <cfRule type="duplicateValues" dxfId="1104" priority="1621"/>
+    <cfRule type="duplicateValues" dxfId="1104" priority="1623"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1455:G1461">
-    <cfRule type="duplicateValues" dxfId="1103" priority="10612"/>
+    <cfRule type="duplicateValues" dxfId="1103" priority="10614"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1456">
-    <cfRule type="duplicateValues" dxfId="1102" priority="1617"/>
+    <cfRule type="duplicateValues" dxfId="1102" priority="1619"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1456:G1461">
-    <cfRule type="duplicateValues" dxfId="1101" priority="10613"/>
+    <cfRule type="duplicateValues" dxfId="1101" priority="10615"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1457">
-    <cfRule type="duplicateValues" dxfId="1100" priority="1780"/>
+    <cfRule type="duplicateValues" dxfId="1100" priority="1782"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1458">
-    <cfRule type="duplicateValues" dxfId="1099" priority="10019"/>
+    <cfRule type="duplicateValues" dxfId="1099" priority="10021"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1458:G1461">
-    <cfRule type="duplicateValues" dxfId="1098" priority="1624"/>
+    <cfRule type="duplicateValues" dxfId="1098" priority="1626"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1459">
-    <cfRule type="duplicateValues" dxfId="1097" priority="1711"/>
+    <cfRule type="duplicateValues" dxfId="1097" priority="1713"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1460">
-    <cfRule type="duplicateValues" dxfId="1096" priority="1688"/>
+    <cfRule type="duplicateValues" dxfId="1096" priority="1690"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1462">
-    <cfRule type="duplicateValues" dxfId="1095" priority="1820"/>
+    <cfRule type="duplicateValues" dxfId="1095" priority="1822"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1466 G1468:G1489 G1491:G1492">
-    <cfRule type="duplicateValues" dxfId="1094" priority="12148"/>
+    <cfRule type="duplicateValues" dxfId="1094" priority="12150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1468">
-    <cfRule type="duplicateValues" dxfId="1093" priority="1615"/>
+    <cfRule type="duplicateValues" dxfId="1093" priority="1617"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1468:G1478">
-    <cfRule type="duplicateValues" dxfId="1092" priority="1614"/>
+    <cfRule type="duplicateValues" dxfId="1092" priority="1616"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1469">
-    <cfRule type="duplicateValues" dxfId="1091" priority="1585"/>
+    <cfRule type="duplicateValues" dxfId="1091" priority="1587"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1470">
-    <cfRule type="duplicateValues" dxfId="1090" priority="1517"/>
+    <cfRule type="duplicateValues" dxfId="1090" priority="1519"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1471">
-    <cfRule type="duplicateValues" dxfId="1089" priority="1570"/>
+    <cfRule type="duplicateValues" dxfId="1089" priority="1572"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1471:G1473">
-    <cfRule type="duplicateValues" dxfId="1088" priority="1571"/>
+    <cfRule type="duplicateValues" dxfId="1088" priority="1573"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1471:G1478">
-    <cfRule type="duplicateValues" dxfId="1087" priority="1603"/>
+    <cfRule type="duplicateValues" dxfId="1087" priority="1605"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1472">
-    <cfRule type="duplicateValues" dxfId="1086" priority="1569"/>
+    <cfRule type="duplicateValues" dxfId="1086" priority="1571"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1472:G1478">
-    <cfRule type="duplicateValues" dxfId="1085" priority="1602"/>
+    <cfRule type="duplicateValues" dxfId="1085" priority="1604"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1473 G1469 G1471">
-    <cfRule type="duplicateValues" dxfId="1084" priority="1584"/>
+    <cfRule type="duplicateValues" dxfId="1084" priority="1586"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1473">
-    <cfRule type="duplicateValues" dxfId="1083" priority="1612"/>
+    <cfRule type="duplicateValues" dxfId="1083" priority="1614"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1473:G1475">
-    <cfRule type="duplicateValues" dxfId="1082" priority="1613"/>
+    <cfRule type="duplicateValues" dxfId="1082" priority="1615"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1473:G1478">
-    <cfRule type="duplicateValues" dxfId="1081" priority="1610"/>
+    <cfRule type="duplicateValues" dxfId="1081" priority="1612"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1474 G1470 G1472">
-    <cfRule type="duplicateValues" dxfId="1080" priority="1516"/>
+    <cfRule type="duplicateValues" dxfId="1080" priority="1518"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1474">
-    <cfRule type="duplicateValues" dxfId="1079" priority="1611"/>
+    <cfRule type="duplicateValues" dxfId="1079" priority="1613"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1474:G1476">
-    <cfRule type="duplicateValues" dxfId="1078" priority="1568"/>
+    <cfRule type="duplicateValues" dxfId="1078" priority="1570"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1474:G1489 G1491:G1492">
-    <cfRule type="duplicateValues" dxfId="1077" priority="1608"/>
+    <cfRule type="duplicateValues" dxfId="1077" priority="1610"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1475">
-    <cfRule type="duplicateValues" dxfId="1076" priority="1583"/>
+    <cfRule type="duplicateValues" dxfId="1076" priority="1585"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1475:G1489 G1491:G1492">
-    <cfRule type="duplicateValues" dxfId="1075" priority="1606"/>
+    <cfRule type="duplicateValues" dxfId="1075" priority="1608"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1476">
-    <cfRule type="duplicateValues" dxfId="1074" priority="1567"/>
+    <cfRule type="duplicateValues" dxfId="1074" priority="1569"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1476:G1478">
-    <cfRule type="duplicateValues" dxfId="1073" priority="1609"/>
+    <cfRule type="duplicateValues" dxfId="1073" priority="1611"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1477">
-    <cfRule type="duplicateValues" dxfId="1072" priority="1607"/>
+    <cfRule type="duplicateValues" dxfId="1072" priority="1609"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1478">
-    <cfRule type="duplicateValues" dxfId="1071" priority="1520"/>
+    <cfRule type="duplicateValues" dxfId="1071" priority="1522"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1479">
-    <cfRule type="duplicateValues" dxfId="1070" priority="1577"/>
+    <cfRule type="duplicateValues" dxfId="1070" priority="1579"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1479:G1489 G1491:G1492">
-    <cfRule type="duplicateValues" dxfId="1069" priority="1600"/>
+    <cfRule type="duplicateValues" dxfId="1069" priority="1602"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1480">
-    <cfRule type="duplicateValues" dxfId="1068" priority="1601"/>
+    <cfRule type="duplicateValues" dxfId="1068" priority="1603"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1481">
-    <cfRule type="duplicateValues" dxfId="1067" priority="1581"/>
+    <cfRule type="duplicateValues" dxfId="1067" priority="1583"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1481:G1489 G1491:G1492">
-    <cfRule type="duplicateValues" dxfId="1066" priority="1598"/>
+    <cfRule type="duplicateValues" dxfId="1066" priority="1600"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1482">
-    <cfRule type="duplicateValues" dxfId="1065" priority="1599"/>
+    <cfRule type="duplicateValues" dxfId="1065" priority="1601"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1482:G1489">
-    <cfRule type="duplicateValues" dxfId="1064" priority="1597"/>
+    <cfRule type="duplicateValues" dxfId="1064" priority="1599"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1483">
-    <cfRule type="duplicateValues" dxfId="1063" priority="1580"/>
+    <cfRule type="duplicateValues" dxfId="1063" priority="1582"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1483:G1489">
-    <cfRule type="duplicateValues" dxfId="1062" priority="1596"/>
+    <cfRule type="duplicateValues" dxfId="1062" priority="1598"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1484">
-    <cfRule type="duplicateValues" dxfId="1061" priority="1575"/>
+    <cfRule type="duplicateValues" dxfId="1061" priority="1577"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1485">
-    <cfRule type="duplicateValues" dxfId="1060" priority="1592"/>
+    <cfRule type="duplicateValues" dxfId="1060" priority="1594"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1485:G1489 G1491:G1492">
-    <cfRule type="duplicateValues" dxfId="1059" priority="1591"/>
+    <cfRule type="duplicateValues" dxfId="1059" priority="1593"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1486">
-    <cfRule type="duplicateValues" dxfId="1058" priority="1579"/>
+    <cfRule type="duplicateValues" dxfId="1058" priority="1581"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1486:G1489 G1491:G1492">
-    <cfRule type="duplicateValues" dxfId="1057" priority="1590"/>
+    <cfRule type="duplicateValues" dxfId="1057" priority="1592"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1487">
-    <cfRule type="duplicateValues" dxfId="1056" priority="1595"/>
+    <cfRule type="duplicateValues" dxfId="1056" priority="1597"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1488">
-    <cfRule type="duplicateValues" dxfId="1055" priority="1594"/>
+    <cfRule type="duplicateValues" dxfId="1055" priority="1596"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1489">
-    <cfRule type="duplicateValues" dxfId="1054" priority="1593"/>
+    <cfRule type="duplicateValues" dxfId="1054" priority="1595"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1491:G1492">
-    <cfRule type="duplicateValues" dxfId="1053" priority="1582"/>
+    <cfRule type="duplicateValues" dxfId="1053" priority="1584"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1492">
-    <cfRule type="duplicateValues" dxfId="1052" priority="1576"/>
+    <cfRule type="duplicateValues" dxfId="1052" priority="1578"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1493">
-    <cfRule type="duplicateValues" dxfId="1051" priority="1604"/>
+    <cfRule type="duplicateValues" dxfId="1051" priority="1606"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1497 G1499:G1504">
-    <cfRule type="duplicateValues" dxfId="1050" priority="12902"/>
+    <cfRule type="duplicateValues" dxfId="1050" priority="12904"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1499">
-    <cfRule type="duplicateValues" dxfId="1049" priority="1546"/>
+    <cfRule type="duplicateValues" dxfId="1049" priority="1548"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1499:G1504 G1497">
-    <cfRule type="duplicateValues" dxfId="1048" priority="12900"/>
+    <cfRule type="duplicateValues" dxfId="1048" priority="12902"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1500">
-    <cfRule type="duplicateValues" dxfId="1047" priority="1545"/>
+    <cfRule type="duplicateValues" dxfId="1047" priority="1547"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1501">
-    <cfRule type="duplicateValues" dxfId="1046" priority="1544"/>
+    <cfRule type="duplicateValues" dxfId="1046" priority="1546"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1502:G1504">
-    <cfRule type="duplicateValues" dxfId="1045" priority="1543"/>
+    <cfRule type="duplicateValues" dxfId="1045" priority="1545"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1504">
-    <cfRule type="duplicateValues" dxfId="1044" priority="1542"/>
+    <cfRule type="duplicateValues" dxfId="1044" priority="1544"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1505">
-    <cfRule type="duplicateValues" dxfId="1043" priority="1527"/>
+    <cfRule type="duplicateValues" dxfId="1043" priority="1529"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1509 G1511:G1521">
-    <cfRule type="duplicateValues" dxfId="1042" priority="13697"/>
+    <cfRule type="duplicateValues" dxfId="1042" priority="13699"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1511">
-    <cfRule type="duplicateValues" dxfId="1041" priority="1509"/>
+    <cfRule type="duplicateValues" dxfId="1041" priority="1511"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1511:G1521">
-    <cfRule type="duplicateValues" dxfId="1040" priority="1508"/>
+    <cfRule type="duplicateValues" dxfId="1040" priority="1510"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1512">
-    <cfRule type="duplicateValues" dxfId="1039" priority="1484"/>
+    <cfRule type="duplicateValues" dxfId="1039" priority="1486"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1513">
-    <cfRule type="duplicateValues" dxfId="1038" priority="1468"/>
+    <cfRule type="duplicateValues" dxfId="1038" priority="1470"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1514">
-    <cfRule type="duplicateValues" dxfId="1037" priority="1473"/>
+    <cfRule type="duplicateValues" dxfId="1037" priority="1475"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1514:G1516">
-    <cfRule type="duplicateValues" dxfId="1036" priority="1474"/>
+    <cfRule type="duplicateValues" dxfId="1036" priority="1476"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1514:G1521">
-    <cfRule type="duplicateValues" dxfId="1035" priority="1498"/>
+    <cfRule type="duplicateValues" dxfId="1035" priority="1500"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1515">
-    <cfRule type="duplicateValues" dxfId="1034" priority="1472"/>
+    <cfRule type="duplicateValues" dxfId="1034" priority="1474"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1515:G1521">
-    <cfRule type="duplicateValues" dxfId="1033" priority="1497"/>
+    <cfRule type="duplicateValues" dxfId="1033" priority="1499"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1516 G1512 G1514">
-    <cfRule type="duplicateValues" dxfId="1032" priority="1483"/>
+    <cfRule type="duplicateValues" dxfId="1032" priority="1485"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1516">
-    <cfRule type="duplicateValues" dxfId="1031" priority="1506"/>
+    <cfRule type="duplicateValues" dxfId="1031" priority="1508"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1516:G1518">
-    <cfRule type="duplicateValues" dxfId="1030" priority="1507"/>
+    <cfRule type="duplicateValues" dxfId="1030" priority="1509"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1516:G1521">
-    <cfRule type="duplicateValues" dxfId="1029" priority="1504"/>
+    <cfRule type="duplicateValues" dxfId="1029" priority="1506"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1517 G1513 G1515">
-    <cfRule type="duplicateValues" dxfId="1028" priority="1467"/>
+    <cfRule type="duplicateValues" dxfId="1028" priority="1469"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1517">
-    <cfRule type="duplicateValues" dxfId="1027" priority="1505"/>
+    <cfRule type="duplicateValues" dxfId="1027" priority="1507"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1517:G1519">
-    <cfRule type="duplicateValues" dxfId="1026" priority="1471"/>
+    <cfRule type="duplicateValues" dxfId="1026" priority="1473"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1517:G1521">
-    <cfRule type="duplicateValues" dxfId="1025" priority="13677"/>
+    <cfRule type="duplicateValues" dxfId="1025" priority="13679"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1518">
-    <cfRule type="duplicateValues" dxfId="1024" priority="1482"/>
+    <cfRule type="duplicateValues" dxfId="1024" priority="1484"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1518:G1521">
-    <cfRule type="duplicateValues" dxfId="1023" priority="13679"/>
+    <cfRule type="duplicateValues" dxfId="1023" priority="13681"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1519">
-    <cfRule type="duplicateValues" dxfId="1022" priority="1470"/>
+    <cfRule type="duplicateValues" dxfId="1022" priority="1472"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1519:G1521">
-    <cfRule type="duplicateValues" dxfId="1021" priority="1503"/>
+    <cfRule type="duplicateValues" dxfId="1021" priority="1505"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1520">
-    <cfRule type="duplicateValues" dxfId="1020" priority="1501"/>
+    <cfRule type="duplicateValues" dxfId="1020" priority="1503"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1521">
-    <cfRule type="duplicateValues" dxfId="1019" priority="1469"/>
+    <cfRule type="duplicateValues" dxfId="1019" priority="1471"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1522">
-    <cfRule type="duplicateValues" dxfId="1018" priority="1499"/>
+    <cfRule type="duplicateValues" dxfId="1018" priority="1501"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1526 G1551:G1552 G1528:G1549">
-    <cfRule type="duplicateValues" dxfId="1017" priority="13781"/>
+    <cfRule type="duplicateValues" dxfId="1017" priority="13783"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1528">
-    <cfRule type="duplicateValues" dxfId="1016" priority="1462"/>
+    <cfRule type="duplicateValues" dxfId="1016" priority="1464"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1528:G1539">
-    <cfRule type="duplicateValues" dxfId="1015" priority="1461"/>
+    <cfRule type="duplicateValues" dxfId="1015" priority="1463"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1529">
-    <cfRule type="duplicateValues" dxfId="1014" priority="1419"/>
+    <cfRule type="duplicateValues" dxfId="1014" priority="1421"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1529:G1534">
-    <cfRule type="duplicateValues" dxfId="1013" priority="1437"/>
+    <cfRule type="duplicateValues" dxfId="1013" priority="1439"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1530:G1534">
-    <cfRule type="duplicateValues" dxfId="1012" priority="1421"/>
+    <cfRule type="duplicateValues" dxfId="1012" priority="1423"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1530:G1536">
-    <cfRule type="duplicateValues" dxfId="1011" priority="1420"/>
+    <cfRule type="duplicateValues" dxfId="1011" priority="1422"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1531:G1534">
-    <cfRule type="duplicateValues" dxfId="1010" priority="1427"/>
+    <cfRule type="duplicateValues" dxfId="1010" priority="1429"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1531:G1539">
-    <cfRule type="duplicateValues" dxfId="1009" priority="1451"/>
+    <cfRule type="duplicateValues" dxfId="1009" priority="1453"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1532:G1534">
-    <cfRule type="duplicateValues" dxfId="1008" priority="1425"/>
+    <cfRule type="duplicateValues" dxfId="1008" priority="1427"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1532:G1539">
-    <cfRule type="duplicateValues" dxfId="1007" priority="1450"/>
+    <cfRule type="duplicateValues" dxfId="1007" priority="1452"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1533">
-    <cfRule type="duplicateValues" dxfId="1006" priority="1459"/>
+    <cfRule type="duplicateValues" dxfId="1006" priority="1461"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1533:G1536">
-    <cfRule type="duplicateValues" dxfId="1005" priority="1460"/>
+    <cfRule type="duplicateValues" dxfId="1005" priority="1462"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1533:G1539">
-    <cfRule type="duplicateValues" dxfId="1004" priority="1457"/>
+    <cfRule type="duplicateValues" dxfId="1004" priority="1459"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1534">
-    <cfRule type="duplicateValues" dxfId="1003" priority="1418"/>
+    <cfRule type="duplicateValues" dxfId="1003" priority="1420"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1534:G1536">
-    <cfRule type="duplicateValues" dxfId="1002" priority="1458"/>
+    <cfRule type="duplicateValues" dxfId="1002" priority="1460"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1534:G1537">
-    <cfRule type="duplicateValues" dxfId="1001" priority="1424"/>
+    <cfRule type="duplicateValues" dxfId="1001" priority="1426"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1535">
-    <cfRule type="duplicateValues" dxfId="1000" priority="1435"/>
+    <cfRule type="duplicateValues" dxfId="1000" priority="1437"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1536">
-    <cfRule type="duplicateValues" dxfId="999" priority="1423"/>
+    <cfRule type="duplicateValues" dxfId="999" priority="1425"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1536:G1539">
-    <cfRule type="duplicateValues" dxfId="998" priority="1456"/>
+    <cfRule type="duplicateValues" dxfId="998" priority="1458"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1537">
-    <cfRule type="duplicateValues" dxfId="997" priority="1454"/>
+    <cfRule type="duplicateValues" dxfId="997" priority="1456"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1538">
-    <cfRule type="duplicateValues" dxfId="996" priority="1422"/>
+    <cfRule type="duplicateValues" dxfId="996" priority="1424"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1539">
-    <cfRule type="duplicateValues" dxfId="995" priority="1430"/>
+    <cfRule type="duplicateValues" dxfId="995" priority="1432"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1540">
-    <cfRule type="duplicateValues" dxfId="994" priority="1449"/>
+    <cfRule type="duplicateValues" dxfId="994" priority="1451"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1541">
-    <cfRule type="duplicateValues" dxfId="993" priority="1433"/>
+    <cfRule type="duplicateValues" dxfId="993" priority="1435"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1542">
-    <cfRule type="duplicateValues" dxfId="992" priority="1413"/>
+    <cfRule type="duplicateValues" dxfId="992" priority="1415"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1542:G1546">
-    <cfRule type="duplicateValues" dxfId="991" priority="1447"/>
+    <cfRule type="duplicateValues" dxfId="991" priority="1449"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1542:G1549">
-    <cfRule type="duplicateValues" dxfId="990" priority="1445"/>
+    <cfRule type="duplicateValues" dxfId="990" priority="1447"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1543:G1546">
-    <cfRule type="duplicateValues" dxfId="989" priority="1432"/>
+    <cfRule type="duplicateValues" dxfId="989" priority="1434"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1543:G1549">
-    <cfRule type="duplicateValues" dxfId="988" priority="1444"/>
+    <cfRule type="duplicateValues" dxfId="988" priority="1446"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1544:G1546">
-    <cfRule type="duplicateValues" dxfId="987" priority="1428"/>
+    <cfRule type="duplicateValues" dxfId="987" priority="1430"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1545">
-    <cfRule type="duplicateValues" dxfId="986" priority="1440"/>
+    <cfRule type="duplicateValues" dxfId="986" priority="1442"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1546">
-    <cfRule type="duplicateValues" dxfId="985" priority="1431"/>
+    <cfRule type="duplicateValues" dxfId="985" priority="1433"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1546:G1549 G1551:G1552">
-    <cfRule type="duplicateValues" dxfId="984" priority="13777"/>
+    <cfRule type="duplicateValues" dxfId="984" priority="13779"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1547">
-    <cfRule type="duplicateValues" dxfId="983" priority="1443"/>
+    <cfRule type="duplicateValues" dxfId="983" priority="1445"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1548">
-    <cfRule type="duplicateValues" dxfId="982" priority="1442"/>
+    <cfRule type="duplicateValues" dxfId="982" priority="1444"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1549">
-    <cfRule type="duplicateValues" dxfId="981" priority="1441"/>
+    <cfRule type="duplicateValues" dxfId="981" priority="1443"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1551:G1552 G1534:G1549">
-    <cfRule type="duplicateValues" dxfId="980" priority="13767"/>
+    <cfRule type="duplicateValues" dxfId="980" priority="13769"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1551:G1552 G1535:G1549">
-    <cfRule type="duplicateValues" dxfId="979" priority="13769"/>
+    <cfRule type="duplicateValues" dxfId="979" priority="13771"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1551:G1552 G1539:G1549">
-    <cfRule type="duplicateValues" dxfId="978" priority="13771"/>
+    <cfRule type="duplicateValues" dxfId="978" priority="13773"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1551:G1552 G1541:G1549">
-    <cfRule type="duplicateValues" dxfId="977" priority="13773"/>
+    <cfRule type="duplicateValues" dxfId="977" priority="13775"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1551:G1552 G1545:G1549">
-    <cfRule type="duplicateValues" dxfId="976" priority="13775"/>
+    <cfRule type="duplicateValues" dxfId="976" priority="13777"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1551:G1552">
-    <cfRule type="duplicateValues" dxfId="975" priority="13779"/>
+    <cfRule type="duplicateValues" dxfId="975" priority="13781"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1552">
-    <cfRule type="duplicateValues" dxfId="974" priority="13780"/>
+    <cfRule type="duplicateValues" dxfId="974" priority="13782"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1553">
-    <cfRule type="duplicateValues" dxfId="973" priority="1404"/>
+    <cfRule type="duplicateValues" dxfId="973" priority="1406"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1553:G1556 G1558:G1560">
-    <cfRule type="duplicateValues" dxfId="972" priority="13784"/>
+    <cfRule type="duplicateValues" dxfId="972" priority="13786"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1553:G1556">
-    <cfRule type="duplicateValues" dxfId="971" priority="1402"/>
+    <cfRule type="duplicateValues" dxfId="971" priority="1404"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1554:G1556">
-    <cfRule type="duplicateValues" dxfId="970" priority="1400"/>
+    <cfRule type="duplicateValues" dxfId="970" priority="1402"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1555:G1556">
-    <cfRule type="duplicateValues" dxfId="969" priority="1399"/>
+    <cfRule type="duplicateValues" dxfId="969" priority="1401"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1556">
-    <cfRule type="duplicateValues" dxfId="968" priority="1398"/>
+    <cfRule type="duplicateValues" dxfId="968" priority="1400"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1558:G1560">
-    <cfRule type="duplicateValues" dxfId="967" priority="13798"/>
+    <cfRule type="duplicateValues" dxfId="967" priority="13800"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1561">
-    <cfRule type="duplicateValues" dxfId="966" priority="1452"/>
+    <cfRule type="duplicateValues" dxfId="966" priority="1454"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1565 G1567:G1574">
-    <cfRule type="duplicateValues" dxfId="965" priority="14702"/>
+    <cfRule type="duplicateValues" dxfId="965" priority="14704"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1567">
-    <cfRule type="duplicateValues" dxfId="964" priority="1389"/>
+    <cfRule type="duplicateValues" dxfId="964" priority="1391"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1567:G1574">
-    <cfRule type="duplicateValues" dxfId="963" priority="14680"/>
+    <cfRule type="duplicateValues" dxfId="963" priority="14682"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1568">
-    <cfRule type="duplicateValues" dxfId="962" priority="1378"/>
+    <cfRule type="duplicateValues" dxfId="962" priority="1380"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1569">
-    <cfRule type="duplicateValues" dxfId="961" priority="1369"/>
+    <cfRule type="duplicateValues" dxfId="961" priority="1371"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1570">
-    <cfRule type="duplicateValues" dxfId="960" priority="1374"/>
+    <cfRule type="duplicateValues" dxfId="960" priority="1376"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1570:G1572">
-    <cfRule type="duplicateValues" dxfId="959" priority="1375"/>
+    <cfRule type="duplicateValues" dxfId="959" priority="1377"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1570:G1574">
-    <cfRule type="duplicateValues" dxfId="958" priority="14685"/>
+    <cfRule type="duplicateValues" dxfId="958" priority="14687"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1571">
-    <cfRule type="duplicateValues" dxfId="957" priority="1373"/>
+    <cfRule type="duplicateValues" dxfId="957" priority="1375"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1571:G1574">
-    <cfRule type="duplicateValues" dxfId="956" priority="14686"/>
+    <cfRule type="duplicateValues" dxfId="956" priority="14688"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1572 G1568 G1570">
-    <cfRule type="duplicateValues" dxfId="955" priority="1377"/>
+    <cfRule type="duplicateValues" dxfId="955" priority="1379"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1572">
-    <cfRule type="duplicateValues" dxfId="954" priority="1386"/>
+    <cfRule type="duplicateValues" dxfId="954" priority="1388"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1572:G1574">
-    <cfRule type="duplicateValues" dxfId="953" priority="1387"/>
+    <cfRule type="duplicateValues" dxfId="953" priority="1389"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1573 G1569 G1571">
-    <cfRule type="duplicateValues" dxfId="952" priority="1368"/>
+    <cfRule type="duplicateValues" dxfId="952" priority="1370"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1573">
-    <cfRule type="duplicateValues" dxfId="951" priority="1385"/>
+    <cfRule type="duplicateValues" dxfId="951" priority="1387"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1573:G1574">
-    <cfRule type="duplicateValues" dxfId="950" priority="14695"/>
+    <cfRule type="duplicateValues" dxfId="950" priority="14697"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1574">
-    <cfRule type="duplicateValues" dxfId="949" priority="1376"/>
+    <cfRule type="duplicateValues" dxfId="949" priority="1378"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1575">
-    <cfRule type="duplicateValues" dxfId="948" priority="1381"/>
+    <cfRule type="duplicateValues" dxfId="948" priority="1383"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H12 H19:H22 G23:H51 G56:H57">
-    <cfRule type="duplicateValues" dxfId="947" priority="14703"/>
+    <cfRule type="duplicateValues" dxfId="947" priority="14705"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52:H55">
-    <cfRule type="duplicateValues" dxfId="946" priority="14704"/>
+    <cfRule type="duplicateValues" dxfId="946" priority="14706"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58:H64">
-    <cfRule type="duplicateValues" dxfId="945" priority="3134"/>
+    <cfRule type="duplicateValues" dxfId="945" priority="3136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65:H73">
-    <cfRule type="duplicateValues" dxfId="944" priority="3133"/>
+    <cfRule type="duplicateValues" dxfId="944" priority="3135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74:H78">
-    <cfRule type="duplicateValues" dxfId="943" priority="3130"/>
+    <cfRule type="duplicateValues" dxfId="943" priority="3132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95:H98 G99:G106 H99:H101">
-    <cfRule type="duplicateValues" dxfId="942" priority="3177"/>
+    <cfRule type="duplicateValues" dxfId="942" priority="3179"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95:H98 H99:H101 G99:G107">
-    <cfRule type="duplicateValues" dxfId="941" priority="3173"/>
+    <cfRule type="duplicateValues" dxfId="941" priority="3175"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95:H98">
-    <cfRule type="duplicateValues" dxfId="940" priority="3123"/>
+    <cfRule type="duplicateValues" dxfId="940" priority="3125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G107:H107 H102:H106">
-    <cfRule type="duplicateValues" dxfId="939" priority="3124"/>
+    <cfRule type="duplicateValues" dxfId="939" priority="3126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G107:H107">
-    <cfRule type="duplicateValues" dxfId="938" priority="3122"/>
+    <cfRule type="duplicateValues" dxfId="938" priority="3124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1414:H1415 G1417:G1420">
-    <cfRule type="duplicateValues" dxfId="937" priority="8244"/>
+    <cfRule type="duplicateValues" dxfId="937" priority="8246"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H51 H56:H57">
-    <cfRule type="duplicateValues" dxfId="936" priority="3138"/>
+    <cfRule type="duplicateValues" dxfId="936" priority="3140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52:H55">
-    <cfRule type="duplicateValues" dxfId="935" priority="3135"/>
+    <cfRule type="duplicateValues" dxfId="935" priority="3137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102:H107">
-    <cfRule type="duplicateValues" dxfId="934" priority="3182"/>
+    <cfRule type="duplicateValues" dxfId="934" priority="3184"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H278:H288">
-    <cfRule type="duplicateValues" dxfId="933" priority="3101"/>
+    <cfRule type="duplicateValues" dxfId="933" priority="3103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H278:H293">
-    <cfRule type="duplicateValues" dxfId="932" priority="3100"/>
+    <cfRule type="duplicateValues" dxfId="932" priority="3102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H289">
-    <cfRule type="duplicateValues" dxfId="931" priority="3097"/>
+    <cfRule type="duplicateValues" dxfId="931" priority="3099"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H290:H291">
-    <cfRule type="duplicateValues" dxfId="930" priority="3091"/>
+    <cfRule type="duplicateValues" dxfId="930" priority="3093"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H292:H293">
-    <cfRule type="duplicateValues" dxfId="929" priority="3079"/>
+    <cfRule type="duplicateValues" dxfId="929" priority="3081"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H325:H333">
-    <cfRule type="duplicateValues" dxfId="928" priority="3766"/>
+    <cfRule type="duplicateValues" dxfId="928" priority="3768"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H868:H888">
-    <cfRule type="duplicateValues" dxfId="927" priority="2869"/>
+    <cfRule type="duplicateValues" dxfId="927" priority="2871"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H879">
-    <cfRule type="duplicateValues" dxfId="926" priority="2867"/>
+    <cfRule type="duplicateValues" dxfId="926" priority="2869"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H880:H881">
-    <cfRule type="duplicateValues" dxfId="925" priority="2866"/>
+    <cfRule type="duplicateValues" dxfId="925" priority="2868"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H882:H883">
-    <cfRule type="duplicateValues" dxfId="924" priority="2865"/>
+    <cfRule type="duplicateValues" dxfId="924" priority="2867"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H962:H972">
-    <cfRule type="duplicateValues" dxfId="923" priority="5597"/>
+    <cfRule type="duplicateValues" dxfId="923" priority="5599"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1089">
-    <cfRule type="duplicateValues" dxfId="922" priority="2636"/>
+    <cfRule type="duplicateValues" dxfId="922" priority="2638"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1096">
-    <cfRule type="duplicateValues" dxfId="921" priority="2631"/>
+    <cfRule type="duplicateValues" dxfId="921" priority="2633"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1097">
-    <cfRule type="duplicateValues" dxfId="920" priority="2629"/>
+    <cfRule type="duplicateValues" dxfId="920" priority="2631"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1132">
-    <cfRule type="duplicateValues" dxfId="919" priority="2558"/>
+    <cfRule type="duplicateValues" dxfId="919" priority="2560"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1139">
-    <cfRule type="duplicateValues" dxfId="918" priority="2553"/>
+    <cfRule type="duplicateValues" dxfId="918" priority="2555"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1140 H1130:H1131 H1133:H1138">
-    <cfRule type="duplicateValues" dxfId="917" priority="14705"/>
+    <cfRule type="duplicateValues" dxfId="917" priority="14707"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1145">
-    <cfRule type="duplicateValues" dxfId="916" priority="2543"/>
+    <cfRule type="duplicateValues" dxfId="916" priority="2545"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1149:H1151">
-    <cfRule type="duplicateValues" dxfId="915" priority="2536"/>
+    <cfRule type="duplicateValues" dxfId="915" priority="2538"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1152">
-    <cfRule type="duplicateValues" dxfId="914" priority="2534"/>
+    <cfRule type="duplicateValues" dxfId="914" priority="2536"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1156:H1158">
-    <cfRule type="duplicateValues" dxfId="913" priority="5750"/>
+    <cfRule type="duplicateValues" dxfId="913" priority="5752"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1159">
-    <cfRule type="duplicateValues" dxfId="912" priority="2521"/>
+    <cfRule type="duplicateValues" dxfId="912" priority="2523"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1160:H1162">
-    <cfRule type="duplicateValues" dxfId="911" priority="2523"/>
+    <cfRule type="duplicateValues" dxfId="911" priority="2525"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1163:H1165">
-    <cfRule type="duplicateValues" dxfId="910" priority="2526"/>
+    <cfRule type="duplicateValues" dxfId="910" priority="2528"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1166 H1143:H1144 H1146:H1148 H1153:H1155">
-    <cfRule type="duplicateValues" dxfId="909" priority="14706"/>
+    <cfRule type="duplicateValues" dxfId="909" priority="14708"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1319:H1334">
-    <cfRule type="duplicateValues" dxfId="908" priority="14707"/>
+    <cfRule type="duplicateValues" dxfId="908" priority="14709"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1378:H1385">
-    <cfRule type="duplicateValues" dxfId="907" priority="7489"/>
+    <cfRule type="duplicateValues" dxfId="907" priority="7491"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1578:A1584 G1579 G1581:G1602 G1604:G1610">
-    <cfRule type="duplicateValues" dxfId="906" priority="1352"/>
+    <cfRule type="duplicateValues" dxfId="906" priority="1354"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1579 G1581:G1602 G1604:G1609">
-    <cfRule type="duplicateValues" dxfId="905" priority="1361"/>
+    <cfRule type="duplicateValues" dxfId="905" priority="1363"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1581">
-    <cfRule type="duplicateValues" dxfId="904" priority="1351"/>
+    <cfRule type="duplicateValues" dxfId="904" priority="1353"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1581:G1593">
-    <cfRule type="duplicateValues" dxfId="903" priority="1350"/>
+    <cfRule type="duplicateValues" dxfId="903" priority="1352"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1582">
-    <cfRule type="duplicateValues" dxfId="902" priority="1318"/>
+    <cfRule type="duplicateValues" dxfId="902" priority="1320"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1582:G1588">
-    <cfRule type="duplicateValues" dxfId="901" priority="1332"/>
+    <cfRule type="duplicateValues" dxfId="901" priority="1334"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1583:G1588">
-    <cfRule type="duplicateValues" dxfId="900" priority="1320"/>
+    <cfRule type="duplicateValues" dxfId="900" priority="1322"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1583:G1590">
-    <cfRule type="duplicateValues" dxfId="899" priority="1319"/>
+    <cfRule type="duplicateValues" dxfId="899" priority="1321"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1584:G1588">
-    <cfRule type="duplicateValues" dxfId="898" priority="1325"/>
+    <cfRule type="duplicateValues" dxfId="898" priority="1327"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1584:G1593">
-    <cfRule type="duplicateValues" dxfId="897" priority="1342"/>
+    <cfRule type="duplicateValues" dxfId="897" priority="1344"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1585:G1588">
-    <cfRule type="duplicateValues" dxfId="896" priority="1324"/>
+    <cfRule type="duplicateValues" dxfId="896" priority="1326"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1585:G1593">
-    <cfRule type="duplicateValues" dxfId="895" priority="1341"/>
+    <cfRule type="duplicateValues" dxfId="895" priority="1343"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1586">
-    <cfRule type="duplicateValues" dxfId="894" priority="1348"/>
+    <cfRule type="duplicateValues" dxfId="894" priority="1350"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1586:G1590">
-    <cfRule type="duplicateValues" dxfId="893" priority="1349"/>
+    <cfRule type="duplicateValues" dxfId="893" priority="1351"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1586:G1593">
-    <cfRule type="duplicateValues" dxfId="892" priority="1346"/>
+    <cfRule type="duplicateValues" dxfId="892" priority="1348"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1587">
-    <cfRule type="duplicateValues" dxfId="891" priority="1317"/>
+    <cfRule type="duplicateValues" dxfId="891" priority="1319"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1587:G1590">
-    <cfRule type="duplicateValues" dxfId="890" priority="1347"/>
+    <cfRule type="duplicateValues" dxfId="890" priority="1349"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1587:G1591">
-    <cfRule type="duplicateValues" dxfId="889" priority="1323"/>
+    <cfRule type="duplicateValues" dxfId="889" priority="1325"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1588">
-    <cfRule type="duplicateValues" dxfId="888" priority="1331"/>
+    <cfRule type="duplicateValues" dxfId="888" priority="1333"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1589">
-    <cfRule type="duplicateValues" dxfId="887" priority="1322"/>
+    <cfRule type="duplicateValues" dxfId="887" priority="1324"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1589:G1593">
-    <cfRule type="duplicateValues" dxfId="886" priority="1345"/>
+    <cfRule type="duplicateValues" dxfId="886" priority="1347"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1590">
-    <cfRule type="duplicateValues" dxfId="885" priority="1344"/>
+    <cfRule type="duplicateValues" dxfId="885" priority="1346"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1591">
-    <cfRule type="duplicateValues" dxfId="884" priority="1321"/>
+    <cfRule type="duplicateValues" dxfId="884" priority="1323"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1592">
-    <cfRule type="duplicateValues" dxfId="883" priority="1327"/>
+    <cfRule type="duplicateValues" dxfId="883" priority="1329"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1593">
-    <cfRule type="duplicateValues" dxfId="882" priority="1340"/>
+    <cfRule type="duplicateValues" dxfId="882" priority="1342"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1594">
-    <cfRule type="duplicateValues" dxfId="881" priority="1330"/>
+    <cfRule type="duplicateValues" dxfId="881" priority="1332"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1595">
-    <cfRule type="duplicateValues" dxfId="880" priority="1316"/>
+    <cfRule type="duplicateValues" dxfId="880" priority="1318"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1595:G1599">
-    <cfRule type="duplicateValues" dxfId="879" priority="1339"/>
+    <cfRule type="duplicateValues" dxfId="879" priority="1341"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1595:G1602">
-    <cfRule type="duplicateValues" dxfId="878" priority="1338"/>
+    <cfRule type="duplicateValues" dxfId="878" priority="1340"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1596:G1599">
-    <cfRule type="duplicateValues" dxfId="877" priority="1329"/>
+    <cfRule type="duplicateValues" dxfId="877" priority="1331"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1596:G1602">
-    <cfRule type="duplicateValues" dxfId="876" priority="1337"/>
+    <cfRule type="duplicateValues" dxfId="876" priority="1339"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1597:G1599">
-    <cfRule type="duplicateValues" dxfId="875" priority="1326"/>
+    <cfRule type="duplicateValues" dxfId="875" priority="1328"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1598">
-    <cfRule type="duplicateValues" dxfId="874" priority="1333"/>
+    <cfRule type="duplicateValues" dxfId="874" priority="1335"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1599">
-    <cfRule type="duplicateValues" dxfId="873" priority="1328"/>
+    <cfRule type="duplicateValues" dxfId="873" priority="1330"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1599:G1602 G1604:G1609">
-    <cfRule type="duplicateValues" dxfId="872" priority="1358"/>
+    <cfRule type="duplicateValues" dxfId="872" priority="1360"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1600">
-    <cfRule type="duplicateValues" dxfId="871" priority="1336"/>
+    <cfRule type="duplicateValues" dxfId="871" priority="1338"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1601">
-    <cfRule type="duplicateValues" dxfId="870" priority="1335"/>
+    <cfRule type="duplicateValues" dxfId="870" priority="1337"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1602">
-    <cfRule type="duplicateValues" dxfId="869" priority="1334"/>
+    <cfRule type="duplicateValues" dxfId="869" priority="1336"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1587:G1602 G1604:G1609">
-    <cfRule type="duplicateValues" dxfId="868" priority="1353"/>
+    <cfRule type="duplicateValues" dxfId="868" priority="1355"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1588:G1602 G1604:G1609">
-    <cfRule type="duplicateValues" dxfId="867" priority="1354"/>
+    <cfRule type="duplicateValues" dxfId="867" priority="1356"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1592:G1602 G1604:G1609">
-    <cfRule type="duplicateValues" dxfId="866" priority="1355"/>
+    <cfRule type="duplicateValues" dxfId="866" priority="1357"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1594:G1602 G1604:G1609">
-    <cfRule type="duplicateValues" dxfId="865" priority="1356"/>
+    <cfRule type="duplicateValues" dxfId="865" priority="1358"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1598:G1602 G1604:G1609">
-    <cfRule type="duplicateValues" dxfId="864" priority="1357"/>
+    <cfRule type="duplicateValues" dxfId="864" priority="1359"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1604:G1609">
-    <cfRule type="duplicateValues" dxfId="863" priority="1359"/>
+    <cfRule type="duplicateValues" dxfId="863" priority="1361"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1605:G1609">
-    <cfRule type="duplicateValues" dxfId="862" priority="1360"/>
+    <cfRule type="duplicateValues" dxfId="862" priority="1362"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1610">
-    <cfRule type="duplicateValues" dxfId="861" priority="1343"/>
+    <cfRule type="duplicateValues" dxfId="861" priority="1345"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1583">
-    <cfRule type="duplicateValues" dxfId="860" priority="1303"/>
+    <cfRule type="duplicateValues" dxfId="860" priority="1305"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1613">
-    <cfRule type="duplicateValues" dxfId="859" priority="1301"/>
+    <cfRule type="duplicateValues" dxfId="859" priority="1303"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1616">
-    <cfRule type="duplicateValues" dxfId="858" priority="1299"/>
+    <cfRule type="duplicateValues" dxfId="858" priority="1301"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1617">
-    <cfRule type="duplicateValues" dxfId="857" priority="1297"/>
+    <cfRule type="duplicateValues" dxfId="857" priority="1299"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1618">
-    <cfRule type="duplicateValues" dxfId="856" priority="1296"/>
+    <cfRule type="duplicateValues" dxfId="856" priority="1298"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1619">
-    <cfRule type="duplicateValues" dxfId="855" priority="1295"/>
+    <cfRule type="duplicateValues" dxfId="855" priority="1297"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1620">
-    <cfRule type="duplicateValues" dxfId="854" priority="1283"/>
+    <cfRule type="duplicateValues" dxfId="854" priority="1285"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1614 G1616:G1619">
-    <cfRule type="duplicateValues" dxfId="853" priority="15663"/>
+    <cfRule type="duplicateValues" dxfId="853" priority="15665"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1616:G1619">
-    <cfRule type="duplicateValues" dxfId="852" priority="15666"/>
+    <cfRule type="duplicateValues" dxfId="852" priority="15668"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1617 G1619">
-    <cfRule type="duplicateValues" dxfId="851" priority="15672"/>
+    <cfRule type="duplicateValues" dxfId="851" priority="15674"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1626">
-    <cfRule type="duplicateValues" dxfId="850" priority="1280"/>
+    <cfRule type="duplicateValues" dxfId="850" priority="1282"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1627">
-    <cfRule type="duplicateValues" dxfId="849" priority="1278"/>
+    <cfRule type="duplicateValues" dxfId="849" priority="1280"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1627:G1634">
-    <cfRule type="duplicateValues" dxfId="848" priority="1277"/>
+    <cfRule type="duplicateValues" dxfId="848" priority="1279"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1628:G1634">
-    <cfRule type="duplicateValues" dxfId="847" priority="1276"/>
+    <cfRule type="duplicateValues" dxfId="847" priority="1278"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1628:G1635">
-    <cfRule type="duplicateValues" dxfId="846" priority="1275"/>
+    <cfRule type="duplicateValues" dxfId="846" priority="1277"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1629:G1634">
-    <cfRule type="duplicateValues" dxfId="845" priority="1274"/>
+    <cfRule type="duplicateValues" dxfId="845" priority="1276"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1630:G1634">
-    <cfRule type="duplicateValues" dxfId="844" priority="1272"/>
+    <cfRule type="duplicateValues" dxfId="844" priority="1274"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1631">
-    <cfRule type="duplicateValues" dxfId="843" priority="1270"/>
+    <cfRule type="duplicateValues" dxfId="843" priority="1272"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1631:G1635">
-    <cfRule type="duplicateValues" dxfId="842" priority="1269"/>
+    <cfRule type="duplicateValues" dxfId="842" priority="1271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1632">
-    <cfRule type="duplicateValues" dxfId="841" priority="1267"/>
+    <cfRule type="duplicateValues" dxfId="841" priority="1269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1632:G1635">
-    <cfRule type="duplicateValues" dxfId="840" priority="1266"/>
+    <cfRule type="duplicateValues" dxfId="840" priority="1268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1632:G1636">
-    <cfRule type="duplicateValues" dxfId="839" priority="1265"/>
+    <cfRule type="duplicateValues" dxfId="839" priority="1267"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1633:G1634">
-    <cfRule type="duplicateValues" dxfId="838" priority="1264"/>
+    <cfRule type="duplicateValues" dxfId="838" priority="1266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1634">
-    <cfRule type="duplicateValues" dxfId="837" priority="1263"/>
+    <cfRule type="duplicateValues" dxfId="837" priority="1265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1635">
-    <cfRule type="duplicateValues" dxfId="836" priority="1261"/>
+    <cfRule type="duplicateValues" dxfId="836" priority="1263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1636">
-    <cfRule type="duplicateValues" dxfId="835" priority="1260"/>
+    <cfRule type="duplicateValues" dxfId="835" priority="1262"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1637">
-    <cfRule type="duplicateValues" dxfId="834" priority="1258"/>
+    <cfRule type="duplicateValues" dxfId="834" priority="1260"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1638">
-    <cfRule type="duplicateValues" dxfId="833" priority="1257"/>
+    <cfRule type="duplicateValues" dxfId="833" priority="1259"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1639">
-    <cfRule type="duplicateValues" dxfId="832" priority="1256"/>
+    <cfRule type="duplicateValues" dxfId="832" priority="1258"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1640:G1642">
-    <cfRule type="duplicateValues" dxfId="831" priority="1251"/>
+    <cfRule type="duplicateValues" dxfId="831" priority="1253"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1641">
-    <cfRule type="duplicateValues" dxfId="830" priority="1250"/>
+    <cfRule type="duplicateValues" dxfId="830" priority="1252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1642">
-    <cfRule type="duplicateValues" dxfId="829" priority="1249"/>
+    <cfRule type="duplicateValues" dxfId="829" priority="1251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1643">
-    <cfRule type="duplicateValues" dxfId="828" priority="1247"/>
+    <cfRule type="duplicateValues" dxfId="828" priority="1249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1644">
-    <cfRule type="duplicateValues" dxfId="827" priority="1246"/>
+    <cfRule type="duplicateValues" dxfId="827" priority="1248"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1645">
-    <cfRule type="duplicateValues" dxfId="826" priority="1245"/>
+    <cfRule type="duplicateValues" dxfId="826" priority="1247"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1649">
-    <cfRule type="duplicateValues" dxfId="825" priority="1237"/>
+    <cfRule type="duplicateValues" dxfId="825" priority="1239"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1628">
-    <cfRule type="duplicateValues" dxfId="824" priority="1236"/>
+    <cfRule type="duplicateValues" dxfId="824" priority="1238"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1647:G1649 G1624 G1626:G1645 A1623:A1648">
-    <cfRule type="duplicateValues" dxfId="823" priority="16639"/>
+    <cfRule type="duplicateValues" dxfId="823" priority="16641"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1647:G1648 G1624 G1626:G1645">
-    <cfRule type="duplicateValues" dxfId="822" priority="16644"/>
+    <cfRule type="duplicateValues" dxfId="822" priority="16646"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1642:G1645 G1647:G1648">
-    <cfRule type="duplicateValues" dxfId="821" priority="16679"/>
+    <cfRule type="duplicateValues" dxfId="821" priority="16681"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1647:G1648 G1632:G1645">
-    <cfRule type="duplicateValues" dxfId="820" priority="16684"/>
+    <cfRule type="duplicateValues" dxfId="820" priority="16686"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1647:G1648 G1633:G1645">
-    <cfRule type="duplicateValues" dxfId="819" priority="16686"/>
+    <cfRule type="duplicateValues" dxfId="819" priority="16688"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1647:G1648 G1637:G1645">
-    <cfRule type="duplicateValues" dxfId="818" priority="16688"/>
+    <cfRule type="duplicateValues" dxfId="818" priority="16690"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1647:G1648 G1638:G1645">
-    <cfRule type="duplicateValues" dxfId="817" priority="16690"/>
+    <cfRule type="duplicateValues" dxfId="817" priority="16692"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1641:G1645 G1647:G1648">
-    <cfRule type="duplicateValues" dxfId="816" priority="16692"/>
+    <cfRule type="duplicateValues" dxfId="816" priority="16694"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1647:G1648">
-    <cfRule type="duplicateValues" dxfId="815" priority="16694"/>
+    <cfRule type="duplicateValues" dxfId="815" priority="16696"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1648">
-    <cfRule type="duplicateValues" dxfId="814" priority="16695"/>
+    <cfRule type="duplicateValues" dxfId="814" priority="16697"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1626:G1637">
-    <cfRule type="duplicateValues" dxfId="813" priority="17660"/>
+    <cfRule type="duplicateValues" dxfId="813" priority="17662"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1629:G1637">
-    <cfRule type="duplicateValues" dxfId="812" priority="17667"/>
+    <cfRule type="duplicateValues" dxfId="812" priority="17669"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1630:G1637">
-    <cfRule type="duplicateValues" dxfId="811" priority="17670"/>
+    <cfRule type="duplicateValues" dxfId="811" priority="17672"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1631:G1637">
-    <cfRule type="duplicateValues" dxfId="810" priority="17674"/>
+    <cfRule type="duplicateValues" dxfId="810" priority="17676"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1634:G1637">
-    <cfRule type="duplicateValues" dxfId="809" priority="17681"/>
+    <cfRule type="duplicateValues" dxfId="809" priority="17683"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1639:G1642">
-    <cfRule type="duplicateValues" dxfId="808" priority="18664"/>
+    <cfRule type="duplicateValues" dxfId="808" priority="18666"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1639:G1645">
-    <cfRule type="duplicateValues" dxfId="807" priority="18666"/>
+    <cfRule type="duplicateValues" dxfId="807" priority="18668"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1640:G1645">
-    <cfRule type="duplicateValues" dxfId="806" priority="18669"/>
+    <cfRule type="duplicateValues" dxfId="806" priority="18671"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1655">
-    <cfRule type="duplicateValues" dxfId="805" priority="1235"/>
+    <cfRule type="duplicateValues" dxfId="805" priority="1237"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1656">
-    <cfRule type="duplicateValues" dxfId="804" priority="1234"/>
+    <cfRule type="duplicateValues" dxfId="804" priority="1236"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1656:G1663">
-    <cfRule type="duplicateValues" dxfId="803" priority="1233"/>
+    <cfRule type="duplicateValues" dxfId="803" priority="1235"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1657:G1663">
-    <cfRule type="duplicateValues" dxfId="802" priority="1232"/>
+    <cfRule type="duplicateValues" dxfId="802" priority="1234"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1657:G1664">
-    <cfRule type="duplicateValues" dxfId="801" priority="1231"/>
+    <cfRule type="duplicateValues" dxfId="801" priority="1233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1658:G1663">
-    <cfRule type="duplicateValues" dxfId="800" priority="1230"/>
+    <cfRule type="duplicateValues" dxfId="800" priority="1232"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1659:G1663">
-    <cfRule type="duplicateValues" dxfId="799" priority="1229"/>
+    <cfRule type="duplicateValues" dxfId="799" priority="1231"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1660">
-    <cfRule type="duplicateValues" dxfId="798" priority="1228"/>
+    <cfRule type="duplicateValues" dxfId="798" priority="1230"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1660:G1664">
-    <cfRule type="duplicateValues" dxfId="797" priority="1227"/>
+    <cfRule type="duplicateValues" dxfId="797" priority="1229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1661">
-    <cfRule type="duplicateValues" dxfId="796" priority="1226"/>
+    <cfRule type="duplicateValues" dxfId="796" priority="1228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1661:G1664">
-    <cfRule type="duplicateValues" dxfId="795" priority="1225"/>
+    <cfRule type="duplicateValues" dxfId="795" priority="1227"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1661:G1665">
-    <cfRule type="duplicateValues" dxfId="794" priority="1224"/>
+    <cfRule type="duplicateValues" dxfId="794" priority="1226"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1662:G1663">
-    <cfRule type="duplicateValues" dxfId="793" priority="1223"/>
+    <cfRule type="duplicateValues" dxfId="793" priority="1225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1663">
-    <cfRule type="duplicateValues" dxfId="792" priority="1222"/>
+    <cfRule type="duplicateValues" dxfId="792" priority="1224"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1664">
-    <cfRule type="duplicateValues" dxfId="791" priority="1221"/>
+    <cfRule type="duplicateValues" dxfId="791" priority="1223"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1665">
-    <cfRule type="duplicateValues" dxfId="790" priority="1220"/>
+    <cfRule type="duplicateValues" dxfId="790" priority="1222"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1666">
-    <cfRule type="duplicateValues" dxfId="789" priority="1219"/>
+    <cfRule type="duplicateValues" dxfId="789" priority="1221"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1667">
-    <cfRule type="duplicateValues" dxfId="788" priority="1218"/>
+    <cfRule type="duplicateValues" dxfId="788" priority="1220"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1668">
-    <cfRule type="duplicateValues" dxfId="787" priority="1217"/>
+    <cfRule type="duplicateValues" dxfId="787" priority="1219"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1669">
-    <cfRule type="duplicateValues" dxfId="786" priority="1210"/>
+    <cfRule type="duplicateValues" dxfId="786" priority="1212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1657">
-    <cfRule type="duplicateValues" dxfId="785" priority="1209"/>
+    <cfRule type="duplicateValues" dxfId="785" priority="1211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1655:G1666">
-    <cfRule type="duplicateValues" dxfId="784" priority="1198"/>
+    <cfRule type="duplicateValues" dxfId="784" priority="1200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1658:G1666">
-    <cfRule type="duplicateValues" dxfId="783" priority="1197"/>
+    <cfRule type="duplicateValues" dxfId="783" priority="1199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1659:G1666">
-    <cfRule type="duplicateValues" dxfId="782" priority="1196"/>
+    <cfRule type="duplicateValues" dxfId="782" priority="1198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1660:G1666">
-    <cfRule type="duplicateValues" dxfId="781" priority="1195"/>
+    <cfRule type="duplicateValues" dxfId="781" priority="1197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1663:G1666">
-    <cfRule type="duplicateValues" dxfId="780" priority="1194"/>
+    <cfRule type="duplicateValues" dxfId="780" priority="1196"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1653 G1655:G1669 A1652:A1668">
-    <cfRule type="duplicateValues" dxfId="779" priority="19710"/>
+    <cfRule type="duplicateValues" dxfId="779" priority="19712"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1653 G1655:G1668">
-    <cfRule type="duplicateValues" dxfId="778" priority="19714"/>
+    <cfRule type="duplicateValues" dxfId="778" priority="19716"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1661:G1668">
-    <cfRule type="duplicateValues" dxfId="777" priority="19716"/>
+    <cfRule type="duplicateValues" dxfId="777" priority="19718"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1662:G1668">
-    <cfRule type="duplicateValues" dxfId="776" priority="19717"/>
+    <cfRule type="duplicateValues" dxfId="776" priority="19719"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1666:G1668">
-    <cfRule type="duplicateValues" dxfId="775" priority="19718"/>
+    <cfRule type="duplicateValues" dxfId="775" priority="19720"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1667:G1668">
-    <cfRule type="duplicateValues" dxfId="774" priority="19719"/>
+    <cfRule type="duplicateValues" dxfId="774" priority="19721"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1675:G1677">
-    <cfRule type="duplicateValues" dxfId="773" priority="1190"/>
+    <cfRule type="duplicateValues" dxfId="773" priority="1192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1676">
-    <cfRule type="duplicateValues" dxfId="772" priority="1189"/>
+    <cfRule type="duplicateValues" dxfId="772" priority="1191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1676:G1684">
-    <cfRule type="duplicateValues" dxfId="771" priority="1188"/>
+    <cfRule type="duplicateValues" dxfId="771" priority="1190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1677:G1684">
-    <cfRule type="duplicateValues" dxfId="770" priority="1187"/>
+    <cfRule type="duplicateValues" dxfId="770" priority="1189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1677:G1685">
-    <cfRule type="duplicateValues" dxfId="769" priority="1186"/>
+    <cfRule type="duplicateValues" dxfId="769" priority="1188"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1678:G1684">
-    <cfRule type="duplicateValues" dxfId="768" priority="1185"/>
+    <cfRule type="duplicateValues" dxfId="768" priority="1187"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1679:G1684">
-    <cfRule type="duplicateValues" dxfId="767" priority="1184"/>
+    <cfRule type="duplicateValues" dxfId="767" priority="1186"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1680">
-    <cfRule type="duplicateValues" dxfId="766" priority="1183"/>
+    <cfRule type="duplicateValues" dxfId="766" priority="1185"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1680:G1685">
-    <cfRule type="duplicateValues" dxfId="765" priority="1182"/>
+    <cfRule type="duplicateValues" dxfId="765" priority="1184"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1681">
-    <cfRule type="duplicateValues" dxfId="764" priority="1181"/>
+    <cfRule type="duplicateValues" dxfId="764" priority="1183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1681:G1685">
-    <cfRule type="duplicateValues" dxfId="763" priority="1180"/>
+    <cfRule type="duplicateValues" dxfId="763" priority="1182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1681:G1689">
-    <cfRule type="duplicateValues" dxfId="762" priority="1179"/>
+    <cfRule type="duplicateValues" dxfId="762" priority="1181"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1682:G1684">
-    <cfRule type="duplicateValues" dxfId="761" priority="1178"/>
+    <cfRule type="duplicateValues" dxfId="761" priority="1180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1683">
-    <cfRule type="duplicateValues" dxfId="760" priority="1177"/>
+    <cfRule type="duplicateValues" dxfId="760" priority="1179"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1684">
-    <cfRule type="duplicateValues" dxfId="759" priority="1176"/>
+    <cfRule type="duplicateValues" dxfId="759" priority="1178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1685:G1689">
-    <cfRule type="duplicateValues" dxfId="758" priority="1175"/>
+    <cfRule type="duplicateValues" dxfId="758" priority="1177"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1686:G1689">
-    <cfRule type="duplicateValues" dxfId="757" priority="1174"/>
+    <cfRule type="duplicateValues" dxfId="757" priority="1176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1687:G1689">
-    <cfRule type="duplicateValues" dxfId="756" priority="1173"/>
+    <cfRule type="duplicateValues" dxfId="756" priority="1175"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1701">
-    <cfRule type="duplicateValues" dxfId="755" priority="1171"/>
+    <cfRule type="duplicateValues" dxfId="755" priority="1173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1677">
-    <cfRule type="duplicateValues" dxfId="754" priority="1170"/>
+    <cfRule type="duplicateValues" dxfId="754" priority="1172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1675:G1689">
-    <cfRule type="duplicateValues" dxfId="753" priority="1169"/>
+    <cfRule type="duplicateValues" dxfId="753" priority="1171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1678:G1689">
-    <cfRule type="duplicateValues" dxfId="752" priority="1168"/>
+    <cfRule type="duplicateValues" dxfId="752" priority="1170"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1679:G1689">
-    <cfRule type="duplicateValues" dxfId="751" priority="1167"/>
+    <cfRule type="duplicateValues" dxfId="751" priority="1169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1680:G1689">
-    <cfRule type="duplicateValues" dxfId="750" priority="1166"/>
+    <cfRule type="duplicateValues" dxfId="750" priority="1168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1683:G1689">
-    <cfRule type="duplicateValues" dxfId="749" priority="1165"/>
+    <cfRule type="duplicateValues" dxfId="749" priority="1167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1689:G1696">
-    <cfRule type="duplicateValues" dxfId="748" priority="1158"/>
+    <cfRule type="duplicateValues" dxfId="748" priority="1160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1689:G1697">
-    <cfRule type="duplicateValues" dxfId="747" priority="1156"/>
+    <cfRule type="duplicateValues" dxfId="747" priority="1158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1690:G1696">
-    <cfRule type="duplicateValues" dxfId="746" priority="1155"/>
+    <cfRule type="duplicateValues" dxfId="746" priority="1157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1691:G1696">
-    <cfRule type="duplicateValues" dxfId="745" priority="1154"/>
+    <cfRule type="duplicateValues" dxfId="745" priority="1156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1692">
-    <cfRule type="duplicateValues" dxfId="744" priority="1153"/>
+    <cfRule type="duplicateValues" dxfId="744" priority="1155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1692:G1697">
-    <cfRule type="duplicateValues" dxfId="743" priority="1152"/>
+    <cfRule type="duplicateValues" dxfId="743" priority="1154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1693">
-    <cfRule type="duplicateValues" dxfId="742" priority="1151"/>
+    <cfRule type="duplicateValues" dxfId="742" priority="1153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1693:G1697">
-    <cfRule type="duplicateValues" dxfId="741" priority="1150"/>
+    <cfRule type="duplicateValues" dxfId="741" priority="1152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1693:G1699">
-    <cfRule type="duplicateValues" dxfId="740" priority="1149"/>
+    <cfRule type="duplicateValues" dxfId="740" priority="1151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1694:G1696">
-    <cfRule type="duplicateValues" dxfId="739" priority="1148"/>
+    <cfRule type="duplicateValues" dxfId="739" priority="1150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1695">
-    <cfRule type="duplicateValues" dxfId="738" priority="1147"/>
+    <cfRule type="duplicateValues" dxfId="738" priority="1149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1696">
-    <cfRule type="duplicateValues" dxfId="737" priority="1146"/>
+    <cfRule type="duplicateValues" dxfId="737" priority="1148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1697:G1699">
-    <cfRule type="duplicateValues" dxfId="736" priority="1145"/>
+    <cfRule type="duplicateValues" dxfId="736" priority="1147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1698:G1699">
-    <cfRule type="duplicateValues" dxfId="735" priority="1144"/>
+    <cfRule type="duplicateValues" dxfId="735" priority="1146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1699">
-    <cfRule type="duplicateValues" dxfId="734" priority="1143"/>
+    <cfRule type="duplicateValues" dxfId="734" priority="1145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1689">
-    <cfRule type="duplicateValues" dxfId="733" priority="1142"/>
+    <cfRule type="duplicateValues" dxfId="733" priority="1144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1689:G1699">
-    <cfRule type="duplicateValues" dxfId="732" priority="1141"/>
+    <cfRule type="duplicateValues" dxfId="732" priority="1143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1690:G1699">
-    <cfRule type="duplicateValues" dxfId="731" priority="1140"/>
+    <cfRule type="duplicateValues" dxfId="731" priority="1142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1691:G1699">
-    <cfRule type="duplicateValues" dxfId="730" priority="1139"/>
+    <cfRule type="duplicateValues" dxfId="730" priority="1141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1692:G1699">
-    <cfRule type="duplicateValues" dxfId="729" priority="1138"/>
+    <cfRule type="duplicateValues" dxfId="729" priority="1140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1695:G1699">
-    <cfRule type="duplicateValues" dxfId="728" priority="1137"/>
+    <cfRule type="duplicateValues" dxfId="728" priority="1139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1700">
-    <cfRule type="duplicateValues" dxfId="727" priority="1136"/>
+    <cfRule type="duplicateValues" dxfId="727" priority="1138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1682">
-    <cfRule type="duplicateValues" dxfId="726" priority="1107"/>
+    <cfRule type="duplicateValues" dxfId="726" priority="1109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1685">
-    <cfRule type="duplicateValues" dxfId="725" priority="1105"/>
+    <cfRule type="duplicateValues" dxfId="725" priority="1107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1678">
-    <cfRule type="duplicateValues" dxfId="724" priority="1104"/>
+    <cfRule type="duplicateValues" dxfId="724" priority="1106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1694">
-    <cfRule type="duplicateValues" dxfId="723" priority="1102"/>
+    <cfRule type="duplicateValues" dxfId="723" priority="1104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1697">
-    <cfRule type="duplicateValues" dxfId="722" priority="1100"/>
+    <cfRule type="duplicateValues" dxfId="722" priority="1102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1690">
-    <cfRule type="duplicateValues" dxfId="721" priority="1099"/>
+    <cfRule type="duplicateValues" dxfId="721" priority="1101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1688:G1700">
-    <cfRule type="duplicateValues" dxfId="720" priority="24117"/>
+    <cfRule type="duplicateValues" dxfId="720" priority="24119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1686:G1700">
-    <cfRule type="duplicateValues" dxfId="719" priority="24118"/>
+    <cfRule type="duplicateValues" dxfId="719" priority="24120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1687:G1700">
-    <cfRule type="duplicateValues" dxfId="718" priority="24119"/>
+    <cfRule type="duplicateValues" dxfId="718" priority="24121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1673 A1672:A1700 G1675:G1701">
-    <cfRule type="duplicateValues" dxfId="717" priority="24143"/>
+    <cfRule type="duplicateValues" dxfId="717" priority="24145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1673 G1675:G1701">
-    <cfRule type="duplicateValues" dxfId="716" priority="24147"/>
+    <cfRule type="duplicateValues" dxfId="716" priority="24149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1681:G1701">
-    <cfRule type="duplicateValues" dxfId="715" priority="24150"/>
+    <cfRule type="duplicateValues" dxfId="715" priority="24152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1682:G1701">
-    <cfRule type="duplicateValues" dxfId="714" priority="24152"/>
+    <cfRule type="duplicateValues" dxfId="714" priority="24154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1700:G1701">
-    <cfRule type="duplicateValues" dxfId="713" priority="24155"/>
+    <cfRule type="duplicateValues" dxfId="713" priority="24157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1707:G1711 G1713:G1716">
-    <cfRule type="duplicateValues" dxfId="712" priority="1037"/>
+    <cfRule type="duplicateValues" dxfId="712" priority="1039"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1708:G1711 G1713:G1716">
-    <cfRule type="duplicateValues" dxfId="711" priority="1036"/>
+    <cfRule type="duplicateValues" dxfId="711" priority="1038"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1708:G1716">
-    <cfRule type="duplicateValues" dxfId="710" priority="1035"/>
+    <cfRule type="duplicateValues" dxfId="710" priority="1037"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1709:G1716">
-    <cfRule type="duplicateValues" dxfId="709" priority="1034"/>
+    <cfRule type="duplicateValues" dxfId="709" priority="1036"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1709:G1717">
-    <cfRule type="duplicateValues" dxfId="708" priority="1033"/>
+    <cfRule type="duplicateValues" dxfId="708" priority="1035"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1710:G1716">
-    <cfRule type="duplicateValues" dxfId="707" priority="1032"/>
+    <cfRule type="duplicateValues" dxfId="707" priority="1034"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1711:G1716">
-    <cfRule type="duplicateValues" dxfId="706" priority="1031"/>
+    <cfRule type="duplicateValues" dxfId="706" priority="1033"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1712">
-    <cfRule type="duplicateValues" dxfId="705" priority="1030"/>
+    <cfRule type="duplicateValues" dxfId="705" priority="1032"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1712:G1717">
-    <cfRule type="duplicateValues" dxfId="704" priority="1029"/>
+    <cfRule type="duplicateValues" dxfId="704" priority="1031"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1713:G1716">
-    <cfRule type="duplicateValues" dxfId="703" priority="1028"/>
+    <cfRule type="duplicateValues" dxfId="703" priority="1030"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1713:G1717">
-    <cfRule type="duplicateValues" dxfId="702" priority="1027"/>
+    <cfRule type="duplicateValues" dxfId="702" priority="1029"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1713:G1721">
-    <cfRule type="duplicateValues" dxfId="701" priority="1026"/>
+    <cfRule type="duplicateValues" dxfId="701" priority="1028"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1714:G1716">
-    <cfRule type="duplicateValues" dxfId="700" priority="1025"/>
+    <cfRule type="duplicateValues" dxfId="700" priority="1027"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1715:G1716">
-    <cfRule type="duplicateValues" dxfId="699" priority="1024"/>
+    <cfRule type="duplicateValues" dxfId="699" priority="1026"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1716">
-    <cfRule type="duplicateValues" dxfId="698" priority="1023"/>
+    <cfRule type="duplicateValues" dxfId="698" priority="1025"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1717:G1721">
-    <cfRule type="duplicateValues" dxfId="697" priority="1022"/>
+    <cfRule type="duplicateValues" dxfId="697" priority="1024"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1718:G1721">
-    <cfRule type="duplicateValues" dxfId="696" priority="1021"/>
+    <cfRule type="duplicateValues" dxfId="696" priority="1023"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1719:G1721">
-    <cfRule type="duplicateValues" dxfId="695" priority="1020"/>
+    <cfRule type="duplicateValues" dxfId="695" priority="1022"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1725">
-    <cfRule type="duplicateValues" dxfId="694" priority="1019"/>
+    <cfRule type="duplicateValues" dxfId="694" priority="1021"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1709:G1711 G1713:G1716">
-    <cfRule type="duplicateValues" dxfId="693" priority="1018"/>
+    <cfRule type="duplicateValues" dxfId="693" priority="1020"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1707:G1721">
-    <cfRule type="duplicateValues" dxfId="692" priority="1017"/>
+    <cfRule type="duplicateValues" dxfId="692" priority="1019"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1710:G1721">
-    <cfRule type="duplicateValues" dxfId="691" priority="1016"/>
+    <cfRule type="duplicateValues" dxfId="691" priority="1018"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1711:G1721">
-    <cfRule type="duplicateValues" dxfId="690" priority="1015"/>
+    <cfRule type="duplicateValues" dxfId="690" priority="1017"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1712:G1721">
-    <cfRule type="duplicateValues" dxfId="689" priority="1014"/>
+    <cfRule type="duplicateValues" dxfId="689" priority="1016"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1715:G1721">
-    <cfRule type="duplicateValues" dxfId="688" priority="1013"/>
+    <cfRule type="duplicateValues" dxfId="688" priority="1015"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1724">
-    <cfRule type="duplicateValues" dxfId="687" priority="1008"/>
+    <cfRule type="duplicateValues" dxfId="687" priority="1010"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1721">
-    <cfRule type="duplicateValues" dxfId="686" priority="997"/>
+    <cfRule type="duplicateValues" dxfId="686" priority="999"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1717">
-    <cfRule type="duplicateValues" dxfId="685" priority="989"/>
+    <cfRule type="duplicateValues" dxfId="685" priority="991"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1710:G1711 G1713:G1716">
-    <cfRule type="duplicateValues" dxfId="684" priority="988"/>
+    <cfRule type="duplicateValues" dxfId="684" priority="990"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1722">
-    <cfRule type="duplicateValues" dxfId="683" priority="985"/>
+    <cfRule type="duplicateValues" dxfId="683" priority="987"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1721:G1724">
-    <cfRule type="duplicateValues" dxfId="682" priority="25304"/>
+    <cfRule type="duplicateValues" dxfId="682" priority="25306"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1722:G1724">
-    <cfRule type="duplicateValues" dxfId="681" priority="25306"/>
+    <cfRule type="duplicateValues" dxfId="681" priority="25308"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1723:G1724">
-    <cfRule type="duplicateValues" dxfId="680" priority="25307"/>
+    <cfRule type="duplicateValues" dxfId="680" priority="25309"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1720:G1724">
-    <cfRule type="duplicateValues" dxfId="679" priority="25320"/>
+    <cfRule type="duplicateValues" dxfId="679" priority="25322"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1718:G1724">
-    <cfRule type="duplicateValues" dxfId="678" priority="25321"/>
+    <cfRule type="duplicateValues" dxfId="678" priority="25323"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1719:G1724">
-    <cfRule type="duplicateValues" dxfId="677" priority="25322"/>
+    <cfRule type="duplicateValues" dxfId="677" priority="25324"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1705 A1704:A1724 G1707:G1725">
-    <cfRule type="duplicateValues" dxfId="676" priority="25323"/>
+    <cfRule type="duplicateValues" dxfId="676" priority="25325"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1705 G1707:G1725">
-    <cfRule type="duplicateValues" dxfId="675" priority="25327"/>
+    <cfRule type="duplicateValues" dxfId="675" priority="25329"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1713:G1725">
-    <cfRule type="duplicateValues" dxfId="674" priority="25330"/>
+    <cfRule type="duplicateValues" dxfId="674" priority="25332"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1714:G1725">
-    <cfRule type="duplicateValues" dxfId="673" priority="25332"/>
+    <cfRule type="duplicateValues" dxfId="673" priority="25334"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1728">
-    <cfRule type="duplicateValues" dxfId="672" priority="976"/>
+    <cfRule type="duplicateValues" dxfId="672" priority="978"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1731">
-    <cfRule type="duplicateValues" dxfId="671" priority="975"/>
+    <cfRule type="duplicateValues" dxfId="671" priority="977"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1732">
-    <cfRule type="duplicateValues" dxfId="670" priority="974"/>
+    <cfRule type="duplicateValues" dxfId="670" priority="976"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1733">
-    <cfRule type="duplicateValues" dxfId="669" priority="971"/>
+    <cfRule type="duplicateValues" dxfId="669" priority="973"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1729 G1731:G1732">
-    <cfRule type="duplicateValues" dxfId="668" priority="26505"/>
+    <cfRule type="duplicateValues" dxfId="668" priority="26507"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1731:G1732">
-    <cfRule type="duplicateValues" dxfId="667" priority="26507"/>
+    <cfRule type="duplicateValues" dxfId="667" priority="26509"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1741:G1749">
-    <cfRule type="duplicateValues" dxfId="666" priority="964"/>
+    <cfRule type="duplicateValues" dxfId="666" priority="966"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1744">
-    <cfRule type="duplicateValues" dxfId="665" priority="960"/>
+    <cfRule type="duplicateValues" dxfId="665" priority="962"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1745:G1749">
-    <cfRule type="duplicateValues" dxfId="664" priority="958"/>
+    <cfRule type="duplicateValues" dxfId="664" priority="960"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1748:G1753">
-    <cfRule type="duplicateValues" dxfId="663" priority="952"/>
+    <cfRule type="duplicateValues" dxfId="663" priority="954"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1749:G1753">
-    <cfRule type="duplicateValues" dxfId="662" priority="951"/>
+    <cfRule type="duplicateValues" dxfId="662" priority="953"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1750:G1753">
-    <cfRule type="duplicateValues" dxfId="661" priority="950"/>
+    <cfRule type="duplicateValues" dxfId="661" priority="952"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1759">
-    <cfRule type="duplicateValues" dxfId="660" priority="949"/>
+    <cfRule type="duplicateValues" dxfId="660" priority="951"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1752">
-    <cfRule type="duplicateValues" dxfId="659" priority="941"/>
+    <cfRule type="duplicateValues" dxfId="659" priority="943"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1748">
-    <cfRule type="duplicateValues" dxfId="658" priority="940"/>
+    <cfRule type="duplicateValues" dxfId="658" priority="942"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1753">
-    <cfRule type="duplicateValues" dxfId="657" priority="938"/>
+    <cfRule type="duplicateValues" dxfId="657" priority="940"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1745">
-    <cfRule type="duplicateValues" dxfId="656" priority="927"/>
+    <cfRule type="duplicateValues" dxfId="656" priority="929"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1749">
-    <cfRule type="duplicateValues" dxfId="655" priority="924"/>
+    <cfRule type="duplicateValues" dxfId="655" priority="926"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1754">
-    <cfRule type="duplicateValues" dxfId="654" priority="923"/>
+    <cfRule type="duplicateValues" dxfId="654" priority="925"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1755:G1758">
-    <cfRule type="duplicateValues" dxfId="653" priority="27712"/>
+    <cfRule type="duplicateValues" dxfId="653" priority="27714"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1752:G1758">
-    <cfRule type="duplicateValues" dxfId="652" priority="27717"/>
+    <cfRule type="duplicateValues" dxfId="652" priority="27719"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1753:G1758">
-    <cfRule type="duplicateValues" dxfId="651" priority="27718"/>
+    <cfRule type="duplicateValues" dxfId="651" priority="27720"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1754:G1758">
-    <cfRule type="duplicateValues" dxfId="650" priority="27719"/>
+    <cfRule type="duplicateValues" dxfId="650" priority="27721"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1751:G1758">
-    <cfRule type="duplicateValues" dxfId="649" priority="27720"/>
+    <cfRule type="duplicateValues" dxfId="649" priority="27722"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1749:G1758">
-    <cfRule type="duplicateValues" dxfId="648" priority="27721"/>
+    <cfRule type="duplicateValues" dxfId="648" priority="27723"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1750:G1758">
-    <cfRule type="duplicateValues" dxfId="647" priority="27722"/>
+    <cfRule type="duplicateValues" dxfId="647" priority="27724"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1762">
-    <cfRule type="duplicateValues" dxfId="646" priority="922"/>
+    <cfRule type="duplicateValues" dxfId="646" priority="924"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1765:G1767">
-    <cfRule type="duplicateValues" dxfId="645" priority="921"/>
+    <cfRule type="duplicateValues" dxfId="645" priority="923"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1766:G1767">
-    <cfRule type="duplicateValues" dxfId="644" priority="920"/>
+    <cfRule type="duplicateValues" dxfId="644" priority="922"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1767">
-    <cfRule type="duplicateValues" dxfId="643" priority="919"/>
+    <cfRule type="duplicateValues" dxfId="643" priority="921"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1768">
-    <cfRule type="duplicateValues" dxfId="642" priority="917"/>
+    <cfRule type="duplicateValues" dxfId="642" priority="919"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1763 G1765:G1767">
-    <cfRule type="duplicateValues" dxfId="641" priority="28960"/>
+    <cfRule type="duplicateValues" dxfId="641" priority="28962"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1739:G1748">
-    <cfRule type="duplicateValues" dxfId="640" priority="30142"/>
+    <cfRule type="duplicateValues" dxfId="640" priority="30144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1740:G1748">
-    <cfRule type="duplicateValues" dxfId="639" priority="30144"/>
+    <cfRule type="duplicateValues" dxfId="639" priority="30146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1741:G1748">
-    <cfRule type="duplicateValues" dxfId="638" priority="30146"/>
+    <cfRule type="duplicateValues" dxfId="638" priority="30148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1742:G1748">
-    <cfRule type="duplicateValues" dxfId="637" priority="30150"/>
+    <cfRule type="duplicateValues" dxfId="637" priority="30152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1743:G1748">
-    <cfRule type="duplicateValues" dxfId="636" priority="30152"/>
+    <cfRule type="duplicateValues" dxfId="636" priority="30154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1744:G1749">
-    <cfRule type="duplicateValues" dxfId="635" priority="30155"/>
+    <cfRule type="duplicateValues" dxfId="635" priority="30157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1745:G1748">
-    <cfRule type="duplicateValues" dxfId="634" priority="30157"/>
+    <cfRule type="duplicateValues" dxfId="634" priority="30159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1745:G1753">
-    <cfRule type="duplicateValues" dxfId="633" priority="30161"/>
+    <cfRule type="duplicateValues" dxfId="633" priority="30163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1746:G1748">
-    <cfRule type="duplicateValues" dxfId="632" priority="30163"/>
+    <cfRule type="duplicateValues" dxfId="632" priority="30165"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1747:G1748">
-    <cfRule type="duplicateValues" dxfId="631" priority="30165"/>
+    <cfRule type="duplicateValues" dxfId="631" priority="30167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1739:G1753">
-    <cfRule type="duplicateValues" dxfId="630" priority="30167"/>
+    <cfRule type="duplicateValues" dxfId="630" priority="30169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1742:G1753">
-    <cfRule type="duplicateValues" dxfId="629" priority="30169"/>
+    <cfRule type="duplicateValues" dxfId="629" priority="30171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1743:G1753">
-    <cfRule type="duplicateValues" dxfId="628" priority="30171"/>
+    <cfRule type="duplicateValues" dxfId="628" priority="30173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1744:G1753">
-    <cfRule type="duplicateValues" dxfId="627" priority="30173"/>
+    <cfRule type="duplicateValues" dxfId="627" priority="30175"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1747:G1753">
-    <cfRule type="duplicateValues" dxfId="626" priority="30175"/>
+    <cfRule type="duplicateValues" dxfId="626" priority="30177"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1737 G1739:G1759 A1736:A1758">
-    <cfRule type="duplicateValues" dxfId="625" priority="30178"/>
+    <cfRule type="duplicateValues" dxfId="625" priority="30180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1737 G1739:G1759">
-    <cfRule type="duplicateValues" dxfId="624" priority="30183"/>
+    <cfRule type="duplicateValues" dxfId="624" priority="30185"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1745:G1759">
-    <cfRule type="duplicateValues" dxfId="623" priority="30186"/>
+    <cfRule type="duplicateValues" dxfId="623" priority="30188"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1746:G1759">
-    <cfRule type="duplicateValues" dxfId="622" priority="30188"/>
+    <cfRule type="duplicateValues" dxfId="622" priority="30190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1778">
-    <cfRule type="duplicateValues" dxfId="621" priority="912"/>
+    <cfRule type="duplicateValues" dxfId="621" priority="914"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1779:G1783">
-    <cfRule type="duplicateValues" dxfId="620" priority="911"/>
+    <cfRule type="duplicateValues" dxfId="620" priority="913"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1785">
-    <cfRule type="duplicateValues" dxfId="619" priority="907"/>
+    <cfRule type="duplicateValues" dxfId="619" priority="909"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1782:G1783">
-    <cfRule type="duplicateValues" dxfId="618" priority="905"/>
+    <cfRule type="duplicateValues" dxfId="618" priority="907"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1783">
-    <cfRule type="duplicateValues" dxfId="617" priority="902"/>
+    <cfRule type="duplicateValues" dxfId="617" priority="904"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1774:G1784">
-    <cfRule type="duplicateValues" dxfId="616" priority="893"/>
+    <cfRule type="duplicateValues" dxfId="616" priority="895"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1776:G1783">
-    <cfRule type="duplicateValues" dxfId="615" priority="890"/>
+    <cfRule type="duplicateValues" dxfId="615" priority="892"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1777:G1783">
-    <cfRule type="duplicateValues" dxfId="614" priority="889"/>
+    <cfRule type="duplicateValues" dxfId="614" priority="891"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1778:G1783">
-    <cfRule type="duplicateValues" dxfId="613" priority="888"/>
+    <cfRule type="duplicateValues" dxfId="613" priority="890"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1780:G1783">
-    <cfRule type="duplicateValues" dxfId="612" priority="885"/>
+    <cfRule type="duplicateValues" dxfId="612" priority="887"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1781:G1783">
-    <cfRule type="duplicateValues" dxfId="611" priority="884"/>
+    <cfRule type="duplicateValues" dxfId="611" priority="886"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1788">
-    <cfRule type="duplicateValues" dxfId="610" priority="874"/>
+    <cfRule type="duplicateValues" dxfId="610" priority="876"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1793">
-    <cfRule type="duplicateValues" dxfId="609" priority="870"/>
+    <cfRule type="duplicateValues" dxfId="609" priority="872"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1784">
-    <cfRule type="duplicateValues" dxfId="608" priority="865"/>
+    <cfRule type="duplicateValues" dxfId="608" priority="867"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1782:G1784">
-    <cfRule type="duplicateValues" dxfId="607" priority="31424"/>
+    <cfRule type="duplicateValues" dxfId="607" priority="31426"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1783:G1784">
-    <cfRule type="duplicateValues" dxfId="606" priority="31425"/>
+    <cfRule type="duplicateValues" dxfId="606" priority="31427"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1779:G1784">
-    <cfRule type="duplicateValues" dxfId="605" priority="31439"/>
+    <cfRule type="duplicateValues" dxfId="605" priority="31441"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1776:G1784">
-    <cfRule type="duplicateValues" dxfId="604" priority="31443"/>
+    <cfRule type="duplicateValues" dxfId="604" priority="31445"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1777:G1784">
-    <cfRule type="duplicateValues" dxfId="603" priority="31444"/>
+    <cfRule type="duplicateValues" dxfId="603" priority="31446"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1778:G1784">
-    <cfRule type="duplicateValues" dxfId="602" priority="31445"/>
+    <cfRule type="duplicateValues" dxfId="602" priority="31447"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1781:G1784">
-    <cfRule type="duplicateValues" dxfId="601" priority="31446"/>
+    <cfRule type="duplicateValues" dxfId="601" priority="31448"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1779:G1785">
-    <cfRule type="duplicateValues" dxfId="600" priority="31454"/>
+    <cfRule type="duplicateValues" dxfId="600" priority="31456"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1780:G1785">
-    <cfRule type="duplicateValues" dxfId="599" priority="31456"/>
+    <cfRule type="duplicateValues" dxfId="599" priority="31458"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1791:G1792">
-    <cfRule type="duplicateValues" dxfId="598" priority="32703"/>
+    <cfRule type="duplicateValues" dxfId="598" priority="32705"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1792">
-    <cfRule type="duplicateValues" dxfId="597" priority="32704"/>
+    <cfRule type="duplicateValues" dxfId="597" priority="32706"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1789 G1791:G1792">
-    <cfRule type="duplicateValues" dxfId="596" priority="32705"/>
+    <cfRule type="duplicateValues" dxfId="596" priority="32707"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1774:G1783">
-    <cfRule type="duplicateValues" dxfId="595" priority="33937"/>
+    <cfRule type="duplicateValues" dxfId="595" priority="33939"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1775:G1783">
-    <cfRule type="duplicateValues" dxfId="594" priority="33939"/>
+    <cfRule type="duplicateValues" dxfId="594" priority="33941"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1772 G1774:G1785 A1771:A1784">
-    <cfRule type="duplicateValues" dxfId="593" priority="33943"/>
+    <cfRule type="duplicateValues" dxfId="593" priority="33945"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1772 G1774:G1785">
-    <cfRule type="duplicateValues" dxfId="592" priority="33948"/>
+    <cfRule type="duplicateValues" dxfId="592" priority="33950"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1801:G1809">
-    <cfRule type="duplicateValues" dxfId="591" priority="850"/>
+    <cfRule type="duplicateValues" dxfId="591" priority="852"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1804:G1806">
-    <cfRule type="duplicateValues" dxfId="590" priority="849"/>
+    <cfRule type="duplicateValues" dxfId="590" priority="851"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1805:G1809">
-    <cfRule type="duplicateValues" dxfId="589" priority="848"/>
+    <cfRule type="duplicateValues" dxfId="589" priority="850"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1810">
-    <cfRule type="duplicateValues" dxfId="588" priority="844"/>
+    <cfRule type="duplicateValues" dxfId="588" priority="846"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1808">
-    <cfRule type="duplicateValues" dxfId="587" priority="842"/>
+    <cfRule type="duplicateValues" dxfId="587" priority="844"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1805:G1806">
-    <cfRule type="duplicateValues" dxfId="586" priority="840"/>
+    <cfRule type="duplicateValues" dxfId="586" priority="842"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1809">
-    <cfRule type="duplicateValues" dxfId="585" priority="839"/>
+    <cfRule type="duplicateValues" dxfId="585" priority="841"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1799:G1808">
-    <cfRule type="duplicateValues" dxfId="584" priority="830"/>
+    <cfRule type="duplicateValues" dxfId="584" priority="832"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1800:G1808">
-    <cfRule type="duplicateValues" dxfId="583" priority="829"/>
+    <cfRule type="duplicateValues" dxfId="583" priority="831"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1801:G1808">
-    <cfRule type="duplicateValues" dxfId="582" priority="828"/>
+    <cfRule type="duplicateValues" dxfId="582" priority="830"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1802:G1808">
-    <cfRule type="duplicateValues" dxfId="581" priority="827"/>
+    <cfRule type="duplicateValues" dxfId="581" priority="829"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1803:G1808">
-    <cfRule type="duplicateValues" dxfId="580" priority="826"/>
+    <cfRule type="duplicateValues" dxfId="580" priority="828"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1804:G1809">
-    <cfRule type="duplicateValues" dxfId="579" priority="825"/>
+    <cfRule type="duplicateValues" dxfId="579" priority="827"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1805:G1808">
-    <cfRule type="duplicateValues" dxfId="578" priority="824"/>
+    <cfRule type="duplicateValues" dxfId="578" priority="826"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1806:G1808">
-    <cfRule type="duplicateValues" dxfId="577" priority="822"/>
+    <cfRule type="duplicateValues" dxfId="577" priority="824"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1807:G1808">
-    <cfRule type="duplicateValues" dxfId="576" priority="821"/>
+    <cfRule type="duplicateValues" dxfId="576" priority="823"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1813">
-    <cfRule type="duplicateValues" dxfId="575" priority="811"/>
+    <cfRule type="duplicateValues" dxfId="575" priority="813"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1818">
-    <cfRule type="duplicateValues" dxfId="574" priority="807"/>
+    <cfRule type="duplicateValues" dxfId="574" priority="809"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1816">
-    <cfRule type="duplicateValues" dxfId="573" priority="805"/>
+    <cfRule type="duplicateValues" dxfId="573" priority="807"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1808:G1809">
-    <cfRule type="duplicateValues" dxfId="572" priority="36536"/>
+    <cfRule type="duplicateValues" dxfId="572" priority="36538"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1799:G1809">
-    <cfRule type="duplicateValues" dxfId="571" priority="36539"/>
+    <cfRule type="duplicateValues" dxfId="571" priority="36541"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1802:G1809">
-    <cfRule type="duplicateValues" dxfId="570" priority="36540"/>
+    <cfRule type="duplicateValues" dxfId="570" priority="36542"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1803:G1809">
-    <cfRule type="duplicateValues" dxfId="569" priority="36541"/>
+    <cfRule type="duplicateValues" dxfId="569" priority="36543"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1807:G1809">
-    <cfRule type="duplicateValues" dxfId="568" priority="36543"/>
+    <cfRule type="duplicateValues" dxfId="568" priority="36545"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1797 A1796:A1809 G1799:G1810">
-    <cfRule type="duplicateValues" dxfId="567" priority="36544"/>
+    <cfRule type="duplicateValues" dxfId="567" priority="36546"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1797 G1799:G1810">
-    <cfRule type="duplicateValues" dxfId="566" priority="36548"/>
+    <cfRule type="duplicateValues" dxfId="566" priority="36550"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1805:G1810">
-    <cfRule type="duplicateValues" dxfId="565" priority="36551"/>
+    <cfRule type="duplicateValues" dxfId="565" priority="36553"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1806:G1810">
-    <cfRule type="duplicateValues" dxfId="564" priority="36553"/>
+    <cfRule type="duplicateValues" dxfId="564" priority="36555"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1816:G1817">
-    <cfRule type="duplicateValues" dxfId="563" priority="37840"/>
+    <cfRule type="duplicateValues" dxfId="563" priority="37842"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1817">
-    <cfRule type="duplicateValues" dxfId="562" priority="37841"/>
+    <cfRule type="duplicateValues" dxfId="562" priority="37843"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1814 G1816:G1817">
-    <cfRule type="duplicateValues" dxfId="561" priority="37842"/>
+    <cfRule type="duplicateValues" dxfId="561" priority="37844"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1837">
-    <cfRule type="duplicateValues" dxfId="560" priority="785"/>
+    <cfRule type="duplicateValues" dxfId="560" priority="787"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1830:G1837">
-    <cfRule type="duplicateValues" dxfId="559" priority="783"/>
+    <cfRule type="duplicateValues" dxfId="559" priority="785"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1840">
-    <cfRule type="duplicateValues" dxfId="558" priority="763"/>
+    <cfRule type="duplicateValues" dxfId="558" priority="765"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1845">
-    <cfRule type="duplicateValues" dxfId="557" priority="762"/>
+    <cfRule type="duplicateValues" dxfId="557" priority="764"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1843">
-    <cfRule type="duplicateValues" dxfId="556" priority="761"/>
+    <cfRule type="duplicateValues" dxfId="556" priority="763"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1843:G1844">
-    <cfRule type="duplicateValues" dxfId="555" priority="760"/>
+    <cfRule type="duplicateValues" dxfId="555" priority="762"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1844">
-    <cfRule type="duplicateValues" dxfId="554" priority="759"/>
+    <cfRule type="duplicateValues" dxfId="554" priority="761"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1841 G1843:G1844">
-    <cfRule type="duplicateValues" dxfId="553" priority="758"/>
+    <cfRule type="duplicateValues" dxfId="553" priority="760"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1826:G1836">
-    <cfRule type="duplicateValues" dxfId="552" priority="39148"/>
+    <cfRule type="duplicateValues" dxfId="552" priority="39150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1829:G1836">
-    <cfRule type="duplicateValues" dxfId="551" priority="39149"/>
+    <cfRule type="duplicateValues" dxfId="551" priority="39151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1830:G1836">
-    <cfRule type="duplicateValues" dxfId="550" priority="39150"/>
+    <cfRule type="duplicateValues" dxfId="550" priority="39152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1824:G1836">
-    <cfRule type="duplicateValues" dxfId="549" priority="39152"/>
+    <cfRule type="duplicateValues" dxfId="549" priority="39154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1825:G1836">
-    <cfRule type="duplicateValues" dxfId="548" priority="39153"/>
+    <cfRule type="duplicateValues" dxfId="548" priority="39155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1827:G1836">
-    <cfRule type="duplicateValues" dxfId="547" priority="39155"/>
+    <cfRule type="duplicateValues" dxfId="547" priority="39157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1828:G1836">
-    <cfRule type="duplicateValues" dxfId="546" priority="39156"/>
+    <cfRule type="duplicateValues" dxfId="546" priority="39158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1831:G1836">
-    <cfRule type="duplicateValues" dxfId="545" priority="39159"/>
+    <cfRule type="duplicateValues" dxfId="545" priority="39161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1822 A1821:A1836 G1824:G1837">
-    <cfRule type="duplicateValues" dxfId="544" priority="39163"/>
+    <cfRule type="duplicateValues" dxfId="544" priority="39165"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1822 G1824:G1837">
-    <cfRule type="duplicateValues" dxfId="543" priority="39167"/>
+    <cfRule type="duplicateValues" dxfId="543" priority="39169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1831:G1837">
-    <cfRule type="duplicateValues" dxfId="542" priority="39172"/>
+    <cfRule type="duplicateValues" dxfId="542" priority="39174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1853:G1862">
-    <cfRule type="duplicateValues" dxfId="541" priority="757"/>
+    <cfRule type="duplicateValues" dxfId="541" priority="759"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1856:G1858">
-    <cfRule type="duplicateValues" dxfId="540" priority="756"/>
+    <cfRule type="duplicateValues" dxfId="540" priority="758"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1857:G1862">
-    <cfRule type="duplicateValues" dxfId="539" priority="755"/>
+    <cfRule type="duplicateValues" dxfId="539" priority="757"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1865">
-    <cfRule type="duplicateValues" dxfId="538" priority="751"/>
+    <cfRule type="duplicateValues" dxfId="538" priority="753"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1864">
-    <cfRule type="duplicateValues" dxfId="537" priority="750"/>
+    <cfRule type="duplicateValues" dxfId="537" priority="752"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1860">
-    <cfRule type="duplicateValues" dxfId="536" priority="749"/>
+    <cfRule type="duplicateValues" dxfId="536" priority="751"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1857:G1858">
-    <cfRule type="duplicateValues" dxfId="535" priority="747"/>
+    <cfRule type="duplicateValues" dxfId="535" priority="749"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1861:G1862">
-    <cfRule type="duplicateValues" dxfId="534" priority="746"/>
+    <cfRule type="duplicateValues" dxfId="534" priority="748"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1851:G1860">
-    <cfRule type="duplicateValues" dxfId="533" priority="737"/>
+    <cfRule type="duplicateValues" dxfId="533" priority="739"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1852:G1860">
-    <cfRule type="duplicateValues" dxfId="532" priority="736"/>
+    <cfRule type="duplicateValues" dxfId="532" priority="738"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1853:G1860">
-    <cfRule type="duplicateValues" dxfId="531" priority="735"/>
+    <cfRule type="duplicateValues" dxfId="531" priority="737"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1854:G1860">
-    <cfRule type="duplicateValues" dxfId="530" priority="734"/>
+    <cfRule type="duplicateValues" dxfId="530" priority="736"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1855:G1860">
-    <cfRule type="duplicateValues" dxfId="529" priority="733"/>
+    <cfRule type="duplicateValues" dxfId="529" priority="735"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1856:G1862">
-    <cfRule type="duplicateValues" dxfId="528" priority="732"/>
+    <cfRule type="duplicateValues" dxfId="528" priority="734"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1857:G1860">
-    <cfRule type="duplicateValues" dxfId="527" priority="731"/>
+    <cfRule type="duplicateValues" dxfId="527" priority="733"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1857:G1865">
-    <cfRule type="duplicateValues" dxfId="526" priority="730"/>
+    <cfRule type="duplicateValues" dxfId="526" priority="732"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1858:G1860">
-    <cfRule type="duplicateValues" dxfId="525" priority="729"/>
+    <cfRule type="duplicateValues" dxfId="525" priority="731"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1859:G1860">
-    <cfRule type="duplicateValues" dxfId="524" priority="728"/>
+    <cfRule type="duplicateValues" dxfId="524" priority="730"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1868">
-    <cfRule type="duplicateValues" dxfId="523" priority="718"/>
+    <cfRule type="duplicateValues" dxfId="523" priority="720"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1871">
-    <cfRule type="duplicateValues" dxfId="522" priority="716"/>
+    <cfRule type="duplicateValues" dxfId="522" priority="718"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1872">
-    <cfRule type="duplicateValues" dxfId="521" priority="714"/>
+    <cfRule type="duplicateValues" dxfId="521" priority="716"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1873">
-    <cfRule type="duplicateValues" dxfId="520" priority="713"/>
+    <cfRule type="duplicateValues" dxfId="520" priority="715"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1874">
-    <cfRule type="duplicateValues" dxfId="519" priority="700"/>
+    <cfRule type="duplicateValues" dxfId="519" priority="702"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1860:G1864">
-    <cfRule type="duplicateValues" dxfId="518" priority="40507"/>
+    <cfRule type="duplicateValues" dxfId="518" priority="40509"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1861:G1864">
-    <cfRule type="duplicateValues" dxfId="517" priority="40508"/>
+    <cfRule type="duplicateValues" dxfId="517" priority="40510"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1862:G1864">
-    <cfRule type="duplicateValues" dxfId="516" priority="40509"/>
+    <cfRule type="duplicateValues" dxfId="516" priority="40511"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1863:G1864">
-    <cfRule type="duplicateValues" dxfId="515" priority="40515"/>
+    <cfRule type="duplicateValues" dxfId="515" priority="40517"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1857:G1864">
-    <cfRule type="duplicateValues" dxfId="514" priority="40525"/>
+    <cfRule type="duplicateValues" dxfId="514" priority="40527"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1851:G1864">
-    <cfRule type="duplicateValues" dxfId="513" priority="40528"/>
+    <cfRule type="duplicateValues" dxfId="513" priority="40530"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1854:G1864">
-    <cfRule type="duplicateValues" dxfId="512" priority="40529"/>
+    <cfRule type="duplicateValues" dxfId="512" priority="40531"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1855:G1864">
-    <cfRule type="duplicateValues" dxfId="511" priority="40530"/>
+    <cfRule type="duplicateValues" dxfId="511" priority="40532"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1856:G1864">
-    <cfRule type="duplicateValues" dxfId="510" priority="40531"/>
+    <cfRule type="duplicateValues" dxfId="510" priority="40533"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1859:G1864">
-    <cfRule type="duplicateValues" dxfId="509" priority="40532"/>
+    <cfRule type="duplicateValues" dxfId="509" priority="40534"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1849 A1848:A1864 G1851:G1865">
-    <cfRule type="duplicateValues" dxfId="508" priority="40533"/>
+    <cfRule type="duplicateValues" dxfId="508" priority="40535"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1849 G1851:G1865">
-    <cfRule type="duplicateValues" dxfId="507" priority="40537"/>
+    <cfRule type="duplicateValues" dxfId="507" priority="40539"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1858:G1865">
-    <cfRule type="duplicateValues" dxfId="506" priority="40542"/>
+    <cfRule type="duplicateValues" dxfId="506" priority="40544"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1869 G1871:G1873">
-    <cfRule type="duplicateValues" dxfId="505" priority="41895"/>
+    <cfRule type="duplicateValues" dxfId="505" priority="41897"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1871:G1873">
-    <cfRule type="duplicateValues" dxfId="504" priority="41898"/>
+    <cfRule type="duplicateValues" dxfId="504" priority="41900"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1882:G1892">
-    <cfRule type="duplicateValues" dxfId="503" priority="699"/>
+    <cfRule type="duplicateValues" dxfId="503" priority="701"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1885:G1888">
-    <cfRule type="duplicateValues" dxfId="502" priority="698"/>
+    <cfRule type="duplicateValues" dxfId="502" priority="700"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1886:G1892">
-    <cfRule type="duplicateValues" dxfId="501" priority="697"/>
+    <cfRule type="duplicateValues" dxfId="501" priority="699"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1901">
-    <cfRule type="duplicateValues" dxfId="500" priority="696"/>
+    <cfRule type="duplicateValues" dxfId="500" priority="698"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1889">
-    <cfRule type="duplicateValues" dxfId="499" priority="694"/>
+    <cfRule type="duplicateValues" dxfId="499" priority="696"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1886:G1888">
-    <cfRule type="duplicateValues" dxfId="498" priority="693"/>
+    <cfRule type="duplicateValues" dxfId="498" priority="695"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1890:G1892">
-    <cfRule type="duplicateValues" dxfId="497" priority="692"/>
+    <cfRule type="duplicateValues" dxfId="497" priority="694"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1880:G1890">
-    <cfRule type="duplicateValues" dxfId="496" priority="691"/>
+    <cfRule type="duplicateValues" dxfId="496" priority="693"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1881:G1890">
-    <cfRule type="duplicateValues" dxfId="495" priority="690"/>
+    <cfRule type="duplicateValues" dxfId="495" priority="692"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1882:G1890">
-    <cfRule type="duplicateValues" dxfId="494" priority="689"/>
+    <cfRule type="duplicateValues" dxfId="494" priority="691"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1883:G1890">
-    <cfRule type="duplicateValues" dxfId="493" priority="688"/>
+    <cfRule type="duplicateValues" dxfId="493" priority="690"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1884:G1890">
-    <cfRule type="duplicateValues" dxfId="492" priority="687"/>
+    <cfRule type="duplicateValues" dxfId="492" priority="689"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1885:G1892">
-    <cfRule type="duplicateValues" dxfId="491" priority="686"/>
+    <cfRule type="duplicateValues" dxfId="491" priority="688"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1886:G1890">
-    <cfRule type="duplicateValues" dxfId="490" priority="685"/>
+    <cfRule type="duplicateValues" dxfId="490" priority="687"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1887:G1890">
-    <cfRule type="duplicateValues" dxfId="489" priority="683"/>
+    <cfRule type="duplicateValues" dxfId="489" priority="685"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1888:G1890">
-    <cfRule type="duplicateValues" dxfId="488" priority="682"/>
+    <cfRule type="duplicateValues" dxfId="488" priority="684"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1890">
-    <cfRule type="duplicateValues" dxfId="487" priority="668"/>
+    <cfRule type="duplicateValues" dxfId="487" priority="670"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1904">
-    <cfRule type="duplicateValues" dxfId="486" priority="667"/>
+    <cfRule type="duplicateValues" dxfId="486" priority="669"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1907">
-    <cfRule type="duplicateValues" dxfId="485" priority="666"/>
+    <cfRule type="duplicateValues" dxfId="485" priority="668"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1908">
-    <cfRule type="duplicateValues" dxfId="484" priority="665"/>
+    <cfRule type="duplicateValues" dxfId="484" priority="667"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1916">
-    <cfRule type="duplicateValues" dxfId="483" priority="663"/>
+    <cfRule type="duplicateValues" dxfId="483" priority="665"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1886:G1901">
-    <cfRule type="duplicateValues" dxfId="482" priority="48992"/>
+    <cfRule type="duplicateValues" dxfId="482" priority="48994"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1893:G1900">
-    <cfRule type="duplicateValues" dxfId="481" priority="48994"/>
+    <cfRule type="duplicateValues" dxfId="481" priority="48996"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1889:G1900">
-    <cfRule type="duplicateValues" dxfId="480" priority="48995"/>
+    <cfRule type="duplicateValues" dxfId="480" priority="48997"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1890:G1900">
-    <cfRule type="duplicateValues" dxfId="479" priority="48996"/>
+    <cfRule type="duplicateValues" dxfId="479" priority="48998"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1891:G1900">
-    <cfRule type="duplicateValues" dxfId="478" priority="48997"/>
+    <cfRule type="duplicateValues" dxfId="478" priority="48999"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1892:G1900">
-    <cfRule type="duplicateValues" dxfId="477" priority="48998"/>
+    <cfRule type="duplicateValues" dxfId="477" priority="49000"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1886:G1900">
-    <cfRule type="duplicateValues" dxfId="476" priority="48999"/>
+    <cfRule type="duplicateValues" dxfId="476" priority="49001"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1880:G1900">
-    <cfRule type="duplicateValues" dxfId="475" priority="49000"/>
+    <cfRule type="duplicateValues" dxfId="475" priority="49002"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1883:G1900">
-    <cfRule type="duplicateValues" dxfId="474" priority="49001"/>
+    <cfRule type="duplicateValues" dxfId="474" priority="49003"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1884:G1900">
-    <cfRule type="duplicateValues" dxfId="473" priority="49002"/>
+    <cfRule type="duplicateValues" dxfId="473" priority="49004"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1885:G1900">
-    <cfRule type="duplicateValues" dxfId="472" priority="49003"/>
+    <cfRule type="duplicateValues" dxfId="472" priority="49005"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1888:G1900">
-    <cfRule type="duplicateValues" dxfId="471" priority="49004"/>
+    <cfRule type="duplicateValues" dxfId="471" priority="49006"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1878 A1877:A1900 G1880:G1901">
-    <cfRule type="duplicateValues" dxfId="470" priority="49005"/>
+    <cfRule type="duplicateValues" dxfId="470" priority="49007"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1878 G1880:G1901">
-    <cfRule type="duplicateValues" dxfId="469" priority="49009"/>
+    <cfRule type="duplicateValues" dxfId="469" priority="49011"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1887:G1901">
-    <cfRule type="duplicateValues" dxfId="468" priority="49012"/>
+    <cfRule type="duplicateValues" dxfId="468" priority="49014"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1907">
-    <cfRule type="duplicateValues" dxfId="467" priority="660"/>
+    <cfRule type="duplicateValues" dxfId="467" priority="662"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1908">
-    <cfRule type="duplicateValues" dxfId="466" priority="659"/>
+    <cfRule type="duplicateValues" dxfId="466" priority="661"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1916">
-    <cfRule type="duplicateValues" dxfId="465" priority="657"/>
+    <cfRule type="duplicateValues" dxfId="465" priority="659"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1909:G1915">
-    <cfRule type="duplicateValues" dxfId="464" priority="50409"/>
+    <cfRule type="duplicateValues" dxfId="464" priority="50411"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1905 G1907:G1915">
-    <cfRule type="duplicateValues" dxfId="463" priority="50410"/>
+    <cfRule type="duplicateValues" dxfId="463" priority="50412"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1907:G1915">
-    <cfRule type="duplicateValues" dxfId="462" priority="50412"/>
+    <cfRule type="duplicateValues" dxfId="462" priority="50414"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1909:H1915">
-    <cfRule type="duplicateValues" dxfId="461" priority="50433"/>
+    <cfRule type="duplicateValues" dxfId="461" priority="50435"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1907:H1915">
-    <cfRule type="duplicateValues" dxfId="460" priority="50434"/>
+    <cfRule type="duplicateValues" dxfId="460" priority="50436"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1938 G1919:G1920 G1937:H1938 H1919:H1936 G1922:G1936 G1940:H1952">
-    <cfRule type="duplicateValues" dxfId="459" priority="654"/>
+    <cfRule type="duplicateValues" dxfId="459" priority="656"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1927:G1930">
-    <cfRule type="duplicateValues" dxfId="458" priority="653"/>
+    <cfRule type="duplicateValues" dxfId="458" priority="655"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1928:G1934">
-    <cfRule type="duplicateValues" dxfId="457" priority="652"/>
+    <cfRule type="duplicateValues" dxfId="457" priority="654"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1934">
-    <cfRule type="duplicateValues" dxfId="456" priority="651"/>
+    <cfRule type="duplicateValues" dxfId="456" priority="653"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1931:G1932">
-    <cfRule type="duplicateValues" dxfId="455" priority="650"/>
+    <cfRule type="duplicateValues" dxfId="455" priority="652"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1928:G1930">
-    <cfRule type="duplicateValues" dxfId="454" priority="649"/>
+    <cfRule type="duplicateValues" dxfId="454" priority="651"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1922:G1932">
-    <cfRule type="duplicateValues" dxfId="453" priority="648"/>
+    <cfRule type="duplicateValues" dxfId="453" priority="650"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1923:G1932">
-    <cfRule type="duplicateValues" dxfId="452" priority="647"/>
+    <cfRule type="duplicateValues" dxfId="452" priority="649"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1924:G1932">
-    <cfRule type="duplicateValues" dxfId="451" priority="646"/>
+    <cfRule type="duplicateValues" dxfId="451" priority="648"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1925:G1932">
-    <cfRule type="duplicateValues" dxfId="450" priority="645"/>
+    <cfRule type="duplicateValues" dxfId="450" priority="647"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1926:G1932">
-    <cfRule type="duplicateValues" dxfId="449" priority="644"/>
+    <cfRule type="duplicateValues" dxfId="449" priority="646"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1928:G1932">
-    <cfRule type="duplicateValues" dxfId="448" priority="643"/>
+    <cfRule type="duplicateValues" dxfId="448" priority="645"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1929:G1932">
-    <cfRule type="duplicateValues" dxfId="447" priority="642"/>
+    <cfRule type="duplicateValues" dxfId="447" priority="644"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1930:G1932">
-    <cfRule type="duplicateValues" dxfId="446" priority="641"/>
+    <cfRule type="duplicateValues" dxfId="446" priority="643"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1932">
-    <cfRule type="duplicateValues" dxfId="445" priority="640"/>
+    <cfRule type="duplicateValues" dxfId="445" priority="642"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1937">
-    <cfRule type="duplicateValues" dxfId="444" priority="639"/>
+    <cfRule type="duplicateValues" dxfId="444" priority="641"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1940">
-    <cfRule type="duplicateValues" dxfId="443" priority="638"/>
+    <cfRule type="duplicateValues" dxfId="443" priority="640"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1941">
-    <cfRule type="duplicateValues" dxfId="442" priority="637"/>
+    <cfRule type="duplicateValues" dxfId="442" priority="639"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1952">
-    <cfRule type="duplicateValues" dxfId="441" priority="636"/>
+    <cfRule type="duplicateValues" dxfId="441" priority="638"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1940">
-    <cfRule type="duplicateValues" dxfId="440" priority="635"/>
+    <cfRule type="duplicateValues" dxfId="440" priority="637"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1941">
-    <cfRule type="duplicateValues" dxfId="439" priority="634"/>
+    <cfRule type="duplicateValues" dxfId="439" priority="636"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1952">
-    <cfRule type="duplicateValues" dxfId="438" priority="633"/>
+    <cfRule type="duplicateValues" dxfId="438" priority="635"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1924:G1933">
-    <cfRule type="duplicateValues" dxfId="437" priority="632"/>
+    <cfRule type="duplicateValues" dxfId="437" priority="634"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1928:G1933">
-    <cfRule type="duplicateValues" dxfId="436" priority="631"/>
+    <cfRule type="duplicateValues" dxfId="436" priority="633"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1932:G1933">
-    <cfRule type="duplicateValues" dxfId="435" priority="630"/>
+    <cfRule type="duplicateValues" dxfId="435" priority="632"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1927:G1933">
-    <cfRule type="duplicateValues" dxfId="434" priority="629"/>
+    <cfRule type="duplicateValues" dxfId="434" priority="631"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1931:G1933">
-    <cfRule type="duplicateValues" dxfId="433" priority="628"/>
+    <cfRule type="duplicateValues" dxfId="433" priority="630"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1933">
-    <cfRule type="duplicateValues" dxfId="432" priority="627"/>
+    <cfRule type="duplicateValues" dxfId="432" priority="629"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1922:G1933">
-    <cfRule type="duplicateValues" dxfId="431" priority="626"/>
+    <cfRule type="duplicateValues" dxfId="431" priority="628"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1925:G1933">
-    <cfRule type="duplicateValues" dxfId="430" priority="625"/>
+    <cfRule type="duplicateValues" dxfId="430" priority="627"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1926:G1933">
-    <cfRule type="duplicateValues" dxfId="429" priority="624"/>
+    <cfRule type="duplicateValues" dxfId="429" priority="626"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1930:G1933">
-    <cfRule type="duplicateValues" dxfId="428" priority="623"/>
+    <cfRule type="duplicateValues" dxfId="428" priority="625"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1920 A1919:A1933 G1922:G1934">
-    <cfRule type="duplicateValues" dxfId="427" priority="622"/>
+    <cfRule type="duplicateValues" dxfId="427" priority="624"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1920 G1922:G1934">
-    <cfRule type="duplicateValues" dxfId="426" priority="621"/>
+    <cfRule type="duplicateValues" dxfId="426" priority="623"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1929:G1934">
-    <cfRule type="duplicateValues" dxfId="425" priority="620"/>
+    <cfRule type="duplicateValues" dxfId="425" priority="622"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1942">
-    <cfRule type="duplicateValues" dxfId="424" priority="619"/>
+    <cfRule type="duplicateValues" dxfId="424" priority="621"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1942">
-    <cfRule type="duplicateValues" dxfId="423" priority="618"/>
+    <cfRule type="duplicateValues" dxfId="423" priority="620"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1942:G1951">
-    <cfRule type="duplicateValues" dxfId="422" priority="617"/>
+    <cfRule type="duplicateValues" dxfId="422" priority="619"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1938 G1940:G1951">
-    <cfRule type="duplicateValues" dxfId="421" priority="616"/>
+    <cfRule type="duplicateValues" dxfId="421" priority="618"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1940:G1951">
-    <cfRule type="duplicateValues" dxfId="420" priority="615"/>
+    <cfRule type="duplicateValues" dxfId="420" priority="617"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1942:H1951">
-    <cfRule type="duplicateValues" dxfId="419" priority="614"/>
+    <cfRule type="duplicateValues" dxfId="419" priority="616"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1940:H1951">
-    <cfRule type="duplicateValues" dxfId="418" priority="613"/>
+    <cfRule type="duplicateValues" dxfId="418" priority="615"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1960:G1970">
-    <cfRule type="duplicateValues" dxfId="417" priority="612"/>
+    <cfRule type="duplicateValues" dxfId="417" priority="614"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1963:G1968">
-    <cfRule type="duplicateValues" dxfId="416" priority="611"/>
+    <cfRule type="duplicateValues" dxfId="416" priority="613"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1964:G1970">
-    <cfRule type="duplicateValues" dxfId="415" priority="610"/>
+    <cfRule type="duplicateValues" dxfId="415" priority="612"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1974">
-    <cfRule type="duplicateValues" dxfId="414" priority="609"/>
+    <cfRule type="duplicateValues" dxfId="414" priority="611"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1967:G1968">
-    <cfRule type="duplicateValues" dxfId="413" priority="608"/>
+    <cfRule type="duplicateValues" dxfId="413" priority="610"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1964:G1968">
-    <cfRule type="duplicateValues" dxfId="412" priority="607"/>
+    <cfRule type="duplicateValues" dxfId="412" priority="609"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1968:G1970">
-    <cfRule type="duplicateValues" dxfId="411" priority="606"/>
+    <cfRule type="duplicateValues" dxfId="411" priority="608"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1958:G1968">
-    <cfRule type="duplicateValues" dxfId="410" priority="605"/>
+    <cfRule type="duplicateValues" dxfId="410" priority="607"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1959:G1968">
-    <cfRule type="duplicateValues" dxfId="409" priority="604"/>
+    <cfRule type="duplicateValues" dxfId="409" priority="606"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1960:G1968">
-    <cfRule type="duplicateValues" dxfId="408" priority="603"/>
+    <cfRule type="duplicateValues" dxfId="408" priority="605"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1961:G1968">
-    <cfRule type="duplicateValues" dxfId="407" priority="602"/>
+    <cfRule type="duplicateValues" dxfId="407" priority="604"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1962:G1968">
-    <cfRule type="duplicateValues" dxfId="406" priority="601"/>
+    <cfRule type="duplicateValues" dxfId="406" priority="603"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1963:G1970">
-    <cfRule type="duplicateValues" dxfId="405" priority="600"/>
+    <cfRule type="duplicateValues" dxfId="405" priority="602"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1965:G1968">
-    <cfRule type="duplicateValues" dxfId="404" priority="598"/>
+    <cfRule type="duplicateValues" dxfId="404" priority="600"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1966:G1968">
-    <cfRule type="duplicateValues" dxfId="403" priority="597"/>
+    <cfRule type="duplicateValues" dxfId="403" priority="599"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1968">
-    <cfRule type="duplicateValues" dxfId="402" priority="596"/>
+    <cfRule type="duplicateValues" dxfId="402" priority="598"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1977">
-    <cfRule type="duplicateValues" dxfId="401" priority="579"/>
+    <cfRule type="duplicateValues" dxfId="401" priority="581"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1980">
-    <cfRule type="duplicateValues" dxfId="400" priority="578"/>
+    <cfRule type="duplicateValues" dxfId="400" priority="580"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1981">
-    <cfRule type="duplicateValues" dxfId="399" priority="577"/>
+    <cfRule type="duplicateValues" dxfId="399" priority="579"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1987">
-    <cfRule type="duplicateValues" dxfId="398" priority="576"/>
+    <cfRule type="duplicateValues" dxfId="398" priority="578"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1982">
-    <cfRule type="duplicateValues" dxfId="397" priority="572"/>
+    <cfRule type="duplicateValues" dxfId="397" priority="574"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1983">
-    <cfRule type="duplicateValues" dxfId="396" priority="563"/>
+    <cfRule type="duplicateValues" dxfId="396" priority="565"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1980">
-    <cfRule type="duplicateValues" dxfId="395" priority="561"/>
+    <cfRule type="duplicateValues" dxfId="395" priority="563"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1981">
-    <cfRule type="duplicateValues" dxfId="394" priority="560"/>
+    <cfRule type="duplicateValues" dxfId="394" priority="562"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1987">
-    <cfRule type="duplicateValues" dxfId="393" priority="559"/>
+    <cfRule type="duplicateValues" dxfId="393" priority="561"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1982">
-    <cfRule type="duplicateValues" dxfId="392" priority="558"/>
+    <cfRule type="duplicateValues" dxfId="392" priority="560"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1982:H1984">
-    <cfRule type="duplicateValues" dxfId="391" priority="552"/>
+    <cfRule type="duplicateValues" dxfId="391" priority="554"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1981:H1984">
-    <cfRule type="duplicateValues" dxfId="390" priority="551"/>
+    <cfRule type="duplicateValues" dxfId="390" priority="553"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1983">
-    <cfRule type="duplicateValues" dxfId="389" priority="545"/>
+    <cfRule type="duplicateValues" dxfId="389" priority="547"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1964:G1974">
-    <cfRule type="duplicateValues" dxfId="388" priority="53349"/>
+    <cfRule type="duplicateValues" dxfId="388" priority="53351"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1971:G1973">
-    <cfRule type="duplicateValues" dxfId="387" priority="53351"/>
+    <cfRule type="duplicateValues" dxfId="387" priority="53353"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1967:G1973">
-    <cfRule type="duplicateValues" dxfId="386" priority="53352"/>
+    <cfRule type="duplicateValues" dxfId="386" priority="53354"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1968:G1973">
-    <cfRule type="duplicateValues" dxfId="385" priority="53353"/>
+    <cfRule type="duplicateValues" dxfId="385" priority="53355"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1969:G1973">
-    <cfRule type="duplicateValues" dxfId="384" priority="53354"/>
+    <cfRule type="duplicateValues" dxfId="384" priority="53356"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1970:G1973">
-    <cfRule type="duplicateValues" dxfId="383" priority="53355"/>
+    <cfRule type="duplicateValues" dxfId="383" priority="53357"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1964:G1973">
-    <cfRule type="duplicateValues" dxfId="382" priority="53356"/>
+    <cfRule type="duplicateValues" dxfId="382" priority="53358"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1958:G1973">
-    <cfRule type="duplicateValues" dxfId="381" priority="53357"/>
+    <cfRule type="duplicateValues" dxfId="381" priority="53359"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1961:G1973">
-    <cfRule type="duplicateValues" dxfId="380" priority="53358"/>
+    <cfRule type="duplicateValues" dxfId="380" priority="53360"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1962:G1973">
-    <cfRule type="duplicateValues" dxfId="379" priority="53359"/>
+    <cfRule type="duplicateValues" dxfId="379" priority="53361"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1963:G1973">
-    <cfRule type="duplicateValues" dxfId="378" priority="53360"/>
+    <cfRule type="duplicateValues" dxfId="378" priority="53362"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1966:G1973">
-    <cfRule type="duplicateValues" dxfId="377" priority="53361"/>
+    <cfRule type="duplicateValues" dxfId="377" priority="53363"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1956 A1955:A1973 G1958:G1974">
-    <cfRule type="duplicateValues" dxfId="376" priority="53362"/>
+    <cfRule type="duplicateValues" dxfId="376" priority="53364"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1956 G1958:G1974">
-    <cfRule type="duplicateValues" dxfId="375" priority="53366"/>
+    <cfRule type="duplicateValues" dxfId="375" priority="53368"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1965:G1974">
-    <cfRule type="duplicateValues" dxfId="374" priority="53369"/>
+    <cfRule type="duplicateValues" dxfId="374" priority="53371"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1982:G1986">
-    <cfRule type="duplicateValues" dxfId="373" priority="54771"/>
+    <cfRule type="duplicateValues" dxfId="373" priority="54773"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1978 G1980:G1986">
-    <cfRule type="duplicateValues" dxfId="372" priority="54772"/>
+    <cfRule type="duplicateValues" dxfId="372" priority="54774"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1980:G1986">
-    <cfRule type="duplicateValues" dxfId="371" priority="54774"/>
+    <cfRule type="duplicateValues" dxfId="371" priority="54776"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1978 G1977:H1978 G1980:G1987">
-    <cfRule type="duplicateValues" dxfId="370" priority="54876"/>
+    <cfRule type="duplicateValues" dxfId="370" priority="54878"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1980:H1987">
-    <cfRule type="duplicateValues" dxfId="369" priority="54883"/>
+    <cfRule type="duplicateValues" dxfId="369" priority="54885"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1982:H1986">
-    <cfRule type="duplicateValues" dxfId="368" priority="54888"/>
+    <cfRule type="duplicateValues" dxfId="368" priority="54890"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1980:H1986">
-    <cfRule type="duplicateValues" dxfId="367" priority="54889"/>
+    <cfRule type="duplicateValues" dxfId="367" priority="54891"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1990">
-    <cfRule type="duplicateValues" dxfId="366" priority="544"/>
+    <cfRule type="duplicateValues" dxfId="366" priority="546"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2006">
-    <cfRule type="duplicateValues" dxfId="365" priority="541"/>
+    <cfRule type="duplicateValues" dxfId="365" priority="543"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2006">
-    <cfRule type="duplicateValues" dxfId="364" priority="536"/>
+    <cfRule type="duplicateValues" dxfId="364" priority="538"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2009">
-    <cfRule type="duplicateValues" dxfId="363" priority="516"/>
+    <cfRule type="duplicateValues" dxfId="363" priority="518"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2012">
-    <cfRule type="duplicateValues" dxfId="362" priority="514"/>
+    <cfRule type="duplicateValues" dxfId="362" priority="516"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2026">
-    <cfRule type="duplicateValues" dxfId="361" priority="513"/>
+    <cfRule type="duplicateValues" dxfId="361" priority="515"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2012">
-    <cfRule type="duplicateValues" dxfId="360" priority="509"/>
+    <cfRule type="duplicateValues" dxfId="360" priority="511"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2026">
-    <cfRule type="duplicateValues" dxfId="359" priority="508"/>
+    <cfRule type="duplicateValues" dxfId="359" priority="510"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1991">
-    <cfRule type="duplicateValues" dxfId="358" priority="59557"/>
+    <cfRule type="duplicateValues" dxfId="358" priority="59559"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1991 G1990:H1991 G2006">
-    <cfRule type="duplicateValues" dxfId="357" priority="59559"/>
+    <cfRule type="duplicateValues" dxfId="357" priority="59561"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2012:H2026">
-    <cfRule type="duplicateValues" dxfId="356" priority="81524"/>
+    <cfRule type="duplicateValues" dxfId="356" priority="81526"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2013:G2025">
-    <cfRule type="duplicateValues" dxfId="355" priority="83080"/>
+    <cfRule type="duplicateValues" dxfId="355" priority="83082"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2013:H2025">
-    <cfRule type="duplicateValues" dxfId="354" priority="83081"/>
+    <cfRule type="duplicateValues" dxfId="354" priority="83083"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2010 G2012:G2025">
-    <cfRule type="duplicateValues" dxfId="353" priority="83087"/>
+    <cfRule type="duplicateValues" dxfId="353" priority="83089"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2012:G2025">
-    <cfRule type="duplicateValues" dxfId="352" priority="83089"/>
+    <cfRule type="duplicateValues" dxfId="352" priority="83091"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2010 G2012:G2026 H2009:H2010 G2010">
-    <cfRule type="duplicateValues" dxfId="351" priority="83090"/>
+    <cfRule type="duplicateValues" dxfId="351" priority="83092"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2012:H2025">
-    <cfRule type="duplicateValues" dxfId="350" priority="83094"/>
+    <cfRule type="duplicateValues" dxfId="350" priority="83096"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2014:G2024">
-    <cfRule type="duplicateValues" dxfId="349" priority="457"/>
+    <cfRule type="duplicateValues" dxfId="349" priority="459"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2017:G2022">
-    <cfRule type="duplicateValues" dxfId="348" priority="456"/>
+    <cfRule type="duplicateValues" dxfId="348" priority="458"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2018:G2024">
-    <cfRule type="duplicateValues" dxfId="347" priority="455"/>
+    <cfRule type="duplicateValues" dxfId="347" priority="457"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2028">
-    <cfRule type="duplicateValues" dxfId="346" priority="454"/>
+    <cfRule type="duplicateValues" dxfId="346" priority="456"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2021:G2022">
-    <cfRule type="duplicateValues" dxfId="345" priority="453"/>
+    <cfRule type="duplicateValues" dxfId="345" priority="455"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2018:G2022">
-    <cfRule type="duplicateValues" dxfId="344" priority="452"/>
+    <cfRule type="duplicateValues" dxfId="344" priority="454"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2022:G2024">
-    <cfRule type="duplicateValues" dxfId="343" priority="451"/>
+    <cfRule type="duplicateValues" dxfId="343" priority="453"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2012:G2022">
-    <cfRule type="duplicateValues" dxfId="342" priority="450"/>
+    <cfRule type="duplicateValues" dxfId="342" priority="452"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2013:G2022">
-    <cfRule type="duplicateValues" dxfId="341" priority="449"/>
+    <cfRule type="duplicateValues" dxfId="341" priority="451"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2014:G2022">
-    <cfRule type="duplicateValues" dxfId="340" priority="448"/>
+    <cfRule type="duplicateValues" dxfId="340" priority="450"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2015:G2022">
-    <cfRule type="duplicateValues" dxfId="339" priority="447"/>
+    <cfRule type="duplicateValues" dxfId="339" priority="449"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2016:G2022">
-    <cfRule type="duplicateValues" dxfId="338" priority="446"/>
+    <cfRule type="duplicateValues" dxfId="338" priority="448"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2017:G2024">
-    <cfRule type="duplicateValues" dxfId="337" priority="445"/>
+    <cfRule type="duplicateValues" dxfId="337" priority="447"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2019:G2022">
-    <cfRule type="duplicateValues" dxfId="336" priority="444"/>
+    <cfRule type="duplicateValues" dxfId="336" priority="446"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2034:G2044">
-    <cfRule type="duplicateValues" dxfId="335" priority="443"/>
+    <cfRule type="duplicateValues" dxfId="335" priority="445"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2037:G2044">
-    <cfRule type="duplicateValues" dxfId="334" priority="442"/>
+    <cfRule type="duplicateValues" dxfId="334" priority="444"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2038:G2044">
-    <cfRule type="duplicateValues" dxfId="333" priority="441"/>
+    <cfRule type="duplicateValues" dxfId="333" priority="443"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2047">
-    <cfRule type="duplicateValues" dxfId="332" priority="440"/>
+    <cfRule type="duplicateValues" dxfId="332" priority="442"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2041:G2044">
-    <cfRule type="duplicateValues" dxfId="331" priority="439"/>
+    <cfRule type="duplicateValues" dxfId="331" priority="441"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2042:G2044">
-    <cfRule type="duplicateValues" dxfId="330" priority="437"/>
+    <cfRule type="duplicateValues" dxfId="330" priority="439"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2032:G2044">
-    <cfRule type="duplicateValues" dxfId="329" priority="436"/>
+    <cfRule type="duplicateValues" dxfId="329" priority="438"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2033:G2044">
-    <cfRule type="duplicateValues" dxfId="328" priority="435"/>
+    <cfRule type="duplicateValues" dxfId="328" priority="437"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2035:G2044">
-    <cfRule type="duplicateValues" dxfId="327" priority="433"/>
+    <cfRule type="duplicateValues" dxfId="327" priority="435"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2036:G2044">
-    <cfRule type="duplicateValues" dxfId="326" priority="432"/>
+    <cfRule type="duplicateValues" dxfId="326" priority="434"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2039:G2044">
-    <cfRule type="duplicateValues" dxfId="325" priority="430"/>
+    <cfRule type="duplicateValues" dxfId="325" priority="432"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2040:G2044">
-    <cfRule type="duplicateValues" dxfId="324" priority="429"/>
+    <cfRule type="duplicateValues" dxfId="324" priority="431"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2038:G2047">
-    <cfRule type="duplicateValues" dxfId="323" priority="421"/>
+    <cfRule type="duplicateValues" dxfId="323" priority="423"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2045:G2046">
-    <cfRule type="duplicateValues" dxfId="322" priority="86101"/>
+    <cfRule type="duplicateValues" dxfId="322" priority="86103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2041:G2046">
-    <cfRule type="duplicateValues" dxfId="321" priority="86102"/>
+    <cfRule type="duplicateValues" dxfId="321" priority="86104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2042:G2046">
-    <cfRule type="duplicateValues" dxfId="320" priority="86103"/>
+    <cfRule type="duplicateValues" dxfId="320" priority="86105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2043:G2046">
-    <cfRule type="duplicateValues" dxfId="319" priority="86104"/>
+    <cfRule type="duplicateValues" dxfId="319" priority="86106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2044:G2046">
-    <cfRule type="duplicateValues" dxfId="318" priority="86105"/>
+    <cfRule type="duplicateValues" dxfId="318" priority="86107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2038:G2046">
-    <cfRule type="duplicateValues" dxfId="317" priority="86106"/>
+    <cfRule type="duplicateValues" dxfId="317" priority="86108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2032:G2046">
-    <cfRule type="duplicateValues" dxfId="316" priority="86107"/>
+    <cfRule type="duplicateValues" dxfId="316" priority="86109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2035:G2046">
-    <cfRule type="duplicateValues" dxfId="315" priority="86108"/>
+    <cfRule type="duplicateValues" dxfId="315" priority="86110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2036:G2046">
-    <cfRule type="duplicateValues" dxfId="314" priority="86109"/>
+    <cfRule type="duplicateValues" dxfId="314" priority="86111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2037:G2046">
-    <cfRule type="duplicateValues" dxfId="313" priority="86110"/>
+    <cfRule type="duplicateValues" dxfId="313" priority="86112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2040:G2046">
-    <cfRule type="duplicateValues" dxfId="312" priority="86111"/>
+    <cfRule type="duplicateValues" dxfId="312" priority="86113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2030 A2029:A2046 G2032:G2047">
-    <cfRule type="duplicateValues" dxfId="311" priority="86112"/>
+    <cfRule type="duplicateValues" dxfId="311" priority="86114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2030 G2032:G2047">
-    <cfRule type="duplicateValues" dxfId="310" priority="86116"/>
+    <cfRule type="duplicateValues" dxfId="310" priority="86118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2039:G2047">
-    <cfRule type="duplicateValues" dxfId="309" priority="86119"/>
+    <cfRule type="duplicateValues" dxfId="309" priority="86121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2055:G2065">
-    <cfRule type="duplicateValues" dxfId="308" priority="412"/>
+    <cfRule type="duplicateValues" dxfId="308" priority="414"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2058:G2065">
-    <cfRule type="duplicateValues" dxfId="307" priority="411"/>
+    <cfRule type="duplicateValues" dxfId="307" priority="413"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2059:G2065">
-    <cfRule type="duplicateValues" dxfId="306" priority="410"/>
+    <cfRule type="duplicateValues" dxfId="306" priority="412"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2069">
-    <cfRule type="duplicateValues" dxfId="305" priority="409"/>
+    <cfRule type="duplicateValues" dxfId="305" priority="411"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2062:G2065">
-    <cfRule type="duplicateValues" dxfId="304" priority="408"/>
+    <cfRule type="duplicateValues" dxfId="304" priority="410"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2063:G2065">
-    <cfRule type="duplicateValues" dxfId="303" priority="407"/>
+    <cfRule type="duplicateValues" dxfId="303" priority="409"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2053:G2065">
-    <cfRule type="duplicateValues" dxfId="302" priority="406"/>
+    <cfRule type="duplicateValues" dxfId="302" priority="408"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2054:G2065">
-    <cfRule type="duplicateValues" dxfId="301" priority="405"/>
+    <cfRule type="duplicateValues" dxfId="301" priority="407"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2056:G2065">
-    <cfRule type="duplicateValues" dxfId="300" priority="404"/>
+    <cfRule type="duplicateValues" dxfId="300" priority="406"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2057:G2065">
-    <cfRule type="duplicateValues" dxfId="299" priority="403"/>
+    <cfRule type="duplicateValues" dxfId="299" priority="405"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2060:G2065">
-    <cfRule type="duplicateValues" dxfId="298" priority="402"/>
+    <cfRule type="duplicateValues" dxfId="298" priority="404"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2061:G2065">
-    <cfRule type="duplicateValues" dxfId="297" priority="401"/>
+    <cfRule type="duplicateValues" dxfId="297" priority="403"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2059:G2069">
-    <cfRule type="duplicateValues" dxfId="296" priority="400"/>
+    <cfRule type="duplicateValues" dxfId="296" priority="402"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2066:G2068">
-    <cfRule type="duplicateValues" dxfId="295" priority="399"/>
+    <cfRule type="duplicateValues" dxfId="295" priority="401"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2062:G2068">
-    <cfRule type="duplicateValues" dxfId="294" priority="398"/>
+    <cfRule type="duplicateValues" dxfId="294" priority="400"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2063:G2068">
-    <cfRule type="duplicateValues" dxfId="293" priority="397"/>
+    <cfRule type="duplicateValues" dxfId="293" priority="399"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2064:G2068">
-    <cfRule type="duplicateValues" dxfId="292" priority="396"/>
+    <cfRule type="duplicateValues" dxfId="292" priority="398"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2065:G2068">
-    <cfRule type="duplicateValues" dxfId="291" priority="395"/>
+    <cfRule type="duplicateValues" dxfId="291" priority="397"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2059:G2068">
-    <cfRule type="duplicateValues" dxfId="290" priority="394"/>
+    <cfRule type="duplicateValues" dxfId="290" priority="396"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2053:G2068">
-    <cfRule type="duplicateValues" dxfId="289" priority="393"/>
+    <cfRule type="duplicateValues" dxfId="289" priority="395"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2056:G2068">
-    <cfRule type="duplicateValues" dxfId="288" priority="392"/>
+    <cfRule type="duplicateValues" dxfId="288" priority="394"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2057:G2068">
-    <cfRule type="duplicateValues" dxfId="287" priority="391"/>
+    <cfRule type="duplicateValues" dxfId="287" priority="393"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2058:G2068">
-    <cfRule type="duplicateValues" dxfId="286" priority="390"/>
+    <cfRule type="duplicateValues" dxfId="286" priority="392"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2061:G2068">
-    <cfRule type="duplicateValues" dxfId="285" priority="389"/>
+    <cfRule type="duplicateValues" dxfId="285" priority="391"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2051 A2050:A2068 G2053:G2069">
-    <cfRule type="duplicateValues" dxfId="284" priority="388"/>
+    <cfRule type="duplicateValues" dxfId="284" priority="390"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2051 G2053:G2069">
-    <cfRule type="duplicateValues" dxfId="283" priority="387"/>
+    <cfRule type="duplicateValues" dxfId="283" priority="389"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2060:G2069">
-    <cfRule type="duplicateValues" dxfId="282" priority="386"/>
+    <cfRule type="duplicateValues" dxfId="282" priority="388"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2072">
-    <cfRule type="duplicateValues" dxfId="281" priority="385"/>
+    <cfRule type="duplicateValues" dxfId="281" priority="387"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2078">
-    <cfRule type="duplicateValues" dxfId="280" priority="383"/>
+    <cfRule type="duplicateValues" dxfId="280" priority="385"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2078">
-    <cfRule type="duplicateValues" dxfId="279" priority="381"/>
+    <cfRule type="duplicateValues" dxfId="279" priority="383"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2081">
-    <cfRule type="duplicateValues" dxfId="278" priority="358"/>
+    <cfRule type="duplicateValues" dxfId="278" priority="360"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2095">
-    <cfRule type="duplicateValues" dxfId="277" priority="356"/>
+    <cfRule type="duplicateValues" dxfId="277" priority="358"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2082">
-    <cfRule type="duplicateValues" dxfId="276" priority="339"/>
+    <cfRule type="duplicateValues" dxfId="276" priority="341"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2095 A2082 H2081:H2082 G2082">
-    <cfRule type="duplicateValues" dxfId="275" priority="337"/>
+    <cfRule type="duplicateValues" dxfId="275" priority="339"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2076">
-    <cfRule type="duplicateValues" dxfId="274" priority="91095"/>
+    <cfRule type="duplicateValues" dxfId="274" priority="91097"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2075:H2078">
-    <cfRule type="duplicateValues" dxfId="273" priority="91117"/>
+    <cfRule type="duplicateValues" dxfId="273" priority="91119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2076:G2077">
-    <cfRule type="duplicateValues" dxfId="272" priority="92770"/>
+    <cfRule type="duplicateValues" dxfId="272" priority="92772"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2076:G2077 G2073">
-    <cfRule type="duplicateValues" dxfId="271" priority="92771"/>
+    <cfRule type="duplicateValues" dxfId="271" priority="92773"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2076:G2078 A2073 H2072:H2073 G2073">
-    <cfRule type="duplicateValues" dxfId="270" priority="92773"/>
+    <cfRule type="duplicateValues" dxfId="270" priority="92775"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2075:H2077">
-    <cfRule type="duplicateValues" dxfId="269" priority="92780"/>
+    <cfRule type="duplicateValues" dxfId="269" priority="92782"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2103:G2113">
-    <cfRule type="duplicateValues" dxfId="268" priority="329"/>
+    <cfRule type="duplicateValues" dxfId="268" priority="331"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2106:G2113">
-    <cfRule type="duplicateValues" dxfId="267" priority="328"/>
+    <cfRule type="duplicateValues" dxfId="267" priority="330"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2107:G2113">
-    <cfRule type="duplicateValues" dxfId="266" priority="327"/>
+    <cfRule type="duplicateValues" dxfId="266" priority="329"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2116">
-    <cfRule type="duplicateValues" dxfId="265" priority="326"/>
+    <cfRule type="duplicateValues" dxfId="265" priority="328"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2110:G2113">
-    <cfRule type="duplicateValues" dxfId="264" priority="325"/>
+    <cfRule type="duplicateValues" dxfId="264" priority="327"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2111:G2113">
-    <cfRule type="duplicateValues" dxfId="263" priority="324"/>
+    <cfRule type="duplicateValues" dxfId="263" priority="326"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2101:G2113">
-    <cfRule type="duplicateValues" dxfId="262" priority="323"/>
+    <cfRule type="duplicateValues" dxfId="262" priority="325"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2102:G2113">
-    <cfRule type="duplicateValues" dxfId="261" priority="322"/>
+    <cfRule type="duplicateValues" dxfId="261" priority="324"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2104:G2113">
-    <cfRule type="duplicateValues" dxfId="260" priority="321"/>
+    <cfRule type="duplicateValues" dxfId="260" priority="323"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2105:G2113">
-    <cfRule type="duplicateValues" dxfId="259" priority="320"/>
+    <cfRule type="duplicateValues" dxfId="259" priority="322"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2108:G2113">
-    <cfRule type="duplicateValues" dxfId="258" priority="319"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="321"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2109:G2113">
-    <cfRule type="duplicateValues" dxfId="257" priority="318"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="320"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2107:G2116">
-    <cfRule type="duplicateValues" dxfId="256" priority="311"/>
+    <cfRule type="duplicateValues" dxfId="256" priority="313"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2114:G2115">
-    <cfRule type="duplicateValues" dxfId="255" priority="94466"/>
+    <cfRule type="duplicateValues" dxfId="255" priority="94468"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2110:G2115">
-    <cfRule type="duplicateValues" dxfId="254" priority="94467"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="94469"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2111:G2115">
-    <cfRule type="duplicateValues" dxfId="253" priority="94468"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="94470"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2112:G2115">
-    <cfRule type="duplicateValues" dxfId="252" priority="94469"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="94471"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2113:G2115">
-    <cfRule type="duplicateValues" dxfId="251" priority="94470"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="94472"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2107:G2115">
-    <cfRule type="duplicateValues" dxfId="250" priority="94471"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="94473"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2101:G2115">
-    <cfRule type="duplicateValues" dxfId="249" priority="94472"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="94474"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2104:G2115">
-    <cfRule type="duplicateValues" dxfId="248" priority="94473"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="94475"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2105:G2115">
-    <cfRule type="duplicateValues" dxfId="247" priority="94474"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="94476"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2106:G2115">
-    <cfRule type="duplicateValues" dxfId="246" priority="94475"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="94477"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2109:G2115">
-    <cfRule type="duplicateValues" dxfId="245" priority="94476"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="94478"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2099 G2101:G2116 A2098:A2116">
-    <cfRule type="duplicateValues" dxfId="244" priority="94477"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="94479"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2099 G2101:G2116">
-    <cfRule type="duplicateValues" dxfId="243" priority="94481"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="94483"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2108:G2116">
-    <cfRule type="duplicateValues" dxfId="242" priority="94484"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="94486"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2119">
-    <cfRule type="duplicateValues" dxfId="241" priority="302"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="304"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2122">
-    <cfRule type="duplicateValues" dxfId="240" priority="301"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="303"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2123">
-    <cfRule type="duplicateValues" dxfId="239" priority="300"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="302"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2120 G2122">
-    <cfRule type="duplicateValues" dxfId="238" priority="96191"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="96193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2120 G2122:G2123 H2119:H2120 G2120">
-    <cfRule type="duplicateValues" dxfId="237" priority="96194"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="96196"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2139">
-    <cfRule type="duplicateValues" dxfId="236" priority="274"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="276"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2137:G2138">
-    <cfRule type="duplicateValues" dxfId="235" priority="104837"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="104839"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2136:G2138">
-    <cfRule type="duplicateValues" dxfId="234" priority="104838"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="104840"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2131:G2138">
-    <cfRule type="duplicateValues" dxfId="233" priority="104839"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="104841"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2132:G2138">
-    <cfRule type="duplicateValues" dxfId="232" priority="104840"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="104842"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2135:G2138">
-    <cfRule type="duplicateValues" dxfId="231" priority="104841"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="104843"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2133:G2138">
-    <cfRule type="duplicateValues" dxfId="230" priority="104842"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="104844"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2134:G2138">
-    <cfRule type="duplicateValues" dxfId="229" priority="104843"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="104845"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2132:G2139">
-    <cfRule type="duplicateValues" dxfId="228" priority="104844"/>
+    <cfRule type="duplicateValues" dxfId="228" priority="104846"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2130:G2138">
-    <cfRule type="duplicateValues" dxfId="227" priority="104846"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="104848"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2129:G2138">
-    <cfRule type="duplicateValues" dxfId="226" priority="104847"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="104849"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2133:G2139">
-    <cfRule type="duplicateValues" dxfId="225" priority="104848"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="104850"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2127 G2129:G2139 A2126:A2139">
-    <cfRule type="duplicateValues" dxfId="224" priority="104850"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="104852"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2127 G2129:G2139">
-    <cfRule type="duplicateValues" dxfId="223" priority="104855"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="104857"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2158">
-    <cfRule type="duplicateValues" dxfId="222" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2153:G2157">
-    <cfRule type="duplicateValues" dxfId="221" priority="106588"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="106590"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2152:G2157">
-    <cfRule type="duplicateValues" dxfId="220" priority="106589"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="106591"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2147:G2157">
-    <cfRule type="duplicateValues" dxfId="219" priority="106590"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="106592"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2148:G2157">
-    <cfRule type="duplicateValues" dxfId="218" priority="106591"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="106593"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2151:G2157">
-    <cfRule type="duplicateValues" dxfId="217" priority="106592"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="106594"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2149:G2157">
-    <cfRule type="duplicateValues" dxfId="216" priority="106593"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="106595"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2150:G2157">
-    <cfRule type="duplicateValues" dxfId="215" priority="106594"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="106596"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2148:G2158">
-    <cfRule type="duplicateValues" dxfId="214" priority="106595"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="106597"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2146:G2157">
-    <cfRule type="duplicateValues" dxfId="213" priority="106597"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="106599"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2145:G2157">
-    <cfRule type="duplicateValues" dxfId="212" priority="106598"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="106600"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2149:G2158">
-    <cfRule type="duplicateValues" dxfId="211" priority="106599"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="106601"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2143 G2145:G2158 A2142:A2158">
-    <cfRule type="duplicateValues" dxfId="210" priority="106601"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="106603"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2143 G2145:G2158">
-    <cfRule type="duplicateValues" dxfId="209" priority="106606"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="106608"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2165">
-    <cfRule type="duplicateValues" dxfId="208" priority="236"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="238"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2164">
-    <cfRule type="duplicateValues" dxfId="207" priority="110111"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="110113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2162 G2164:G2165 A2161:A2165">
-    <cfRule type="duplicateValues" dxfId="206" priority="110113"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="110115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2162 G2164:G2165">
-    <cfRule type="duplicateValues" dxfId="205" priority="110118"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="110120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2185">
-    <cfRule type="duplicateValues" dxfId="204" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="224"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2174:G2185">
-    <cfRule type="duplicateValues" dxfId="203" priority="111880"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="111882"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2175:G2185">
-    <cfRule type="duplicateValues" dxfId="202" priority="111882"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="111884"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2179:G2184">
-    <cfRule type="duplicateValues" dxfId="201" priority="113658"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="113660"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2178:G2184">
-    <cfRule type="duplicateValues" dxfId="200" priority="113659"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="113661"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2173:G2184">
-    <cfRule type="duplicateValues" dxfId="199" priority="113660"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="113662"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2174:G2184">
-    <cfRule type="duplicateValues" dxfId="198" priority="113661"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="113663"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2177:G2184">
-    <cfRule type="duplicateValues" dxfId="197" priority="113662"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="113664"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2175:G2184">
-    <cfRule type="duplicateValues" dxfId="196" priority="113663"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="113665"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2176:G2184">
-    <cfRule type="duplicateValues" dxfId="195" priority="113664"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="113666"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2172:G2184">
-    <cfRule type="duplicateValues" dxfId="194" priority="113665"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="113667"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2171:G2184">
-    <cfRule type="duplicateValues" dxfId="193" priority="113666"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="113668"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2169 A2168:A2185 G2171:G2185">
-    <cfRule type="duplicateValues" dxfId="192" priority="113667"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="113669"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2169 G2171:G2185">
-    <cfRule type="duplicateValues" dxfId="191" priority="113672"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="113674"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2195">
-    <cfRule type="duplicateValues" dxfId="190" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2193:G2194">
-    <cfRule type="duplicateValues" dxfId="189" priority="115450"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="115452"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2192:G2194">
-    <cfRule type="duplicateValues" dxfId="188" priority="115451"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="115453"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2191:G2194">
-    <cfRule type="duplicateValues" dxfId="187" priority="115452"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="115454"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2189 A2188:A2195 G2191:G2195">
-    <cfRule type="duplicateValues" dxfId="186" priority="115453"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="115455"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2189 G2191:G2195">
-    <cfRule type="duplicateValues" dxfId="185" priority="115458"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="115460"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2219">
-    <cfRule type="duplicateValues" dxfId="184" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="196"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2204:G2219">
-    <cfRule type="duplicateValues" dxfId="183" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2205:G2219">
-    <cfRule type="duplicateValues" dxfId="182" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="188"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2201">
-    <cfRule type="duplicateValues" dxfId="181" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2209:G2218">
-    <cfRule type="duplicateValues" dxfId="180" priority="117249"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="117251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2208:G2218">
-    <cfRule type="duplicateValues" dxfId="179" priority="117250"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="117252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2203:G2218">
-    <cfRule type="duplicateValues" dxfId="178" priority="117251"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="117253"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2204:G2218">
-    <cfRule type="duplicateValues" dxfId="177" priority="117252"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="117254"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2207:G2218">
-    <cfRule type="duplicateValues" dxfId="176" priority="117253"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="117255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2205:G2218">
-    <cfRule type="duplicateValues" dxfId="175" priority="117254"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="117256"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2206:G2218">
-    <cfRule type="duplicateValues" dxfId="174" priority="117255"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="117257"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2202:G2218">
-    <cfRule type="duplicateValues" dxfId="173" priority="117256"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="117258"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2201:G2218">
-    <cfRule type="duplicateValues" dxfId="172" priority="117257"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="117259"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2199 A2198:A2219 G2201:G2219">
-    <cfRule type="duplicateValues" dxfId="171" priority="117258"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="117260"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2199 G2201:G2219">
-    <cfRule type="duplicateValues" dxfId="170" priority="117263"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="117265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2226">
-    <cfRule type="duplicateValues" dxfId="169" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2225">
-    <cfRule type="duplicateValues" dxfId="168" priority="119069"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="119071"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2223 A2222:A2226 G2225:G2226">
-    <cfRule type="duplicateValues" dxfId="167" priority="119070"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="119072"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2223 G2225:G2226">
-    <cfRule type="duplicateValues" dxfId="166" priority="119075"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="119077"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2251">
-    <cfRule type="duplicateValues" dxfId="165" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="166"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2232">
-    <cfRule type="duplicateValues" dxfId="164" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2239:G2250">
-    <cfRule type="duplicateValues" dxfId="163" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="162"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2238:G2250">
-    <cfRule type="duplicateValues" dxfId="162" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2235:G2251">
-    <cfRule type="duplicateValues" dxfId="161" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2237:G2250">
-    <cfRule type="duplicateValues" dxfId="160" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2236:G2251">
-    <cfRule type="duplicateValues" dxfId="159" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2236:G2250">
-    <cfRule type="duplicateValues" dxfId="158" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2254:G2255 G2257:G2259">
-    <cfRule type="duplicateValues" dxfId="157" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2259">
-    <cfRule type="duplicateValues" dxfId="156" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2257:G2258">
-    <cfRule type="duplicateValues" dxfId="155" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2255 A2254:A2259 G2257:G2259">
-    <cfRule type="duplicateValues" dxfId="154" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2255 G2257:G2259">
-    <cfRule type="duplicateValues" dxfId="153" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2234:G2250">
-    <cfRule type="duplicateValues" dxfId="152" priority="119205"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="119207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2235:G2250">
-    <cfRule type="duplicateValues" dxfId="151" priority="119207"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="119209"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2233:G2250">
-    <cfRule type="duplicateValues" dxfId="150" priority="119210"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="119212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2232:G2250">
-    <cfRule type="duplicateValues" dxfId="149" priority="119212"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="119214"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2230 G2232:G2251 A2229:A2251">
-    <cfRule type="duplicateValues" dxfId="148" priority="119214"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="119216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2230 G2232:G2251">
-    <cfRule type="duplicateValues" dxfId="147" priority="119219"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="119221"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2283">
-    <cfRule type="duplicateValues" dxfId="146" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2265">
-    <cfRule type="duplicateValues" dxfId="145" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2266">
-    <cfRule type="duplicateValues" dxfId="144" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2262:G2263 G2265:G2283">
-    <cfRule type="duplicateValues" dxfId="143" priority="119346"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="119348"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2272:G2282">
-    <cfRule type="duplicateValues" dxfId="142" priority="119349"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="119351"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2271:G2282">
-    <cfRule type="duplicateValues" dxfId="141" priority="119350"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="119352"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2268:G2283">
-    <cfRule type="duplicateValues" dxfId="140" priority="119351"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="119353"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2270:G2282">
-    <cfRule type="duplicateValues" dxfId="139" priority="119353"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="119355"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2269:G2283">
-    <cfRule type="duplicateValues" dxfId="138" priority="119354"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="119356"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2269:G2282">
-    <cfRule type="duplicateValues" dxfId="137" priority="119356"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="119358"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2267:G2282">
-    <cfRule type="duplicateValues" dxfId="136" priority="119357"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="119359"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2268:G2282">
-    <cfRule type="duplicateValues" dxfId="135" priority="119358"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="119360"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2266:G2282">
-    <cfRule type="duplicateValues" dxfId="134" priority="119359"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="119361"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2265:G2282">
-    <cfRule type="duplicateValues" dxfId="133" priority="119360"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="119362"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2263 A2262:A2283 G2265:G2283">
-    <cfRule type="duplicateValues" dxfId="132" priority="119361"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="119363"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2263 G2265:G2283">
-    <cfRule type="duplicateValues" dxfId="131" priority="119366"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="119368"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2290">
-    <cfRule type="duplicateValues" dxfId="130" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2286:G2287 G2289:G2290">
-    <cfRule type="duplicateValues" dxfId="129" priority="121229"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="121231"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2289">
-    <cfRule type="duplicateValues" dxfId="128" priority="121232"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="121234"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2287 A2286:A2290 G2289:G2290">
-    <cfRule type="duplicateValues" dxfId="127" priority="121233"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="121235"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2287 G2289:G2290">
-    <cfRule type="duplicateValues" dxfId="126" priority="121238"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="121240"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2311">
-    <cfRule type="duplicateValues" dxfId="125" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2296">
-    <cfRule type="duplicateValues" dxfId="124" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2297">
-    <cfRule type="duplicateValues" dxfId="123" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2293:G2294 G2296:G2311">
-    <cfRule type="duplicateValues" dxfId="122" priority="123112"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="123114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2303:G2310">
-    <cfRule type="duplicateValues" dxfId="121" priority="123115"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="123117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2302:G2310">
-    <cfRule type="duplicateValues" dxfId="120" priority="123116"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="123118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2299:G2311">
-    <cfRule type="duplicateValues" dxfId="119" priority="123117"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="123119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2301:G2310">
-    <cfRule type="duplicateValues" dxfId="118" priority="123119"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="123121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2300:G2311">
-    <cfRule type="duplicateValues" dxfId="117" priority="123120"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="123122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2300:G2310">
-    <cfRule type="duplicateValues" dxfId="116" priority="123122"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="123124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2298:G2310">
-    <cfRule type="duplicateValues" dxfId="115" priority="123123"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="123125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2299:G2310">
-    <cfRule type="duplicateValues" dxfId="114" priority="123124"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="123126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2297:G2310">
-    <cfRule type="duplicateValues" dxfId="113" priority="123125"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="123127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2296:G2310">
-    <cfRule type="duplicateValues" dxfId="112" priority="123126"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="123128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2294 A2293:A2311 G2296:G2311">
-    <cfRule type="duplicateValues" dxfId="111" priority="123127"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="123129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2294 G2296:G2311">
-    <cfRule type="duplicateValues" dxfId="110" priority="123132"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="123134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2232:G2253 G2260:G2261 H1988:H1991 A1905 A1869 A1841 A1814 A1789 A1763 A1465:A1471 G1412:G1413 G1386:G1387 G1335:H1336 G1315:H1316 G1274:H1275 G1258:H1259 G1216:H1217 G1203:H1204 G1167:H1168 G1141:H1142 G1128:H1129 G1099:H1100 G1086:H1086 F1085:G1085 G651:H652 G637:H638 G604:H605 G578:H579 G570:H571 G547:H548 G1:H539 H540:H546 H549:H569 H572:H577 H580:H603 H606:H636 H639:H650 H653:H687 G688:H1027 H1028:H1084 H1087:H1088 H1090:H1095 H1098 H1101:H1127 H1169:H1193 G1194:H1195 H1196:H1202 H1205:H1215 H1218:H1257 H1260:H1273 H1276:H1314 H1317:H1318 H1337:H1399 G1374:G1377 G1379:G1384 H1401:H1413 H1422:H1464 G1466 G1427:G1428 G1430:G1436 G1425 G1438:G1464 G1422:G1423 G1497 G1468:G1489 G1491:G1495 A1509 G1499:G1507 G1509 G1511:G1524 A1565 G1562:G1565 G1567:G1577 A1614 G1611:G1614 G1616:G1624 G1626:G1653 G1655:G1673 G1675:G1705 A1729 G1707:G1729 G1731:G1737 G1739:G1763 G1765:G1772 G1774:G1789 G1791:G1797 G1799:G1814 G1816:G1822 G1824:G1841 G1843:G1849 G1851:G1869 G1871:G1878 G1880:G1905 H1472:H1905 G1907:G1920 G1922:G1938 H1907:H1938 H1940:H1978 G1940:G1956 G1977:H1978 G1958:G1978 G1990:H1991 G1980:G1991 H2006:H2010 G2006:G2008 G2010 G2012:G2030 G2032:G2051 H2012:H2073 G2053:G2073 H2075:H2082 G2076:G2082 G2095:G2099 G2101:G2120 H2096:H2120 G2122:G2127 G2129:G2143 G2145:G2162 H2124:H1048576 G2164:G2169 G2171:G2189 G2191:G2199 G2201:G2223 G2225:G2230 G2284:G2287 G2289:G2294 G2329 G2317:G2327 G2296:G2313 G2315 G2331:G2349 G2351:G2367 G2378 G2369:G2376 G2380:G2395 G2397 G2399:G2407 G2409:G1048576">
-    <cfRule type="duplicateValues" dxfId="109" priority="124608"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="124610"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2325">
-    <cfRule type="duplicateValues" dxfId="108" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2317">
-    <cfRule type="duplicateValues" dxfId="107" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2318">
-    <cfRule type="duplicateValues" dxfId="106" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2323:G2324">
-    <cfRule type="duplicateValues" dxfId="105" priority="126507"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="126509"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2322:G2324">
-    <cfRule type="duplicateValues" dxfId="104" priority="126508"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="126510"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2321:G2325">
-    <cfRule type="duplicateValues" dxfId="103" priority="126514"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="126516"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2320:G2325">
-    <cfRule type="duplicateValues" dxfId="102" priority="126516"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="126518"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2317:G2325 G2315">
-    <cfRule type="duplicateValues" dxfId="101" priority="128420"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="128422"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2321:G2324">
-    <cfRule type="duplicateValues" dxfId="100" priority="128428"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="128430"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2319:G2324">
-    <cfRule type="duplicateValues" dxfId="99" priority="128430"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="128432"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2320:G2324">
-    <cfRule type="duplicateValues" dxfId="98" priority="128432"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="128434"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2318:G2324">
-    <cfRule type="duplicateValues" dxfId="97" priority="128434"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="128436"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2317:G2324">
-    <cfRule type="duplicateValues" dxfId="96" priority="128436"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="128438"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2315 G2317:G2325 A2315:A2325">
-    <cfRule type="duplicateValues" dxfId="95" priority="128438"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="128440"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2315 G2317:G2325">
-    <cfRule type="duplicateValues" dxfId="94" priority="128443"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="128445"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2345">
-    <cfRule type="duplicateValues" dxfId="93" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2339:G2344">
-    <cfRule type="duplicateValues" dxfId="92" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2338:G2344">
-    <cfRule type="duplicateValues" dxfId="91" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2333:G2344">
-    <cfRule type="duplicateValues" dxfId="90" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2334:G2344">
-    <cfRule type="duplicateValues" dxfId="89" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2337:G2344">
-    <cfRule type="duplicateValues" dxfId="88" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2335:G2344">
-    <cfRule type="duplicateValues" dxfId="87" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2336:G2344">
-    <cfRule type="duplicateValues" dxfId="86" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2334:G2345">
-    <cfRule type="duplicateValues" dxfId="85" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2332:G2344">
-    <cfRule type="duplicateValues" dxfId="84" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2331:G2344">
-    <cfRule type="duplicateValues" dxfId="83" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2335:G2345">
-    <cfRule type="duplicateValues" dxfId="82" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2329 G2331:G2345 A2329:A2345">
-    <cfRule type="duplicateValues" dxfId="81" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2329 G2331:G2345">
-    <cfRule type="duplicateValues" dxfId="80" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2331:G2345 G2329">
-    <cfRule type="duplicateValues" dxfId="79" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2363">
-    <cfRule type="duplicateValues" dxfId="78" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2359:G2362">
-    <cfRule type="duplicateValues" dxfId="77" priority="130379"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="130381"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2358:G2362">
-    <cfRule type="duplicateValues" dxfId="76" priority="130380"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="130382"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2353:G2362">
-    <cfRule type="duplicateValues" dxfId="75" priority="130381"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="130383"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2354:G2362">
-    <cfRule type="duplicateValues" dxfId="74" priority="130382"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="130384"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2357:G2362">
-    <cfRule type="duplicateValues" dxfId="73" priority="130383"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="130385"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2355:G2362">
-    <cfRule type="duplicateValues" dxfId="72" priority="130384"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="130386"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2356:G2362">
-    <cfRule type="duplicateValues" dxfId="71" priority="130385"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="130387"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2354:G2363">
-    <cfRule type="duplicateValues" dxfId="70" priority="130386"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="130388"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2352:G2362">
-    <cfRule type="duplicateValues" dxfId="69" priority="130388"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="130390"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2351:G2362">
-    <cfRule type="duplicateValues" dxfId="68" priority="130389"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="130391"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2355:G2363">
-    <cfRule type="duplicateValues" dxfId="67" priority="130390"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="130392"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2349 A2349:A2363 G2351:G2363">
-    <cfRule type="duplicateValues" dxfId="66" priority="130392"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="130394"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2349 G2351:G2363">
-    <cfRule type="duplicateValues" dxfId="65" priority="130397"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="130399"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2374">
-    <cfRule type="duplicateValues" dxfId="64" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2371:G2373">
-    <cfRule type="duplicateValues" dxfId="63" priority="132351"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="132353"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2372:G2373">
-    <cfRule type="duplicateValues" dxfId="62" priority="132352"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="132354"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2373">
-    <cfRule type="duplicateValues" dxfId="61" priority="132353"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="132355"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2372:G2374">
-    <cfRule type="duplicateValues" dxfId="60" priority="132354"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="132356"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2370:G2373">
-    <cfRule type="duplicateValues" dxfId="59" priority="132356"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="132358"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2369:G2373">
-    <cfRule type="duplicateValues" dxfId="58" priority="132357"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="132359"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2373:G2374">
-    <cfRule type="duplicateValues" dxfId="57" priority="132358"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="132360"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2367 A2367:A2374 G2369:G2374">
-    <cfRule type="duplicateValues" dxfId="56" priority="132360"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="132362"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2367 G2369:G2374">
-    <cfRule type="duplicateValues" dxfId="55" priority="132365"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="132367"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2393">
-    <cfRule type="duplicateValues" dxfId="54" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2388:G2392">
-    <cfRule type="duplicateValues" dxfId="53" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2387:G2392">
-    <cfRule type="duplicateValues" dxfId="52" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2382:G2392">
-    <cfRule type="duplicateValues" dxfId="51" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2383:G2392">
-    <cfRule type="duplicateValues" dxfId="50" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2386:G2392">
-    <cfRule type="duplicateValues" dxfId="49" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2384:G2392">
-    <cfRule type="duplicateValues" dxfId="48" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2385:G2392">
-    <cfRule type="duplicateValues" dxfId="47" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2383:G2393">
-    <cfRule type="duplicateValues" dxfId="46" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2381:G2392">
-    <cfRule type="duplicateValues" dxfId="45" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2380:G2392">
-    <cfRule type="duplicateValues" dxfId="44" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2384:G2393">
-    <cfRule type="duplicateValues" dxfId="43" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2378 A2378:A2393 G2380:G2393">
-    <cfRule type="duplicateValues" dxfId="42" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2378 G2380:G2393">
-    <cfRule type="duplicateValues" dxfId="41" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2403">
-    <cfRule type="duplicateValues" dxfId="40" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2401:G2402">
-    <cfRule type="duplicateValues" dxfId="39" priority="136347"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="136349"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2400:G2402">
-    <cfRule type="duplicateValues" dxfId="38" priority="136348"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="136350"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2399:G2402">
-    <cfRule type="duplicateValues" dxfId="37" priority="136349"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="136351"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2397 A2397:A2403 G2399:G2403">
-    <cfRule type="duplicateValues" dxfId="36" priority="136350"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="136352"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2397 G2399:G2403">
-    <cfRule type="duplicateValues" dxfId="35" priority="136355"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2423">
-    <cfRule type="duplicateValues" dxfId="34" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2417:G2422">
-    <cfRule type="duplicateValues" dxfId="33" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2416:G2422">
-    <cfRule type="duplicateValues" dxfId="32" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2411:G2422">
-    <cfRule type="duplicateValues" dxfId="31" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2412:G2422">
-    <cfRule type="duplicateValues" dxfId="30" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2415:G2422">
-    <cfRule type="duplicateValues" dxfId="29" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2413:G2422">
-    <cfRule type="duplicateValues" dxfId="28" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2414:G2422">
-    <cfRule type="duplicateValues" dxfId="27" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2412:G2423">
-    <cfRule type="duplicateValues" dxfId="26" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2410:G2422">
-    <cfRule type="duplicateValues" dxfId="25" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2409:G2422">
-    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2413:G2423">
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2407 A2407:A2423 G2409:G2423">
-    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2407 G2409:G2423">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="136357"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2426">
+    <cfRule type="duplicateValues" dxfId="34" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2417:G2425">
+    <cfRule type="duplicateValues" dxfId="33" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2416:G2425">
+    <cfRule type="duplicateValues" dxfId="32" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2411:G2425">
+    <cfRule type="duplicateValues" dxfId="31" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2412:G2425">
+    <cfRule type="duplicateValues" dxfId="30" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2415:G2425">
+    <cfRule type="duplicateValues" dxfId="29" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2413:G2425">
+    <cfRule type="duplicateValues" dxfId="28" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2414:G2425">
+    <cfRule type="duplicateValues" dxfId="27" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2412:G2426">
+    <cfRule type="duplicateValues" dxfId="26" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2410:G2425">
+    <cfRule type="duplicateValues" dxfId="25" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2409:G2425">
+    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2413:G2426">
+    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2407 A2407:A2426 G2409:G2426">
+    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2407 G2409:G2426">
+    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2396">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2377">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.15748031496062992" right="0.11811023622047245" top="0.70866141732283472" bottom="0.31496062992125984" header="0.23622047244094491" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
@@ -79812,10 +79923,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A3:G30"/>
+  <dimension ref="A3:G21"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A3" sqref="A3:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -79836,7 +79947,7 @@
   <sheetData>
     <row r="3" spans="1:7" ht="51">
       <c r="A3" s="84" t="s">
-        <v>2680</v>
+        <v>0</v>
       </c>
       <c r="B3" s="85"/>
       <c r="C3" s="85"/>
@@ -79849,7 +79960,7 @@
       <c r="A4" s="6"/>
       <c r="B4" s="8"/>
       <c r="C4" s="86" t="s">
-        <v>3839</v>
+        <v>3895</v>
       </c>
       <c r="D4" s="87"/>
       <c r="E4" s="88"/>
@@ -79893,7 +80004,7 @@
         <v>76</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>3860</v>
+        <v>3859</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>77</v>
@@ -79910,19 +80021,19 @@
         <v>70000</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>3869</v>
+        <v>3868</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="17" t="s">
+        <v>3869</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>3870</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="G7" s="16" t="s">
         <v>3871</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>3872</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="23.25">
@@ -79945,7 +80056,7 @@
         <v>3827</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="23.25">
@@ -79968,7 +80079,7 @@
         <v>284</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="23.25">
@@ -79998,7 +80109,7 @@
       <c r="A14" s="6"/>
       <c r="B14" s="8"/>
       <c r="C14" s="86" t="s">
-        <v>3896</v>
+        <v>3895</v>
       </c>
       <c r="D14" s="87"/>
       <c r="E14" s="88"/>
@@ -80032,195 +80143,128 @@
       <c r="A16" s="55">
         <v>1</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="16"/>
+      <c r="B16" s="35">
+        <v>47000</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>649</v>
+      </c>
       <c r="D16" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="16"/>
+        <v>16</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>3900</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="23.25">
       <c r="A17" s="55">
         <v>2</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="16"/>
+      <c r="B17" s="35">
+        <v>46000</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>170</v>
+      </c>
       <c r="D17" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="16"/>
+        <v>16</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>3901</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="23.25">
       <c r="A18" s="55">
         <v>3</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="16"/>
+      <c r="B18" s="35">
+        <v>62000</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>1763</v>
+      </c>
       <c r="D18" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="16"/>
+        <v>16</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>1764</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>3902</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="23.25">
       <c r="A19" s="55">
         <v>4</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="35">
+        <v>47000</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>2676</v>
+      </c>
       <c r="D19" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="16"/>
+        <v>16</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>2677</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>3903</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="23.25">
       <c r="A20" s="55">
         <v>5</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="16"/>
+      <c r="B20" s="35">
+        <v>50000</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>3896</v>
+      </c>
       <c r="D20" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="16"/>
+      <c r="E20" s="17" t="s">
+        <v>3897</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>3898</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="23.25">
-      <c r="A21" s="55">
-        <v>6</v>
-      </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="41" t="s">
-        <v>27</v>
-      </c>
+      <c r="A21" s="55"/>
+      <c r="B21" s="53">
+        <f>SUM(B16:B20)</f>
+        <v>252000</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="70"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="1:7" ht="23.25">
-      <c r="A22" s="55">
-        <v>7</v>
-      </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="16"/>
-    </row>
-    <row r="23" spans="1:7" ht="23.25">
-      <c r="A23" s="55">
-        <v>8</v>
-      </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="16"/>
-    </row>
-    <row r="24" spans="1:7" ht="23.25">
-      <c r="A24" s="55">
-        <v>9</v>
-      </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="16"/>
-    </row>
-    <row r="25" spans="1:7" ht="23.25">
-      <c r="A25" s="55">
-        <v>10</v>
-      </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="16"/>
-    </row>
-    <row r="26" spans="1:7" ht="23.25">
-      <c r="A26" s="55">
-        <v>11</v>
-      </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="16"/>
-    </row>
-    <row r="27" spans="1:7" ht="23.25">
-      <c r="A27" s="55">
-        <v>12</v>
-      </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="16"/>
-    </row>
-    <row r="28" spans="1:7" ht="23.25">
-      <c r="A28" s="55">
-        <v>13</v>
-      </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="16"/>
-    </row>
-    <row r="29" spans="1:7" ht="23.25">
-      <c r="A29" s="55">
-        <v>14</v>
-      </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="16"/>
-    </row>
-    <row r="30" spans="1:7" ht="23.25">
-      <c r="A30" s="55"/>
-      <c r="B30" s="53">
-        <f>SUM(B16:B29)</f>
-        <v>0</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -80230,67 +80274,58 @@
     <mergeCell ref="C4:E4"/>
   </mergeCells>
   <conditionalFormatting sqref="G4 H1:H1048576 G1:G2 G6:G14 G16:G1048576">
-    <cfRule type="duplicateValues" dxfId="20" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G9">
-    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G9">
-    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G9">
-    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 A4:A10 G6:G10">
-    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 G6:G10">
-    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24:G29">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23:G29">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18:G29">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19:G29">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22:G29">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20:G29">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21:G29">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19:G30">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17:G29">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:G29">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20:G30">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14 A14:A30 G16:G30">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14 G16:G30">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
+    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:G20">
+    <cfRule type="duplicateValues" dxfId="12" priority="109"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19:G20">
+    <cfRule type="duplicateValues" dxfId="11" priority="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="duplicateValues" dxfId="10" priority="111"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19:G21">
+    <cfRule type="duplicateValues" dxfId="9" priority="112"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:G20">
+    <cfRule type="duplicateValues" dxfId="8" priority="114"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:G20">
+    <cfRule type="duplicateValues" dxfId="7" priority="115"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:G21">
+    <cfRule type="duplicateValues" dxfId="6" priority="116"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14 A14:A21 G16:G21">
+    <cfRule type="duplicateValues" dxfId="5" priority="118"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14 G16:G21">
+    <cfRule type="duplicateValues" dxfId="4" priority="123"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.15748031496062992" right="0.11811023622047245" top="0.70866141732283472" bottom="0.31496062992125984" header="0.23622047244094491" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
